--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="54375" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
+    <workbookView xWindow="57495" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="2066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="2161">
   <si>
     <t>Ore</t>
   </si>
@@ -6239,6 +6239,291 @@
   </si>
   <si>
     <t>Internal Object</t>
+  </si>
+  <si>
+    <t>11u</t>
+  </si>
+  <si>
+    <t>11t</t>
+  </si>
+  <si>
+    <t>11s</t>
+  </si>
+  <si>
+    <t>11r</t>
+  </si>
+  <si>
+    <t>11y</t>
+  </si>
+  <si>
+    <t>11x</t>
+  </si>
+  <si>
+    <t>11w</t>
+  </si>
+  <si>
+    <t>11v</t>
+  </si>
+  <si>
+    <t>11C</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>11z</t>
+  </si>
+  <si>
+    <t>11G</t>
+  </si>
+  <si>
+    <t>11F</t>
+  </si>
+  <si>
+    <t>11E</t>
+  </si>
+  <si>
+    <t>11D</t>
+  </si>
+  <si>
+    <t>11W</t>
+  </si>
+  <si>
+    <t>11V</t>
+  </si>
+  <si>
+    <t>11U</t>
+  </si>
+  <si>
+    <t>11T</t>
+  </si>
+  <si>
+    <t>11S</t>
+  </si>
+  <si>
+    <t>11R</t>
+  </si>
+  <si>
+    <t>11Q</t>
+  </si>
+  <si>
+    <t>11P</t>
+  </si>
+  <si>
+    <t>11O</t>
+  </si>
+  <si>
+    <t>11N</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>11L</t>
+  </si>
+  <si>
+    <t>11K</t>
+  </si>
+  <si>
+    <t>11J</t>
+  </si>
+  <si>
+    <t>11I</t>
+  </si>
+  <si>
+    <t>11H</t>
+  </si>
+  <si>
+    <t>12c</t>
+  </si>
+  <si>
+    <t>12b</t>
+  </si>
+  <si>
+    <t>12a</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>11Z</t>
+  </si>
+  <si>
+    <t>11Y</t>
+  </si>
+  <si>
+    <t>11X</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>12r</t>
+  </si>
+  <si>
+    <t>12q</t>
+  </si>
+  <si>
+    <t>12p</t>
+  </si>
+  <si>
+    <t>12o</t>
+  </si>
+  <si>
+    <t>12n</t>
+  </si>
+  <si>
+    <t>12m</t>
+  </si>
+  <si>
+    <t>12l</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>12j</t>
+  </si>
+  <si>
+    <t>12i</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>12g</t>
+  </si>
+  <si>
+    <t>12f</t>
+  </si>
+  <si>
+    <t>12e</t>
+  </si>
+  <si>
+    <t>12d</t>
+  </si>
+  <si>
+    <t>12I</t>
+  </si>
+  <si>
+    <t>12H</t>
+  </si>
+  <si>
+    <t>12G</t>
+  </si>
+  <si>
+    <t>12F</t>
+  </si>
+  <si>
+    <t>12E</t>
+  </si>
+  <si>
+    <t>12D</t>
+  </si>
+  <si>
+    <t>12C</t>
+  </si>
+  <si>
+    <t>12B</t>
+  </si>
+  <si>
+    <t>12A</t>
+  </si>
+  <si>
+    <t>12z</t>
+  </si>
+  <si>
+    <t>12y</t>
+  </si>
+  <si>
+    <t>12x</t>
+  </si>
+  <si>
+    <t>12w</t>
+  </si>
+  <si>
+    <t>12v</t>
+  </si>
+  <si>
+    <t>12u</t>
+  </si>
+  <si>
+    <t>12t</t>
+  </si>
+  <si>
+    <t>12J</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>Lead-Acid Battery (1-Cell)</t>
+  </si>
+  <si>
+    <t>Lead-Acid Battery (9-Cell)</t>
+  </si>
+  <si>
+    <t>Lithium Ion Battery (1-Cell)</t>
+  </si>
+  <si>
+    <t>Lithium Ion Battery (9-Cell)</t>
+  </si>
+  <si>
+    <t>Nickel Metal Hydride Battery (1-Cell)</t>
+  </si>
+  <si>
+    <t>12S</t>
+  </si>
+  <si>
+    <t>12R</t>
+  </si>
+  <si>
+    <t>12Q</t>
+  </si>
+  <si>
+    <t>12P</t>
+  </si>
+  <si>
+    <t>12O</t>
+  </si>
+  <si>
+    <t>12N</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Nickel Metal Hydride Battery (9-Cell)</t>
   </si>
 </sst>
 </file>
@@ -11751,6 +12036,97 @@
             <v>Liquid</v>
           </cell>
         </row>
+        <row r="342">
+          <cell r="B342" t="str">
+            <v>Lactide</v>
+          </cell>
+          <cell r="D342" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="B343" t="str">
+            <v>Cyclodextrin</v>
+          </cell>
+          <cell r="D343" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="B344" t="str">
+            <v>Alpha-cyclodextrin</v>
+          </cell>
+          <cell r="D344" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="B345" t="str">
+            <v>Beta-cyclodextrin</v>
+          </cell>
+          <cell r="D345" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="B346" t="str">
+            <v>Gamma-cyclodextrin</v>
+          </cell>
+          <cell r="D346" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="B347" t="str">
+            <v>MOF-5</v>
+          </cell>
+          <cell r="D347" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="B348" t="str">
+            <v>CD-MOF</v>
+          </cell>
+          <cell r="D348" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="B349" t="str">
+            <v>Bucky Balls (C60)</v>
+          </cell>
+          <cell r="D349" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="B350" t="str">
+            <v>Zinc Nitrate</v>
+          </cell>
+          <cell r="D350" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="B351" t="str">
+            <v>Lead Oxide</v>
+          </cell>
+          <cell r="D351" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="B352" t="str">
+            <v>Lithium Hexafluorophosphate</v>
+          </cell>
+          <cell r="C352" t="str">
+            <v>LiPF6</v>
+          </cell>
+          <cell r="D352" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -12052,14 +12428,14 @@
   <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="27"/>
     <col min="2" max="2" width="8.85546875" style="26"/>
-    <col min="3" max="3" width="33.42578125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" style="26" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="26" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="26"/>
     <col min="6" max="6" width="17.42578125" style="26" customWidth="1"/>
@@ -12998,35 +13374,142 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="29"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="27"/>
+      <c r="A36" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D36" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E36" s="26">
+        <v>8</v>
+      </c>
       <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="H36" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D37" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E37" s="26">
+        <v>8</v>
+      </c>
       <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+      <c r="H37" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="29"/>
-      <c r="C38" s="28"/>
+      <c r="A38" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D38" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E38" s="26">
+        <v>8</v>
+      </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
+      <c r="H38" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D39" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E39" s="26">
+        <v>8</v>
+      </c>
       <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
+      <c r="H39" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D40" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E40" s="26">
+        <v>8</v>
+      </c>
       <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
+      <c r="H40" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D41" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E41" s="26">
+        <v>8</v>
+      </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
+      <c r="H41" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G42" s="28"/>
@@ -13149,7 +13632,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13290,7 +13773,7 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13975,10 +14458,10 @@
         <v>5</v>
       </c>
       <c r="J12" s="8">
+        <v>2</v>
+      </c>
+      <c r="K12" s="8">
         <v>5</v>
-      </c>
-      <c r="K12" s="8">
-        <v>7</v>
       </c>
       <c r="L12" s="8">
         <v>10</v>
@@ -14194,7 +14677,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M16" s="8">
         <v>60</v>
@@ -16344,10 +16827,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16550,7 +17033,7 @@
         <v>74</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C30" si="1">E10&amp;" "&amp;$C$1</f>
+        <f t="shared" ref="C10:C32" si="1">E10&amp;" "&amp;$C$1</f>
         <v>Antimony Trioxide Catalyst</v>
       </c>
       <c r="D10" t="str">
@@ -16944,6 +17427,69 @@
       <c r="E30" t="str">
         <f>[1]Compounds!$B$337</f>
         <v>Chromia Alumina</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>Tin Catalyst</v>
+      </c>
+      <c r="D31" t="str">
+        <f>[1]Elements!$B$1</f>
+        <v>Element</v>
+      </c>
+      <c r="E31" t="str">
+        <f>[1]Elements!$B$51</f>
+        <v>Tin</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C32" t="str">
+        <f>E32&amp;" "&amp;$C$1</f>
+        <v>Zinc Nitrate Catalyst</v>
+      </c>
+      <c r="D32" t="str">
+        <f>[1]Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="E32" t="str">
+        <f>[1]Compounds!$B$350</f>
+        <v>Zinc Nitrate</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C33" t="str">
+        <f>E33&amp;" "&amp;$C$1</f>
+        <v>Lead Oxide Catalyst</v>
+      </c>
+      <c r="D33" t="str">
+        <f>[1]Compounds!$B$1</f>
+        <v>Compound</v>
+      </c>
+      <c r="E33" t="str">
+        <f>[1]Compounds!$B$351</f>
+        <v>Lead Oxide</v>
       </c>
     </row>
   </sheetData>
@@ -24363,10 +24909,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O334"/>
+  <dimension ref="A1:O353"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43156,7 +43702,10 @@
       </c>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A333" s="4"/>
+      <c r="A333" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
       <c r="B333" s="13" t="s">
         <v>607</v>
       </c>
@@ -43171,47 +43720,758 @@
       </c>
       <c r="F333" s="16" t="str">
         <f t="shared" si="24"/>
-        <v>Bag (0)</v>
+        <v>Vial (Lactide)</v>
       </c>
       <c r="G333" s="16" t="str">
         <f t="shared" si="25"/>
-        <v>Sack (0)</v>
+        <v>Beaker (Lactide)</v>
       </c>
       <c r="H333" s="16" t="str">
         <f t="shared" si="26"/>
-        <v>Powder Keg (0)</v>
+        <v>Drum (Lactide)</v>
       </c>
       <c r="I333" s="16" t="str">
         <f t="shared" si="27"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J333" s="16">
+        <v>Chemical Vat (Lactide)</v>
+      </c>
+      <c r="J333" s="16" t="str">
         <f>[1]Compounds!$B342</f>
-        <v>0</v>
-      </c>
-      <c r="K333">
+        <v>Lactide</v>
+      </c>
+      <c r="K333" t="str">
         <f>[1]Compounds!$D342</f>
-        <v>0</v>
+        <v>Liquid</v>
       </c>
       <c r="L333" s="4" t="str">
         <f>IF(K333=[1]Enums!$A$18, [1]Enums!$A$23, IF(K333=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
-        <v>Bag</v>
+        <v>Vial</v>
       </c>
       <c r="M333" s="4" t="str">
         <f>IF(K333=[1]Enums!$A$18, [1]Enums!$A$26, IF(K333=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
-        <v>Sack</v>
+        <v>Beaker</v>
       </c>
       <c r="N333" s="4" t="str">
         <f>IF(K333=[1]Enums!$A$18, [1]Enums!$A$29, IF(K333=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
-        <v>Powder Keg</v>
+        <v>Drum</v>
       </c>
       <c r="O333" s="4" t="str">
         <f>IF(K333=[1]Enums!$A$18, [1]Enums!$A$32, IF(K333=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Vat</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A334" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B334" s="13" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C334" s="13" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D334" s="13" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E334" s="13" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F334" s="16" t="str">
+        <f t="shared" ref="F334" si="28">L334&amp;" ("&amp;$J334&amp;")"</f>
+        <v>Bag (Cyclodextrin)</v>
+      </c>
+      <c r="G334" s="16" t="str">
+        <f t="shared" ref="G334" si="29">M334&amp;" ("&amp;$J334&amp;")"</f>
+        <v>Sack (Cyclodextrin)</v>
+      </c>
+      <c r="H334" s="16" t="str">
+        <f t="shared" ref="H334" si="30">N334&amp;" ("&amp;$J334&amp;")"</f>
+        <v>Powder Keg (Cyclodextrin)</v>
+      </c>
+      <c r="I334" s="16" t="str">
+        <f t="shared" ref="I334" si="31">O334&amp;" ("&amp;$J334&amp;")"</f>
+        <v>Chemical Silo (Cyclodextrin)</v>
+      </c>
+      <c r="J334" s="16" t="str">
+        <f>[1]Compounds!$B343</f>
+        <v>Cyclodextrin</v>
+      </c>
+      <c r="K334" t="str">
+        <f>[1]Compounds!$D343</f>
+        <v>Solid</v>
+      </c>
+      <c r="L334" s="4" t="str">
+        <f>IF(K334=[1]Enums!$A$18, [1]Enums!$A$23, IF(K334=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M334" s="4" t="str">
+        <f>IF(K334=[1]Enums!$A$18, [1]Enums!$A$26, IF(K334=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N334" s="4" t="str">
+        <f>IF(K334=[1]Enums!$A$18, [1]Enums!$A$29, IF(K334=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O334" s="4" t="str">
+        <f>IF(K334=[1]Enums!$A$18, [1]Enums!$A$32, IF(K334=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
         <v>Chemical Silo</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B334" s="13"/>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A335" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B335" s="13" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C335" s="13" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D335" s="13" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E335" s="13" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F335" s="16" t="str">
+        <f t="shared" ref="F335:F337" si="32">L335&amp;" ("&amp;$J335&amp;")"</f>
+        <v>Bag (Alpha-cyclodextrin)</v>
+      </c>
+      <c r="G335" s="16" t="str">
+        <f t="shared" ref="G335:G337" si="33">M335&amp;" ("&amp;$J335&amp;")"</f>
+        <v>Sack (Alpha-cyclodextrin)</v>
+      </c>
+      <c r="H335" s="16" t="str">
+        <f t="shared" ref="H335:H337" si="34">N335&amp;" ("&amp;$J335&amp;")"</f>
+        <v>Powder Keg (Alpha-cyclodextrin)</v>
+      </c>
+      <c r="I335" s="16" t="str">
+        <f t="shared" ref="I335:I337" si="35">O335&amp;" ("&amp;$J335&amp;")"</f>
+        <v>Chemical Silo (Alpha-cyclodextrin)</v>
+      </c>
+      <c r="J335" s="16" t="str">
+        <f>[1]Compounds!$B344</f>
+        <v>Alpha-cyclodextrin</v>
+      </c>
+      <c r="K335" t="str">
+        <f>[1]Compounds!$D344</f>
+        <v>Solid</v>
+      </c>
+      <c r="L335" s="4" t="str">
+        <f>IF(K335=[1]Enums!$A$18, [1]Enums!$A$23, IF(K335=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M335" s="4" t="str">
+        <f>IF(K335=[1]Enums!$A$18, [1]Enums!$A$26, IF(K335=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N335" s="4" t="str">
+        <f>IF(K335=[1]Enums!$A$18, [1]Enums!$A$29, IF(K335=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O335" s="4" t="str">
+        <f>IF(K335=[1]Enums!$A$18, [1]Enums!$A$32, IF(K335=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A336" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B336" s="13" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C336" s="13" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D336" s="13" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E336" s="13" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F336" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>Bag (Beta-cyclodextrin)</v>
+      </c>
+      <c r="G336" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>Sack (Beta-cyclodextrin)</v>
+      </c>
+      <c r="H336" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>Powder Keg (Beta-cyclodextrin)</v>
+      </c>
+      <c r="I336" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>Chemical Silo (Beta-cyclodextrin)</v>
+      </c>
+      <c r="J336" s="16" t="str">
+        <f>[1]Compounds!$B345</f>
+        <v>Beta-cyclodextrin</v>
+      </c>
+      <c r="K336" t="str">
+        <f>[1]Compounds!$D345</f>
+        <v>Solid</v>
+      </c>
+      <c r="L336" s="4" t="str">
+        <f>IF(K336=[1]Enums!$A$18, [1]Enums!$A$23, IF(K336=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M336" s="4" t="str">
+        <f>IF(K336=[1]Enums!$A$18, [1]Enums!$A$26, IF(K336=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N336" s="4" t="str">
+        <f>IF(K336=[1]Enums!$A$18, [1]Enums!$A$29, IF(K336=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O336" s="4" t="str">
+        <f>IF(K336=[1]Enums!$A$18, [1]Enums!$A$32, IF(K336=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A337" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B337" s="13" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C337" s="13" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D337" s="13" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E337" s="13" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F337" s="16" t="str">
+        <f t="shared" si="32"/>
+        <v>Bag (Gamma-cyclodextrin)</v>
+      </c>
+      <c r="G337" s="16" t="str">
+        <f t="shared" si="33"/>
+        <v>Sack (Gamma-cyclodextrin)</v>
+      </c>
+      <c r="H337" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>Powder Keg (Gamma-cyclodextrin)</v>
+      </c>
+      <c r="I337" s="16" t="str">
+        <f t="shared" si="35"/>
+        <v>Chemical Silo (Gamma-cyclodextrin)</v>
+      </c>
+      <c r="J337" s="16" t="str">
+        <f>[1]Compounds!$B346</f>
+        <v>Gamma-cyclodextrin</v>
+      </c>
+      <c r="K337" t="str">
+        <f>[1]Compounds!$D346</f>
+        <v>Solid</v>
+      </c>
+      <c r="L337" s="4" t="str">
+        <f>IF(K337=[1]Enums!$A$18, [1]Enums!$A$23, IF(K337=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M337" s="4" t="str">
+        <f>IF(K337=[1]Enums!$A$18, [1]Enums!$A$26, IF(K337=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N337" s="4" t="str">
+        <f>IF(K337=[1]Enums!$A$18, [1]Enums!$A$29, IF(K337=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O337" s="4" t="str">
+        <f>IF(K337=[1]Enums!$A$18, [1]Enums!$A$32, IF(K337=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A338" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B338" s="13" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C338" s="13" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D338" s="13" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E338" s="13" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F338" s="16" t="str">
+        <f t="shared" ref="F338:F340" si="36">L338&amp;" ("&amp;$J338&amp;")"</f>
+        <v>Bag (MOF-5)</v>
+      </c>
+      <c r="G338" s="16" t="str">
+        <f t="shared" ref="G338:G340" si="37">M338&amp;" ("&amp;$J338&amp;")"</f>
+        <v>Sack (MOF-5)</v>
+      </c>
+      <c r="H338" s="16" t="str">
+        <f t="shared" ref="H338:H340" si="38">N338&amp;" ("&amp;$J338&amp;")"</f>
+        <v>Powder Keg (MOF-5)</v>
+      </c>
+      <c r="I338" s="16" t="str">
+        <f t="shared" ref="I338:I340" si="39">O338&amp;" ("&amp;$J338&amp;")"</f>
+        <v>Chemical Silo (MOF-5)</v>
+      </c>
+      <c r="J338" s="16" t="str">
+        <f>[1]Compounds!$B347</f>
+        <v>MOF-5</v>
+      </c>
+      <c r="K338" t="str">
+        <f>[1]Compounds!$D347</f>
+        <v>Solid</v>
+      </c>
+      <c r="L338" s="4" t="str">
+        <f>IF(K338=[1]Enums!$A$18, [1]Enums!$A$23, IF(K338=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M338" s="4" t="str">
+        <f>IF(K338=[1]Enums!$A$18, [1]Enums!$A$26, IF(K338=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N338" s="4" t="str">
+        <f>IF(K338=[1]Enums!$A$18, [1]Enums!$A$29, IF(K338=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O338" s="4" t="str">
+        <f>IF(K338=[1]Enums!$A$18, [1]Enums!$A$32, IF(K338=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A339" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B339" s="13" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C339" s="13" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D339" s="13" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E339" s="13" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F339" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>Bag (CD-MOF)</v>
+      </c>
+      <c r="G339" s="16" t="str">
+        <f t="shared" si="37"/>
+        <v>Sack (CD-MOF)</v>
+      </c>
+      <c r="H339" s="16" t="str">
+        <f t="shared" si="38"/>
+        <v>Powder Keg (CD-MOF)</v>
+      </c>
+      <c r="I339" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>Chemical Silo (CD-MOF)</v>
+      </c>
+      <c r="J339" s="16" t="str">
+        <f>[1]Compounds!$B348</f>
+        <v>CD-MOF</v>
+      </c>
+      <c r="K339" t="str">
+        <f>[1]Compounds!$D348</f>
+        <v>Solid</v>
+      </c>
+      <c r="L339" s="4" t="str">
+        <f>IF(K339=[1]Enums!$A$18, [1]Enums!$A$23, IF(K339=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M339" s="4" t="str">
+        <f>IF(K339=[1]Enums!$A$18, [1]Enums!$A$26, IF(K339=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N339" s="4" t="str">
+        <f>IF(K339=[1]Enums!$A$18, [1]Enums!$A$29, IF(K339=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O339" s="4" t="str">
+        <f>IF(K339=[1]Enums!$A$18, [1]Enums!$A$32, IF(K339=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A340" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B340" s="13" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C340" s="13" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D340" s="13" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E340" s="13" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F340" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>Bag (Bucky Balls (C60))</v>
+      </c>
+      <c r="G340" s="16" t="str">
+        <f t="shared" si="37"/>
+        <v>Sack (Bucky Balls (C60))</v>
+      </c>
+      <c r="H340" s="16" t="str">
+        <f t="shared" si="38"/>
+        <v>Powder Keg (Bucky Balls (C60))</v>
+      </c>
+      <c r="I340" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v>Chemical Silo (Bucky Balls (C60))</v>
+      </c>
+      <c r="J340" s="16" t="str">
+        <f>[1]Compounds!$B349</f>
+        <v>Bucky Balls (C60)</v>
+      </c>
+      <c r="K340" t="str">
+        <f>[1]Compounds!$D349</f>
+        <v>Solid</v>
+      </c>
+      <c r="L340" s="4" t="str">
+        <f>IF(K340=[1]Enums!$A$18, [1]Enums!$A$23, IF(K340=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M340" s="4" t="str">
+        <f>IF(K340=[1]Enums!$A$18, [1]Enums!$A$26, IF(K340=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N340" s="4" t="str">
+        <f>IF(K340=[1]Enums!$A$18, [1]Enums!$A$29, IF(K340=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O340" s="4" t="str">
+        <f>IF(K340=[1]Enums!$A$18, [1]Enums!$A$32, IF(K340=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A341" s="4"/>
+      <c r="B341" s="13" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C341" s="13" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D341" s="13" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E341" s="13" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F341" s="16" t="str">
+        <f t="shared" ref="F341" si="40">L341&amp;" ("&amp;$J341&amp;")"</f>
+        <v>Bag (Zinc Nitrate)</v>
+      </c>
+      <c r="G341" s="16" t="str">
+        <f t="shared" ref="G341" si="41">M341&amp;" ("&amp;$J341&amp;")"</f>
+        <v>Sack (Zinc Nitrate)</v>
+      </c>
+      <c r="H341" s="16" t="str">
+        <f t="shared" ref="H341" si="42">N341&amp;" ("&amp;$J341&amp;")"</f>
+        <v>Powder Keg (Zinc Nitrate)</v>
+      </c>
+      <c r="I341" s="16" t="str">
+        <f t="shared" ref="I341" si="43">O341&amp;" ("&amp;$J341&amp;")"</f>
+        <v>Chemical Silo (Zinc Nitrate)</v>
+      </c>
+      <c r="J341" s="16" t="str">
+        <f>[1]Compounds!$B350</f>
+        <v>Zinc Nitrate</v>
+      </c>
+      <c r="K341" t="str">
+        <f>[1]Compounds!$D350</f>
+        <v>Solid</v>
+      </c>
+      <c r="L341" s="4" t="str">
+        <f>IF(K341=[1]Enums!$A$18, [1]Enums!$A$23, IF(K341=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M341" s="4" t="str">
+        <f>IF(K341=[1]Enums!$A$18, [1]Enums!$A$26, IF(K341=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N341" s="4" t="str">
+        <f>IF(K341=[1]Enums!$A$18, [1]Enums!$A$29, IF(K341=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O341" s="4" t="str">
+        <f>IF(K341=[1]Enums!$A$18, [1]Enums!$A$32, IF(K341=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A342" s="4"/>
+      <c r="B342" s="13" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C342" s="13" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D342" s="13" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E342" s="13" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F342" s="16" t="str">
+        <f t="shared" ref="F342:F343" si="44">L342&amp;" ("&amp;$J342&amp;")"</f>
+        <v>Bag (Lead Oxide)</v>
+      </c>
+      <c r="G342" s="16" t="str">
+        <f t="shared" ref="G342:G343" si="45">M342&amp;" ("&amp;$J342&amp;")"</f>
+        <v>Sack (Lead Oxide)</v>
+      </c>
+      <c r="H342" s="16" t="str">
+        <f t="shared" ref="H342:H343" si="46">N342&amp;" ("&amp;$J342&amp;")"</f>
+        <v>Powder Keg (Lead Oxide)</v>
+      </c>
+      <c r="I342" s="16" t="str">
+        <f t="shared" ref="I342:I343" si="47">O342&amp;" ("&amp;$J342&amp;")"</f>
+        <v>Chemical Silo (Lead Oxide)</v>
+      </c>
+      <c r="J342" s="16" t="str">
+        <f>[1]Compounds!$B351</f>
+        <v>Lead Oxide</v>
+      </c>
+      <c r="K342" t="str">
+        <f>[1]Compounds!$D351</f>
+        <v>Solid</v>
+      </c>
+      <c r="L342" s="4" t="str">
+        <f>IF(K342=[1]Enums!$A$18, [1]Enums!$A$23, IF(K342=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M342" s="4" t="str">
+        <f>IF(K342=[1]Enums!$A$18, [1]Enums!$A$26, IF(K342=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N342" s="4" t="str">
+        <f>IF(K342=[1]Enums!$A$18, [1]Enums!$A$29, IF(K342=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O342" s="4" t="str">
+        <f>IF(K342=[1]Enums!$A$18, [1]Enums!$A$32, IF(K342=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A343" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B343" s="13" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C343" s="13" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D343" s="13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E343" s="13" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F343" s="16" t="str">
+        <f t="shared" si="44"/>
+        <v>Bag (Lithium Hexafluorophosphate)</v>
+      </c>
+      <c r="G343" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>Sack (Lithium Hexafluorophosphate)</v>
+      </c>
+      <c r="H343" s="16" t="str">
+        <f t="shared" si="46"/>
+        <v>Powder Keg (Lithium Hexafluorophosphate)</v>
+      </c>
+      <c r="I343" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>Chemical Silo (Lithium Hexafluorophosphate)</v>
+      </c>
+      <c r="J343" s="16" t="str">
+        <f>[1]Compounds!$B352</f>
+        <v>Lithium Hexafluorophosphate</v>
+      </c>
+      <c r="K343" t="str">
+        <f>[1]Compounds!$D352</f>
+        <v>Solid</v>
+      </c>
+      <c r="L343" s="4" t="str">
+        <f>IF(K343=[1]Enums!$A$18, [1]Enums!$A$23, IF(K343=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M343" s="4" t="str">
+        <f>IF(K343=[1]Enums!$A$18, [1]Enums!$A$26, IF(K343=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N343" s="4" t="str">
+        <f>IF(K343=[1]Enums!$A$18, [1]Enums!$A$29, IF(K343=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O343" s="4" t="str">
+        <f>IF(K343=[1]Enums!$A$18, [1]Enums!$A$32, IF(K343=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B344" s="13" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C344" s="13" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D344" s="13" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E344" s="13" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B345" s="13" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C345" s="13" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D345" s="13" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E345" s="13" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B346" s="13" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C346" s="13" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D346" s="13" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E346" s="13" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B347" s="13" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C347" s="13" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D347" s="13" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E347" s="13" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B348" s="13" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C348" s="13" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D348" s="13" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E348" s="13" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B349" s="13" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C349" s="13" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D349" s="13" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E349" s="13" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B350" s="13" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C350" s="13" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D350" s="13" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E350" s="13" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B351" s="13" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C351" s="13" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D351" s="13" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E351" s="13" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B352" s="13" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C352" s="13" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D352" s="13" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E352" s="13" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="353" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B353" s="13" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C353" s="13" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D353" s="13" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E353" s="13" t="s">
+        <v>2130</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="F2:P336">

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
+    <workbookView xWindow="57495" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -6181,9 +6181,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Custom Item</t>
-  </si>
-  <si>
     <t>11g</t>
   </si>
   <si>
@@ -6524,6 +6521,9 @@
   </si>
   <si>
     <t>Nickel Metal Hydride Battery (9-Cell)</t>
+  </si>
+  <si>
+    <t>Custom Object</t>
   </si>
 </sst>
 </file>
@@ -12427,8 +12427,8 @@
   </sheetPr>
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12457,7 +12457,7 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>2046</v>
+        <v>2160</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>2045</v>
@@ -13379,10 +13379,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D36" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13402,10 +13402,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D37" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13425,10 +13425,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D38" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13448,10 +13448,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D39" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13471,10 +13471,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D40" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13494,10 +13494,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D41" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13656,10 +13656,10 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E1" s="39" t="str">
         <f>"Tile Entity "&amp;'[1]Game IDs'!$A$1</f>
@@ -13669,7 +13669,7 @@
         <v>1960</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -13678,10 +13678,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="D2" s="27" t="str">
         <f xml:space="preserve"> C2</f>
@@ -13691,7 +13691,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -13700,10 +13700,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D3" s="27" t="str">
         <f xml:space="preserve"> C3</f>
@@ -13713,27 +13713,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -13741,22 +13741,22 @@
         <v>1949</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F5" s="27">
         <v>3000</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
   </sheetData>
@@ -17435,7 +17435,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
@@ -17456,7 +17456,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C32" t="str">
         <f>E32&amp;" "&amp;$C$1</f>
@@ -17477,7 +17477,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C33" t="str">
         <f>E33&amp;" "&amp;$C$1</f>
@@ -17509,8 +17509,8 @@
   </sheetPr>
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24911,8 +24911,8 @@
   </sheetPr>
   <dimension ref="A1:O353"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="B341" sqref="B341"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="R121" sqref="R121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -43765,16 +43765,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E334" s="13" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F334" s="16" t="str">
         <f t="shared" ref="F334" si="28">L334&amp;" ("&amp;$J334&amp;")"</f>
@@ -43823,16 +43823,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E335" s="13" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="F335" s="16" t="str">
         <f t="shared" ref="F335:F337" si="32">L335&amp;" ("&amp;$J335&amp;")"</f>
@@ -43881,16 +43881,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E336" s="13" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="F336" s="16" t="str">
         <f t="shared" si="32"/>
@@ -43939,16 +43939,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="F337" s="16" t="str">
         <f t="shared" si="32"/>
@@ -43997,16 +43997,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="F338" s="16" t="str">
         <f t="shared" ref="F338:F340" si="36">L338&amp;" ("&amp;$J338&amp;")"</f>
@@ -44055,16 +44055,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="F339" s="16" t="str">
         <f t="shared" si="36"/>
@@ -44113,16 +44113,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="F340" s="16" t="str">
         <f t="shared" si="36"/>
@@ -44168,16 +44168,16 @@
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="13" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E341" s="13" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="F341" s="16" t="str">
         <f t="shared" ref="F341" si="40">L341&amp;" ("&amp;$J341&amp;")"</f>
@@ -44223,16 +44223,16 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="13" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="F342" s="16" t="str">
         <f t="shared" ref="F342:F343" si="44">L342&amp;" ("&amp;$J342&amp;")"</f>
@@ -44281,16 +44281,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E343" s="13" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F343" s="16" t="str">
         <f t="shared" si="44"/>
@@ -44335,142 +44335,142 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B344" s="13" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E344" s="13" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B345" s="13" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E345" s="13" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B346" s="13" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B347" s="13" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B348" s="13" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B349" s="13" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E349" s="13" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B350" s="13" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D350" s="13" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B351" s="13" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B352" s="13" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B353" s="13" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E353" s="13" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="6"/>
+    <workbookView xWindow="57495" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -13773,7 +13773,7 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16829,8 +16829,8 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17509,7 +17509,7 @@
   </sheetPr>
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\GitHub\polycraft-1.7.10\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Walter\Documents\GitHub\polycraftworld\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="5"/>
+    <workbookView xWindow="59355" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="2161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="2179">
   <si>
     <t>Ore</t>
   </si>
@@ -6058,9 +6058,6 @@
     <t>3P</t>
   </si>
   <si>
-    <t>Regulator</t>
-  </si>
-  <si>
     <t>3M</t>
   </si>
   <si>
@@ -6097,9 +6094,6 @@
     <t>AirUnitsFull, AirUnitsConsumePerTick</t>
   </si>
   <si>
-    <t>Scuba Tank</t>
-  </si>
-  <si>
     <t>3x</t>
   </si>
   <si>
@@ -6524,6 +6518,66 @@
   </si>
   <si>
     <t>Custom Object</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>Flame Tosser</t>
+  </si>
+  <si>
+    <t>Flame Chucker</t>
+  </si>
+  <si>
+    <t>Flame Hurler</t>
+  </si>
+  <si>
+    <t>Regulator (Low Pressure)</t>
+  </si>
+  <si>
+    <t>Regulator (Medium Pressure)</t>
+  </si>
+  <si>
+    <t>Regulator (High Pressure)</t>
+  </si>
+  <si>
+    <t>Regulator (Extreme Pressure)</t>
+  </si>
+  <si>
+    <t>13a</t>
+  </si>
+  <si>
+    <t>13b</t>
+  </si>
+  <si>
+    <t>13c</t>
+  </si>
+  <si>
+    <t>Scuba Tank (Beginner)</t>
+  </si>
+  <si>
+    <t>Scuba Tank (Intermediate)</t>
+  </si>
+  <si>
+    <t>Scuba Tank (Advanced)</t>
+  </si>
+  <si>
+    <t>Scuba Tank (Pro)</t>
   </si>
 </sst>
 </file>
@@ -12425,10 +12479,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12457,22 +12511,22 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>1959</v>
@@ -12511,10 +12565,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D2" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -12533,10 +12587,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D3" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -12555,10 +12609,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>2035</v>
+        <v>2165</v>
       </c>
       <c r="D4" s="32" t="str">
         <f>[1]Enums!$A$36</f>
@@ -12574,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="J4" s="26">
         <v>1000</v>
@@ -12583,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M4" s="26">
         <v>2</v>
@@ -12592,122 +12646,161 @@
         <v>5</v>
       </c>
       <c r="O4" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B5" s="33" t="s">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D5" s="32" t="str">
+        <f>[1]Enums!$A$36</f>
+        <v>Weapon</v>
+      </c>
+      <c r="E5" s="32">
+        <v>7</v>
+      </c>
+      <c r="F5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>1</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>2032</v>
+      </c>
+      <c r="J5" s="26">
+        <v>1500</v>
+      </c>
+      <c r="K5" s="26">
+        <v>1</v>
+      </c>
+      <c r="L5" s="26">
+        <v>8</v>
+      </c>
+      <c r="M5" s="26">
+        <v>2</v>
+      </c>
+      <c r="N5" s="26">
+        <v>5</v>
+      </c>
+      <c r="O5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D6" s="32" t="str">
+        <f>[1]Enums!$A$36</f>
+        <v>Weapon</v>
+      </c>
+      <c r="E6" s="32">
+        <v>7</v>
+      </c>
+      <c r="F6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>1</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>2032</v>
+      </c>
+      <c r="J6" s="26">
+        <v>2000</v>
+      </c>
+      <c r="K6" s="26">
+        <v>1</v>
+      </c>
+      <c r="L6" s="26">
+        <v>10</v>
+      </c>
+      <c r="M6" s="26">
+        <v>2</v>
+      </c>
+      <c r="N6" s="26">
+        <v>5</v>
+      </c>
+      <c r="O6" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>2033</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D7" s="32" t="str">
+        <f>[1]Enums!$A$36</f>
+        <v>Weapon</v>
+      </c>
+      <c r="E7" s="32">
+        <v>7</v>
+      </c>
+      <c r="F7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>2032</v>
       </c>
-      <c r="D5" s="32" t="str">
+      <c r="J7" s="26">
+        <v>2500</v>
+      </c>
+      <c r="K7" s="26">
+        <v>1</v>
+      </c>
+      <c r="L7" s="26">
+        <v>12</v>
+      </c>
+      <c r="M7" s="26">
+        <v>2</v>
+      </c>
+      <c r="N7" s="26">
+        <v>5</v>
+      </c>
+      <c r="O7" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D8" s="32" t="str">
         <f>[1]Enums!$A$37</f>
         <v>Utility</v>
-      </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="26">
-        <v>1</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>2031</v>
-      </c>
-      <c r="J5" s="26">
-        <v>15</v>
-      </c>
-      <c r="K5" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>2029</v>
-      </c>
-      <c r="D6" s="32" t="str">
-        <f>[1]Enums!$A$35</f>
-        <v>Armor</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="26">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>2028</v>
-      </c>
-      <c r="J6" s="26">
-        <v>5000</v>
-      </c>
-      <c r="K6" s="26">
-        <v>1</v>
-      </c>
-      <c r="L6" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="M6" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="26">
-        <v>1</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>2025</v>
-      </c>
-      <c r="J7" s="26">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>2023</v>
-      </c>
-      <c r="D8" s="32" t="str">
-        <f>[1]Enums!$A$38</f>
-        <v>Tool</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="26" t="b">
@@ -12716,6 +12809,18 @@
       <c r="H8" s="26">
         <v>1</v>
       </c>
+      <c r="I8" s="26" t="s">
+        <v>2029</v>
+      </c>
+      <c r="J8" s="26">
+        <v>15</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="26">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="str">
@@ -12723,36 +12828,36 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>2022</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>2021</v>
+        <v>2028</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>2027</v>
       </c>
       <c r="D9" s="32" t="str">
-        <f>[1]Enums!$A$38</f>
-        <v>Tool</v>
-      </c>
-      <c r="E9" s="32">
-        <v>7</v>
-      </c>
+        <f>[1]Enums!$A$35</f>
+        <v>Armor</v>
+      </c>
+      <c r="E9" s="32"/>
       <c r="F9" s="26" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="26">
         <v>1</v>
       </c>
-      <c r="I9" s="26" t="s">
-        <v>2020</v>
+      <c r="I9" s="31" t="s">
+        <v>2026</v>
       </c>
       <c r="J9" s="26">
-        <v>3</v>
+        <v>5000</v>
       </c>
       <c r="K9" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="L9" s="26" t="str">
-        <f>'[1]Blocks (MC)'!$A$22</f>
-        <v>1.0.0</v>
+        <v>1</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="M9" s="26">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -12760,16 +12865,13 @@
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>2019</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D10" s="32" t="str">
-        <f>[1]Enums!$A$35</f>
-        <v>Armor</v>
-      </c>
+      <c r="B10" s="13" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="26" t="b">
         <v>1</v>
@@ -12777,14 +12879,11 @@
       <c r="H10" s="26">
         <v>1</v>
       </c>
-      <c r="I10" s="26" t="s">
-        <v>2017</v>
+      <c r="I10" s="31" t="s">
+        <v>2023</v>
       </c>
       <c r="J10" s="26">
-        <v>5000</v>
-      </c>
-      <c r="K10" s="26">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -12793,14 +12892,14 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="D11" s="32" t="str">
-        <f>[1]Enums!$A$35</f>
-        <v>Armor</v>
+        <f>[1]Enums!$A$38</f>
+        <v>Tool</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="26" t="b">
@@ -12816,435 +12915,470 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="32" t="str">
+        <f>[1]Enums!$A$38</f>
+        <v>Tool</v>
+      </c>
+      <c r="E12" s="32">
+        <v>7</v>
+      </c>
+      <c r="F12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J12" s="26">
+        <v>3</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="L12" s="26" t="str">
+        <f>'[1]Blocks (MC)'!$A$22</f>
+        <v>1.0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D13" s="32" t="str">
+        <f>[1]Enums!$A$35</f>
+        <v>Armor</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J13" s="26">
+        <v>5000</v>
+      </c>
+      <c r="K13" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D14" s="32" t="str">
+        <f>[1]Enums!$A$35</f>
+        <v>Armor</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J14" s="26">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D15" s="32" t="str">
+        <f>[1]Enums!$A$35</f>
+        <v>Armor</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J15" s="26">
+        <v>25000</v>
+      </c>
+      <c r="K15" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D16" s="32" t="str">
+        <f>[1]Enums!$A$35</f>
+        <v>Armor</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J16" s="26">
+        <v>50000</v>
+      </c>
+      <c r="K16" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>2014</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="D17" s="32" t="str">
+        <f>[1]Enums!$A$35</f>
+        <v>Armor</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>2013</v>
       </c>
-      <c r="D12" s="34" t="str">
+      <c r="C18" s="32" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D18" s="34" t="str">
         <f>[1]Enums!$A$41</f>
         <v>PC Block</v>
       </c>
-      <c r="F12" s="26" t="b">
+      <c r="F18" s="26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C13" s="34" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>2011</v>
       </c>
-      <c r="D13" s="34" t="str">
+      <c r="C19" s="34" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D19" s="34" t="str">
         <f>[1]Enums!$A$42</f>
         <v>Food</v>
       </c>
-      <c r="F13" s="26" t="b">
+      <c r="F19" s="26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>2010</v>
-      </c>
-      <c r="C14" s="34" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>2009</v>
       </c>
-      <c r="D14" s="34" t="str">
+      <c r="C20" s="34" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D20" s="34" t="str">
         <f>[1]Enums!$A$42</f>
         <v>Food</v>
       </c>
-      <c r="F14" s="26" t="b">
+      <c r="F20" s="26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>2008</v>
-      </c>
-      <c r="C15" s="28" t="s">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B21" s="33" t="s">
         <v>2007</v>
       </c>
-      <c r="D15" s="34" t="str">
+      <c r="C21" s="28" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D21" s="34" t="str">
         <f>[1]Enums!$A$41</f>
         <v>PC Block</v>
       </c>
-      <c r="F15" s="26" t="b">
+      <c r="F21" s="26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>2006</v>
-      </c>
-      <c r="C16" s="28" t="s">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>2005</v>
       </c>
-      <c r="D16" s="26" t="str">
+      <c r="C22" s="28" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D22" s="26" t="str">
         <f>[1]Enums!$A$40</f>
         <v>PC Item</v>
       </c>
-      <c r="F16" s="26" t="b">
+      <c r="F22" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B17" s="33" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D23" s="26" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="F23" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D24" s="26" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="F24" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D25" s="26" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="F25" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>2004</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C26" s="28" t="s">
         <v>2003</v>
       </c>
-      <c r="D17" s="28" t="str">
+      <c r="D26" s="28" t="str">
         <f>[1]Enums!$A$37</f>
         <v>Utility</v>
       </c>
-      <c r="E17" s="26">
-        <v>4</v>
-      </c>
-      <c r="F17" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>2002</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D18" s="28" t="str">
-        <f>[1]Enums!$A$40</f>
-        <v>PC Item</v>
-      </c>
-      <c r="F18" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>2000</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>1999</v>
-      </c>
-      <c r="D19" s="28" t="str">
-        <f>[1]Enums!$A$40</f>
-        <v>PC Item</v>
-      </c>
-      <c r="F19" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>1998</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D20" s="28" t="str">
-        <f>[1]Enums!$A$40</f>
-        <v>PC Item</v>
-      </c>
-      <c r="F20" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>1996</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D21" s="28" t="str">
-        <f>[1]Enums!$A$41</f>
-        <v>PC Block</v>
-      </c>
-      <c r="F21" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>1994</v>
-      </c>
-      <c r="J21" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>1993</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D22" s="28" t="str">
-        <f>[1]Enums!$A$40</f>
-        <v>PC Item</v>
-      </c>
-      <c r="E22" s="26">
-        <v>4</v>
-      </c>
-      <c r="F22" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>1991</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>1990</v>
-      </c>
-      <c r="F23" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="27">
-        <v>1</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>1989</v>
-      </c>
-      <c r="J23" s="27">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>1987</v>
-      </c>
-      <c r="D24" s="28" t="str">
-        <f>[1]Enums!$A$40</f>
-        <v>PC Item</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>1986</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>1985</v>
-      </c>
-      <c r="D25" s="28" t="str">
-        <f>[1]Enums!$A$40</f>
-        <v>PC Item</v>
-      </c>
-      <c r="F25" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>1984</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>1983</v>
-      </c>
-      <c r="D26" s="32" t="str">
-        <f>[1]Enums!$A$37</f>
-        <v>Utility</v>
-      </c>
       <c r="E26" s="26">
         <v>4</v>
       </c>
       <c r="F26" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="H26" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>1981</v>
+      <c r="B27" s="33" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>2001</v>
       </c>
       <c r="D27" s="28" t="str">
         <f>[1]Enums!$A$40</f>
         <v>PC Item</v>
       </c>
-      <c r="E27" s="26">
-        <v>8</v>
-      </c>
       <c r="F27" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="str">
-        <f>[1]Enums!$A$5</f>
-        <v>1.0.3</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>1980</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E28" s="26">
-        <v>4</v>
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D28" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
       </c>
       <c r="F28" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28">
-        <v>1</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>1968</v>
-      </c>
-      <c r="J28" s="26">
-        <v>10</v>
-      </c>
     </row>
     <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="str">
-        <f>[1]Enums!$A$5</f>
-        <v>1.0.3</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>1977</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E29" s="26">
-        <v>4</v>
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D29" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
       </c>
       <c r="F29" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="31" t="s">
-        <v>1968</v>
-      </c>
-      <c r="J29" s="26">
-        <v>15</v>
-      </c>
     </row>
     <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="str">
-        <f>[1]Enums!$A$5</f>
-        <v>1.0.3</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>1975</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E30" s="26">
-        <v>4</v>
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D30" s="28" t="str">
+        <f>[1]Enums!$A$41</f>
+        <v>PC Block</v>
       </c>
       <c r="F30" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="31" t="s">
-        <v>1968</v>
+      <c r="I30" s="26" t="s">
+        <v>1994</v>
       </c>
       <c r="J30" s="26">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="str">
-        <f>[1]Enums!$A$5</f>
-        <v>1.0.3</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>1974</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>1973</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>1965</v>
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D31" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
       </c>
       <c r="E31" s="26">
         <v>4</v>
@@ -13252,137 +13386,102 @@
       <c r="F31" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="31" t="s">
-        <v>1968</v>
-      </c>
-      <c r="J31" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="str">
-        <f>[1]Enums!$A$5</f>
-        <v>1.0.3</v>
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E32" s="26">
-        <v>4</v>
+        <v>1991</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>1990</v>
       </c>
       <c r="F32" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="31" t="s">
-        <v>1968</v>
-      </c>
-      <c r="J32" s="26">
-        <v>10</v>
+      <c r="H32" s="27">
+        <v>1</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>1989</v>
+      </c>
+      <c r="J32" s="27">
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="str">
-        <f>[1]Enums!$A$5</f>
-        <v>1.0.3</v>
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E33" s="26">
-        <v>4</v>
-      </c>
-      <c r="F33" s="26" t="b">
+        <v>1988</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D33" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28" t="b">
         <v>1</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="31" t="s">
-        <v>1968</v>
-      </c>
-      <c r="J33" s="26">
-        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="str">
-        <f>[1]Enums!$A$5</f>
-        <v>1.0.3</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>1966</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E34" s="26">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D34" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="F34" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D35" s="32" t="str">
+        <f>[1]Enums!$A$37</f>
+        <v>Utility</v>
+      </c>
+      <c r="E35" s="26">
         <v>4</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="str">
-        <f>[1]Enums!$A$12</f>
-        <v>1.1.0</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>1963</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E35" s="26">
-        <v>8</v>
       </c>
       <c r="F35" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28">
-        <v>1</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>1961</v>
-      </c>
-      <c r="J35" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="K35" s="26">
-        <v>60</v>
-      </c>
     </row>
     <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="str">
-        <f>[1]Enums!$A$12</f>
-        <v>1.1.0</v>
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>2157</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>2147</v>
+        <v>1982</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>1981</v>
       </c>
       <c r="D36" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13391,233 +13490,506 @@
       <c r="E36" s="26">
         <v>8</v>
       </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28">
+      <c r="F36" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="str">
-        <f>[1]Enums!$A$12</f>
-        <v>1.1.0</v>
+        <f>[1]Enums!$A$5</f>
+        <v>1.0.3</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>2156</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>2148</v>
-      </c>
-      <c r="D37" s="28" t="str">
-        <f>[1]Enums!$A$40</f>
-        <v>PC Item</v>
+        <v>1980</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>1965</v>
       </c>
       <c r="E37" s="26">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F37" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28">
         <v>1</v>
       </c>
+      <c r="I37" s="31" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J37" s="26">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="str">
+        <f>[1]Enums!$A$5</f>
+        <v>1.0.3</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E38" s="26">
+        <v>4</v>
+      </c>
+      <c r="F38" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="31" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J38" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="str">
+        <f>[1]Enums!$A$5</f>
+        <v>1.0.3</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E39" s="26">
+        <v>4</v>
+      </c>
+      <c r="F39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="31" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J39" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="str">
+        <f>[1]Enums!$A$5</f>
+        <v>1.0.3</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E40" s="26">
+        <v>4</v>
+      </c>
+      <c r="F40" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="31" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J40" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="str">
+        <f>[1]Enums!$A$5</f>
+        <v>1.0.3</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E41" s="26">
+        <v>4</v>
+      </c>
+      <c r="F41" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="31" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J41" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="str">
+        <f>[1]Enums!$A$5</f>
+        <v>1.0.3</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E42" s="26">
+        <v>4</v>
+      </c>
+      <c r="F42" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="31" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J42" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="str">
+        <f>[1]Enums!$A$5</f>
+        <v>1.0.3</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E43" s="26">
+        <v>4</v>
+      </c>
+      <c r="F43" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B44" s="26" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E44" s="26">
+        <v>8</v>
+      </c>
+      <c r="F44" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28">
+        <v>1</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>1961</v>
+      </c>
+      <c r="J44" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="K44" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>2155</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D38" s="28" t="str">
+      <c r="C45" s="28" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D45" s="28" t="str">
         <f>[1]Enums!$A$40</f>
         <v>PC Item</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E45" s="26">
         <v>8</v>
       </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28">
+      <c r="F45" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="str">
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>2154</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D39" s="28" t="str">
+      <c r="C46" s="28" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D46" s="28" t="str">
         <f>[1]Enums!$A$40</f>
         <v>PC Item</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E46" s="26">
         <v>8</v>
       </c>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28">
+      <c r="F46" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="str">
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B47" s="13" t="s">
         <v>2153</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D40" s="28" t="str">
+      <c r="C47" s="28" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D47" s="28" t="str">
         <f>[1]Enums!$A$40</f>
         <v>PC Item</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E47" s="26">
         <v>8</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28">
+      <c r="F47" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="str">
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>2152</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>2159</v>
-      </c>
-      <c r="D41" s="28" t="str">
+      <c r="C48" s="28" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D48" s="28" t="str">
         <f>[1]Enums!$A$40</f>
         <v>PC Item</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E48" s="26">
         <v>8</v>
       </c>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28">
+      <c r="F48" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-    </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-    </row>
-    <row r="49" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D49" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E49" s="26">
+        <v>8</v>
+      </c>
+      <c r="F49" s="26" t="b">
+        <v>0</v>
+      </c>
       <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H49" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D50" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E50" s="26">
+        <v>8</v>
+      </c>
+      <c r="F50" s="26" t="b">
+        <v>0</v>
+      </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-    </row>
-    <row r="51" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="H50" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
     </row>
-    <row r="52" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
     </row>
-    <row r="53" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
     </row>
-    <row r="54" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
     </row>
-    <row r="55" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
     </row>
-    <row r="56" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
     </row>
-    <row r="57" spans="3:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
     </row>
-    <row r="58" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
     </row>
-    <row r="59" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
     </row>
-    <row r="60" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
     </row>
-    <row r="61" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
     </row>
-    <row r="62" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
     </row>
-    <row r="63" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
     </row>
-    <row r="64" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
     </row>
-    <row r="65" spans="7:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
     </row>
-    <row r="66" spans="7:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
+    </row>
+    <row r="67" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+    </row>
+    <row r="68" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+    </row>
+    <row r="69" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+    </row>
+    <row r="70" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+    </row>
+    <row r="71" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+    </row>
+    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+    </row>
+    <row r="73" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+    </row>
+    <row r="74" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+    </row>
+    <row r="75" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13656,10 +14028,10 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="E1" s="39" t="str">
         <f>"Tile Entity "&amp;'[1]Game IDs'!$A$1</f>
@@ -13669,7 +14041,7 @@
         <v>1960</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -13678,10 +14050,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="D2" s="27" t="str">
         <f xml:space="preserve"> C2</f>
@@ -13691,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -13700,10 +14072,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="D3" s="27" t="str">
         <f xml:space="preserve"> C3</f>
@@ -13713,27 +14085,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -13741,22 +14113,22 @@
         <v>1949</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="F5" s="27">
         <v>3000</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
     </row>
   </sheetData>
@@ -16829,7 +17201,7 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
@@ -17033,7 +17405,7 @@
         <v>74</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C32" si="1">E10&amp;" "&amp;$C$1</f>
+        <f t="shared" ref="C10:C31" si="1">E10&amp;" "&amp;$C$1</f>
         <v>Antimony Trioxide Catalyst</v>
       </c>
       <c r="D10" t="str">
@@ -17435,7 +17807,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
@@ -17456,7 +17828,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="C32" t="str">
         <f>E32&amp;" "&amp;$C$1</f>
@@ -17477,7 +17849,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="C33" t="str">
         <f>E33&amp;" "&amp;$C$1</f>
@@ -43765,16 +44137,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="E334" s="13" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="F334" s="16" t="str">
         <f t="shared" ref="F334" si="28">L334&amp;" ("&amp;$J334&amp;")"</f>
@@ -43823,16 +44195,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="E335" s="13" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="F335" s="16" t="str">
         <f t="shared" ref="F335:F337" si="32">L335&amp;" ("&amp;$J335&amp;")"</f>
@@ -43881,16 +44253,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="E336" s="13" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="F336" s="16" t="str">
         <f t="shared" si="32"/>
@@ -43939,16 +44311,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="F337" s="16" t="str">
         <f t="shared" si="32"/>
@@ -43997,16 +44369,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="F338" s="16" t="str">
         <f t="shared" ref="F338:F340" si="36">L338&amp;" ("&amp;$J338&amp;")"</f>
@@ -44055,16 +44427,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="F339" s="16" t="str">
         <f t="shared" si="36"/>
@@ -44113,16 +44485,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="F340" s="16" t="str">
         <f t="shared" si="36"/>
@@ -44168,16 +44540,16 @@
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="13" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="E341" s="13" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="F341" s="16" t="str">
         <f t="shared" ref="F341" si="40">L341&amp;" ("&amp;$J341&amp;")"</f>
@@ -44223,16 +44595,16 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="13" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="F342" s="16" t="str">
         <f t="shared" ref="F342:F343" si="44">L342&amp;" ("&amp;$J342&amp;")"</f>
@@ -44281,16 +44653,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="E343" s="13" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F343" s="16" t="str">
         <f t="shared" si="44"/>
@@ -44335,142 +44707,142 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B344" s="13" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="E344" s="13" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B345" s="13" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="E345" s="13" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B346" s="13" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B347" s="13" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B348" s="13" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B349" s="13" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="E349" s="13" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B350" s="13" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="D350" s="13" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B351" s="13" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B352" s="13" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B353" s="13" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="E353" s="13" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Walter\Documents\GitHub\polycraftworld\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PolycraftWorld\polycraft\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="59355" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
+    <workbookView xWindow="60285" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="2179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="2181">
   <si>
     <t>Ore</t>
   </si>
@@ -6130,9 +6130,6 @@
     <t>3p</t>
   </si>
   <si>
-    <t>MaxLightLevel, LightLevelDecreaseByDistance, ViewingConeAngle</t>
-  </si>
-  <si>
     <t>Flashlight</t>
   </si>
   <si>
@@ -6578,6 +6575,15 @@
   </si>
   <si>
     <t>Scuba Tank (Pro)</t>
+  </si>
+  <si>
+    <t>12Z</t>
+  </si>
+  <si>
+    <t>13d</t>
+  </si>
+  <si>
+    <t>Flashlight Range</t>
   </si>
 </sst>
 </file>
@@ -12181,6 +12187,50 @@
             <v>Solid</v>
           </cell>
         </row>
+        <row r="353">
+          <cell r="B353" t="str">
+            <v>Potassium Persulfate</v>
+          </cell>
+          <cell r="C353" t="str">
+            <v>K2S2O8</v>
+          </cell>
+          <cell r="D353" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="B354" t="str">
+            <v>Potassium Bisulfate</v>
+          </cell>
+          <cell r="C354" t="str">
+            <v>KHSO4</v>
+          </cell>
+          <cell r="D354" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="B355" t="str">
+            <v>Salt Water</v>
+          </cell>
+          <cell r="C355" t="str">
+            <v>H20</v>
+          </cell>
+          <cell r="D355" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="B356" t="str">
+            <v>Isoprene</v>
+          </cell>
+          <cell r="C356" t="str">
+            <v>CH2=C(CH3)CH=CH2</v>
+          </cell>
+          <cell r="D356" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -12479,10 +12529,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12495,13 +12545,14 @@
     <col min="6" max="6" width="17.42578125" style="26" customWidth="1"/>
     <col min="7" max="7" width="6" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="102.85546875" style="26" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="26"/>
-    <col min="12" max="12" width="11.85546875" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="26"/>
+    <col min="9" max="9" width="15.140625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="102.85546875" style="26" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" style="26"/>
+    <col min="13" max="13" width="11.85546875" style="26" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="str">
         <f>[1]Enums!$A$1</f>
         <v>Version</v>
@@ -12511,64 +12562,67 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="I1" s="35" t="s">
+        <v>2180</v>
+      </c>
+      <c r="J1" s="35" t="s">
         <v>1959</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>1958</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>1957</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>1956</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>1955</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="O1" s="35" t="s">
         <v>1954</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>1953</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="Q1" s="35" t="s">
         <v>1952</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="R1" s="35" t="s">
         <v>1951</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="S1" s="35" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D2" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -12581,16 +12635,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D3" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -12603,16 +12657,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D4" s="32" t="str">
         <f>[1]Enums!$A$36</f>
@@ -12627,38 +12681,38 @@
       <c r="H4" s="26">
         <v>1</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>2032</v>
-      </c>
-      <c r="J4" s="26">
+      <c r="J4" s="31" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K4" s="26">
         <v>1000</v>
       </c>
-      <c r="K4" s="26">
+      <c r="L4" s="26">
         <v>1</v>
       </c>
-      <c r="L4" s="26">
+      <c r="M4" s="26">
         <v>6</v>
       </c>
-      <c r="M4" s="26">
+      <c r="N4" s="26">
         <v>2</v>
       </c>
-      <c r="N4" s="26">
+      <c r="O4" s="26">
         <v>5</v>
       </c>
-      <c r="O4" s="26">
+      <c r="P4" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D5" s="32" t="str">
         <f>[1]Enums!$A$36</f>
@@ -12673,38 +12727,41 @@
       <c r="H5" s="26">
         <v>1</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>2032</v>
-      </c>
-      <c r="J5" s="26">
+      <c r="I5" s="26">
+        <v>10</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K5" s="26">
         <v>1500</v>
       </c>
-      <c r="K5" s="26">
+      <c r="L5" s="26">
         <v>1</v>
       </c>
-      <c r="L5" s="26">
+      <c r="M5" s="26">
         <v>8</v>
       </c>
-      <c r="M5" s="26">
+      <c r="N5" s="26">
         <v>2</v>
       </c>
-      <c r="N5" s="26">
+      <c r="O5" s="26">
         <v>5</v>
       </c>
-      <c r="O5" s="26">
+      <c r="P5" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D6" s="32" t="str">
         <f>[1]Enums!$A$36</f>
@@ -12719,38 +12776,41 @@
       <c r="H6" s="26">
         <v>1</v>
       </c>
-      <c r="I6" s="31" t="s">
-        <v>2032</v>
-      </c>
-      <c r="J6" s="26">
+      <c r="I6" s="26">
+        <v>30</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K6" s="26">
         <v>2000</v>
       </c>
-      <c r="K6" s="26">
+      <c r="L6" s="26">
         <v>1</v>
       </c>
-      <c r="L6" s="26">
+      <c r="M6" s="26">
         <v>10</v>
       </c>
-      <c r="M6" s="26">
+      <c r="N6" s="26">
         <v>2</v>
       </c>
-      <c r="N6" s="26">
+      <c r="O6" s="26">
         <v>5</v>
       </c>
-      <c r="O6" s="26">
+      <c r="P6" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D7" s="32" t="str">
         <f>[1]Enums!$A$36</f>
@@ -12765,38 +12825,41 @@
       <c r="H7" s="26">
         <v>1</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>2032</v>
-      </c>
-      <c r="J7" s="26">
+      <c r="I7" s="26">
+        <v>50</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>2031</v>
+      </c>
+      <c r="K7" s="26">
         <v>2500</v>
       </c>
-      <c r="K7" s="26">
+      <c r="L7" s="26">
         <v>1</v>
       </c>
-      <c r="L7" s="26">
+      <c r="M7" s="26">
         <v>12</v>
       </c>
-      <c r="M7" s="26">
+      <c r="N7" s="26">
         <v>2</v>
       </c>
-      <c r="N7" s="26">
+      <c r="O7" s="26">
         <v>5</v>
       </c>
-      <c r="O7" s="26">
+      <c r="P7" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D8" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -12809,20 +12872,11 @@
       <c r="H8" s="26">
         <v>1</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>2029</v>
-      </c>
-      <c r="J8" s="26">
-        <v>15</v>
-      </c>
-      <c r="K8" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I8" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -12844,23 +12898,23 @@
       <c r="H9" s="26">
         <v>1</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="J9" s="31" t="s">
         <v>2026</v>
       </c>
-      <c r="J9" s="26">
+      <c r="K9" s="26">
         <v>5000</v>
       </c>
-      <c r="K9" s="26">
+      <c r="L9" s="26">
         <v>1</v>
       </c>
-      <c r="L9" s="26">
+      <c r="M9" s="26">
         <v>0.4</v>
       </c>
-      <c r="M9" s="26">
+      <c r="N9" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -12879,14 +12933,14 @@
       <c r="H10" s="26">
         <v>1</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="J10" s="31" t="s">
         <v>2023</v>
       </c>
-      <c r="J10" s="26">
+      <c r="K10" s="26">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -12909,7 +12963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -12933,21 +12987,21 @@
       <c r="H12" s="26">
         <v>1</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="J12" s="26" t="s">
         <v>2018</v>
       </c>
-      <c r="J12" s="26">
+      <c r="K12" s="26">
         <v>3</v>
       </c>
-      <c r="K12" s="26">
+      <c r="L12" s="26">
         <v>0.6</v>
       </c>
-      <c r="L12" s="26" t="str">
+      <c r="M12" s="26" t="str">
         <f>'[1]Blocks (MC)'!$A$22</f>
         <v>1.0.0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -12956,7 +13010,7 @@
         <v>2017</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D13" s="32" t="str">
         <f>[1]Enums!$A$35</f>
@@ -12969,26 +13023,26 @@
       <c r="H13" s="26">
         <v>1</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="J13" s="26" t="s">
         <v>2016</v>
       </c>
-      <c r="J13" s="26">
+      <c r="K13" s="26">
         <v>5000</v>
       </c>
-      <c r="K13" s="26">
+      <c r="L13" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="D14" s="32" t="str">
         <f>[1]Enums!$A$35</f>
@@ -13001,26 +13055,26 @@
       <c r="H14" s="26">
         <v>1</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="J14" s="26" t="s">
         <v>2016</v>
       </c>
-      <c r="J14" s="26">
+      <c r="K14" s="26">
         <v>10000</v>
       </c>
-      <c r="K14" s="26">
+      <c r="L14" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D15" s="32" t="str">
         <f>[1]Enums!$A$35</f>
@@ -13033,26 +13087,26 @@
       <c r="H15" s="26">
         <v>1</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="J15" s="26" t="s">
         <v>2016</v>
       </c>
-      <c r="J15" s="26">
+      <c r="K15" s="26">
         <v>25000</v>
       </c>
-      <c r="K15" s="26">
+      <c r="L15" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D16" s="32" t="str">
         <f>[1]Enums!$A$35</f>
@@ -13065,17 +13119,17 @@
       <c r="H16" s="26">
         <v>1</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="J16" s="26" t="s">
         <v>2016</v>
       </c>
-      <c r="J16" s="26">
+      <c r="K16" s="26">
         <v>50000</v>
       </c>
-      <c r="K16" s="26">
+      <c r="L16" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13098,7 +13152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13117,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13136,7 +13190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13155,7 +13209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13174,7 +13228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13183,7 +13237,7 @@
         <v>2005</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D22" s="26" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13194,17 +13248,18 @@
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D23" s="26" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13215,17 +13270,18 @@
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D24" s="26" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13236,17 +13292,18 @@
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D25" s="26" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13257,8 +13314,9 @@
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13283,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13302,7 +13360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13321,7 +13379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13340,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13358,14 +13416,14 @@
       <c r="F30" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="J30" s="26" t="s">
         <v>1994</v>
       </c>
-      <c r="J30" s="26">
+      <c r="K30" s="26">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13387,7 +13445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13404,14 +13462,14 @@
       <c r="H32" s="27">
         <v>1</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="J32" s="27" t="s">
         <v>1989</v>
       </c>
-      <c r="J32" s="27">
+      <c r="K32" s="27">
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13431,7 +13489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13450,7 +13508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13472,7 +13530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
@@ -13494,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="str">
         <f>[1]Enums!$A$5</f>
         <v>1.0.3</v>
@@ -13518,14 +13576,15 @@
       <c r="H37" s="28">
         <v>1</v>
       </c>
-      <c r="I37" s="31" t="s">
+      <c r="I37" s="28"/>
+      <c r="J37" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="J37" s="26">
+      <c r="K37" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="str">
         <f>[1]Enums!$A$5</f>
         <v>1.0.3</v>
@@ -13547,14 +13606,15 @@
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="31" t="s">
+      <c r="I38" s="28"/>
+      <c r="J38" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="J38" s="26">
+      <c r="K38" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="str">
         <f>[1]Enums!$A$5</f>
         <v>1.0.3</v>
@@ -13576,14 +13636,15 @@
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="31" t="s">
+      <c r="I39" s="28"/>
+      <c r="J39" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="J39" s="26">
+      <c r="K39" s="26">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="str">
         <f>[1]Enums!$A$5</f>
         <v>1.0.3</v>
@@ -13605,14 +13666,15 @@
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="31" t="s">
+      <c r="I40" s="28"/>
+      <c r="J40" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="J40" s="26">
+      <c r="K40" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="str">
         <f>[1]Enums!$A$5</f>
         <v>1.0.3</v>
@@ -13634,14 +13696,15 @@
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="31" t="s">
+      <c r="I41" s="28"/>
+      <c r="J41" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="J41" s="26">
+      <c r="K41" s="26">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="str">
         <f>[1]Enums!$A$5</f>
         <v>1.0.3</v>
@@ -13663,14 +13726,15 @@
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="31" t="s">
+      <c r="I42" s="28"/>
+      <c r="J42" s="31" t="s">
         <v>1968</v>
       </c>
-      <c r="J42" s="26">
+      <c r="K42" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="str">
         <f>[1]Enums!$A$5</f>
         <v>1.0.3</v>
@@ -13692,8 +13756,9 @@
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -13717,26 +13782,27 @@
       <c r="H44" s="28">
         <v>1</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I44" s="28"/>
+      <c r="J44" s="30" t="s">
         <v>1961</v>
       </c>
-      <c r="J44" s="26">
+      <c r="K44" s="26">
         <v>0.4</v>
       </c>
-      <c r="K44" s="26">
+      <c r="L44" s="26">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="D45" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13752,17 +13818,18 @@
       <c r="H45" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="I45" s="28"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D46" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13778,17 +13845,18 @@
       <c r="H46" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D47" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13804,17 +13872,18 @@
       <c r="H47" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D48" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13830,17 +13899,18 @@
       <c r="H48" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D49" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13856,17 +13926,18 @@
       <c r="H49" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D50" s="28" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13882,114 +13953,140 @@
       <c r="H50" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I50" s="28"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
-    </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I51" s="28"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
-    </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
-    </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I54" s="28"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I55" s="28"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
-    </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I56" s="28"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I57" s="28"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
-    </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I58" s="28"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I60" s="28"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
-    </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
-    </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I62" s="28"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I63" s="28"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
-    </row>
-    <row r="65" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I64" s="28"/>
+    </row>
+    <row r="65" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
-    </row>
-    <row r="66" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I65" s="28"/>
+    </row>
+    <row r="66" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
-    </row>
-    <row r="67" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I66" s="28"/>
+    </row>
+    <row r="67" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
-    </row>
-    <row r="68" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I67" s="28"/>
+    </row>
+    <row r="68" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
-    </row>
-    <row r="69" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I68" s="28"/>
+    </row>
+    <row r="69" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
-    </row>
-    <row r="70" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I69" s="28"/>
+    </row>
+    <row r="70" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
-    </row>
-    <row r="71" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I70" s="28"/>
+    </row>
+    <row r="71" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
-    </row>
-    <row r="72" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I71" s="28"/>
+    </row>
+    <row r="72" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
-    </row>
-    <row r="73" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I72" s="28"/>
+    </row>
+    <row r="73" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
-    </row>
-    <row r="74" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I73" s="28"/>
+    </row>
+    <row r="74" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G74" s="28"/>
       <c r="H74" s="28"/>
-    </row>
-    <row r="75" spans="3:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="I74" s="28"/>
+    </row>
+    <row r="75" spans="3:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14028,10 +14125,10 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E1" s="39" t="str">
         <f>"Tile Entity "&amp;'[1]Game IDs'!$A$1</f>
@@ -14041,7 +14138,7 @@
         <v>1960</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -14050,10 +14147,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D2" s="27" t="str">
         <f xml:space="preserve"> C2</f>
@@ -14063,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -14072,10 +14169,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D3" s="27" t="str">
         <f xml:space="preserve"> C3</f>
@@ -14085,27 +14182,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -14113,22 +14210,22 @@
         <v>1949</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="F5" s="27">
         <v>3000</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
   </sheetData>
@@ -14145,7 +14242,7 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="J19" sqref="J19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15392,7 +15489,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="8">
         <v>6</v>
@@ -17199,10 +17296,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17807,7 +17904,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
@@ -17828,7 +17925,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="C32" t="str">
         <f>E32&amp;" "&amp;$C$1</f>
@@ -17849,7 +17946,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C33" t="str">
         <f>E33&amp;" "&amp;$C$1</f>
@@ -17862,6 +17959,48 @@
       <c r="E33" t="str">
         <f>[1]Compounds!$B$351</f>
         <v>Lead Oxide</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C34" t="str">
+        <f>E34&amp;" "&amp;$C$1</f>
+        <v>Ruthenium Catalyst</v>
+      </c>
+      <c r="D34" t="str">
+        <f>[1]Elements!$B$1</f>
+        <v>Element</v>
+      </c>
+      <c r="E34" t="str">
+        <f>[1]Elements!$B$45</f>
+        <v>Ruthenium</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C35" t="str">
+        <f>E35&amp;" "&amp;$C$1</f>
+        <v>Osmium Catalyst</v>
+      </c>
+      <c r="D35" t="str">
+        <f>[1]Elements!$B$1</f>
+        <v>Element</v>
+      </c>
+      <c r="E35" t="str">
+        <f>[1]Elements!$B$77</f>
+        <v>Osmium</v>
       </c>
     </row>
   </sheetData>
@@ -25283,8 +25422,8 @@
   </sheetPr>
   <dimension ref="A1:O353"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="R121" sqref="R121"/>
+    <sheetView topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="N361" sqref="N361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38937,7 +39076,10 @@
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A242" s="4"/>
+      <c r="A242" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
       <c r="B242" s="13" t="s">
         <v>698</v>
       </c>
@@ -44137,16 +44279,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E334" s="13" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="F334" s="16" t="str">
         <f t="shared" ref="F334" si="28">L334&amp;" ("&amp;$J334&amp;")"</f>
@@ -44195,16 +44337,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E335" s="13" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="F335" s="16" t="str">
         <f t="shared" ref="F335:F337" si="32">L335&amp;" ("&amp;$J335&amp;")"</f>
@@ -44253,16 +44395,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="E336" s="13" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="F336" s="16" t="str">
         <f t="shared" si="32"/>
@@ -44311,16 +44453,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="F337" s="16" t="str">
         <f t="shared" si="32"/>
@@ -44369,16 +44511,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="F338" s="16" t="str">
         <f t="shared" ref="F338:F340" si="36">L338&amp;" ("&amp;$J338&amp;")"</f>
@@ -44427,16 +44569,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="F339" s="16" t="str">
         <f t="shared" si="36"/>
@@ -44485,16 +44627,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F340" s="16" t="str">
         <f t="shared" si="36"/>
@@ -44540,16 +44682,16 @@
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="13" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E341" s="13" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="F341" s="16" t="str">
         <f t="shared" ref="F341" si="40">L341&amp;" ("&amp;$J341&amp;")"</f>
@@ -44595,16 +44737,16 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="13" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F342" s="16" t="str">
         <f t="shared" ref="F342:F343" si="44">L342&amp;" ("&amp;$J342&amp;")"</f>
@@ -44653,16 +44795,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E343" s="13" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="F343" s="16" t="str">
         <f t="shared" si="44"/>
@@ -44706,143 +44848,319 @@
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A344" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
       <c r="B344" s="13" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E344" s="13" t="s">
-        <v>2136</v>
+        <v>2135</v>
+      </c>
+      <c r="F344" s="16" t="str">
+        <f t="shared" ref="F344" si="48">L344&amp;" ("&amp;$J344&amp;")"</f>
+        <v>Bag (Potassium Persulfate)</v>
+      </c>
+      <c r="G344" s="16" t="str">
+        <f t="shared" ref="G344" si="49">M344&amp;" ("&amp;$J344&amp;")"</f>
+        <v>Sack (Potassium Persulfate)</v>
+      </c>
+      <c r="H344" s="16" t="str">
+        <f t="shared" ref="H344" si="50">N344&amp;" ("&amp;$J344&amp;")"</f>
+        <v>Powder Keg (Potassium Persulfate)</v>
+      </c>
+      <c r="I344" s="16" t="str">
+        <f t="shared" ref="I344" si="51">O344&amp;" ("&amp;$J344&amp;")"</f>
+        <v>Chemical Silo (Potassium Persulfate)</v>
+      </c>
+      <c r="J344" s="16" t="str">
+        <f>[1]Compounds!$B353</f>
+        <v>Potassium Persulfate</v>
+      </c>
+      <c r="K344" t="str">
+        <f>[1]Compounds!$D353</f>
+        <v>Solid</v>
+      </c>
+      <c r="L344" s="4" t="str">
+        <f>IF(K344=[1]Enums!$A$18, [1]Enums!$A$23, IF(K344=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M344" s="4" t="str">
+        <f>IF(K344=[1]Enums!$A$18, [1]Enums!$A$26, IF(K344=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N344" s="4" t="str">
+        <f>IF(K344=[1]Enums!$A$18, [1]Enums!$A$29, IF(K344=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O344" s="4" t="str">
+        <f>IF(K344=[1]Enums!$A$18, [1]Enums!$A$32, IF(K344=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A345" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
       <c r="B345" s="13" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E345" s="13" t="s">
-        <v>2135</v>
+        <v>2134</v>
+      </c>
+      <c r="F345" s="16" t="str">
+        <f t="shared" ref="F345" si="52">L345&amp;" ("&amp;$J345&amp;")"</f>
+        <v>Bag (Potassium Bisulfate)</v>
+      </c>
+      <c r="G345" s="16" t="str">
+        <f t="shared" ref="G345" si="53">M345&amp;" ("&amp;$J345&amp;")"</f>
+        <v>Sack (Potassium Bisulfate)</v>
+      </c>
+      <c r="H345" s="16" t="str">
+        <f t="shared" ref="H345" si="54">N345&amp;" ("&amp;$J345&amp;")"</f>
+        <v>Powder Keg (Potassium Bisulfate)</v>
+      </c>
+      <c r="I345" s="16" t="str">
+        <f t="shared" ref="I345" si="55">O345&amp;" ("&amp;$J345&amp;")"</f>
+        <v>Chemical Silo (Potassium Bisulfate)</v>
+      </c>
+      <c r="J345" s="16" t="str">
+        <f>[1]Compounds!$B354</f>
+        <v>Potassium Bisulfate</v>
+      </c>
+      <c r="K345" t="str">
+        <f>[1]Compounds!$D354</f>
+        <v>Solid</v>
+      </c>
+      <c r="L345" s="4" t="str">
+        <f>IF(K345=[1]Enums!$A$18, [1]Enums!$A$23, IF(K345=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M345" s="4" t="str">
+        <f>IF(K345=[1]Enums!$A$18, [1]Enums!$A$26, IF(K345=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N345" s="4" t="str">
+        <f>IF(K345=[1]Enums!$A$18, [1]Enums!$A$29, IF(K345=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O345" s="4" t="str">
+        <f>IF(K345=[1]Enums!$A$18, [1]Enums!$A$32, IF(K345=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Silo</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A346" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
       <c r="B346" s="13" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>2134</v>
+        <v>2133</v>
+      </c>
+      <c r="F346" s="16" t="str">
+        <f t="shared" ref="F346" si="56">L346&amp;" ("&amp;$J346&amp;")"</f>
+        <v>Vial (Salt Water)</v>
+      </c>
+      <c r="G346" s="16" t="str">
+        <f t="shared" ref="G346" si="57">M346&amp;" ("&amp;$J346&amp;")"</f>
+        <v>Beaker (Salt Water)</v>
+      </c>
+      <c r="H346" s="16" t="str">
+        <f t="shared" ref="H346" si="58">N346&amp;" ("&amp;$J346&amp;")"</f>
+        <v>Drum (Salt Water)</v>
+      </c>
+      <c r="I346" s="16" t="str">
+        <f t="shared" ref="I346" si="59">O346&amp;" ("&amp;$J346&amp;")"</f>
+        <v>Chemical Vat (Salt Water)</v>
+      </c>
+      <c r="J346" s="16" t="str">
+        <f>[1]Compounds!$B355</f>
+        <v>Salt Water</v>
+      </c>
+      <c r="K346" t="str">
+        <f>[1]Compounds!$D355</f>
+        <v>Liquid</v>
+      </c>
+      <c r="L346" s="4" t="str">
+        <f>IF(K346=[1]Enums!$A$18, [1]Enums!$A$23, IF(K346=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Vial</v>
+      </c>
+      <c r="M346" s="4" t="str">
+        <f>IF(K346=[1]Enums!$A$18, [1]Enums!$A$26, IF(K346=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Beaker</v>
+      </c>
+      <c r="N346" s="4" t="str">
+        <f>IF(K346=[1]Enums!$A$18, [1]Enums!$A$29, IF(K346=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Drum</v>
+      </c>
+      <c r="O346" s="4" t="str">
+        <f>IF(K346=[1]Enums!$A$18, [1]Enums!$A$32, IF(K346=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Vat</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A347" s="4" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
       <c r="B347" s="13" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>2133</v>
+        <v>2132</v>
+      </c>
+      <c r="F347" s="16" t="str">
+        <f t="shared" ref="F347" si="60">L347&amp;" ("&amp;$J347&amp;")"</f>
+        <v>Vial (Isoprene)</v>
+      </c>
+      <c r="G347" s="16" t="str">
+        <f t="shared" ref="G347" si="61">M347&amp;" ("&amp;$J347&amp;")"</f>
+        <v>Beaker (Isoprene)</v>
+      </c>
+      <c r="H347" s="16" t="str">
+        <f t="shared" ref="H347" si="62">N347&amp;" ("&amp;$J347&amp;")"</f>
+        <v>Drum (Isoprene)</v>
+      </c>
+      <c r="I347" s="16" t="str">
+        <f t="shared" ref="I347" si="63">O347&amp;" ("&amp;$J347&amp;")"</f>
+        <v>Chemical Vat (Isoprene)</v>
+      </c>
+      <c r="J347" s="16" t="str">
+        <f>[1]Compounds!$B356</f>
+        <v>Isoprene</v>
+      </c>
+      <c r="K347" t="str">
+        <f>[1]Compounds!$D356</f>
+        <v>Liquid</v>
+      </c>
+      <c r="L347" s="4" t="str">
+        <f>IF(K347=[1]Enums!$A$18, [1]Enums!$A$23, IF(K347=[1]Enums!$B$22, [1]Enums!$A$22, [1]Enums!$A$21))</f>
+        <v>Vial</v>
+      </c>
+      <c r="M347" s="4" t="str">
+        <f>IF(K347=[1]Enums!$A$18, [1]Enums!$A$26, IF(K347=[1]Enums!$B$25, [1]Enums!$A$25, [1]Enums!$A$24))</f>
+        <v>Beaker</v>
+      </c>
+      <c r="N347" s="4" t="str">
+        <f>IF(K347=[1]Enums!$A$18, [1]Enums!$A$29, IF(K347=[1]Enums!$B$22, [1]Enums!$A$28, [1]Enums!$A$27))</f>
+        <v>Drum</v>
+      </c>
+      <c r="O347" s="4" t="str">
+        <f>IF(K347=[1]Enums!$A$18, [1]Enums!$A$32, IF(K347=[1]Enums!$B$22, [1]Enums!$A$31, [1]Enums!$A$30))</f>
+        <v>Chemical Vat</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B348" s="13" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B349" s="13" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E349" s="13" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B350" s="13" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D350" s="13" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B351" s="13" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B352" s="13" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="353" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B353" s="13" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E353" s="13" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2213" uniqueCount="2181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2221" uniqueCount="2189">
   <si>
     <t>Ore</t>
   </si>
@@ -6584,6 +6584,30 @@
   </si>
   <si>
     <t>Flashlight Range</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>13g</t>
+  </si>
+  <si>
+    <t>13f</t>
+  </si>
+  <si>
+    <t>13e</t>
+  </si>
+  <si>
+    <t>Scuba Mask Light (Beginner)</t>
+  </si>
+  <si>
+    <t>Scuba Mask Light (Intermediate)</t>
+  </si>
+  <si>
+    <t>Scuba Mask Light (Advanced)</t>
+  </si>
+  <si>
+    <t>Scuba Mask Light (Pro)</t>
   </si>
 </sst>
 </file>
@@ -12531,8 +12555,8 @@
   </sheetPr>
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12826,7 +12850,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="26">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>2031</v>
@@ -13901,7 +13925,7 @@
       </c>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -13928,7 +13952,7 @@
       </c>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
@@ -13955,72 +13979,176 @@
       </c>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D51" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E51" s="26">
+        <v>8</v>
+      </c>
+      <c r="F51" s="26" t="b">
+        <v>0</v>
+      </c>
       <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-    </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="H51" s="28">
+        <v>1</v>
+      </c>
+      <c r="I51" s="28">
+        <v>5</v>
+      </c>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D52" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E52" s="26">
+        <v>8</v>
+      </c>
+      <c r="F52" s="26" t="b">
+        <v>0</v>
+      </c>
       <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="H52" s="28">
+        <v>1</v>
+      </c>
+      <c r="I52" s="28">
+        <v>10</v>
+      </c>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+    </row>
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D53" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E53" s="26">
+        <v>8</v>
+      </c>
+      <c r="F53" s="26" t="b">
+        <v>0</v>
+      </c>
       <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-    </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="H53" s="28">
+        <v>1</v>
+      </c>
+      <c r="I53" s="28">
+        <v>15</v>
+      </c>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="str">
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D54" s="28" t="str">
+        <f>[1]Enums!$A$40</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E54" s="26">
+        <v>8</v>
+      </c>
+      <c r="F54" s="26" t="b">
+        <v>0</v>
+      </c>
       <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-    </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="H54" s="28">
+        <v>1</v>
+      </c>
+      <c r="I54" s="28">
+        <v>25</v>
+      </c>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
       <c r="I55" s="28"/>
     </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="65865" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="7"/>
+    <workbookView xWindow="65865" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2364" uniqueCount="2332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="2330">
   <si>
     <t>Ore</t>
   </si>
@@ -6069,12 +6069,6 @@
   </si>
   <si>
     <t>3C</t>
-  </si>
-  <si>
-    <t>Wetsuit</t>
-  </si>
-  <si>
-    <t>3A</t>
   </si>
   <si>
     <t>AirUnitsFull, AirUnitsConsumePerTick</t>
@@ -7601,7 +7595,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="22">
           <cell r="A22" t="str">
@@ -12943,8 +12937,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13240,10 +13234,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13273,25 +13267,25 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>1959</v>
@@ -13330,10 +13324,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="D2" s="32" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13352,10 +13346,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D3" s="32" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13374,10 +13368,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="D4" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13393,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="K4" s="26">
         <v>1000</v>
@@ -13420,10 +13414,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="D5" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13442,7 +13436,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="K5" s="26">
         <v>1500</v>
@@ -13469,10 +13463,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="D6" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13491,7 +13485,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="K6" s="26">
         <v>2000</v>
@@ -13518,10 +13512,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D7" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13540,7 +13534,7 @@
         <v>80</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="K7" s="26">
         <v>2500</v>
@@ -13549,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="26">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N7" s="26">
         <v>2</v>
@@ -13558,7 +13552,7 @@
         <v>5</v>
       </c>
       <c r="P7" s="26">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -13567,10 +13561,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D8" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -13593,10 +13587,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D9" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13610,7 +13604,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="K9" s="26">
         <v>5000</v>
@@ -13631,10 +13625,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -13645,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="K10" s="26">
         <v>0.3</v>
@@ -13657,10 +13651,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D11" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13680,10 +13674,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D12" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13699,7 +13693,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="K12" s="26">
         <v>3</v>
@@ -13718,10 +13712,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D13" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13735,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="K13" s="26">
         <v>5000</v>
@@ -13750,10 +13744,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D14" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13767,7 +13761,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="K14" s="26">
         <v>10000</v>
@@ -13782,10 +13776,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="D15" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13799,7 +13793,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="K15" s="26">
         <v>25000</v>
@@ -13814,10 +13808,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D16" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13831,7 +13825,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="K16" s="26">
         <v>50000</v>
@@ -13846,22 +13840,18 @@
         <v>1.0.0</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D17" s="32" t="str">
-        <f>[1]Enums!$A$37</f>
-        <v>Armor</v>
-      </c>
-      <c r="E17" s="32"/>
+        <v>2009</v>
+      </c>
+      <c r="D17" s="34" t="str">
+        <f>[1]Enums!$A$43</f>
+        <v>PC Block</v>
+      </c>
       <c r="F17" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="26">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="str">
@@ -13869,14 +13859,14 @@
         <v>1.0.0</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>2010</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>2009</v>
+        <v>2008</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>2007</v>
       </c>
       <c r="D18" s="34" t="str">
-        <f>[1]Enums!$A$43</f>
-        <v>PC Block</v>
+        <f>[1]Enums!$A$44</f>
+        <v>Food</v>
       </c>
       <c r="F18" s="26" t="b">
         <v>1</v>
@@ -13888,10 +13878,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D19" s="34" t="str">
         <f>[1]Enums!$A$44</f>
@@ -13901,20 +13891,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>2006</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>2005</v>
+        <v>2004</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>2003</v>
       </c>
       <c r="D20" s="34" t="str">
-        <f>[1]Enums!$A$44</f>
-        <v>Food</v>
+        <f>[1]Enums!$A$43</f>
+        <v>PC Block</v>
       </c>
       <c r="F20" s="26" t="b">
         <v>1</v>
@@ -13926,36 +13916,39 @@
         <v>1.0.0</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>2003</v>
-      </c>
-      <c r="D21" s="34" t="str">
-        <f>[1]Enums!$A$43</f>
-        <v>PC Block</v>
+        <v>2162</v>
+      </c>
+      <c r="D21" s="26" t="str">
+        <f>[1]Enums!$A$42</f>
+        <v>PC Item</v>
       </c>
       <c r="F21" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>2002</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>2156</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="D22" s="26" t="str">
         <f>[1]Enums!$A$42</f>
         <v>PC Item</v>
       </c>
       <c r="F22" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -13967,10 +13960,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D23" s="26" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13989,10 +13982,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D24" s="26" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14007,50 +14000,47 @@
     </row>
     <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="str">
-        <f>[1]Enums!$A$12</f>
-        <v>1.1.0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>2160</v>
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>2001</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>2167</v>
-      </c>
-      <c r="D25" s="26" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="28" t="str">
+        <f>[1]Enums!$A$39</f>
+        <v>Utility</v>
+      </c>
+      <c r="E25" s="26">
+        <v>4</v>
+      </c>
+      <c r="F25" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D26" s="28" t="str">
         <f>[1]Enums!$A$42</f>
         <v>PC Item</v>
       </c>
-      <c r="F25" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>2001</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>2000</v>
-      </c>
-      <c r="D26" s="28" t="str">
-        <f>[1]Enums!$A$39</f>
-        <v>Utility</v>
-      </c>
-      <c r="E26" s="26">
-        <v>4</v>
-      </c>
       <c r="F26" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="26">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="str">
@@ -14058,10 +14048,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D27" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14077,10 +14067,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D28" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14096,63 +14086,64 @@
         <v>1.0.0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D29" s="28" t="str">
+        <f>[1]Enums!$A$43</f>
+        <v>PC Block</v>
+      </c>
+      <c r="F29" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>1991</v>
+      </c>
+      <c r="K29" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D30" s="28" t="str">
         <f>[1]Enums!$A$42</f>
         <v>PC Item</v>
       </c>
-      <c r="F29" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>1993</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D30" s="28" t="str">
-        <f>[1]Enums!$A$43</f>
-        <v>PC Block</v>
+      <c r="E30" s="26">
+        <v>4</v>
       </c>
       <c r="F30" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="26" t="s">
-        <v>1991</v>
-      </c>
-      <c r="K30" s="26">
-        <v>24</v>
-      </c>
     </row>
     <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>1990</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>1989</v>
+      <c r="B31" s="13" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>1987</v>
       </c>
       <c r="D31" s="28" t="str">
         <f>[1]Enums!$A$42</f>
         <v>PC Item</v>
       </c>
-      <c r="E31" s="26">
-        <v>4</v>
-      </c>
-      <c r="F31" s="26" t="b">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14162,56 +14153,58 @@
         <v>1.0.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D32" s="28" t="str">
         <f>[1]Enums!$A$42</f>
         <v>PC Item</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28" t="b">
+      <c r="F32" s="26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="str">
         <f>[1]Enums!$A$2</f>
         <v>1.0.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>1985</v>
-      </c>
-      <c r="D33" s="28" t="str">
+        <v>1983</v>
+      </c>
+      <c r="D33" s="32" t="str">
+        <f>[1]Enums!$A$39</f>
+        <v>Utility</v>
+      </c>
+      <c r="E33" s="26">
+        <v>4</v>
+      </c>
+      <c r="F33" s="26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D34" s="28" t="str">
         <f>[1]Enums!$A$42</f>
         <v>PC Item</v>
       </c>
-      <c r="F33" s="26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>1984</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>1983</v>
-      </c>
-      <c r="D34" s="32" t="str">
-        <f>[1]Enums!$A$39</f>
-        <v>Utility</v>
-      </c>
       <c r="E34" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F34" s="26" t="b">
         <v>1</v>
@@ -14219,24 +14212,34 @@
     </row>
     <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
+        <f>[1]Enums!$A$5</f>
+        <v>1.0.3</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D35" s="28" t="str">
-        <f>[1]Enums!$A$42</f>
-        <v>PC Item</v>
+        <v>1980</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>1965</v>
       </c>
       <c r="E35" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F35" s="26" t="b">
         <v>1</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28">
+        <v>1</v>
+      </c>
+      <c r="I35" s="28"/>
+      <c r="J35" s="31" t="s">
+        <v>1968</v>
+      </c>
+      <c r="K35" s="26">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -14245,10 +14248,10 @@
         <v>1.0.3</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>1965</v>
@@ -14260,15 +14263,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="28"/>
-      <c r="H36" s="28">
-        <v>1</v>
-      </c>
+      <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="31" t="s">
         <v>1968</v>
       </c>
       <c r="K36" s="26">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -14277,10 +14278,10 @@
         <v>1.0.3</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>1965</v>
@@ -14298,7 +14299,7 @@
         <v>1968</v>
       </c>
       <c r="K37" s="26">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -14307,10 +14308,10 @@
         <v>1.0.3</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="D38" s="28" t="s">
         <v>1965</v>
@@ -14328,7 +14329,7 @@
         <v>1968</v>
       </c>
       <c r="K38" s="26">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -14337,10 +14338,10 @@
         <v>1.0.3</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>1965</v>
@@ -14358,7 +14359,7 @@
         <v>1968</v>
       </c>
       <c r="K39" s="26">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -14367,10 +14368,10 @@
         <v>1.0.3</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="D40" s="28" t="s">
         <v>1965</v>
@@ -14388,7 +14389,7 @@
         <v>1968</v>
       </c>
       <c r="K40" s="26">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -14396,89 +14397,86 @@
         <f>[1]Enums!$A$5</f>
         <v>1.0.3</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>1970</v>
+      <c r="B41" s="31" t="s">
+        <v>1967</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D41" s="28" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D41" s="31" t="s">
         <v>1965</v>
       </c>
       <c r="E41" s="26">
         <v>4</v>
       </c>
       <c r="F41" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
-      <c r="J41" s="31" t="s">
-        <v>1968</v>
-      </c>
-      <c r="K41" s="26">
-        <v>15</v>
-      </c>
     </row>
     <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="str">
-        <f>[1]Enums!$A$5</f>
-        <v>1.0.3</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>1967</v>
+        <f>[1]Enums!$A$12</f>
+        <v>1.1.0</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>1964</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>1966</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>1965</v>
+        <v>1963</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>1962</v>
       </c>
       <c r="E42" s="26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F42" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
+      <c r="H42" s="28">
+        <v>1</v>
+      </c>
       <c r="I42" s="28"/>
+      <c r="J42" s="30" t="s">
+        <v>1961</v>
+      </c>
+      <c r="K42" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="L42" s="26">
+        <v>60</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>1963</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>1962</v>
+      <c r="B43" s="13" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D43" s="28" t="str">
+        <f>[1]Enums!$A$42</f>
+        <v>PC Item</v>
       </c>
       <c r="E43" s="26">
         <v>8</v>
       </c>
       <c r="F43" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="28">
         <v>1</v>
       </c>
       <c r="I43" s="28"/>
-      <c r="J43" s="30" t="s">
-        <v>1961</v>
-      </c>
-      <c r="K43" s="26">
-        <v>0.4</v>
-      </c>
-      <c r="L43" s="26">
-        <v>60</v>
-      </c>
     </row>
     <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="str">
@@ -14486,10 +14484,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D44" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14513,10 +14511,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D45" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14540,10 +14538,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="D46" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14567,10 +14565,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>2148</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>2144</v>
+        <v>2145</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>2143</v>
       </c>
       <c r="D47" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14594,10 +14592,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>2145</v>
+        <v>2151</v>
       </c>
       <c r="D48" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14621,10 +14619,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>2146</v>
+        <v>2179</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>2153</v>
+        <v>2180</v>
       </c>
       <c r="D49" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14640,7 +14638,11 @@
       <c r="H49" s="28">
         <v>1</v>
       </c>
-      <c r="I49" s="28"/>
+      <c r="I49" s="28">
+        <v>5</v>
+      </c>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="str">
@@ -14648,10 +14650,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C50" s="26" t="s">
         <v>2181</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>2182</v>
       </c>
       <c r="D50" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14668,7 +14670,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
@@ -14679,10 +14681,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D51" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14699,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
@@ -14710,10 +14712,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="D52" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14730,41 +14732,16 @@
         <v>1</v>
       </c>
       <c r="I52" s="28">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="str">
-        <f>[1]Enums!$A$12</f>
-        <v>1.1.0</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>2178</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>2185</v>
-      </c>
-      <c r="D53" s="28" t="str">
-        <f>[1]Enums!$A$42</f>
-        <v>PC Item</v>
-      </c>
-      <c r="E53" s="26">
-        <v>8</v>
-      </c>
-      <c r="F53" s="26" t="b">
-        <v>0</v>
-      </c>
+      <c r="A53" s="29"/>
       <c r="G53" s="28"/>
-      <c r="H53" s="28">
-        <v>1</v>
-      </c>
-      <c r="I53" s="28">
-        <v>25</v>
-      </c>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="G54" s="28"/>
@@ -14812,6 +14789,10 @@
       <c r="I62" s="28"/>
     </row>
     <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
@@ -14825,59 +14806,50 @@
       <c r="H64" s="28"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
+    <row r="65" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="I67" s="28"/>
     </row>
-    <row r="68" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="28"/>
     </row>
-    <row r="69" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G69" s="28"/>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G70" s="28"/>
       <c r="H70" s="28"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
     </row>
-    <row r="73" spans="3:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:9" ht="15" x14ac:dyDescent="0.2">
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
-    </row>
-    <row r="74" spans="3:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14916,10 +14888,10 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="E1" s="39" t="str">
         <f>"Tile Entity "&amp;'[1]Game IDs'!$A$1</f>
@@ -14929,7 +14901,7 @@
         <v>1960</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -14938,10 +14910,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D2" s="27" t="str">
         <f xml:space="preserve"> C2</f>
@@ -14951,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -14960,10 +14932,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D3" s="27" t="str">
         <f xml:space="preserve"> C3</f>
@@ -14973,27 +14945,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -15001,22 +14973,22 @@
         <v>1949</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="F5" s="27">
         <v>3000</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
     </row>
   </sheetData>
@@ -18683,7 +18655,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
@@ -18704,7 +18676,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="C32" t="str">
         <f>E32&amp;" "&amp;$C$1</f>
@@ -18725,7 +18697,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="C33" t="str">
         <f>E33&amp;" "&amp;$C$1</f>
@@ -18746,7 +18718,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="C34" t="str">
         <f>E34&amp;" "&amp;$C$1</f>
@@ -18767,7 +18739,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="C35" t="str">
         <f>E35&amp;" "&amp;$C$1</f>
@@ -18788,7 +18760,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="C36" t="str">
         <f>E36&amp;" "&amp;$C$1</f>
@@ -18809,7 +18781,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="C37" t="str">
         <f>E37&amp;" Pentoxide "&amp;$C$1</f>
@@ -26233,8 +26205,8 @@
   </sheetPr>
   <dimension ref="A1:O390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="N397" sqref="N397"/>
+    <sheetView topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="J380" sqref="J380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -45102,16 +45074,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="E334" s="13" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="F334" s="16" t="str">
         <f t="shared" ref="F334:F347" si="28">L334&amp;" ("&amp;$J334&amp;")"</f>
@@ -45160,16 +45132,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="E335" s="13" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="F335" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45218,16 +45190,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="E336" s="13" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="F336" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45276,16 +45248,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="F337" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45334,16 +45306,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="F338" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45392,16 +45364,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="F339" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45450,16 +45422,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="F340" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45505,16 +45477,16 @@
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="13" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="E341" s="13" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="F341" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45560,16 +45532,16 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="13" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="F342" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45618,16 +45590,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="E343" s="13" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="F343" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45676,16 +45648,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="E344" s="13" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="F344" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45734,16 +45706,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="E345" s="13" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="F345" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45792,16 +45764,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="F346" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45850,16 +45822,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="F347" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45908,16 +45880,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="F348" s="16" t="str">
         <f t="shared" ref="F348:I354" si="32">L348&amp;" ("&amp;$J348&amp;")"</f>
@@ -45966,16 +45938,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="E349" s="13" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="F349" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46024,16 +45996,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="D350" s="13" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="F350" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46082,16 +46054,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="F351" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46140,16 +46112,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="F352" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46198,16 +46170,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="E353" s="13" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="F353" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46256,16 +46228,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="D354" s="13" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="E354" s="13" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="F354" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46314,16 +46286,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="D355" s="13" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="E355" s="13" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="F355" s="16" t="str">
         <f t="shared" ref="F355:F366" si="33">L355&amp;" ("&amp;$J355&amp;")"</f>
@@ -46372,16 +46344,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="D356" s="13" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="E356" s="13" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="F356" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46430,16 +46402,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="D357" s="13" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="E357" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="F357" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46488,16 +46460,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="D358" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="E358" s="13" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="F358" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46546,16 +46518,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="D359" s="13" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="E359" s="13" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="F359" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46604,16 +46576,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="D360" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="E360" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="F360" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46662,16 +46634,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="D361" s="13" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="E361" s="13" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="F361" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46720,16 +46692,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="D362" s="13" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="E362" s="13" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="F362" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46778,16 +46750,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="D363" s="13" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="E363" s="13" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="F363" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46836,16 +46808,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="E364" s="13" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="F364" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46894,16 +46866,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D365" s="13" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="E365" s="13" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="F365" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46952,16 +46924,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D366" s="13" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="E366" s="13" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="F366" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47010,16 +46982,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D367" s="13" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="E367" s="13" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="F367" s="16" t="str">
         <f t="shared" ref="F367" si="37">L367&amp;" ("&amp;$J367&amp;")"</f>
@@ -47068,16 +47040,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="D368" s="13" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="E368" s="13" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="F368" s="16" t="str">
         <f t="shared" ref="F368:F374" si="41">L368&amp;" ("&amp;$J368&amp;")"</f>
@@ -47126,16 +47098,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="D369" s="13" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="E369" s="13" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="F369" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47184,16 +47156,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="D370" s="13" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="E370" s="13" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="F370" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47242,16 +47214,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D371" s="13" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="F371" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47300,16 +47272,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="D372" s="13" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="E372" s="13" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="F372" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47358,16 +47330,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D373" s="13" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="E373" s="13" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="F373" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47416,16 +47388,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D374" s="13" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="E374" s="13" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="F374" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47474,16 +47446,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D375" s="13" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="E375" s="13" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="F375" s="16" t="str">
         <f t="shared" ref="F375:F390" si="45">L375&amp;" ("&amp;$J375&amp;")"</f>
@@ -47532,16 +47504,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="E376" s="13" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F376" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47590,16 +47562,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="D377" s="13" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="E377" s="13" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F377" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47648,16 +47620,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="E378" s="13" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F378" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47706,16 +47678,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="D379" s="13" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="E379" s="13" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F379" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47764,16 +47736,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="E380" s="13" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F380" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47818,16 +47790,16 @@
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B381" s="13" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="D381" s="13" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="E381" s="13" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="F381" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47872,16 +47844,16 @@
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B382" s="13" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="D382" s="13" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="E382" s="13" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F382" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47926,16 +47898,16 @@
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B383" s="13" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="D383" s="13" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="E383" s="13" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F383" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47980,16 +47952,16 @@
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B384" s="13" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="D384" s="13" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="E384" s="13" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F384" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48034,16 +48006,16 @@
     </row>
     <row r="385" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B385" s="13" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="D385" s="13" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="E385" s="13" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F385" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48088,16 +48060,16 @@
     </row>
     <row r="386" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B386" s="13" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="C386" s="13" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="E386" s="13" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="F386" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48142,16 +48114,16 @@
     </row>
     <row r="387" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B387" s="13" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="E387" s="13" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="F387" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48196,16 +48168,16 @@
     </row>
     <row r="388" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B388" s="13" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="C388" s="13" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E388" s="13" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="F388" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48250,16 +48222,16 @@
     </row>
     <row r="389" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B389" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="E389" s="13" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="F389" s="16" t="str">
         <f t="shared" si="45"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="65865" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
+    <workbookView xWindow="67725" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -32,11 +32,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="2330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="2336">
   <si>
     <t>Ore</t>
   </si>
@@ -6101,12 +6102,6 @@
     <t>5a</t>
   </si>
   <si>
-    <t>FuelUnitsFull, FuelUnitsBurnPerTick, VelocityInAir, ExhaustDamageDirect</t>
-  </si>
-  <si>
-    <t>Jet Pack</t>
-  </si>
-  <si>
     <t>3p</t>
   </si>
   <si>
@@ -7026,6 +7021,30 @@
   </si>
   <si>
     <t>19O</t>
+  </si>
+  <si>
+    <t>FuelUnitsFull, FuelUnitsBurnPerTick, VelocityInAir, ExhaustDamageDirect, AltitudeLimit</t>
+  </si>
+  <si>
+    <t>Jet Pack (Beginner)</t>
+  </si>
+  <si>
+    <t>Jet Pack (Intermediate)</t>
+  </si>
+  <si>
+    <t>Jet Pack (Advanced)</t>
+  </si>
+  <si>
+    <t>Jet Pack (Pro)</t>
+  </si>
+  <si>
+    <t>19R</t>
+  </si>
+  <si>
+    <t>19Q</t>
+  </si>
+  <si>
+    <t>19P</t>
   </si>
 </sst>
 </file>
@@ -7595,7 +7614,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="22">
           <cell r="A22" t="str">
@@ -12937,8 +12956,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13236,8 +13255,8 @@
   </sheetPr>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13267,25 +13286,25 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>1959</v>
@@ -13324,10 +13343,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D2" s="32" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13346,10 +13365,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D3" s="32" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13368,10 +13387,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D4" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13387,7 +13406,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="K4" s="26">
         <v>1000</v>
@@ -13414,10 +13433,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D5" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13436,7 +13455,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="K5" s="26">
         <v>1500</v>
@@ -13463,10 +13482,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="D6" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13485,7 +13504,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="K6" s="26">
         <v>2000</v>
@@ -13512,10 +13531,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="D7" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13534,7 +13553,7 @@
         <v>80</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="K7" s="26">
         <v>2500</v>
@@ -13561,10 +13580,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D8" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -13587,10 +13606,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>2022</v>
+        <v>2329</v>
       </c>
       <c r="D9" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13604,10 +13623,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>2021</v>
+        <v>2328</v>
       </c>
       <c r="K9" s="26">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="L9" s="26">
         <v>1</v>
@@ -13617,6 +13636,9 @@
       </c>
       <c r="N9" s="26">
         <v>5</v>
+      </c>
+      <c r="O9" s="26">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -13715,7 +13737,7 @@
         <v>2012</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="D13" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13744,10 +13766,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D14" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13776,10 +13798,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D15" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13808,10 +13830,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D16" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13919,7 +13941,7 @@
         <v>2002</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="D21" s="26" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13938,10 +13960,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="D22" s="26" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13960,10 +13982,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D23" s="26" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13982,10 +14004,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="D24" s="26" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14457,10 +14479,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="D43" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14484,10 +14506,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="D44" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14511,10 +14533,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="D45" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14538,10 +14560,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="D46" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14565,10 +14587,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="D47" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14592,10 +14614,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="D48" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14613,16 +14635,16 @@
       </c>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="D49" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14644,16 +14666,16 @@
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
     </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D50" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14675,16 +14697,16 @@
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
     </row>
-    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="D51" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14706,16 +14728,16 @@
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
     </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="str">
         <f>[1]Enums!$A$12</f>
         <v>1.1.0</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="D52" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14737,58 +14759,165 @@
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-    </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-    </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-    </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D53" s="32" t="str">
+        <f>[1]Enums!$A$37</f>
+        <v>Armor</v>
+      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="26">
+        <v>1</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>2328</v>
+      </c>
+      <c r="K53" s="26">
+        <v>6000</v>
+      </c>
+      <c r="L53" s="26">
+        <v>1</v>
+      </c>
+      <c r="M53" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="N53" s="26">
+        <v>5</v>
+      </c>
+      <c r="O53" s="26">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D54" s="32" t="str">
+        <f>[1]Enums!$A$37</f>
+        <v>Armor</v>
+      </c>
+      <c r="E54" s="32"/>
+      <c r="F54" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="26">
+        <v>1</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>2328</v>
+      </c>
+      <c r="K54" s="26">
+        <v>9000</v>
+      </c>
+      <c r="L54" s="26">
+        <v>1</v>
+      </c>
+      <c r="M54" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="N54" s="26">
+        <v>5</v>
+      </c>
+      <c r="O54" s="26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D55" s="32" t="str">
+        <f>[1]Enums!$A$37</f>
+        <v>Armor</v>
+      </c>
+      <c r="E55" s="32"/>
+      <c r="F55" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="26">
+        <v>1</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>2328</v>
+      </c>
+      <c r="K55" s="26">
+        <v>12000</v>
+      </c>
+      <c r="L55" s="26">
+        <v>1</v>
+      </c>
+      <c r="M55" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="N55" s="26">
+        <v>5</v>
+      </c>
+      <c r="O55" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
@@ -14797,7 +14926,7 @@
       <c r="H63" s="28"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
@@ -14888,10 +15017,10 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="E1" s="39" t="str">
         <f>"Tile Entity "&amp;'[1]Game IDs'!$A$1</f>
@@ -14901,7 +15030,7 @@
         <v>1960</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -14910,10 +15039,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D2" s="27" t="str">
         <f xml:space="preserve"> C2</f>
@@ -14923,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -14932,10 +15061,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D3" s="27" t="str">
         <f xml:space="preserve"> C3</f>
@@ -14945,27 +15074,27 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -14973,22 +15102,22 @@
         <v>1949</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="F5" s="27">
         <v>3000</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
     </row>
   </sheetData>
@@ -18655,7 +18784,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
@@ -18676,7 +18805,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="C32" t="str">
         <f>E32&amp;" "&amp;$C$1</f>
@@ -18697,7 +18826,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="C33" t="str">
         <f>E33&amp;" "&amp;$C$1</f>
@@ -18718,7 +18847,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="C34" t="str">
         <f>E34&amp;" "&amp;$C$1</f>
@@ -18739,7 +18868,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="C35" t="str">
         <f>E35&amp;" "&amp;$C$1</f>
@@ -18760,7 +18889,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="C36" t="str">
         <f>E36&amp;" "&amp;$C$1</f>
@@ -18781,7 +18910,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="C37" t="str">
         <f>E37&amp;" Pentoxide "&amp;$C$1</f>
@@ -45074,16 +45203,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="E334" s="13" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="F334" s="16" t="str">
         <f t="shared" ref="F334:F347" si="28">L334&amp;" ("&amp;$J334&amp;")"</f>
@@ -45132,16 +45261,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="E335" s="13" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="F335" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45190,16 +45319,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="E336" s="13" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="F336" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45248,16 +45377,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="F337" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45306,16 +45435,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="F338" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45364,16 +45493,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="F339" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45422,16 +45551,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="F340" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45477,16 +45606,16 @@
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="13" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="E341" s="13" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="F341" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45532,16 +45661,16 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="13" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="F342" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45590,16 +45719,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="E343" s="13" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="F343" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45648,16 +45777,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="E344" s="13" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="F344" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45706,16 +45835,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="E345" s="13" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="F345" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45764,16 +45893,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="F346" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45822,16 +45951,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="F347" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45880,16 +46009,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="F348" s="16" t="str">
         <f t="shared" ref="F348:I354" si="32">L348&amp;" ("&amp;$J348&amp;")"</f>
@@ -45938,16 +46067,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="E349" s="13" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="F349" s="16" t="str">
         <f t="shared" si="32"/>
@@ -45996,16 +46125,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="D350" s="13" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="F350" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46054,16 +46183,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="F351" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46112,16 +46241,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="F352" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46170,16 +46299,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="E353" s="13" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="F353" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46228,16 +46357,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="D354" s="13" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="E354" s="13" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="F354" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46286,16 +46415,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="D355" s="13" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="E355" s="13" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="F355" s="16" t="str">
         <f t="shared" ref="F355:F366" si="33">L355&amp;" ("&amp;$J355&amp;")"</f>
@@ -46344,16 +46473,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="D356" s="13" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="E356" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="F356" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46402,16 +46531,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="D357" s="13" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="E357" s="13" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="F357" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46460,16 +46589,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="D358" s="13" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="E358" s="13" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="F358" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46518,16 +46647,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="D359" s="13" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="E359" s="13" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="F359" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46576,16 +46705,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="D360" s="13" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="E360" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="F360" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46634,16 +46763,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D361" s="13" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="E361" s="13" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="F361" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46692,16 +46821,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="D362" s="13" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="E362" s="13" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="F362" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46750,16 +46879,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="D363" s="13" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="E363" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="F363" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46808,16 +46937,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="E364" s="13" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="F364" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46866,16 +46995,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="D365" s="13" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="E365" s="13" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="F365" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46924,16 +47053,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="D366" s="13" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="E366" s="13" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="F366" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46982,16 +47111,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D367" s="13" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="E367" s="13" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="F367" s="16" t="str">
         <f t="shared" ref="F367" si="37">L367&amp;" ("&amp;$J367&amp;")"</f>
@@ -47040,16 +47169,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="D368" s="13" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="E368" s="13" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="F368" s="16" t="str">
         <f t="shared" ref="F368:F374" si="41">L368&amp;" ("&amp;$J368&amp;")"</f>
@@ -47098,16 +47227,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="D369" s="13" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="E369" s="13" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="F369" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47156,16 +47285,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="D370" s="13" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="E370" s="13" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="F370" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47214,16 +47343,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="D371" s="13" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="F371" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47272,16 +47401,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="D372" s="13" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="E372" s="13" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="F372" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47330,16 +47459,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D373" s="13" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="E373" s="13" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="F373" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47388,16 +47517,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="D374" s="13" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="E374" s="13" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="F374" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47446,16 +47575,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="D375" s="13" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="E375" s="13" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="F375" s="16" t="str">
         <f t="shared" ref="F375:F390" si="45">L375&amp;" ("&amp;$J375&amp;")"</f>
@@ -47504,16 +47633,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="E376" s="13" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F376" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47562,16 +47691,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="D377" s="13" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="E377" s="13" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F377" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47620,16 +47749,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="E378" s="13" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="F378" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47678,16 +47807,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="D379" s="13" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="E379" s="13" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="F379" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47736,16 +47865,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="E380" s="13" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="F380" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47790,16 +47919,16 @@
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B381" s="13" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="D381" s="13" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="E381" s="13" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="F381" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47844,16 +47973,16 @@
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B382" s="13" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="D382" s="13" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="E382" s="13" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="F382" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47898,16 +48027,16 @@
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B383" s="13" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="D383" s="13" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="E383" s="13" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="F383" s="16" t="str">
         <f t="shared" si="45"/>
@@ -47952,16 +48081,16 @@
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B384" s="13" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="D384" s="13" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="E384" s="13" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F384" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48006,16 +48135,16 @@
     </row>
     <row r="385" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B385" s="13" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="D385" s="13" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="E385" s="13" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="F385" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48060,16 +48189,16 @@
     </row>
     <row r="386" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B386" s="13" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="C386" s="13" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="E386" s="13" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="F386" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48114,16 +48243,16 @@
     </row>
     <row r="387" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B387" s="13" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E387" s="13" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="F387" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48168,16 +48297,16 @@
     </row>
     <row r="388" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B388" s="13" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="C388" s="13" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E388" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="F388" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48222,16 +48351,16 @@
     </row>
     <row r="389" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B389" s="13" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="E389" s="13" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="F389" s="16" t="str">
         <f t="shared" si="45"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="67725" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
+    <workbookView xWindow="67725" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="2336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="2338">
   <si>
     <t>Ore</t>
   </si>
@@ -7045,6 +7045,12 @@
   </si>
   <si>
     <t>19P</t>
+  </si>
+  <si>
+    <t>19S</t>
+  </si>
+  <si>
+    <t>19T</t>
   </si>
 </sst>
 </file>
@@ -7550,6 +7556,9 @@
           <cell r="A30" t="str">
             <v>Drum</v>
           </cell>
+          <cell r="B30" t="str">
+            <v>Liquid</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
@@ -8973,6 +8982,11 @@
             <v>Potash</v>
           </cell>
         </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Fluorite</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="1">
@@ -11739,7 +11753,7 @@
             <v>NaOH</v>
           </cell>
           <cell r="D260" t="str">
-            <v>Liquid</v>
+            <v>Solid</v>
           </cell>
         </row>
         <row r="261">
@@ -12952,6 +12966,33 @@
             <v>Cyclopentadiene</v>
           </cell>
           <cell r="D388" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="B389" t="str">
+            <v>Nitrogen Dioxide</v>
+          </cell>
+          <cell r="D389" t="str">
+            <v>Gas</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="B390" t="str">
+            <v>Sodium Nitrite</v>
+          </cell>
+          <cell r="C390" t="str">
+            <v>NaNO2</v>
+          </cell>
+          <cell r="D390" t="str">
+            <v>Solid</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="B391" t="str">
+            <v>Dicyclopentadiene</v>
+          </cell>
+          <cell r="D391" t="str">
             <v>Liquid</v>
           </cell>
         </row>
@@ -13255,8 +13296,8 @@
   </sheetPr>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14774,7 +14815,9 @@
         <f>[1]Enums!$A$37</f>
         <v>Armor</v>
       </c>
-      <c r="E53" s="32"/>
+      <c r="E53" s="32">
+        <v>8</v>
+      </c>
       <c r="F53" s="26" t="b">
         <v>1</v>
       </c>
@@ -14815,7 +14858,9 @@
         <f>[1]Enums!$A$37</f>
         <v>Armor</v>
       </c>
-      <c r="E54" s="32"/>
+      <c r="E54" s="32">
+        <v>8</v>
+      </c>
       <c r="F54" s="26" t="b">
         <v>1</v>
       </c>
@@ -14856,7 +14901,9 @@
         <f>[1]Enums!$A$37</f>
         <v>Armor</v>
       </c>
-      <c r="E55" s="32"/>
+      <c r="E55" s="32">
+        <v>8</v>
+      </c>
       <c r="F55" s="26" t="b">
         <v>1</v>
       </c>
@@ -15133,8 +15180,8 @@
   </sheetPr>
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16439,15 +16486,49 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="A25" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C25" t="str">
+        <f xml:space="preserve"> E25&amp;" "&amp;$C$1</f>
+        <v>Fluorite Ore</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>[1]Minerals!B$1</f>
+        <v>Mineral</v>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f>[1]Minerals!B10</f>
+        <v>Fluorite</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="8">
+        <v>6</v>
+      </c>
+      <c r="L25" s="1">
+        <v>40</v>
+      </c>
+      <c r="M25" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="3"/>
@@ -16940,7 +17021,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17565,10 +17646,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18163,6 +18244,27 @@
         <v>Antimony-Lead Ingot</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C28" t="str">
+        <f>"Block of "&amp;Ores!E25</f>
+        <v>Block of Fluorite</v>
+      </c>
+      <c r="D28" t="str">
+        <f>Ores!$C$1</f>
+        <v>Ore</v>
+      </c>
+      <c r="E28" t="str">
+        <f>Ores!$C$25</f>
+        <v>Fluorite Ore</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18176,7 +18278,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18872,15 +18974,15 @@
       </c>
       <c r="C35" t="str">
         <f>E35&amp;" "&amp;$C$1</f>
-        <v>Osmium Catalyst</v>
+        <v>Iridium Catalyst</v>
       </c>
       <c r="D35" t="str">
         <f>[1]Elements!$B$1</f>
         <v>Element</v>
       </c>
       <c r="E35" t="str">
-        <f>[1]Elements!$B$77</f>
-        <v>Osmium</v>
+        <f>[1]Elements!$B$78</f>
+        <v>Iridium</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -18937,8 +19039,8 @@
   </sheetPr>
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19059,7 +19161,7 @@
         <v>Cartridge</v>
       </c>
       <c r="O2" s="20" t="str">
-        <f>IF(L2=[1]Enums!$A$20, [1]Enums!$A$31, IF(N2=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L2=[1]Enums!$A$20, [1]Enums!$A$31, IF(L2=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P2" s="20" t="str">
@@ -19120,8 +19222,8 @@
         <f>IF(L3=[1]Enums!$A$20, [1]Enums!$A$28, IF(L3=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Cartridge</v>
       </c>
-      <c r="O3" s="24" t="str">
-        <f>IF(L3=[1]Enums!$A$20, [1]Enums!$A$31, IF(N3=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O3" s="20" t="str">
+        <f>IF(L3=[1]Enums!$A$20, [1]Enums!$A$31, IF(L3=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P3" s="24" t="str">
@@ -19183,7 +19285,7 @@
         <v>Sack</v>
       </c>
       <c r="O4" s="20" t="str">
-        <f>IF(L4=[1]Enums!$A$20, [1]Enums!$A$31, IF(N4=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L4=[1]Enums!$A$20, [1]Enums!$A$31, IF(L4=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P4" s="20" t="str">
@@ -19245,7 +19347,7 @@
         <v>Sack</v>
       </c>
       <c r="O5" s="20" t="str">
-        <f>IF(L5=[1]Enums!$A$20, [1]Enums!$A$31, IF(N5=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L5=[1]Enums!$A$20, [1]Enums!$A$31, IF(L5=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P5" s="20" t="str">
@@ -19307,7 +19409,7 @@
         <v>Sack</v>
       </c>
       <c r="O6" s="20" t="str">
-        <f>IF(L6=[1]Enums!$A$20, [1]Enums!$A$31, IF(N6=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L6=[1]Enums!$A$20, [1]Enums!$A$31, IF(L6=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P6" s="20" t="str">
@@ -19369,7 +19471,7 @@
         <v>Sack</v>
       </c>
       <c r="O7" s="20" t="str">
-        <f>IF(L7=[1]Enums!$A$20, [1]Enums!$A$31, IF(N7=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L7=[1]Enums!$A$20, [1]Enums!$A$31, IF(L7=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P7" s="20" t="str">
@@ -19431,7 +19533,7 @@
         <v>Cartridge</v>
       </c>
       <c r="O8" s="20" t="str">
-        <f>IF(L8=[1]Enums!$A$20, [1]Enums!$A$31, IF(N8=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L8=[1]Enums!$A$20, [1]Enums!$A$31, IF(L8=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P8" s="20" t="str">
@@ -19493,7 +19595,7 @@
         <v>Cartridge</v>
       </c>
       <c r="O9" s="20" t="str">
-        <f>IF(L9=[1]Enums!$A$20, [1]Enums!$A$31, IF(N9=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L9=[1]Enums!$A$20, [1]Enums!$A$31, IF(L9=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P9" s="20" t="str">
@@ -19555,7 +19657,7 @@
         <v>Cartridge</v>
       </c>
       <c r="O10" s="20" t="str">
-        <f>IF(L10=[1]Enums!$A$20, [1]Enums!$A$31, IF(N10=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L10=[1]Enums!$A$20, [1]Enums!$A$31, IF(L10=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P10" s="20" t="str">
@@ -19616,8 +19718,8 @@
         <f>IF(L11=[1]Enums!$A$20, [1]Enums!$A$28, IF(L11=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Cartridge</v>
       </c>
-      <c r="O11" s="24" t="str">
-        <f>IF(L11=[1]Enums!$A$20, [1]Enums!$A$31, IF(N11=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O11" s="20" t="str">
+        <f>IF(L11=[1]Enums!$A$20, [1]Enums!$A$31, IF(L11=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P11" s="24" t="str">
@@ -19679,7 +19781,7 @@
         <v>Sack</v>
       </c>
       <c r="O12" s="20" t="str">
-        <f>IF(L12=[1]Enums!$A$20, [1]Enums!$A$31, IF(N12=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L12=[1]Enums!$A$20, [1]Enums!$A$31, IF(L12=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P12" s="20" t="str">
@@ -19741,7 +19843,7 @@
         <v>Sack</v>
       </c>
       <c r="O13" s="20" t="str">
-        <f>IF(L13=[1]Enums!$A$20, [1]Enums!$A$31, IF(N13=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L13=[1]Enums!$A$20, [1]Enums!$A$31, IF(L13=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P13" s="20" t="str">
@@ -19803,7 +19905,7 @@
         <v>Sack</v>
       </c>
       <c r="O14" s="20" t="str">
-        <f>IF(L14=[1]Enums!$A$20, [1]Enums!$A$31, IF(N14=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L14=[1]Enums!$A$20, [1]Enums!$A$31, IF(L14=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P14" s="20" t="str">
@@ -19865,7 +19967,7 @@
         <v>Sack</v>
       </c>
       <c r="O15" s="20" t="str">
-        <f>IF(L15=[1]Enums!$A$20, [1]Enums!$A$31, IF(N15=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L15=[1]Enums!$A$20, [1]Enums!$A$31, IF(L15=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P15" s="20" t="str">
@@ -19927,7 +20029,7 @@
         <v>Sack</v>
       </c>
       <c r="O16" s="20" t="str">
-        <f>IF(L16=[1]Enums!$A$20, [1]Enums!$A$31, IF(N16=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L16=[1]Enums!$A$20, [1]Enums!$A$31, IF(L16=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P16" s="20" t="str">
@@ -19989,7 +20091,7 @@
         <v>Sack</v>
       </c>
       <c r="O17" s="20" t="str">
-        <f>IF(L17=[1]Enums!$A$20, [1]Enums!$A$31, IF(N17=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L17=[1]Enums!$A$20, [1]Enums!$A$31, IF(L17=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P17" s="20" t="str">
@@ -20051,7 +20153,7 @@
         <v>Cartridge</v>
       </c>
       <c r="O18" s="20" t="str">
-        <f>IF(L18=[1]Enums!$A$20, [1]Enums!$A$31, IF(N18=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L18=[1]Enums!$A$20, [1]Enums!$A$31, IF(L18=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P18" s="20" t="str">
@@ -20112,8 +20214,8 @@
         <f>IF(L19=[1]Enums!$A$20, [1]Enums!$A$28, IF(L19=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Cartridge</v>
       </c>
-      <c r="O19" s="24" t="str">
-        <f>IF(L19=[1]Enums!$A$20, [1]Enums!$A$31, IF(N19=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O19" s="20" t="str">
+        <f>IF(L19=[1]Enums!$A$20, [1]Enums!$A$31, IF(L19=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P19" s="24" t="str">
@@ -20175,7 +20277,7 @@
         <v>Sack</v>
       </c>
       <c r="O20" s="20" t="str">
-        <f>IF(L20=[1]Enums!$A$20, [1]Enums!$A$31, IF(N20=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L20=[1]Enums!$A$20, [1]Enums!$A$31, IF(L20=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P20" s="20" t="str">
@@ -20237,7 +20339,7 @@
         <v>Sack</v>
       </c>
       <c r="O21" s="20" t="str">
-        <f>IF(L21=[1]Enums!$A$20, [1]Enums!$A$31, IF(N21=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L21=[1]Enums!$A$20, [1]Enums!$A$31, IF(L21=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P21" s="20" t="str">
@@ -20299,7 +20401,7 @@
         <v>Sack</v>
       </c>
       <c r="O22" s="20" t="str">
-        <f>IF(L22=[1]Enums!$A$20, [1]Enums!$A$31, IF(N22=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L22=[1]Enums!$A$20, [1]Enums!$A$31, IF(L22=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P22" s="20" t="str">
@@ -20361,7 +20463,7 @@
         <v>Sack</v>
       </c>
       <c r="O23" s="20" t="str">
-        <f>IF(L23=[1]Enums!$A$20, [1]Enums!$A$31, IF(N23=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L23=[1]Enums!$A$20, [1]Enums!$A$31, IF(L23=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P23" s="20" t="str">
@@ -20423,7 +20525,7 @@
         <v>Sack</v>
       </c>
       <c r="O24" s="20" t="str">
-        <f>IF(L24=[1]Enums!$A$20, [1]Enums!$A$31, IF(N24=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L24=[1]Enums!$A$20, [1]Enums!$A$31, IF(L24=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P24" s="20" t="str">
@@ -20485,7 +20587,7 @@
         <v>Sack</v>
       </c>
       <c r="O25" s="20" t="str">
-        <f>IF(L25=[1]Enums!$A$20, [1]Enums!$A$31, IF(N25=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L25=[1]Enums!$A$20, [1]Enums!$A$31, IF(L25=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P25" s="20" t="str">
@@ -20547,7 +20649,7 @@
         <v>Sack</v>
       </c>
       <c r="O26" s="20" t="str">
-        <f>IF(L26=[1]Enums!$A$20, [1]Enums!$A$31, IF(N26=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L26=[1]Enums!$A$20, [1]Enums!$A$31, IF(L26=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P26" s="20" t="str">
@@ -20609,7 +20711,7 @@
         <v>Sack</v>
       </c>
       <c r="O27" s="20" t="str">
-        <f>IF(L27=[1]Enums!$A$20, [1]Enums!$A$31, IF(N27=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L27=[1]Enums!$A$20, [1]Enums!$A$31, IF(L27=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P27" s="20" t="str">
@@ -20671,7 +20773,7 @@
         <v>Sack</v>
       </c>
       <c r="O28" s="20" t="str">
-        <f>IF(L28=[1]Enums!$A$20, [1]Enums!$A$31, IF(N28=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L28=[1]Enums!$A$20, [1]Enums!$A$31, IF(L28=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P28" s="20" t="str">
@@ -20733,7 +20835,7 @@
         <v>Sack</v>
       </c>
       <c r="O29" s="20" t="str">
-        <f>IF(L29=[1]Enums!$A$20, [1]Enums!$A$31, IF(N29=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L29=[1]Enums!$A$20, [1]Enums!$A$31, IF(L29=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P29" s="20" t="str">
@@ -20795,7 +20897,7 @@
         <v>Sack</v>
       </c>
       <c r="O30" s="20" t="str">
-        <f>IF(L30=[1]Enums!$A$20, [1]Enums!$A$31, IF(N30=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L30=[1]Enums!$A$20, [1]Enums!$A$31, IF(L30=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P30" s="20" t="str">
@@ -20857,7 +20959,7 @@
         <v>Sack</v>
       </c>
       <c r="O31" s="20" t="str">
-        <f>IF(L31=[1]Enums!$A$20, [1]Enums!$A$31, IF(N31=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L31=[1]Enums!$A$20, [1]Enums!$A$31, IF(L31=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P31" s="20" t="str">
@@ -20919,7 +21021,7 @@
         <v>Sack</v>
       </c>
       <c r="O32" s="20" t="str">
-        <f>IF(L32=[1]Enums!$A$20, [1]Enums!$A$31, IF(N32=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L32=[1]Enums!$A$20, [1]Enums!$A$31, IF(L32=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P32" s="20" t="str">
@@ -20981,7 +21083,7 @@
         <v>Sack</v>
       </c>
       <c r="O33" s="20" t="str">
-        <f>IF(L33=[1]Enums!$A$20, [1]Enums!$A$31, IF(N33=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L33=[1]Enums!$A$20, [1]Enums!$A$31, IF(L33=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P33" s="20" t="str">
@@ -21043,7 +21145,7 @@
         <v>Sack</v>
       </c>
       <c r="O34" s="20" t="str">
-        <f>IF(L34=[1]Enums!$A$20, [1]Enums!$A$31, IF(N34=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L34=[1]Enums!$A$20, [1]Enums!$A$31, IF(L34=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P34" s="20" t="str">
@@ -21105,7 +21207,7 @@
         <v>Sack</v>
       </c>
       <c r="O35" s="20" t="str">
-        <f>IF(L35=[1]Enums!$A$20, [1]Enums!$A$31, IF(N35=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L35=[1]Enums!$A$20, [1]Enums!$A$31, IF(L35=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P35" s="20" t="str">
@@ -21140,7 +21242,7 @@
       </c>
       <c r="H36" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Powder Keg (Bromine)</v>
+        <v>Drum (Bromine)</v>
       </c>
       <c r="I36" s="16" t="str">
         <f t="shared" si="7"/>
@@ -21167,8 +21269,8 @@
         <v>Beaker</v>
       </c>
       <c r="O36" s="20" t="str">
-        <f>IF(L36=[1]Enums!$A$20, [1]Enums!$A$31, IF(N36=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <f>IF(L36=[1]Enums!$A$20, [1]Enums!$A$31, IF(L36=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Drum</v>
       </c>
       <c r="P36" s="20" t="str">
         <f>IF(L36=[1]Enums!$A$20, [1]Enums!$A$34, IF(L36=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
@@ -21228,8 +21330,8 @@
         <f>IF(L37=[1]Enums!$A$20, [1]Enums!$A$28, IF(L37=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Cartridge</v>
       </c>
-      <c r="O37" s="24" t="str">
-        <f>IF(L37=[1]Enums!$A$20, [1]Enums!$A$31, IF(N37=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O37" s="20" t="str">
+        <f>IF(L37=[1]Enums!$A$20, [1]Enums!$A$31, IF(L37=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P37" s="24" t="str">
@@ -21291,7 +21393,7 @@
         <v>Sack</v>
       </c>
       <c r="O38" s="20" t="str">
-        <f>IF(L38=[1]Enums!$A$20, [1]Enums!$A$31, IF(N38=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L38=[1]Enums!$A$20, [1]Enums!$A$31, IF(L38=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P38" s="20" t="str">
@@ -21353,7 +21455,7 @@
         <v>Sack</v>
       </c>
       <c r="O39" s="20" t="str">
-        <f>IF(L39=[1]Enums!$A$20, [1]Enums!$A$31, IF(N39=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L39=[1]Enums!$A$20, [1]Enums!$A$31, IF(L39=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P39" s="20" t="str">
@@ -21415,7 +21517,7 @@
         <v>Sack</v>
       </c>
       <c r="O40" s="20" t="str">
-        <f>IF(L40=[1]Enums!$A$20, [1]Enums!$A$31, IF(N40=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L40=[1]Enums!$A$20, [1]Enums!$A$31, IF(L40=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P40" s="20" t="str">
@@ -21477,7 +21579,7 @@
         <v>Sack</v>
       </c>
       <c r="O41" s="20" t="str">
-        <f>IF(L41=[1]Enums!$A$20, [1]Enums!$A$31, IF(N41=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L41=[1]Enums!$A$20, [1]Enums!$A$31, IF(L41=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P41" s="20" t="str">
@@ -21539,7 +21641,7 @@
         <v>Sack</v>
       </c>
       <c r="O42" s="20" t="str">
-        <f>IF(L42=[1]Enums!$A$20, [1]Enums!$A$31, IF(N42=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L42=[1]Enums!$A$20, [1]Enums!$A$31, IF(L42=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P42" s="20" t="str">
@@ -21601,7 +21703,7 @@
         <v>Sack</v>
       </c>
       <c r="O43" s="20" t="str">
-        <f>IF(L43=[1]Enums!$A$20, [1]Enums!$A$31, IF(N43=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L43=[1]Enums!$A$20, [1]Enums!$A$31, IF(L43=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P43" s="20" t="str">
@@ -21663,7 +21765,7 @@
         <v>Sack</v>
       </c>
       <c r="O44" s="20" t="str">
-        <f>IF(L44=[1]Enums!$A$20, [1]Enums!$A$31, IF(N44=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L44=[1]Enums!$A$20, [1]Enums!$A$31, IF(L44=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P44" s="20" t="str">
@@ -21725,7 +21827,7 @@
         <v>Sack</v>
       </c>
       <c r="O45" s="20" t="str">
-        <f>IF(L45=[1]Enums!$A$20, [1]Enums!$A$31, IF(N45=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L45=[1]Enums!$A$20, [1]Enums!$A$31, IF(L45=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P45" s="20" t="str">
@@ -21787,7 +21889,7 @@
         <v>Sack</v>
       </c>
       <c r="O46" s="20" t="str">
-        <f>IF(L46=[1]Enums!$A$20, [1]Enums!$A$31, IF(N46=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L46=[1]Enums!$A$20, [1]Enums!$A$31, IF(L46=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P46" s="20" t="str">
@@ -21849,7 +21951,7 @@
         <v>Sack</v>
       </c>
       <c r="O47" s="20" t="str">
-        <f>IF(L47=[1]Enums!$A$20, [1]Enums!$A$31, IF(N47=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L47=[1]Enums!$A$20, [1]Enums!$A$31, IF(L47=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P47" s="20" t="str">
@@ -21911,7 +22013,7 @@
         <v>Sack</v>
       </c>
       <c r="O48" s="20" t="str">
-        <f>IF(L48=[1]Enums!$A$20, [1]Enums!$A$31, IF(N48=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L48=[1]Enums!$A$20, [1]Enums!$A$31, IF(L48=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P48" s="20" t="str">
@@ -21973,7 +22075,7 @@
         <v>Sack</v>
       </c>
       <c r="O49" s="20" t="str">
-        <f>IF(L49=[1]Enums!$A$20, [1]Enums!$A$31, IF(N49=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L49=[1]Enums!$A$20, [1]Enums!$A$31, IF(L49=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P49" s="20" t="str">
@@ -22035,7 +22137,7 @@
         <v>Sack</v>
       </c>
       <c r="O50" s="20" t="str">
-        <f>IF(L50=[1]Enums!$A$20, [1]Enums!$A$31, IF(N50=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L50=[1]Enums!$A$20, [1]Enums!$A$31, IF(L50=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P50" s="20" t="str">
@@ -22097,7 +22199,7 @@
         <v>Sack</v>
       </c>
       <c r="O51" s="20" t="str">
-        <f>IF(L51=[1]Enums!$A$20, [1]Enums!$A$31, IF(N51=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L51=[1]Enums!$A$20, [1]Enums!$A$31, IF(L51=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P51" s="20" t="str">
@@ -22159,7 +22261,7 @@
         <v>Sack</v>
       </c>
       <c r="O52" s="20" t="str">
-        <f>IF(L52=[1]Enums!$A$20, [1]Enums!$A$31, IF(N52=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L52=[1]Enums!$A$20, [1]Enums!$A$31, IF(L52=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P52" s="20" t="str">
@@ -22221,7 +22323,7 @@
         <v>Sack</v>
       </c>
       <c r="O53" s="20" t="str">
-        <f>IF(L53=[1]Enums!$A$20, [1]Enums!$A$31, IF(N53=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L53=[1]Enums!$A$20, [1]Enums!$A$31, IF(L53=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P53" s="20" t="str">
@@ -22283,7 +22385,7 @@
         <v>Sack</v>
       </c>
       <c r="O54" s="20" t="str">
-        <f>IF(L54=[1]Enums!$A$20, [1]Enums!$A$31, IF(N54=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L54=[1]Enums!$A$20, [1]Enums!$A$31, IF(L54=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P54" s="20" t="str">
@@ -22344,8 +22446,8 @@
         <f>IF(L55=[1]Enums!$A$20, [1]Enums!$A$28, IF(L55=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Cartridge</v>
       </c>
-      <c r="O55" s="24" t="str">
-        <f>IF(L55=[1]Enums!$A$20, [1]Enums!$A$31, IF(N55=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O55" s="20" t="str">
+        <f>IF(L55=[1]Enums!$A$20, [1]Enums!$A$31, IF(L55=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P55" s="24" t="str">
@@ -22407,7 +22509,7 @@
         <v>Sack</v>
       </c>
       <c r="O56" s="20" t="str">
-        <f>IF(L56=[1]Enums!$A$20, [1]Enums!$A$31, IF(N56=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L56=[1]Enums!$A$20, [1]Enums!$A$31, IF(L56=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P56" s="20" t="str">
@@ -22469,7 +22571,7 @@
         <v>Sack</v>
       </c>
       <c r="O57" s="20" t="str">
-        <f>IF(L57=[1]Enums!$A$20, [1]Enums!$A$31, IF(N57=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L57=[1]Enums!$A$20, [1]Enums!$A$31, IF(L57=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P57" s="20" t="str">
@@ -22531,7 +22633,7 @@
         <v>Sack</v>
       </c>
       <c r="O58" s="20" t="str">
-        <f>IF(L58=[1]Enums!$A$20, [1]Enums!$A$31, IF(N58=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L58=[1]Enums!$A$20, [1]Enums!$A$31, IF(L58=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P58" s="20" t="str">
@@ -22593,7 +22695,7 @@
         <v>Sack</v>
       </c>
       <c r="O59" s="20" t="str">
-        <f>IF(L59=[1]Enums!$A$20, [1]Enums!$A$31, IF(N59=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L59=[1]Enums!$A$20, [1]Enums!$A$31, IF(L59=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P59" s="20" t="str">
@@ -22655,7 +22757,7 @@
         <v>Sack</v>
       </c>
       <c r="O60" s="20" t="str">
-        <f>IF(L60=[1]Enums!$A$20, [1]Enums!$A$31, IF(N60=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L60=[1]Enums!$A$20, [1]Enums!$A$31, IF(L60=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P60" s="20" t="str">
@@ -22717,7 +22819,7 @@
         <v>Sack</v>
       </c>
       <c r="O61" s="20" t="str">
-        <f>IF(L61=[1]Enums!$A$20, [1]Enums!$A$31, IF(N61=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L61=[1]Enums!$A$20, [1]Enums!$A$31, IF(L61=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P61" s="20" t="str">
@@ -22779,7 +22881,7 @@
         <v>Sack</v>
       </c>
       <c r="O62" s="20" t="str">
-        <f>IF(L62=[1]Enums!$A$20, [1]Enums!$A$31, IF(N62=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L62=[1]Enums!$A$20, [1]Enums!$A$31, IF(L62=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P62" s="20" t="str">
@@ -22841,7 +22943,7 @@
         <v>Sack</v>
       </c>
       <c r="O63" s="20" t="str">
-        <f>IF(L63=[1]Enums!$A$20, [1]Enums!$A$31, IF(N63=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L63=[1]Enums!$A$20, [1]Enums!$A$31, IF(L63=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P63" s="20" t="str">
@@ -22903,7 +23005,7 @@
         <v>Sack</v>
       </c>
       <c r="O64" s="20" t="str">
-        <f>IF(L64=[1]Enums!$A$20, [1]Enums!$A$31, IF(N64=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L64=[1]Enums!$A$20, [1]Enums!$A$31, IF(L64=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P64" s="20" t="str">
@@ -22965,7 +23067,7 @@
         <v>Sack</v>
       </c>
       <c r="O65" s="20" t="str">
-        <f>IF(L65=[1]Enums!$A$20, [1]Enums!$A$31, IF(N65=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L65=[1]Enums!$A$20, [1]Enums!$A$31, IF(L65=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P65" s="20" t="str">
@@ -23027,7 +23129,7 @@
         <v>Sack</v>
       </c>
       <c r="O66" s="20" t="str">
-        <f>IF(L66=[1]Enums!$A$20, [1]Enums!$A$31, IF(N66=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L66=[1]Enums!$A$20, [1]Enums!$A$31, IF(L66=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P66" s="20" t="str">
@@ -23089,7 +23191,7 @@
         <v>Sack</v>
       </c>
       <c r="O67" s="20" t="str">
-        <f>IF(L67=[1]Enums!$A$20, [1]Enums!$A$31, IF(N67=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L67=[1]Enums!$A$20, [1]Enums!$A$31, IF(L67=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P67" s="20" t="str">
@@ -23151,7 +23253,7 @@
         <v>Sack</v>
       </c>
       <c r="O68" s="20" t="str">
-        <f>IF(L68=[1]Enums!$A$20, [1]Enums!$A$31, IF(N68=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L68=[1]Enums!$A$20, [1]Enums!$A$31, IF(L68=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P68" s="20" t="str">
@@ -23213,7 +23315,7 @@
         <v>Sack</v>
       </c>
       <c r="O69" s="20" t="str">
-        <f>IF(L69=[1]Enums!$A$20, [1]Enums!$A$31, IF(N69=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L69=[1]Enums!$A$20, [1]Enums!$A$31, IF(L69=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P69" s="20" t="str">
@@ -23275,7 +23377,7 @@
         <v>Sack</v>
       </c>
       <c r="O70" s="20" t="str">
-        <f>IF(L70=[1]Enums!$A$20, [1]Enums!$A$31, IF(N70=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L70=[1]Enums!$A$20, [1]Enums!$A$31, IF(L70=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P70" s="20" t="str">
@@ -23337,7 +23439,7 @@
         <v>Sack</v>
       </c>
       <c r="O71" s="20" t="str">
-        <f>IF(L71=[1]Enums!$A$20, [1]Enums!$A$31, IF(N71=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L71=[1]Enums!$A$20, [1]Enums!$A$31, IF(L71=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P71" s="20" t="str">
@@ -23399,7 +23501,7 @@
         <v>Sack</v>
       </c>
       <c r="O72" s="20" t="str">
-        <f>IF(L72=[1]Enums!$A$20, [1]Enums!$A$31, IF(N72=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L72=[1]Enums!$A$20, [1]Enums!$A$31, IF(L72=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P72" s="20" t="str">
@@ -23461,7 +23563,7 @@
         <v>Sack</v>
       </c>
       <c r="O73" s="20" t="str">
-        <f>IF(L73=[1]Enums!$A$20, [1]Enums!$A$31, IF(N73=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L73=[1]Enums!$A$20, [1]Enums!$A$31, IF(L73=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P73" s="20" t="str">
@@ -23523,7 +23625,7 @@
         <v>Sack</v>
       </c>
       <c r="O74" s="20" t="str">
-        <f>IF(L74=[1]Enums!$A$20, [1]Enums!$A$31, IF(N74=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L74=[1]Enums!$A$20, [1]Enums!$A$31, IF(L74=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P74" s="20" t="str">
@@ -23585,7 +23687,7 @@
         <v>Sack</v>
       </c>
       <c r="O75" s="20" t="str">
-        <f>IF(L75=[1]Enums!$A$20, [1]Enums!$A$31, IF(N75=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L75=[1]Enums!$A$20, [1]Enums!$A$31, IF(L75=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P75" s="20" t="str">
@@ -23647,7 +23749,7 @@
         <v>Sack</v>
       </c>
       <c r="O76" s="20" t="str">
-        <f>IF(L76=[1]Enums!$A$20, [1]Enums!$A$31, IF(N76=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L76=[1]Enums!$A$20, [1]Enums!$A$31, IF(L76=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P76" s="20" t="str">
@@ -23709,7 +23811,7 @@
         <v>Sack</v>
       </c>
       <c r="O77" s="20" t="str">
-        <f>IF(L77=[1]Enums!$A$20, [1]Enums!$A$31, IF(N77=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L77=[1]Enums!$A$20, [1]Enums!$A$31, IF(L77=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P77" s="20" t="str">
@@ -23771,7 +23873,7 @@
         <v>Sack</v>
       </c>
       <c r="O78" s="20" t="str">
-        <f>IF(L78=[1]Enums!$A$20, [1]Enums!$A$31, IF(N78=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L78=[1]Enums!$A$20, [1]Enums!$A$31, IF(L78=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P78" s="20" t="str">
@@ -23833,7 +23935,7 @@
         <v>Sack</v>
       </c>
       <c r="O79" s="20" t="str">
-        <f>IF(L79=[1]Enums!$A$20, [1]Enums!$A$31, IF(N79=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L79=[1]Enums!$A$20, [1]Enums!$A$31, IF(L79=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P79" s="20" t="str">
@@ -23895,7 +23997,7 @@
         <v>Sack</v>
       </c>
       <c r="O80" s="20" t="str">
-        <f>IF(L80=[1]Enums!$A$20, [1]Enums!$A$31, IF(N80=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L80=[1]Enums!$A$20, [1]Enums!$A$31, IF(L80=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P80" s="20" t="str">
@@ -23930,7 +24032,7 @@
       </c>
       <c r="H81" s="16" t="str">
         <f t="shared" si="10"/>
-        <v>Powder Keg (Mercury)</v>
+        <v>Drum (Mercury)</v>
       </c>
       <c r="I81" s="16" t="str">
         <f t="shared" si="11"/>
@@ -23957,8 +24059,8 @@
         <v>Beaker</v>
       </c>
       <c r="O81" s="20" t="str">
-        <f>IF(L81=[1]Enums!$A$20, [1]Enums!$A$31, IF(N81=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <f>IF(L81=[1]Enums!$A$20, [1]Enums!$A$31, IF(L81=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Drum</v>
       </c>
       <c r="P81" s="20" t="str">
         <f>IF(L81=[1]Enums!$A$20, [1]Enums!$A$34, IF(L81=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
@@ -24019,7 +24121,7 @@
         <v>Sack</v>
       </c>
       <c r="O82" s="20" t="str">
-        <f>IF(L82=[1]Enums!$A$20, [1]Enums!$A$31, IF(N82=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L82=[1]Enums!$A$20, [1]Enums!$A$31, IF(L82=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P82" s="20" t="str">
@@ -24081,7 +24183,7 @@
         <v>Sack</v>
       </c>
       <c r="O83" s="20" t="str">
-        <f>IF(L83=[1]Enums!$A$20, [1]Enums!$A$31, IF(N83=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L83=[1]Enums!$A$20, [1]Enums!$A$31, IF(L83=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P83" s="20" t="str">
@@ -24143,7 +24245,7 @@
         <v>Sack</v>
       </c>
       <c r="O84" s="20" t="str">
-        <f>IF(L84=[1]Enums!$A$20, [1]Enums!$A$31, IF(N84=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L84=[1]Enums!$A$20, [1]Enums!$A$31, IF(L84=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P84" s="20" t="str">
@@ -24205,7 +24307,7 @@
         <v>Sack</v>
       </c>
       <c r="O85" s="20" t="str">
-        <f>IF(L85=[1]Enums!$A$20, [1]Enums!$A$31, IF(N85=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L85=[1]Enums!$A$20, [1]Enums!$A$31, IF(L85=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P85" s="20" t="str">
@@ -24267,7 +24369,7 @@
         <v>Sack</v>
       </c>
       <c r="O86" s="20" t="str">
-        <f>IF(L86=[1]Enums!$A$20, [1]Enums!$A$31, IF(N86=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <f>IF(L86=[1]Enums!$A$20, [1]Enums!$A$31, IF(L86=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P86" s="20" t="str">
@@ -24328,8 +24430,8 @@
         <f>IF(L87=[1]Enums!$A$20, [1]Enums!$A$28, IF(L87=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Cartridge</v>
       </c>
-      <c r="O87" s="24" t="str">
-        <f>IF(L87=[1]Enums!$A$20, [1]Enums!$A$31, IF(N87=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O87" s="20" t="str">
+        <f>IF(L87=[1]Enums!$A$20, [1]Enums!$A$31, IF(L87=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Canister</v>
       </c>
       <c r="P87" s="24" t="str">
@@ -24390,8 +24492,8 @@
         <f>IF(L88=[1]Enums!$A$20, [1]Enums!$A$28, IF(L88=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O88" s="4" t="str">
-        <f>IF(L88=[1]Enums!$A$20, [1]Enums!$A$31, IF(N88=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O88" s="20" t="str">
+        <f>IF(L88=[1]Enums!$A$20, [1]Enums!$A$31, IF(L88=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P88" s="4" t="str">
@@ -24452,8 +24554,8 @@
         <f>IF(L89=[1]Enums!$A$20, [1]Enums!$A$28, IF(L89=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O89" s="4" t="str">
-        <f>IF(L89=[1]Enums!$A$20, [1]Enums!$A$31, IF(N89=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O89" s="20" t="str">
+        <f>IF(L89=[1]Enums!$A$20, [1]Enums!$A$31, IF(L89=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P89" s="4" t="str">
@@ -24514,8 +24616,8 @@
         <f>IF(L90=[1]Enums!$A$20, [1]Enums!$A$28, IF(L90=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O90" s="4" t="str">
-        <f>IF(L90=[1]Enums!$A$20, [1]Enums!$A$31, IF(N90=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O90" s="20" t="str">
+        <f>IF(L90=[1]Enums!$A$20, [1]Enums!$A$31, IF(L90=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P90" s="4" t="str">
@@ -24576,8 +24678,8 @@
         <f>IF(L91=[1]Enums!$A$20, [1]Enums!$A$28, IF(L91=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O91" s="4" t="str">
-        <f>IF(L91=[1]Enums!$A$20, [1]Enums!$A$31, IF(N91=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O91" s="20" t="str">
+        <f>IF(L91=[1]Enums!$A$20, [1]Enums!$A$31, IF(L91=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P91" s="4" t="str">
@@ -24638,8 +24740,8 @@
         <f>IF(L92=[1]Enums!$A$20, [1]Enums!$A$28, IF(L92=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O92" s="4" t="str">
-        <f>IF(L92=[1]Enums!$A$20, [1]Enums!$A$31, IF(N92=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O92" s="20" t="str">
+        <f>IF(L92=[1]Enums!$A$20, [1]Enums!$A$31, IF(L92=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P92" s="4" t="str">
@@ -24700,8 +24802,8 @@
         <f>IF(L93=[1]Enums!$A$20, [1]Enums!$A$28, IF(L93=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O93" s="4" t="str">
-        <f>IF(L93=[1]Enums!$A$20, [1]Enums!$A$31, IF(N93=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O93" s="20" t="str">
+        <f>IF(L93=[1]Enums!$A$20, [1]Enums!$A$31, IF(L93=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P93" s="4" t="str">
@@ -24762,8 +24864,8 @@
         <f>IF(L94=[1]Enums!$A$20, [1]Enums!$A$28, IF(L94=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O94" s="4" t="str">
-        <f>IF(L94=[1]Enums!$A$20, [1]Enums!$A$31, IF(N94=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O94" s="20" t="str">
+        <f>IF(L94=[1]Enums!$A$20, [1]Enums!$A$31, IF(L94=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P94" s="4" t="str">
@@ -24824,8 +24926,8 @@
         <f>IF(L95=[1]Enums!$A$20, [1]Enums!$A$28, IF(L95=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O95" s="4" t="str">
-        <f>IF(L95=[1]Enums!$A$20, [1]Enums!$A$31, IF(N95=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O95" s="20" t="str">
+        <f>IF(L95=[1]Enums!$A$20, [1]Enums!$A$31, IF(L95=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P95" s="4" t="str">
@@ -24886,8 +24988,8 @@
         <f>IF(L96=[1]Enums!$A$20, [1]Enums!$A$28, IF(L96=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O96" s="4" t="str">
-        <f>IF(L96=[1]Enums!$A$20, [1]Enums!$A$31, IF(N96=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O96" s="20" t="str">
+        <f>IF(L96=[1]Enums!$A$20, [1]Enums!$A$31, IF(L96=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P96" s="4" t="str">
@@ -24948,8 +25050,8 @@
         <f>IF(L97=[1]Enums!$A$20, [1]Enums!$A$28, IF(L97=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O97" s="4" t="str">
-        <f>IF(L97=[1]Enums!$A$20, [1]Enums!$A$31, IF(N97=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O97" s="20" t="str">
+        <f>IF(L97=[1]Enums!$A$20, [1]Enums!$A$31, IF(L97=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P97" s="4" t="str">
@@ -25010,8 +25112,8 @@
         <f>IF(L98=[1]Enums!$A$20, [1]Enums!$A$28, IF(L98=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O98" s="4" t="str">
-        <f>IF(L98=[1]Enums!$A$20, [1]Enums!$A$31, IF(N98=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O98" s="20" t="str">
+        <f>IF(L98=[1]Enums!$A$20, [1]Enums!$A$31, IF(L98=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P98" s="4" t="str">
@@ -25072,8 +25174,8 @@
         <f>IF(L99=[1]Enums!$A$20, [1]Enums!$A$28, IF(L99=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O99" s="4" t="str">
-        <f>IF(L99=[1]Enums!$A$20, [1]Enums!$A$31, IF(N99=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O99" s="20" t="str">
+        <f>IF(L99=[1]Enums!$A$20, [1]Enums!$A$31, IF(L99=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P99" s="4" t="str">
@@ -25134,8 +25236,8 @@
         <f>IF(L100=[1]Enums!$A$20, [1]Enums!$A$28, IF(L100=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O100" s="4" t="str">
-        <f>IF(L100=[1]Enums!$A$20, [1]Enums!$A$31, IF(N100=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O100" s="20" t="str">
+        <f>IF(L100=[1]Enums!$A$20, [1]Enums!$A$31, IF(L100=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P100" s="4" t="str">
@@ -25196,8 +25298,8 @@
         <f>IF(L101=[1]Enums!$A$20, [1]Enums!$A$28, IF(L101=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O101" s="4" t="str">
-        <f>IF(L101=[1]Enums!$A$20, [1]Enums!$A$31, IF(N101=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O101" s="20" t="str">
+        <f>IF(L101=[1]Enums!$A$20, [1]Enums!$A$31, IF(L101=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P101" s="4" t="str">
@@ -25258,8 +25360,8 @@
         <f>IF(L102=[1]Enums!$A$20, [1]Enums!$A$28, IF(L102=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O102" s="4" t="str">
-        <f>IF(L102=[1]Enums!$A$20, [1]Enums!$A$31, IF(N102=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O102" s="20" t="str">
+        <f>IF(L102=[1]Enums!$A$20, [1]Enums!$A$31, IF(L102=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P102" s="4" t="str">
@@ -25320,8 +25422,8 @@
         <f>IF(L103=[1]Enums!$A$20, [1]Enums!$A$28, IF(L103=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O103" s="4" t="str">
-        <f>IF(L103=[1]Enums!$A$20, [1]Enums!$A$31, IF(N103=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O103" s="20" t="str">
+        <f>IF(L103=[1]Enums!$A$20, [1]Enums!$A$31, IF(L103=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P103" s="4" t="str">
@@ -25382,8 +25484,8 @@
         <f>IF(L104=[1]Enums!$A$20, [1]Enums!$A$28, IF(L104=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O104" s="4" t="str">
-        <f>IF(L104=[1]Enums!$A$20, [1]Enums!$A$31, IF(N104=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O104" s="20" t="str">
+        <f>IF(L104=[1]Enums!$A$20, [1]Enums!$A$31, IF(L104=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P104" s="4" t="str">
@@ -25444,8 +25546,8 @@
         <f>IF(L105=[1]Enums!$A$20, [1]Enums!$A$28, IF(L105=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O105" s="4" t="str">
-        <f>IF(L105=[1]Enums!$A$20, [1]Enums!$A$31, IF(N105=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O105" s="20" t="str">
+        <f>IF(L105=[1]Enums!$A$20, [1]Enums!$A$31, IF(L105=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P105" s="4" t="str">
@@ -25506,8 +25608,8 @@
         <f>IF(L106=[1]Enums!$A$20, [1]Enums!$A$28, IF(L106=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O106" s="4" t="str">
-        <f>IF(L106=[1]Enums!$A$20, [1]Enums!$A$31, IF(N106=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O106" s="20" t="str">
+        <f>IF(L106=[1]Enums!$A$20, [1]Enums!$A$31, IF(L106=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P106" s="4" t="str">
@@ -25568,8 +25670,8 @@
         <f>IF(L107=[1]Enums!$A$20, [1]Enums!$A$28, IF(L107=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O107" s="4" t="str">
-        <f>IF(L107=[1]Enums!$A$20, [1]Enums!$A$31, IF(N107=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O107" s="20" t="str">
+        <f>IF(L107=[1]Enums!$A$20, [1]Enums!$A$31, IF(L107=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P107" s="4" t="str">
@@ -25630,8 +25732,8 @@
         <f>IF(L108=[1]Enums!$A$20, [1]Enums!$A$28, IF(L108=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O108" s="4" t="str">
-        <f>IF(L108=[1]Enums!$A$20, [1]Enums!$A$31, IF(N108=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O108" s="20" t="str">
+        <f>IF(L108=[1]Enums!$A$20, [1]Enums!$A$31, IF(L108=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P108" s="4" t="str">
@@ -25692,8 +25794,8 @@
         <f>IF(L109=[1]Enums!$A$20, [1]Enums!$A$28, IF(L109=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O109" s="4" t="str">
-        <f>IF(L109=[1]Enums!$A$20, [1]Enums!$A$31, IF(N109=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O109" s="20" t="str">
+        <f>IF(L109=[1]Enums!$A$20, [1]Enums!$A$31, IF(L109=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P109" s="4" t="str">
@@ -25754,8 +25856,8 @@
         <f>IF(L110=[1]Enums!$A$20, [1]Enums!$A$28, IF(L110=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O110" s="4" t="str">
-        <f>IF(L110=[1]Enums!$A$20, [1]Enums!$A$31, IF(N110=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O110" s="20" t="str">
+        <f>IF(L110=[1]Enums!$A$20, [1]Enums!$A$31, IF(L110=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P110" s="4" t="str">
@@ -25816,8 +25918,8 @@
         <f>IF(L111=[1]Enums!$A$20, [1]Enums!$A$28, IF(L111=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O111" s="4" t="str">
-        <f>IF(L111=[1]Enums!$A$20, [1]Enums!$A$31, IF(N111=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O111" s="20" t="str">
+        <f>IF(L111=[1]Enums!$A$20, [1]Enums!$A$31, IF(L111=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P111" s="4" t="str">
@@ -25878,8 +25980,8 @@
         <f>IF(L112=[1]Enums!$A$20, [1]Enums!$A$28, IF(L112=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O112" s="4" t="str">
-        <f>IF(L112=[1]Enums!$A$20, [1]Enums!$A$31, IF(N112=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O112" s="20" t="str">
+        <f>IF(L112=[1]Enums!$A$20, [1]Enums!$A$31, IF(L112=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P112" s="4" t="str">
@@ -25940,8 +26042,8 @@
         <f>IF(L113=[1]Enums!$A$20, [1]Enums!$A$28, IF(L113=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O113" s="4" t="str">
-        <f>IF(L113=[1]Enums!$A$20, [1]Enums!$A$31, IF(N113=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O113" s="20" t="str">
+        <f>IF(L113=[1]Enums!$A$20, [1]Enums!$A$31, IF(L113=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P113" s="4" t="str">
@@ -26002,8 +26104,8 @@
         <f>IF(L114=[1]Enums!$A$20, [1]Enums!$A$28, IF(L114=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O114" s="4" t="str">
-        <f>IF(L114=[1]Enums!$A$20, [1]Enums!$A$31, IF(N114=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O114" s="20" t="str">
+        <f>IF(L114=[1]Enums!$A$20, [1]Enums!$A$31, IF(L114=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P114" s="4" t="str">
@@ -26064,8 +26166,8 @@
         <f>IF(L115=[1]Enums!$A$20, [1]Enums!$A$28, IF(L115=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O115" s="4" t="str">
-        <f>IF(L115=[1]Enums!$A$20, [1]Enums!$A$31, IF(N115=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O115" s="20" t="str">
+        <f>IF(L115=[1]Enums!$A$20, [1]Enums!$A$31, IF(L115=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P115" s="4" t="str">
@@ -26126,8 +26228,8 @@
         <f>IF(L116=[1]Enums!$A$20, [1]Enums!$A$28, IF(L116=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O116" s="4" t="str">
-        <f>IF(L116=[1]Enums!$A$20, [1]Enums!$A$31, IF(N116=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O116" s="20" t="str">
+        <f>IF(L116=[1]Enums!$A$20, [1]Enums!$A$31, IF(L116=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P116" s="4" t="str">
@@ -26188,8 +26290,8 @@
         <f>IF(L117=[1]Enums!$A$20, [1]Enums!$A$28, IF(L117=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O117" s="4" t="str">
-        <f>IF(L117=[1]Enums!$A$20, [1]Enums!$A$31, IF(N117=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O117" s="20" t="str">
+        <f>IF(L117=[1]Enums!$A$20, [1]Enums!$A$31, IF(L117=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P117" s="4" t="str">
@@ -26250,8 +26352,8 @@
         <f>IF(L118=[1]Enums!$A$20, [1]Enums!$A$28, IF(L118=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O118" s="4" t="str">
-        <f>IF(L118=[1]Enums!$A$20, [1]Enums!$A$31, IF(N118=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O118" s="20" t="str">
+        <f>IF(L118=[1]Enums!$A$20, [1]Enums!$A$31, IF(L118=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P118" s="4" t="str">
@@ -26312,8 +26414,8 @@
         <f>IF(L119=[1]Enums!$A$20, [1]Enums!$A$28, IF(L119=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
         <v>Sack</v>
       </c>
-      <c r="O119" s="4" t="str">
-        <f>IF(L119=[1]Enums!$A$20, [1]Enums!$A$31, IF(N119=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+      <c r="O119" s="20" t="str">
+        <f>IF(L119=[1]Enums!$A$20, [1]Enums!$A$31, IF(L119=[1]Enums!$B$30, [1]Enums!$A$30, [1]Enums!$A$29))</f>
         <v>Powder Keg</v>
       </c>
       <c r="P119" s="4" t="str">
@@ -26334,8 +26436,8 @@
   </sheetPr>
   <dimension ref="A1:O390"/>
   <sheetViews>
-    <sheetView topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="J380" sqref="J380"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35462,7 +35564,10 @@
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A162" s="4"/>
+      <c r="A162" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B162" s="13" t="s">
         <v>778</v>
       </c>
@@ -41579,19 +41684,19 @@
       </c>
       <c r="F270" s="16" t="str">
         <f t="shared" si="16"/>
-        <v>Vial (Sodium Hydroxide)</v>
+        <v>Bag (Sodium Hydroxide)</v>
       </c>
       <c r="G270" s="16" t="str">
         <f t="shared" si="17"/>
-        <v>Beaker (Sodium Hydroxide)</v>
+        <v>Sack (Sodium Hydroxide)</v>
       </c>
       <c r="H270" s="16" t="str">
         <f t="shared" si="18"/>
-        <v>Drum (Sodium Hydroxide)</v>
+        <v>Powder Keg (Sodium Hydroxide)</v>
       </c>
       <c r="I270" s="16" t="str">
         <f t="shared" si="19"/>
-        <v>Chemical Vat (Sodium Hydroxide)</v>
+        <v>Chemical Silo (Sodium Hydroxide)</v>
       </c>
       <c r="J270" s="16" t="str">
         <f>[1]Compounds!$B260</f>
@@ -41599,23 +41704,23 @@
       </c>
       <c r="K270" t="str">
         <f>[1]Compounds!$D260</f>
-        <v>Liquid</v>
+        <v>Solid</v>
       </c>
       <c r="L270" s="4" t="str">
         <f>IF(K270=[1]Enums!$A$20, [1]Enums!$A$25, IF(K270=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
-        <v>Vial</v>
+        <v>Bag</v>
       </c>
       <c r="M270" s="4" t="str">
         <f>IF(K270=[1]Enums!$A$20, [1]Enums!$A$28, IF(K270=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
-        <v>Beaker</v>
+        <v>Sack</v>
       </c>
       <c r="N270" s="4" t="str">
         <f>IF(K270=[1]Enums!$A$20, [1]Enums!$A$31, IF(K270=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Drum</v>
+        <v>Powder Keg</v>
       </c>
       <c r="O270" s="4" t="str">
         <f>IF(K270=[1]Enums!$A$20, [1]Enums!$A$34, IF(K270=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
-        <v>Chemical Vat</v>
+        <v>Chemical Silo</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.2">
@@ -47918,6 +48023,10 @@
       </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A381" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B381" s="13" t="s">
         <v>2302</v>
       </c>
@@ -47932,46 +48041,50 @@
       </c>
       <c r="F381" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>Bag (0)</v>
+        <v>Flask (Nitrogen Dioxide)</v>
       </c>
       <c r="G381" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>Sack (0)</v>
+        <v>Cartridge (Nitrogen Dioxide)</v>
       </c>
       <c r="H381" s="16" t="str">
         <f t="shared" si="47"/>
-        <v>Powder Keg (0)</v>
+        <v>Canister (Nitrogen Dioxide)</v>
       </c>
       <c r="I381" s="16" t="str">
         <f t="shared" si="48"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J381" s="16">
+        <v>Chemical Tank (Nitrogen Dioxide)</v>
+      </c>
+      <c r="J381" s="16" t="str">
         <f>[1]Compounds!$B389</f>
-        <v>0</v>
-      </c>
-      <c r="K381">
+        <v>Nitrogen Dioxide</v>
+      </c>
+      <c r="K381" t="str">
         <f>[1]Compounds!$D389</f>
-        <v>0</v>
+        <v>Gas</v>
       </c>
       <c r="L381" s="4" t="str">
         <f>IF(K381=[1]Enums!$A$20, [1]Enums!$A$25, IF(K381=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
-        <v>Bag</v>
+        <v>Flask</v>
       </c>
       <c r="M381" s="4" t="str">
         <f>IF(K381=[1]Enums!$A$20, [1]Enums!$A$28, IF(K381=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
-        <v>Sack</v>
+        <v>Cartridge</v>
       </c>
       <c r="N381" s="4" t="str">
         <f>IF(K381=[1]Enums!$A$20, [1]Enums!$A$31, IF(K381=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <v>Canister</v>
       </c>
       <c r="O381" s="4" t="str">
         <f>IF(K381=[1]Enums!$A$20, [1]Enums!$A$34, IF(K381=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
-        <v>Chemical Silo</v>
+        <v>Chemical Tank</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A382" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B382" s="13" t="s">
         <v>2298</v>
       </c>
@@ -47986,27 +48099,27 @@
       </c>
       <c r="F382" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>Bag (0)</v>
+        <v>Bag (Sodium Nitrite)</v>
       </c>
       <c r="G382" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>Sack (0)</v>
+        <v>Sack (Sodium Nitrite)</v>
       </c>
       <c r="H382" s="16" t="str">
         <f t="shared" si="47"/>
-        <v>Powder Keg (0)</v>
+        <v>Powder Keg (Sodium Nitrite)</v>
       </c>
       <c r="I382" s="16" t="str">
         <f t="shared" si="48"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J382" s="16">
+        <v>Chemical Silo (Sodium Nitrite)</v>
+      </c>
+      <c r="J382" s="16" t="str">
         <f>[1]Compounds!$B390</f>
-        <v>0</v>
-      </c>
-      <c r="K382">
+        <v>Sodium Nitrite</v>
+      </c>
+      <c r="K382" t="str">
         <f>[1]Compounds!$D390</f>
-        <v>0</v>
+        <v>Solid</v>
       </c>
       <c r="L382" s="4" t="str">
         <f>IF(K382=[1]Enums!$A$20, [1]Enums!$A$25, IF(K382=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
@@ -48026,6 +48139,10 @@
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A383" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B383" s="13" t="s">
         <v>2294</v>
       </c>
@@ -48040,43 +48157,43 @@
       </c>
       <c r="F383" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>Bag (0)</v>
+        <v>Vial (Dicyclopentadiene)</v>
       </c>
       <c r="G383" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>Sack (0)</v>
+        <v>Beaker (Dicyclopentadiene)</v>
       </c>
       <c r="H383" s="16" t="str">
         <f t="shared" si="47"/>
-        <v>Powder Keg (0)</v>
+        <v>Drum (Dicyclopentadiene)</v>
       </c>
       <c r="I383" s="16" t="str">
         <f t="shared" si="48"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J383" s="16">
+        <v>Chemical Vat (Dicyclopentadiene)</v>
+      </c>
+      <c r="J383" s="16" t="str">
         <f>[1]Compounds!$B391</f>
-        <v>0</v>
-      </c>
-      <c r="K383">
+        <v>Dicyclopentadiene</v>
+      </c>
+      <c r="K383" t="str">
         <f>[1]Compounds!$D391</f>
-        <v>0</v>
+        <v>Liquid</v>
       </c>
       <c r="L383" s="4" t="str">
         <f>IF(K383=[1]Enums!$A$20, [1]Enums!$A$25, IF(K383=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
-        <v>Bag</v>
+        <v>Vial</v>
       </c>
       <c r="M383" s="4" t="str">
         <f>IF(K383=[1]Enums!$A$20, [1]Enums!$A$28, IF(K383=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
-        <v>Sack</v>
+        <v>Beaker</v>
       </c>
       <c r="N383" s="4" t="str">
         <f>IF(K383=[1]Enums!$A$20, [1]Enums!$A$31, IF(K383=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <v>Drum</v>
       </c>
       <c r="O383" s="4" t="str">
         <f>IF(K383=[1]Enums!$A$20, [1]Enums!$A$34, IF(K383=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
-        <v>Chemical Silo</v>
+        <v>Chemical Vat</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
@@ -50927,7 +51044,7 @@
       </c>
       <c r="B137" t="str">
         <f t="shared" si="7"/>
-        <v>Vial (Sodium Hydroxide)</v>
+        <v>Bag (Sodium Hydroxide)</v>
       </c>
       <c r="C137" t="str">
         <f>[1]Compounds!$B$260</f>
@@ -50935,7 +51052,7 @@
       </c>
       <c r="D137" t="str">
         <f>IF(VLOOKUP(C137,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$18,[1]Enums!$A$23,IF(VLOOKUP(C137,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$19,[1]Enums!$A$24,[1]Enums!$A$25))</f>
-        <v>Vial</v>
+        <v>Bag</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -50945,7 +51062,7 @@
       </c>
       <c r="B138" t="str">
         <f t="shared" si="7"/>
-        <v>Beaker (Sodium Hydroxide)</v>
+        <v>Sack (Sodium Hydroxide)</v>
       </c>
       <c r="C138" t="str">
         <f>[1]Compounds!$B$260</f>
@@ -50953,7 +51070,7 @@
       </c>
       <c r="D138" t="str">
         <f>IF(VLOOKUP(C138,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$18,[1]Enums!$A$26,IF(VLOOKUP(C138,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$19,[1]Enums!$A$27,[1]Enums!$A$28))</f>
-        <v>Beaker</v>
+        <v>Sack</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -50963,7 +51080,7 @@
       </c>
       <c r="B139" t="str">
         <f t="shared" si="7"/>
-        <v>Drum (Sodium Hydroxide)</v>
+        <v>Powder Keg (Sodium Hydroxide)</v>
       </c>
       <c r="C139" t="str">
         <f>[1]Compounds!$B$260</f>
@@ -50971,7 +51088,7 @@
       </c>
       <c r="D139" t="str">
         <f>IF(VLOOKUP(C139,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$18,[1]Enums!$A$29,IF(VLOOKUP(C139,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$19,[1]Enums!$A$30,[1]Enums!$A$31))</f>
-        <v>Drum</v>
+        <v>Powder Keg</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="2338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="2380">
   <si>
     <t>Ore</t>
   </si>
@@ -7051,6 +7051,132 @@
   </si>
   <si>
     <t>19T</t>
+  </si>
+  <si>
+    <t>16w</t>
+  </si>
+  <si>
+    <t>15r</t>
+  </si>
+  <si>
+    <t>14m</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>16v</t>
+  </si>
+  <si>
+    <t>15q</t>
+  </si>
+  <si>
+    <t>14l</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>16u</t>
+  </si>
+  <si>
+    <t>15p</t>
+  </si>
+  <si>
+    <t>14k</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>16t</t>
+  </si>
+  <si>
+    <t>15o</t>
+  </si>
+  <si>
+    <t>14j</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>16s</t>
+  </si>
+  <si>
+    <t>15n</t>
+  </si>
+  <si>
+    <t>14i</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>16r</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>16q</t>
+  </si>
+  <si>
+    <t>15l</t>
+  </si>
+  <si>
+    <t>14g</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>16p</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>14f</t>
+  </si>
+  <si>
+    <t>5Z</t>
+  </si>
+  <si>
+    <t>16o</t>
+  </si>
+  <si>
+    <t>15j</t>
+  </si>
+  <si>
+    <t>14e</t>
+  </si>
+  <si>
+    <t>5Y</t>
+  </si>
+  <si>
+    <t>16n</t>
+  </si>
+  <si>
+    <t>15i</t>
+  </si>
+  <si>
+    <t>14d</t>
+  </si>
+  <si>
+    <t>5X</t>
+  </si>
+  <si>
+    <t>Carbon Fiber Weave</t>
+  </si>
+  <si>
+    <t>1bz</t>
   </si>
 </sst>
 </file>
@@ -12827,7 +12953,7 @@
         </row>
         <row r="371">
           <cell r="B371" t="str">
-            <v>Terephthaloyl chloride</v>
+            <v>Terephthaloyl Chloride</v>
           </cell>
           <cell r="D371" t="str">
             <v>Solid</v>
@@ -12835,7 +12961,7 @@
         </row>
         <row r="372">
           <cell r="B372" t="str">
-            <v>Isophthaloyl chloride</v>
+            <v>Isophthaloyl Chloride</v>
           </cell>
           <cell r="D372" t="str">
             <v>Solid</v>
@@ -12859,7 +12985,7 @@
         </row>
         <row r="375">
           <cell r="B375" t="str">
-            <v>Anilene</v>
+            <v>Aniline</v>
           </cell>
           <cell r="D375" t="str">
             <v>Liquid</v>
@@ -12993,6 +13119,79 @@
             <v>Dicyclopentadiene</v>
           </cell>
           <cell r="D391" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="B392" t="str">
+            <v>Tetrafluoroboric Acid</v>
+          </cell>
+          <cell r="C392" t="str">
+            <v>HBF4</v>
+          </cell>
+          <cell r="D392" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="B393" t="str">
+            <v>Fluorobenzene</v>
+          </cell>
+          <cell r="C393" t="str">
+            <v>C6H5F</v>
+          </cell>
+          <cell r="D393" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="B394" t="str">
+            <v>p-Fluorobenzoyl Chloride</v>
+          </cell>
+          <cell r="C394" t="str">
+            <v>C7H4ClFO</v>
+          </cell>
+          <cell r="D394" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="B395" t="str">
+            <v>p-Nitrotoluene</v>
+          </cell>
+          <cell r="D395" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="B396" t="str">
+            <v>p-Aminotoluene</v>
+          </cell>
+          <cell r="D396" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="B397" t="str">
+            <v>p-Fluorotoluene</v>
+          </cell>
+          <cell r="D397" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="B398" t="str">
+            <v>1-(Trichloromethyl)-4-Fluorobenzene</v>
+          </cell>
+          <cell r="D398" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="B399" t="str">
+            <v>4,4-Difluorobenzophenone</v>
+          </cell>
+          <cell r="D399" t="str">
             <v>Liquid</v>
           </cell>
         </row>
@@ -13296,8 +13495,8 @@
   </sheetPr>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14930,8 +15129,29 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E56" s="26">
+        <v>8</v>
+      </c>
+      <c r="F56" s="26" t="b">
+        <v>0</v>
+      </c>
       <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
+      <c r="H56" s="28">
+        <v>64</v>
+      </c>
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -26434,10 +26654,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:O390"/>
+  <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39546,7 +39766,10 @@
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A232" s="4"/>
+      <c r="A232" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B232" s="13" t="s">
         <v>708</v>
       </c>
@@ -46997,23 +47220,23 @@
       </c>
       <c r="F363" s="16" t="str">
         <f t="shared" si="33"/>
-        <v>Bag (Terephthaloyl chloride)</v>
+        <v>Bag (Terephthaloyl Chloride)</v>
       </c>
       <c r="G363" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>Sack (Terephthaloyl chloride)</v>
+        <v>Sack (Terephthaloyl Chloride)</v>
       </c>
       <c r="H363" s="16" t="str">
         <f t="shared" si="35"/>
-        <v>Powder Keg (Terephthaloyl chloride)</v>
+        <v>Powder Keg (Terephthaloyl Chloride)</v>
       </c>
       <c r="I363" s="16" t="str">
         <f t="shared" si="36"/>
-        <v>Chemical Silo (Terephthaloyl chloride)</v>
+        <v>Chemical Silo (Terephthaloyl Chloride)</v>
       </c>
       <c r="J363" s="16" t="str">
         <f>[1]Compounds!$B371</f>
-        <v>Terephthaloyl chloride</v>
+        <v>Terephthaloyl Chloride</v>
       </c>
       <c r="K363" t="str">
         <f>[1]Compounds!$D371</f>
@@ -47055,23 +47278,23 @@
       </c>
       <c r="F364" s="16" t="str">
         <f t="shared" si="33"/>
-        <v>Bag (Isophthaloyl chloride)</v>
+        <v>Bag (Isophthaloyl Chloride)</v>
       </c>
       <c r="G364" s="16" t="str">
         <f t="shared" si="34"/>
-        <v>Sack (Isophthaloyl chloride)</v>
+        <v>Sack (Isophthaloyl Chloride)</v>
       </c>
       <c r="H364" s="16" t="str">
         <f t="shared" si="35"/>
-        <v>Powder Keg (Isophthaloyl chloride)</v>
+        <v>Powder Keg (Isophthaloyl Chloride)</v>
       </c>
       <c r="I364" s="16" t="str">
         <f t="shared" si="36"/>
-        <v>Chemical Silo (Isophthaloyl chloride)</v>
+        <v>Chemical Silo (Isophthaloyl Chloride)</v>
       </c>
       <c r="J364" s="16" t="str">
         <f>[1]Compounds!$B372</f>
-        <v>Isophthaloyl chloride</v>
+        <v>Isophthaloyl Chloride</v>
       </c>
       <c r="K364" t="str">
         <f>[1]Compounds!$D372</f>
@@ -47229,23 +47452,23 @@
       </c>
       <c r="F367" s="16" t="str">
         <f t="shared" ref="F367" si="37">L367&amp;" ("&amp;$J367&amp;")"</f>
-        <v>Vial (Anilene)</v>
+        <v>Vial (Aniline)</v>
       </c>
       <c r="G367" s="16" t="str">
         <f t="shared" ref="G367" si="38">M367&amp;" ("&amp;$J367&amp;")"</f>
-        <v>Beaker (Anilene)</v>
+        <v>Beaker (Aniline)</v>
       </c>
       <c r="H367" s="16" t="str">
         <f t="shared" ref="H367" si="39">N367&amp;" ("&amp;$J367&amp;")"</f>
-        <v>Drum (Anilene)</v>
+        <v>Drum (Aniline)</v>
       </c>
       <c r="I367" s="16" t="str">
         <f t="shared" ref="I367" si="40">O367&amp;" ("&amp;$J367&amp;")"</f>
-        <v>Chemical Vat (Anilene)</v>
+        <v>Chemical Vat (Aniline)</v>
       </c>
       <c r="J367" s="16" t="str">
         <f>[1]Compounds!$B375</f>
-        <v>Anilene</v>
+        <v>Aniline</v>
       </c>
       <c r="K367" t="str">
         <f>[1]Compounds!$D375</f>
@@ -48197,6 +48420,10 @@
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A384" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B384" s="13" t="s">
         <v>2290</v>
       </c>
@@ -48211,46 +48438,50 @@
       </c>
       <c r="F384" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>Bag (0)</v>
+        <v>Vial (Tetrafluoroboric Acid)</v>
       </c>
       <c r="G384" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>Sack (0)</v>
+        <v>Beaker (Tetrafluoroboric Acid)</v>
       </c>
       <c r="H384" s="16" t="str">
         <f t="shared" si="47"/>
-        <v>Powder Keg (0)</v>
+        <v>Drum (Tetrafluoroboric Acid)</v>
       </c>
       <c r="I384" s="16" t="str">
         <f t="shared" si="48"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J384" s="16">
+        <v>Chemical Vat (Tetrafluoroboric Acid)</v>
+      </c>
+      <c r="J384" s="16" t="str">
         <f>[1]Compounds!$B392</f>
-        <v>0</v>
-      </c>
-      <c r="K384">
+        <v>Tetrafluoroboric Acid</v>
+      </c>
+      <c r="K384" t="str">
         <f>[1]Compounds!$D392</f>
-        <v>0</v>
+        <v>Liquid</v>
       </c>
       <c r="L384" s="4" t="str">
         <f>IF(K384=[1]Enums!$A$20, [1]Enums!$A$25, IF(K384=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
-        <v>Bag</v>
+        <v>Vial</v>
       </c>
       <c r="M384" s="4" t="str">
         <f>IF(K384=[1]Enums!$A$20, [1]Enums!$A$28, IF(K384=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
-        <v>Sack</v>
+        <v>Beaker</v>
       </c>
       <c r="N384" s="4" t="str">
         <f>IF(K384=[1]Enums!$A$20, [1]Enums!$A$31, IF(K384=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <v>Drum</v>
       </c>
       <c r="O384" s="4" t="str">
         <f>IF(K384=[1]Enums!$A$20, [1]Enums!$A$34, IF(K384=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
-        <v>Chemical Silo</v>
-      </c>
-    </row>
-    <row r="385" spans="2:15" x14ac:dyDescent="0.2">
+        <v>Chemical Vat</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A385" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B385" s="13" t="s">
         <v>2286</v>
       </c>
@@ -48265,46 +48496,50 @@
       </c>
       <c r="F385" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>Bag (0)</v>
+        <v>Vial (Fluorobenzene)</v>
       </c>
       <c r="G385" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>Sack (0)</v>
+        <v>Beaker (Fluorobenzene)</v>
       </c>
       <c r="H385" s="16" t="str">
         <f t="shared" si="47"/>
-        <v>Powder Keg (0)</v>
+        <v>Drum (Fluorobenzene)</v>
       </c>
       <c r="I385" s="16" t="str">
         <f t="shared" si="48"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J385" s="16">
+        <v>Chemical Vat (Fluorobenzene)</v>
+      </c>
+      <c r="J385" s="16" t="str">
         <f>[1]Compounds!$B393</f>
-        <v>0</v>
-      </c>
-      <c r="K385">
+        <v>Fluorobenzene</v>
+      </c>
+      <c r="K385" t="str">
         <f>[1]Compounds!$D393</f>
-        <v>0</v>
+        <v>Liquid</v>
       </c>
       <c r="L385" s="4" t="str">
         <f>IF(K385=[1]Enums!$A$20, [1]Enums!$A$25, IF(K385=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
-        <v>Bag</v>
+        <v>Vial</v>
       </c>
       <c r="M385" s="4" t="str">
         <f>IF(K385=[1]Enums!$A$20, [1]Enums!$A$28, IF(K385=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
-        <v>Sack</v>
+        <v>Beaker</v>
       </c>
       <c r="N385" s="4" t="str">
         <f>IF(K385=[1]Enums!$A$20, [1]Enums!$A$31, IF(K385=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <v>Drum</v>
       </c>
       <c r="O385" s="4" t="str">
         <f>IF(K385=[1]Enums!$A$20, [1]Enums!$A$34, IF(K385=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
-        <v>Chemical Silo</v>
-      </c>
-    </row>
-    <row r="386" spans="2:15" x14ac:dyDescent="0.2">
+        <v>Chemical Vat</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A386" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B386" s="13" t="s">
         <v>2282</v>
       </c>
@@ -48319,46 +48554,50 @@
       </c>
       <c r="F386" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>Bag (0)</v>
+        <v>Vial (p-Fluorobenzoyl Chloride)</v>
       </c>
       <c r="G386" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>Sack (0)</v>
+        <v>Beaker (p-Fluorobenzoyl Chloride)</v>
       </c>
       <c r="H386" s="16" t="str">
         <f t="shared" si="47"/>
-        <v>Powder Keg (0)</v>
+        <v>Drum (p-Fluorobenzoyl Chloride)</v>
       </c>
       <c r="I386" s="16" t="str">
         <f t="shared" si="48"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J386" s="16">
+        <v>Chemical Vat (p-Fluorobenzoyl Chloride)</v>
+      </c>
+      <c r="J386" s="16" t="str">
         <f>[1]Compounds!$B394</f>
-        <v>0</v>
-      </c>
-      <c r="K386">
+        <v>p-Fluorobenzoyl Chloride</v>
+      </c>
+      <c r="K386" t="str">
         <f>[1]Compounds!$D394</f>
-        <v>0</v>
+        <v>Liquid</v>
       </c>
       <c r="L386" s="4" t="str">
         <f>IF(K386=[1]Enums!$A$20, [1]Enums!$A$25, IF(K386=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
-        <v>Bag</v>
+        <v>Vial</v>
       </c>
       <c r="M386" s="4" t="str">
         <f>IF(K386=[1]Enums!$A$20, [1]Enums!$A$28, IF(K386=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
-        <v>Sack</v>
+        <v>Beaker</v>
       </c>
       <c r="N386" s="4" t="str">
         <f>IF(K386=[1]Enums!$A$20, [1]Enums!$A$31, IF(K386=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <v>Drum</v>
       </c>
       <c r="O386" s="4" t="str">
         <f>IF(K386=[1]Enums!$A$20, [1]Enums!$A$34, IF(K386=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
-        <v>Chemical Silo</v>
-      </c>
-    </row>
-    <row r="387" spans="2:15" x14ac:dyDescent="0.2">
+        <v>Chemical Vat</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A387" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B387" s="13" t="s">
         <v>2278</v>
       </c>
@@ -48373,46 +48612,50 @@
       </c>
       <c r="F387" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>Bag (0)</v>
+        <v>Vial (p-Nitrotoluene)</v>
       </c>
       <c r="G387" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>Sack (0)</v>
+        <v>Beaker (p-Nitrotoluene)</v>
       </c>
       <c r="H387" s="16" t="str">
         <f t="shared" si="47"/>
-        <v>Powder Keg (0)</v>
+        <v>Drum (p-Nitrotoluene)</v>
       </c>
       <c r="I387" s="16" t="str">
         <f t="shared" si="48"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J387" s="16">
+        <v>Chemical Vat (p-Nitrotoluene)</v>
+      </c>
+      <c r="J387" s="16" t="str">
         <f>[1]Compounds!$B395</f>
-        <v>0</v>
-      </c>
-      <c r="K387">
+        <v>p-Nitrotoluene</v>
+      </c>
+      <c r="K387" t="str">
         <f>[1]Compounds!$D395</f>
-        <v>0</v>
+        <v>Liquid</v>
       </c>
       <c r="L387" s="4" t="str">
         <f>IF(K387=[1]Enums!$A$20, [1]Enums!$A$25, IF(K387=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
-        <v>Bag</v>
+        <v>Vial</v>
       </c>
       <c r="M387" s="4" t="str">
         <f>IF(K387=[1]Enums!$A$20, [1]Enums!$A$28, IF(K387=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
-        <v>Sack</v>
+        <v>Beaker</v>
       </c>
       <c r="N387" s="4" t="str">
         <f>IF(K387=[1]Enums!$A$20, [1]Enums!$A$31, IF(K387=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <v>Drum</v>
       </c>
       <c r="O387" s="4" t="str">
         <f>IF(K387=[1]Enums!$A$20, [1]Enums!$A$34, IF(K387=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
-        <v>Chemical Silo</v>
-      </c>
-    </row>
-    <row r="388" spans="2:15" x14ac:dyDescent="0.2">
+        <v>Chemical Vat</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A388" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B388" s="13" t="s">
         <v>2274</v>
       </c>
@@ -48427,46 +48670,50 @@
       </c>
       <c r="F388" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>Bag (0)</v>
+        <v>Vial (p-Aminotoluene)</v>
       </c>
       <c r="G388" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>Sack (0)</v>
+        <v>Beaker (p-Aminotoluene)</v>
       </c>
       <c r="H388" s="16" t="str">
         <f t="shared" si="47"/>
-        <v>Powder Keg (0)</v>
+        <v>Drum (p-Aminotoluene)</v>
       </c>
       <c r="I388" s="16" t="str">
         <f t="shared" si="48"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J388" s="16">
+        <v>Chemical Vat (p-Aminotoluene)</v>
+      </c>
+      <c r="J388" s="16" t="str">
         <f>[1]Compounds!$B396</f>
-        <v>0</v>
-      </c>
-      <c r="K388">
+        <v>p-Aminotoluene</v>
+      </c>
+      <c r="K388" t="str">
         <f>[1]Compounds!$D396</f>
-        <v>0</v>
+        <v>Liquid</v>
       </c>
       <c r="L388" s="4" t="str">
         <f>IF(K388=[1]Enums!$A$20, [1]Enums!$A$25, IF(K388=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
-        <v>Bag</v>
+        <v>Vial</v>
       </c>
       <c r="M388" s="4" t="str">
         <f>IF(K388=[1]Enums!$A$20, [1]Enums!$A$28, IF(K388=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
-        <v>Sack</v>
+        <v>Beaker</v>
       </c>
       <c r="N388" s="4" t="str">
         <f>IF(K388=[1]Enums!$A$20, [1]Enums!$A$31, IF(K388=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <v>Drum</v>
       </c>
       <c r="O388" s="4" t="str">
         <f>IF(K388=[1]Enums!$A$20, [1]Enums!$A$34, IF(K388=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
-        <v>Chemical Silo</v>
-      </c>
-    </row>
-    <row r="389" spans="2:15" x14ac:dyDescent="0.2">
+        <v>Chemical Vat</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A389" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
       <c r="B389" s="13" t="s">
         <v>2270</v>
       </c>
@@ -48481,84 +48728,590 @@
       </c>
       <c r="F389" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>Bag (0)</v>
+        <v>Vial (p-Fluorotoluene)</v>
       </c>
       <c r="G389" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>Sack (0)</v>
+        <v>Beaker (p-Fluorotoluene)</v>
       </c>
       <c r="H389" s="16" t="str">
         <f t="shared" si="47"/>
-        <v>Powder Keg (0)</v>
+        <v>Drum (p-Fluorotoluene)</v>
       </c>
       <c r="I389" s="16" t="str">
         <f t="shared" si="48"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J389" s="16">
+        <v>Chemical Vat (p-Fluorotoluene)</v>
+      </c>
+      <c r="J389" s="16" t="str">
         <f>[1]Compounds!$B397</f>
-        <v>0</v>
-      </c>
-      <c r="K389">
+        <v>p-Fluorotoluene</v>
+      </c>
+      <c r="K389" t="str">
         <f>[1]Compounds!$D397</f>
-        <v>0</v>
+        <v>Liquid</v>
       </c>
       <c r="L389" s="4" t="str">
         <f>IF(K389=[1]Enums!$A$20, [1]Enums!$A$25, IF(K389=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
-        <v>Bag</v>
+        <v>Vial</v>
       </c>
       <c r="M389" s="4" t="str">
         <f>IF(K389=[1]Enums!$A$20, [1]Enums!$A$28, IF(K389=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
-        <v>Sack</v>
+        <v>Beaker</v>
       </c>
       <c r="N389" s="4" t="str">
         <f>IF(K389=[1]Enums!$A$20, [1]Enums!$A$31, IF(K389=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <v>Drum</v>
       </c>
       <c r="O389" s="4" t="str">
         <f>IF(K389=[1]Enums!$A$20, [1]Enums!$A$34, IF(K389=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
-        <v>Chemical Silo</v>
-      </c>
-    </row>
-    <row r="390" spans="2:15" x14ac:dyDescent="0.2">
+        <v>Chemical Vat</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A390" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B390" s="13" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C390" s="13" t="s">
+        <v>2376</v>
+      </c>
+      <c r="D390" s="13" t="s">
+        <v>2375</v>
+      </c>
+      <c r="E390" s="13" t="s">
+        <v>2374</v>
+      </c>
       <c r="F390" s="16" t="str">
         <f t="shared" si="45"/>
-        <v>Bag (0)</v>
+        <v>Vial (1-(Trichloromethyl)-4-Fluorobenzene)</v>
       </c>
       <c r="G390" s="16" t="str">
         <f t="shared" si="46"/>
-        <v>Sack (0)</v>
+        <v>Beaker (1-(Trichloromethyl)-4-Fluorobenzene)</v>
       </c>
       <c r="H390" s="16" t="str">
         <f t="shared" si="47"/>
-        <v>Powder Keg (0)</v>
+        <v>Drum (1-(Trichloromethyl)-4-Fluorobenzene)</v>
       </c>
       <c r="I390" s="16" t="str">
         <f t="shared" si="48"/>
-        <v>Chemical Silo (0)</v>
-      </c>
-      <c r="J390" s="16">
+        <v>Chemical Vat (1-(Trichloromethyl)-4-Fluorobenzene)</v>
+      </c>
+      <c r="J390" s="16" t="str">
         <f>[1]Compounds!$B398</f>
-        <v>0</v>
-      </c>
-      <c r="K390">
+        <v>1-(Trichloromethyl)-4-Fluorobenzene</v>
+      </c>
+      <c r="K390" t="str">
         <f>[1]Compounds!$D398</f>
-        <v>0</v>
+        <v>Liquid</v>
       </c>
       <c r="L390" s="4" t="str">
         <f>IF(K390=[1]Enums!$A$20, [1]Enums!$A$25, IF(K390=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
-        <v>Bag</v>
+        <v>Vial</v>
       </c>
       <c r="M390" s="4" t="str">
         <f>IF(K390=[1]Enums!$A$20, [1]Enums!$A$28, IF(K390=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
-        <v>Sack</v>
+        <v>Beaker</v>
       </c>
       <c r="N390" s="4" t="str">
         <f>IF(K390=[1]Enums!$A$20, [1]Enums!$A$31, IF(K390=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
-        <v>Powder Keg</v>
+        <v>Drum</v>
       </c>
       <c r="O390" s="4" t="str">
         <f>IF(K390=[1]Enums!$A$20, [1]Enums!$A$34, IF(K390=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
+        <v>Chemical Vat</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A391" s="4" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B391" s="13" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C391" s="13" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D391" s="13" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E391" s="13" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F391" s="16" t="str">
+        <f t="shared" ref="F391:F399" si="49">L391&amp;" ("&amp;$J391&amp;")"</f>
+        <v>Vial (4,4-Difluorobenzophenone)</v>
+      </c>
+      <c r="G391" s="16" t="str">
+        <f t="shared" ref="G391:G399" si="50">M391&amp;" ("&amp;$J391&amp;")"</f>
+        <v>Beaker (4,4-Difluorobenzophenone)</v>
+      </c>
+      <c r="H391" s="16" t="str">
+        <f t="shared" ref="H391:H399" si="51">N391&amp;" ("&amp;$J391&amp;")"</f>
+        <v>Drum (4,4-Difluorobenzophenone)</v>
+      </c>
+      <c r="I391" s="16" t="str">
+        <f t="shared" ref="I391:I399" si="52">O391&amp;" ("&amp;$J391&amp;")"</f>
+        <v>Chemical Vat (4,4-Difluorobenzophenone)</v>
+      </c>
+      <c r="J391" s="16" t="str">
+        <f>[1]Compounds!$B399</f>
+        <v>4,4-Difluorobenzophenone</v>
+      </c>
+      <c r="K391" t="str">
+        <f>[1]Compounds!$D399</f>
+        <v>Liquid</v>
+      </c>
+      <c r="L391" s="4" t="str">
+        <f>IF(K391=[1]Enums!$A$20, [1]Enums!$A$25, IF(K391=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
+        <v>Vial</v>
+      </c>
+      <c r="M391" s="4" t="str">
+        <f>IF(K391=[1]Enums!$A$20, [1]Enums!$A$28, IF(K391=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
+        <v>Beaker</v>
+      </c>
+      <c r="N391" s="4" t="str">
+        <f>IF(K391=[1]Enums!$A$20, [1]Enums!$A$31, IF(K391=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Drum</v>
+      </c>
+      <c r="O391" s="4" t="str">
+        <f>IF(K391=[1]Enums!$A$20, [1]Enums!$A$34, IF(K391=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
+        <v>Chemical Vat</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B392" s="13" t="s">
+        <v>2369</v>
+      </c>
+      <c r="C392" s="13" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D392" s="13" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E392" s="13" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F392" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>Bag (0)</v>
+      </c>
+      <c r="G392" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>Sack (0)</v>
+      </c>
+      <c r="H392" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>Powder Keg (0)</v>
+      </c>
+      <c r="I392" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>Chemical Silo (0)</v>
+      </c>
+      <c r="J392" s="16">
+        <f>[1]Compounds!$B400</f>
+        <v>0</v>
+      </c>
+      <c r="K392">
+        <f>[1]Compounds!$D400</f>
+        <v>0</v>
+      </c>
+      <c r="L392" s="4" t="str">
+        <f>IF(K392=[1]Enums!$A$20, [1]Enums!$A$25, IF(K392=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M392" s="4" t="str">
+        <f>IF(K392=[1]Enums!$A$20, [1]Enums!$A$28, IF(K392=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N392" s="4" t="str">
+        <f>IF(K392=[1]Enums!$A$20, [1]Enums!$A$31, IF(K392=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O392" s="4" t="str">
+        <f>IF(K392=[1]Enums!$A$20, [1]Enums!$A$34, IF(K392=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B393" s="13" t="s">
+        <v>2365</v>
+      </c>
+      <c r="C393" s="13" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D393" s="13" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E393" s="13" t="s">
+        <v>2362</v>
+      </c>
+      <c r="F393" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>Bag (0)</v>
+      </c>
+      <c r="G393" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>Sack (0)</v>
+      </c>
+      <c r="H393" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>Powder Keg (0)</v>
+      </c>
+      <c r="I393" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>Chemical Silo (0)</v>
+      </c>
+      <c r="J393" s="16">
+        <f>[1]Compounds!$B401</f>
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <f>[1]Compounds!$D401</f>
+        <v>0</v>
+      </c>
+      <c r="L393" s="4" t="str">
+        <f>IF(K393=[1]Enums!$A$20, [1]Enums!$A$25, IF(K393=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M393" s="4" t="str">
+        <f>IF(K393=[1]Enums!$A$20, [1]Enums!$A$28, IF(K393=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N393" s="4" t="str">
+        <f>IF(K393=[1]Enums!$A$20, [1]Enums!$A$31, IF(K393=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O393" s="4" t="str">
+        <f>IF(K393=[1]Enums!$A$20, [1]Enums!$A$34, IF(K393=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B394" s="13" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C394" s="13" t="s">
+        <v>2360</v>
+      </c>
+      <c r="D394" s="13" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E394" s="13" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F394" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>Bag (0)</v>
+      </c>
+      <c r="G394" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>Sack (0)</v>
+      </c>
+      <c r="H394" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>Powder Keg (0)</v>
+      </c>
+      <c r="I394" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>Chemical Silo (0)</v>
+      </c>
+      <c r="J394" s="16">
+        <f>[1]Compounds!$B402</f>
+        <v>0</v>
+      </c>
+      <c r="K394">
+        <f>[1]Compounds!$D402</f>
+        <v>0</v>
+      </c>
+      <c r="L394" s="4" t="str">
+        <f>IF(K394=[1]Enums!$A$20, [1]Enums!$A$25, IF(K394=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M394" s="4" t="str">
+        <f>IF(K394=[1]Enums!$A$20, [1]Enums!$A$28, IF(K394=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N394" s="4" t="str">
+        <f>IF(K394=[1]Enums!$A$20, [1]Enums!$A$31, IF(K394=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O394" s="4" t="str">
+        <f>IF(K394=[1]Enums!$A$20, [1]Enums!$A$34, IF(K394=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B395" s="13" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C395" s="13" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D395" s="13" t="s">
+        <v>2355</v>
+      </c>
+      <c r="E395" s="13" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F395" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>Bag (0)</v>
+      </c>
+      <c r="G395" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>Sack (0)</v>
+      </c>
+      <c r="H395" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>Powder Keg (0)</v>
+      </c>
+      <c r="I395" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>Chemical Silo (0)</v>
+      </c>
+      <c r="J395" s="16">
+        <f>[1]Compounds!$B403</f>
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <f>[1]Compounds!$D403</f>
+        <v>0</v>
+      </c>
+      <c r="L395" s="4" t="str">
+        <f>IF(K395=[1]Enums!$A$20, [1]Enums!$A$25, IF(K395=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M395" s="4" t="str">
+        <f>IF(K395=[1]Enums!$A$20, [1]Enums!$A$28, IF(K395=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N395" s="4" t="str">
+        <f>IF(K395=[1]Enums!$A$20, [1]Enums!$A$31, IF(K395=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O395" s="4" t="str">
+        <f>IF(K395=[1]Enums!$A$20, [1]Enums!$A$34, IF(K395=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B396" s="13" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C396" s="13" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D396" s="13" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E396" s="13" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F396" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>Bag (0)</v>
+      </c>
+      <c r="G396" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>Sack (0)</v>
+      </c>
+      <c r="H396" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>Powder Keg (0)</v>
+      </c>
+      <c r="I396" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>Chemical Silo (0)</v>
+      </c>
+      <c r="J396" s="16">
+        <f>[1]Compounds!$B404</f>
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <f>[1]Compounds!$D404</f>
+        <v>0</v>
+      </c>
+      <c r="L396" s="4" t="str">
+        <f>IF(K396=[1]Enums!$A$20, [1]Enums!$A$25, IF(K396=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M396" s="4" t="str">
+        <f>IF(K396=[1]Enums!$A$20, [1]Enums!$A$28, IF(K396=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N396" s="4" t="str">
+        <f>IF(K396=[1]Enums!$A$20, [1]Enums!$A$31, IF(K396=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O396" s="4" t="str">
+        <f>IF(K396=[1]Enums!$A$20, [1]Enums!$A$34, IF(K396=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B397" s="13" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C397" s="13" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D397" s="13" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E397" s="13" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F397" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>Bag (0)</v>
+      </c>
+      <c r="G397" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>Sack (0)</v>
+      </c>
+      <c r="H397" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>Powder Keg (0)</v>
+      </c>
+      <c r="I397" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>Chemical Silo (0)</v>
+      </c>
+      <c r="J397" s="16">
+        <f>[1]Compounds!$B405</f>
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <f>[1]Compounds!$D405</f>
+        <v>0</v>
+      </c>
+      <c r="L397" s="4" t="str">
+        <f>IF(K397=[1]Enums!$A$20, [1]Enums!$A$25, IF(K397=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M397" s="4" t="str">
+        <f>IF(K397=[1]Enums!$A$20, [1]Enums!$A$28, IF(K397=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N397" s="4" t="str">
+        <f>IF(K397=[1]Enums!$A$20, [1]Enums!$A$31, IF(K397=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O397" s="4" t="str">
+        <f>IF(K397=[1]Enums!$A$20, [1]Enums!$A$34, IF(K397=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B398" s="13" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C398" s="13" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D398" s="13" t="s">
+        <v>2343</v>
+      </c>
+      <c r="E398" s="13" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F398" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>Bag (0)</v>
+      </c>
+      <c r="G398" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>Sack (0)</v>
+      </c>
+      <c r="H398" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>Powder Keg (0)</v>
+      </c>
+      <c r="I398" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>Chemical Silo (0)</v>
+      </c>
+      <c r="J398" s="16">
+        <f>[1]Compounds!$B406</f>
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <f>[1]Compounds!$D406</f>
+        <v>0</v>
+      </c>
+      <c r="L398" s="4" t="str">
+        <f>IF(K398=[1]Enums!$A$20, [1]Enums!$A$25, IF(K398=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M398" s="4" t="str">
+        <f>IF(K398=[1]Enums!$A$20, [1]Enums!$A$28, IF(K398=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N398" s="4" t="str">
+        <f>IF(K398=[1]Enums!$A$20, [1]Enums!$A$31, IF(K398=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O398" s="4" t="str">
+        <f>IF(K398=[1]Enums!$A$20, [1]Enums!$A$34, IF(K398=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
+        <v>Chemical Silo</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B399" s="13" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C399" s="13" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D399" s="13" t="s">
+        <v>2339</v>
+      </c>
+      <c r="E399" s="13" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F399" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>Bag (0)</v>
+      </c>
+      <c r="G399" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>Sack (0)</v>
+      </c>
+      <c r="H399" s="16" t="str">
+        <f t="shared" si="51"/>
+        <v>Powder Keg (0)</v>
+      </c>
+      <c r="I399" s="16" t="str">
+        <f t="shared" si="52"/>
+        <v>Chemical Silo (0)</v>
+      </c>
+      <c r="J399" s="16">
+        <f>[1]Compounds!$B407</f>
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <f>[1]Compounds!$D407</f>
+        <v>0</v>
+      </c>
+      <c r="L399" s="4" t="str">
+        <f>IF(K399=[1]Enums!$A$20, [1]Enums!$A$25, IF(K399=[1]Enums!$B$24, [1]Enums!$A$24, [1]Enums!$A$23))</f>
+        <v>Bag</v>
+      </c>
+      <c r="M399" s="4" t="str">
+        <f>IF(K399=[1]Enums!$A$20, [1]Enums!$A$28, IF(K399=[1]Enums!$B$27, [1]Enums!$A$27, [1]Enums!$A$26))</f>
+        <v>Sack</v>
+      </c>
+      <c r="N399" s="4" t="str">
+        <f>IF(K399=[1]Enums!$A$20, [1]Enums!$A$31, IF(K399=[1]Enums!$B$24, [1]Enums!$A$30, [1]Enums!$A$29))</f>
+        <v>Powder Keg</v>
+      </c>
+      <c r="O399" s="4" t="str">
+        <f>IF(K399=[1]Enums!$A$20, [1]Enums!$A$34, IF(K399=[1]Enums!$B$24, [1]Enums!$A$33, [1]Enums!$A$32))</f>
         <v>Chemical Silo</v>
       </c>
     </row>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="67725" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="7"/>
+    <workbookView xWindow="67725" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="2380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="2382">
   <si>
     <t>Ore</t>
   </si>
@@ -5886,9 +5886,6 @@
     <t>4m</t>
   </si>
   <si>
-    <t>1.0.4</t>
-  </si>
-  <si>
     <t>P9</t>
   </si>
   <si>
@@ -6174,9 +6171,6 @@
     <t>5q</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>11j</t>
   </si>
   <si>
@@ -7177,6 +7171,18 @@
   </si>
   <si>
     <t>1bz</t>
+  </si>
+  <si>
+    <t>1bA</t>
+  </si>
+  <si>
+    <t>Collision</t>
+  </si>
+  <si>
+    <t>1bB</t>
+  </si>
+  <si>
+    <t>BlockCollision</t>
   </si>
 </sst>
 </file>
@@ -13526,55 +13532,55 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -13583,10 +13589,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="D2" s="32" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13605,10 +13611,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D3" s="32" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13627,10 +13633,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="D4" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13646,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K4" s="26">
         <v>1000</v>
@@ -13673,10 +13679,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="D5" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13695,7 +13701,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K5" s="26">
         <v>1500</v>
@@ -13722,10 +13728,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D6" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13744,7 +13750,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K6" s="26">
         <v>2000</v>
@@ -13771,10 +13777,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D7" s="32" t="str">
         <f>[1]Enums!$A$38</f>
@@ -13793,7 +13799,7 @@
         <v>80</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K7" s="26">
         <v>2500</v>
@@ -13820,10 +13826,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D8" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -13846,10 +13852,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="D9" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13863,7 +13869,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="K9" s="26">
         <v>3000</v>
@@ -13887,10 +13893,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -13901,7 +13907,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K10" s="26">
         <v>0.3</v>
@@ -13913,10 +13919,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D11" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13936,10 +13942,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D12" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13955,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K12" s="26">
         <v>3</v>
@@ -13974,10 +13980,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D13" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -13991,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="K13" s="26">
         <v>5000</v>
@@ -14006,10 +14012,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D14" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -14023,7 +14029,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="K14" s="26">
         <v>10000</v>
@@ -14038,10 +14044,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="D15" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -14055,7 +14061,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="K15" s="26">
         <v>25000</v>
@@ -14070,10 +14076,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D16" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -14087,7 +14093,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="K16" s="26">
         <v>50000</v>
@@ -14102,10 +14108,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D17" s="34" t="str">
         <f>[1]Enums!$A$43</f>
@@ -14121,10 +14127,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D18" s="34" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14140,10 +14146,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D19" s="34" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14159,10 +14165,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="D20" s="34" t="str">
         <f>[1]Enums!$A$43</f>
@@ -14178,10 +14184,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D21" s="26" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14200,10 +14206,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="D22" s="26" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14222,10 +14228,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="D23" s="26" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14244,10 +14250,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="D24" s="26" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14266,10 +14272,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D25" s="28" t="str">
         <f>[1]Enums!$A$39</f>
@@ -14291,10 +14297,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D26" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14310,10 +14316,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="D27" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14329,10 +14335,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D28" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14348,10 +14354,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D29" s="28" t="str">
         <f>[1]Enums!$A$43</f>
@@ -14361,7 +14367,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="K29" s="26">
         <v>24</v>
@@ -14373,10 +14379,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D30" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14395,10 +14401,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D31" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14415,10 +14421,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D32" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14434,10 +14440,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D33" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -14456,10 +14462,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D34" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14478,13 +14484,13 @@
         <v>1.0.3</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E35" s="26">
         <v>4</v>
@@ -14498,7 +14504,7 @@
       </c>
       <c r="I35" s="28"/>
       <c r="J35" s="31" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="K35" s="26">
         <v>10</v>
@@ -14510,13 +14516,13 @@
         <v>1.0.3</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E36" s="26">
         <v>4</v>
@@ -14528,7 +14534,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="31" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="K36" s="26">
         <v>15</v>
@@ -14540,13 +14546,13 @@
         <v>1.0.3</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E37" s="26">
         <v>4</v>
@@ -14558,7 +14564,7 @@
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="31" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="K37" s="26">
         <v>20</v>
@@ -14570,13 +14576,13 @@
         <v>1.0.3</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E38" s="26">
         <v>4</v>
@@ -14588,7 +14594,7 @@
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
       <c r="J38" s="31" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="K38" s="26">
         <v>5</v>
@@ -14600,13 +14606,13 @@
         <v>1.0.3</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E39" s="26">
         <v>4</v>
@@ -14618,7 +14624,7 @@
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
       <c r="J39" s="31" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="K39" s="26">
         <v>10</v>
@@ -14630,13 +14636,13 @@
         <v>1.0.3</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E40" s="26">
         <v>4</v>
@@ -14648,7 +14654,7 @@
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
       <c r="J40" s="31" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="K40" s="26">
         <v>15</v>
@@ -14660,13 +14666,13 @@
         <v>1.0.3</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E41" s="26">
         <v>4</v>
@@ -14684,13 +14690,13 @@
         <v>1.1.0</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E42" s="26">
         <v>8</v>
@@ -14704,7 +14710,7 @@
       </c>
       <c r="I42" s="28"/>
       <c r="J42" s="30" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="K42" s="26">
         <v>0.4</v>
@@ -14719,10 +14725,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="D43" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14746,10 +14752,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D44" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14773,10 +14779,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="D45" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14800,10 +14806,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="D46" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14827,10 +14833,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="D47" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14854,10 +14860,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D48" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14881,10 +14887,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="D49" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14912,10 +14918,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D50" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14943,10 +14949,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="D51" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -14974,10 +14980,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D52" s="28" t="str">
         <f>[1]Enums!$A$42</f>
@@ -15005,10 +15011,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="D53" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -15024,7 +15030,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="31" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="K53" s="26">
         <v>6000</v>
@@ -15048,10 +15054,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="D54" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -15067,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="31" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="K54" s="26">
         <v>9000</v>
@@ -15091,10 +15097,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="D55" s="32" t="str">
         <f>[1]Enums!$A$37</f>
@@ -15110,7 +15116,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="31" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="K55" s="26">
         <v>12000</v>
@@ -15134,13 +15140,13 @@
         <v>1.1.2</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E56" s="26">
         <v>8</v>
@@ -15257,10 +15263,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15284,20 +15290,20 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="E1" s="39" t="str">
         <f>"Tile Entity "&amp;'[1]Game IDs'!$A$1</f>
         <v>Tile Entity Game ID</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -15306,10 +15312,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="D2" s="27" t="str">
         <f xml:space="preserve"> C2</f>
@@ -15319,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -15328,10 +15334,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D3" s="27" t="str">
         <f xml:space="preserve"> C3</f>
@@ -15341,50 +15347,73 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>2045</v>
+      <c r="A4" s="29" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>1949</v>
+      <c r="A5" s="29" t="str">
+        <f>[1]Enums!$A$6</f>
+        <v>1.0.4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F5" s="27">
         <v>3000</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>2036</v>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="str">
+        <f>[1]Enums!$A$14</f>
+        <v>1.1.2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>2380</v>
       </c>
     </row>
   </sheetData>
@@ -16711,7 +16740,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="C25" t="str">
         <f xml:space="preserve"> E25&amp;" "&amp;$C$1</f>
@@ -18470,7 +18499,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="C28" t="str">
         <f>"Block of "&amp;Ores!E25</f>
@@ -19106,7 +19135,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
@@ -19127,7 +19156,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="C32" t="str">
         <f>E32&amp;" "&amp;$C$1</f>
@@ -19148,7 +19177,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="C33" t="str">
         <f>E33&amp;" "&amp;$C$1</f>
@@ -19169,7 +19198,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="C34" t="str">
         <f>E34&amp;" "&amp;$C$1</f>
@@ -19190,7 +19219,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="C35" t="str">
         <f>E35&amp;" "&amp;$C$1</f>
@@ -19211,7 +19240,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="C36" t="str">
         <f>E36&amp;" "&amp;$C$1</f>
@@ -19232,7 +19261,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="C37" t="str">
         <f>E37&amp;" Pentoxide "&amp;$C$1</f>
@@ -26656,7 +26685,7 @@
   </sheetPr>
   <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+    <sheetView topLeftCell="A208" workbookViewId="0">
       <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
@@ -45531,16 +45560,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="E334" s="13" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="F334" s="16" t="str">
         <f t="shared" ref="F334:F347" si="28">L334&amp;" ("&amp;$J334&amp;")"</f>
@@ -45589,16 +45618,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="E335" s="13" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="F335" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45647,16 +45676,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="E336" s="13" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="F336" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45705,16 +45734,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="F337" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45763,16 +45792,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="F338" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45821,16 +45850,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="F339" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45879,16 +45908,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="F340" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45934,16 +45963,16 @@
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="13" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="E341" s="13" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="F341" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45989,16 +46018,16 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="13" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="F342" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46047,16 +46076,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="E343" s="13" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="F343" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46105,16 +46134,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="E344" s="13" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="F344" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46163,16 +46192,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="E345" s="13" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="F345" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46221,16 +46250,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="F346" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46279,16 +46308,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="F347" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46337,16 +46366,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="F348" s="16" t="str">
         <f t="shared" ref="F348:I354" si="32">L348&amp;" ("&amp;$J348&amp;")"</f>
@@ -46395,16 +46424,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="E349" s="13" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="F349" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46453,16 +46482,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="D350" s="13" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="F350" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46511,16 +46540,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="F351" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46569,16 +46598,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="F352" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46627,16 +46656,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="E353" s="13" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="F353" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46685,16 +46714,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="D354" s="13" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="E354" s="13" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="F354" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46743,16 +46772,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="D355" s="13" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="E355" s="13" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="F355" s="16" t="str">
         <f t="shared" ref="F355:F366" si="33">L355&amp;" ("&amp;$J355&amp;")"</f>
@@ -46801,16 +46830,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="D356" s="13" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="E356" s="13" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="F356" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46859,16 +46888,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="D357" s="13" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="E357" s="13" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="F357" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46917,16 +46946,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="D358" s="13" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="E358" s="13" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="F358" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46975,16 +47004,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="D359" s="13" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="E359" s="13" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="F359" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47033,16 +47062,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="D360" s="13" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="E360" s="13" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="F360" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47091,16 +47120,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="D361" s="13" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="E361" s="13" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="F361" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47149,16 +47178,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="D362" s="13" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="E362" s="13" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="F362" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47207,16 +47236,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="D363" s="13" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="E363" s="13" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="F363" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47265,16 +47294,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="E364" s="13" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="F364" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47323,16 +47352,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="D365" s="13" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="E365" s="13" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="F365" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47381,16 +47410,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="D366" s="13" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="E366" s="13" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="F366" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47439,16 +47468,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="D367" s="13" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="E367" s="13" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="F367" s="16" t="str">
         <f t="shared" ref="F367" si="37">L367&amp;" ("&amp;$J367&amp;")"</f>
@@ -47497,16 +47526,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="D368" s="13" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="E368" s="13" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="F368" s="16" t="str">
         <f t="shared" ref="F368:F374" si="41">L368&amp;" ("&amp;$J368&amp;")"</f>
@@ -47555,16 +47584,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="D369" s="13" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="E369" s="13" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="F369" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47613,16 +47642,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D370" s="13" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="E370" s="13" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="F370" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47671,16 +47700,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="D371" s="13" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="F371" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47729,16 +47758,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="D372" s="13" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="E372" s="13" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="F372" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47787,16 +47816,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D373" s="13" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="E373" s="13" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="F373" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47845,16 +47874,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="D374" s="13" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="E374" s="13" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="F374" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47903,16 +47932,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="D375" s="13" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="E375" s="13" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F375" s="16" t="str">
         <f t="shared" ref="F375:F390" si="45">L375&amp;" ("&amp;$J375&amp;")"</f>
@@ -47961,16 +47990,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="E376" s="13" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F376" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48019,16 +48048,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="D377" s="13" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="E377" s="13" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F377" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48077,16 +48106,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="E378" s="13" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="F378" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48135,16 +48164,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="D379" s="13" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="E379" s="13" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="F379" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48193,16 +48222,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="E380" s="13" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="F380" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48251,16 +48280,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="D381" s="13" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="E381" s="13" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F381" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48309,16 +48338,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="D382" s="13" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="E382" s="13" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F382" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48367,16 +48396,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="D383" s="13" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="E383" s="13" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F383" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48425,16 +48454,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="D384" s="13" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="E384" s="13" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F384" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48483,16 +48512,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="D385" s="13" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="E385" s="13" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="F385" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48541,16 +48570,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="C386" s="13" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="E386" s="13" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="F386" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48599,16 +48628,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E387" s="13" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="F387" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48657,16 +48686,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="C388" s="13" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="E388" s="13" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="F388" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48715,16 +48744,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="E389" s="13" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="F389" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48773,16 +48802,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="C390" s="13" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="D390" s="13" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="E390" s="13" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="F390" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48831,16 +48860,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="C391" s="13" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="D391" s="13" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="E391" s="13" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="F391" s="16" t="str">
         <f t="shared" ref="F391:F399" si="49">L391&amp;" ("&amp;$J391&amp;")"</f>
@@ -48885,16 +48914,16 @@
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B392" s="13" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="C392" s="13" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="E392" s="13" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="F392" s="16" t="str">
         <f t="shared" si="49"/>
@@ -48939,16 +48968,16 @@
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B393" s="13" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="C393" s="13" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="D393" s="13" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="E393" s="13" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="F393" s="16" t="str">
         <f t="shared" si="49"/>
@@ -48993,16 +49022,16 @@
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B394" s="13" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="C394" s="13" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="D394" s="13" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="E394" s="13" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="F394" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49047,16 +49076,16 @@
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B395" s="13" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="D395" s="13" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="E395" s="13" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="F395" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49101,16 +49130,16 @@
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B396" s="13" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="D396" s="13" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="E396" s="13" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="F396" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49155,16 +49184,16 @@
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B397" s="13" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="C397" s="13" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="D397" s="13" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="E397" s="13" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="F397" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49209,16 +49238,16 @@
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B398" s="13" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="D398" s="13" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="E398" s="13" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="F398" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49263,16 +49292,16 @@
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B399" s="13" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="D399" s="13" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="E399" s="13" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="F399" s="16" t="str">
         <f t="shared" si="49"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -10101,7 +10101,7 @@
             <v>Carbon Monoxide</v>
           </cell>
           <cell r="D90" t="str">
-            <v>Liquid</v>
+            <v>Gas</v>
           </cell>
         </row>
         <row r="91">
@@ -31955,19 +31955,19 @@
       </c>
       <c r="F94" s="16" t="str">
         <f t="shared" si="4"/>
-        <v>Vial (Carbon Monoxide)</v>
+        <v>Flask (Carbon Monoxide)</v>
       </c>
       <c r="G94" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>Beaker (Carbon Monoxide)</v>
+        <v>Cartridge (Carbon Monoxide)</v>
       </c>
       <c r="H94" s="16" t="str">
         <f t="shared" si="6"/>
-        <v>Drum (Carbon Monoxide)</v>
+        <v>Canister (Carbon Monoxide)</v>
       </c>
       <c r="I94" s="16" t="str">
         <f t="shared" si="7"/>
-        <v>Chemical Vat (Carbon Monoxide)</v>
+        <v>Chemical Tank (Carbon Monoxide)</v>
       </c>
       <c r="J94" s="16" t="str">
         <f>[1]Compounds!$B90</f>
@@ -31975,23 +31975,23 @@
       </c>
       <c r="K94" t="str">
         <f>[1]Compounds!$D90</f>
-        <v>Liquid</v>
+        <v>Gas</v>
       </c>
       <c r="L94" s="4" t="str">
         <f>IF(K94=[1]Enums!$A$22, [1]Enums!$A$27, IF(K94=[1]Enums!$B$26, [1]Enums!$A$26, [1]Enums!$A$25))</f>
-        <v>Vial</v>
+        <v>Flask</v>
       </c>
       <c r="M94" s="4" t="str">
         <f>IF(K94=[1]Enums!$A$22, [1]Enums!$A$30, IF(K94=[1]Enums!$B$29, [1]Enums!$A$29, [1]Enums!$A$28))</f>
-        <v>Beaker</v>
+        <v>Cartridge</v>
       </c>
       <c r="N94" s="4" t="str">
         <f>IF(K94=[1]Enums!$A$22, [1]Enums!$A$33, IF(K94=[1]Enums!$B$26, [1]Enums!$A$32, [1]Enums!$A$31))</f>
-        <v>Drum</v>
+        <v>Canister</v>
       </c>
       <c r="O94" s="4" t="str">
         <f>IF(K94=[1]Enums!$A$22, [1]Enums!$A$36, IF(K94=[1]Enums!$B$26, [1]Enums!$A$35, [1]Enums!$A$34))</f>
-        <v>Chemical Vat</v>
+        <v>Chemical Tank</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="68655" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="1"/>
+    <workbookView xWindow="70515" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="70515" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="1"/>
+    <workbookView xWindow="71445" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -6044,9 +6044,6 @@
     <t>3M</t>
   </si>
   <si>
-    <t>Copper Pipe</t>
-  </si>
-  <si>
     <t>3I</t>
   </si>
   <si>
@@ -7182,6 +7179,9 @@
   </si>
   <si>
     <t>BlockCollision</t>
+  </si>
+  <si>
+    <t>Copper Piping</t>
   </si>
 </sst>
 </file>
@@ -13500,8 +13500,8 @@
   </sheetPr>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13531,25 +13531,25 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>1958</v>
@@ -13588,10 +13588,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="D2" s="32" t="str">
         <f>[1]Enums!$A$44</f>
@@ -13610,10 +13610,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="D3" s="32" t="str">
         <f>[1]Enums!$A$44</f>
@@ -13632,10 +13632,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D4" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13651,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="K4" s="26">
         <v>1000</v>
@@ -13678,10 +13678,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="D5" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13700,7 +13700,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="K5" s="26">
         <v>1500</v>
@@ -13727,10 +13727,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D6" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13749,7 +13749,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="K6" s="26">
         <v>2000</v>
@@ -13776,10 +13776,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D7" s="32" t="str">
         <f>[1]Enums!$A$40</f>
@@ -13798,7 +13798,7 @@
         <v>80</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="K7" s="26">
         <v>2500</v>
@@ -13825,10 +13825,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D8" s="32" t="str">
         <f>[1]Enums!$A$41</f>
@@ -13851,10 +13851,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D9" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -13868,7 +13868,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="K9" s="26">
         <v>3000</v>
@@ -13892,10 +13892,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -13906,7 +13906,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="K10" s="26">
         <v>0.3</v>
@@ -13918,10 +13918,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D11" s="32" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13941,10 +13941,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D12" s="32" t="str">
         <f>[1]Enums!$A$42</f>
@@ -13960,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="K12" s="26">
         <v>3</v>
@@ -13979,10 +13979,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="D13" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K13" s="26">
         <v>5000</v>
@@ -14011,10 +14011,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D14" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -14028,7 +14028,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K14" s="26">
         <v>10000</v>
@@ -14043,10 +14043,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D15" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K15" s="26">
         <v>25000</v>
@@ -14075,10 +14075,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="D16" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -14092,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K16" s="26">
         <v>50000</v>
@@ -14107,10 +14107,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D17" s="34" t="str">
         <f>[1]Enums!$A$45</f>
@@ -14126,10 +14126,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D18" s="34" t="str">
         <f>[1]Enums!$A$46</f>
@@ -14145,10 +14145,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="D19" s="34" t="str">
         <f>[1]Enums!$A$46</f>
@@ -14164,10 +14164,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>2002</v>
+        <v>2381</v>
       </c>
       <c r="D20" s="34" t="str">
         <f>[1]Enums!$A$45</f>
@@ -14186,7 +14186,7 @@
         <v>2001</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="D21" s="26" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14205,10 +14205,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D22" s="26" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14227,10 +14227,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D23" s="26" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14249,10 +14249,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="D24" s="26" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14724,10 +14724,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="D43" s="28" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14751,10 +14751,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D44" s="28" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14778,10 +14778,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D45" s="28" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14805,10 +14805,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D46" s="28" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14832,10 +14832,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D47" s="28" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14859,10 +14859,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D48" s="28" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14886,10 +14886,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C49" s="26" t="s">
         <v>2175</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>2176</v>
       </c>
       <c r="D49" s="28" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14917,10 +14917,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D50" s="28" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14948,10 +14948,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="D51" s="28" t="str">
         <f>[1]Enums!$A$44</f>
@@ -14979,10 +14979,10 @@
         <v>1.1.0</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="D52" s="28" t="str">
         <f>[1]Enums!$A$44</f>
@@ -15010,10 +15010,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D53" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -15029,7 +15029,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="31" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="K53" s="26">
         <v>6000</v>
@@ -15053,10 +15053,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D54" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -15072,7 +15072,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="31" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="K54" s="26">
         <v>9000</v>
@@ -15096,10 +15096,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D55" s="32" t="str">
         <f>[1]Enums!$A$39</f>
@@ -15115,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="31" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="K55" s="26">
         <v>12000</v>
@@ -15139,10 +15139,10 @@
         <v>1.1.2</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>1964</v>
@@ -15264,7 +15264,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -15289,10 +15289,10 @@
         <v>Game ID</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E1" s="39" t="str">
         <f>"Tile Entity "&amp;'[1]Game IDs'!$A$1</f>
@@ -15302,7 +15302,7 @@
         <v>1959</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -15311,10 +15311,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D2" s="27" t="str">
         <f xml:space="preserve"> C2</f>
@@ -15324,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -15333,10 +15333,10 @@
         <v>1.0.0</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D3" s="27" t="str">
         <f xml:space="preserve"> C3</f>
@@ -15346,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -15355,19 +15355,19 @@
         <v>1.0.0</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F4" s="27">
         <v>0</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -15376,22 +15376,22 @@
         <v>1.0.4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="F5" s="27">
         <v>3000</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -15400,19 +15400,19 @@
         <v>1.1.2</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>2378</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>2381</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>2379</v>
       </c>
       <c r="F6" s="27">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
   </sheetData>
@@ -16739,7 +16739,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="C25" t="str">
         <f xml:space="preserve"> E25&amp;" "&amp;$C$1</f>
@@ -18498,7 +18498,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="C28" t="str">
         <f>"Block of "&amp;Ores!E25</f>
@@ -19134,7 +19134,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
@@ -19155,7 +19155,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C32" t="str">
         <f>E32&amp;" "&amp;$C$1</f>
@@ -19176,7 +19176,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C33" t="str">
         <f>E33&amp;" "&amp;$C$1</f>
@@ -19197,7 +19197,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C34" t="str">
         <f>E34&amp;" "&amp;$C$1</f>
@@ -19218,7 +19218,7 @@
         <v>1.1.0</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C35" t="str">
         <f>E35&amp;" "&amp;$C$1</f>
@@ -19239,7 +19239,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C36" t="str">
         <f>E36&amp;" "&amp;$C$1</f>
@@ -19260,7 +19260,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C37" t="str">
         <f>E37&amp;" Pentoxide "&amp;$C$1</f>
@@ -45559,16 +45559,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="E334" s="13" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="F334" s="16" t="str">
         <f t="shared" ref="F334:F347" si="28">L334&amp;" ("&amp;$J334&amp;")"</f>
@@ -45617,16 +45617,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B335" s="13" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D335" s="13" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E335" s="13" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="F335" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45675,16 +45675,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B336" s="13" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E336" s="13" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F336" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45733,16 +45733,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B337" s="13" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D337" s="13" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E337" s="13" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F337" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45791,16 +45791,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B338" s="13" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D338" s="13" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E338" s="13" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="F338" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45849,16 +45849,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B339" s="13" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="E339" s="13" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="F339" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45907,16 +45907,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B340" s="13" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D340" s="13" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="E340" s="13" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="F340" s="16" t="str">
         <f t="shared" si="28"/>
@@ -45962,16 +45962,16 @@
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="13" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D341" s="13" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="E341" s="13" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="F341" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46017,16 +46017,16 @@
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="13" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="E342" s="13" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="F342" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46075,16 +46075,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B343" s="13" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="D343" s="13" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E343" s="13" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F343" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46133,16 +46133,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B344" s="13" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E344" s="13" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F344" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46191,16 +46191,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B345" s="13" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D345" s="13" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E345" s="13" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="F345" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46249,16 +46249,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B346" s="13" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D346" s="13" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E346" s="13" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="F346" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46307,16 +46307,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B347" s="13" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D347" s="13" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E347" s="13" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="F347" s="16" t="str">
         <f t="shared" si="28"/>
@@ -46365,16 +46365,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B348" s="13" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="E348" s="13" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="F348" s="16" t="str">
         <f t="shared" ref="F348:I354" si="32">L348&amp;" ("&amp;$J348&amp;")"</f>
@@ -46423,16 +46423,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B349" s="13" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D349" s="13" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="E349" s="13" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="F349" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46481,16 +46481,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B350" s="13" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D350" s="13" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E350" s="13" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="F350" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46539,16 +46539,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B351" s="13" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D351" s="13" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E351" s="13" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="F351" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46597,16 +46597,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B352" s="13" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D352" s="13" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E352" s="13" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="F352" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46655,16 +46655,16 @@
         <v>1.1.0</v>
       </c>
       <c r="B353" s="13" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D353" s="13" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="E353" s="13" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="F353" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46713,16 +46713,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D354" s="13" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E354" s="13" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="F354" s="16" t="str">
         <f t="shared" si="32"/>
@@ -46771,16 +46771,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D355" s="13" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E355" s="13" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="F355" s="16" t="str">
         <f t="shared" ref="F355:F366" si="33">L355&amp;" ("&amp;$J355&amp;")"</f>
@@ -46829,16 +46829,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D356" s="13" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E356" s="13" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="F356" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46887,16 +46887,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B357" s="12" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="D357" s="13" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E357" s="13" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="F357" s="16" t="str">
         <f t="shared" si="33"/>
@@ -46945,16 +46945,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B358" s="12" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D358" s="13" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E358" s="13" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="F358" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47003,16 +47003,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B359" s="12" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D359" s="13" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E359" s="13" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="F359" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47061,16 +47061,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D360" s="13" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="E360" s="13" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="F360" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47119,16 +47119,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B361" s="12" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D361" s="13" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="E361" s="13" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F361" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47177,16 +47177,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D362" s="13" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E362" s="13" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F362" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47235,16 +47235,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D363" s="13" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E363" s="13" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="F363" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47293,16 +47293,16 @@
         <v>1.1.1</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="E364" s="13" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="F364" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47351,16 +47351,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="D365" s="13" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="E365" s="13" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="F365" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47409,16 +47409,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B366" s="12" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D366" s="13" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="E366" s="13" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="F366" s="16" t="str">
         <f t="shared" si="33"/>
@@ -47467,16 +47467,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B367" s="12" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D367" s="13" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E367" s="13" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="F367" s="16" t="str">
         <f t="shared" ref="F367" si="37">L367&amp;" ("&amp;$J367&amp;")"</f>
@@ -47525,16 +47525,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B368" s="12" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D368" s="13" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E368" s="13" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="F368" s="16" t="str">
         <f t="shared" ref="F368:F374" si="41">L368&amp;" ("&amp;$J368&amp;")"</f>
@@ -47583,16 +47583,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B369" s="12" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D369" s="13" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E369" s="13" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="F369" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47641,16 +47641,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B370" s="12" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="D370" s="13" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E370" s="13" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="F370" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47699,16 +47699,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B371" s="12" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D371" s="13" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E371" s="13" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="F371" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47757,16 +47757,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B372" s="12" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D372" s="13" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E372" s="13" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F372" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47815,16 +47815,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D373" s="13" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E373" s="13" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="F373" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47873,16 +47873,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B374" s="12" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D374" s="13" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E374" s="13" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="F374" s="16" t="str">
         <f t="shared" si="41"/>
@@ -47931,16 +47931,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B375" s="13" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="D375" s="13" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E375" s="13" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="F375" s="16" t="str">
         <f t="shared" ref="F375:F390" si="45">L375&amp;" ("&amp;$J375&amp;")"</f>
@@ -47989,16 +47989,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B376" s="13" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D376" s="13" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="E376" s="13" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="F376" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48047,16 +48047,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B377" s="13" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="D377" s="13" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="E377" s="13" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="F377" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48105,16 +48105,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B378" s="13" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="E378" s="13" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F378" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48163,16 +48163,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B379" s="13" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="D379" s="13" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E379" s="13" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="F379" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48221,16 +48221,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B380" s="13" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E380" s="13" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="F380" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48279,16 +48279,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B381" s="13" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D381" s="13" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="E381" s="13" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="F381" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48337,16 +48337,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B382" s="13" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D382" s="13" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="E382" s="13" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="F382" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48395,16 +48395,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B383" s="13" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D383" s="13" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E383" s="13" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="F383" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48453,16 +48453,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B384" s="13" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D384" s="13" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E384" s="13" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="F384" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48511,16 +48511,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B385" s="13" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D385" s="13" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="E385" s="13" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="F385" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48569,16 +48569,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B386" s="13" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C386" s="13" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D386" s="13" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E386" s="13" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="F386" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48627,16 +48627,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B387" s="13" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E387" s="13" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="F387" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48685,16 +48685,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B388" s="13" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C388" s="13" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D388" s="13" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="E388" s="13" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="F388" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48743,16 +48743,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B389" s="13" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E389" s="13" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="F389" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48801,16 +48801,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B390" s="13" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C390" s="13" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D390" s="13" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="E390" s="13" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="F390" s="16" t="str">
         <f t="shared" si="45"/>
@@ -48859,16 +48859,16 @@
         <v>1.1.2</v>
       </c>
       <c r="B391" s="13" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="C391" s="13" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D391" s="13" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="E391" s="13" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="F391" s="16" t="str">
         <f t="shared" ref="F391:F399" si="49">L391&amp;" ("&amp;$J391&amp;")"</f>
@@ -48913,16 +48913,16 @@
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B392" s="13" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="C392" s="13" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D392" s="13" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="E392" s="13" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="F392" s="16" t="str">
         <f t="shared" si="49"/>
@@ -48967,16 +48967,16 @@
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B393" s="13" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="C393" s="13" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="D393" s="13" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="E393" s="13" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="F393" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49021,16 +49021,16 @@
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B394" s="13" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="C394" s="13" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="D394" s="13" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="E394" s="13" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="F394" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49075,16 +49075,16 @@
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B395" s="13" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="C395" s="13" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D395" s="13" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="E395" s="13" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="F395" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49129,16 +49129,16 @@
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B396" s="13" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="C396" s="13" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="D396" s="13" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="E396" s="13" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="F396" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49183,16 +49183,16 @@
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B397" s="13" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="C397" s="13" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="D397" s="13" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="E397" s="13" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="F397" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49237,16 +49237,16 @@
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B398" s="13" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="C398" s="13" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="D398" s="13" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E398" s="13" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="F398" s="16" t="str">
         <f t="shared" si="49"/>
@@ -49291,16 +49291,16 @@
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B399" s="13" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="C399" s="13" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="D399" s="13" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E399" s="13" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="F399" s="16" t="str">
         <f t="shared" si="49"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="71445" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
+    <workbookView xWindow="72375" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -7754,8 +7754,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Minecraft Item</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Minecraft Block</v>
+          </cell>
+        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>1.0.0</v>
@@ -13201,8 +13212,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13500,7 +13511,7 @@
   </sheetPr>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -15264,7 +15275,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="74235" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877"/>
+    <workbookView xWindow="74235" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -13559,7 +13559,7 @@
   </sheetPr>
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
@@ -15612,7 +15612,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="74235" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="1"/>
+    <workbookView xWindow="74235" yWindow="495" windowWidth="19200" windowHeight="19455" tabRatio="877" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -15612,7 +15612,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -15776,7 +15776,7 @@
   </sheetPr>
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="2434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="2430">
   <si>
     <t>Ore</t>
   </si>
@@ -7236,18 +7236,6 @@
   </si>
   <si>
     <t>1bO</t>
-  </si>
-  <si>
-    <t>1bY</t>
-  </si>
-  <si>
-    <t>Filtered Air</t>
-  </si>
-  <si>
-    <t>1bZ</t>
-  </si>
-  <si>
-    <t>BlockPureAir</t>
   </si>
   <si>
     <t>1c0</t>
@@ -13708,7 +13696,7 @@
   </sheetPr>
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
@@ -15774,10 +15762,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="D65" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15801,10 +15789,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="D66" s="28" t="str">
         <f>[1]Enums!$A$52</f>
@@ -15828,10 +15816,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="D67" s="28" t="str">
         <f>[1]Enums!$A$52</f>
@@ -15855,10 +15843,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="D68" s="28" t="str">
         <f>[1]Enums!$A$52</f>
@@ -15882,10 +15870,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="D69" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15909,10 +15897,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="D70" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15936,10 +15924,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="D71" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15957,7 +15945,7 @@
       </c>
       <c r="I71" s="28"/>
       <c r="J71" s="26" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="K71" s="26">
         <v>64</v>
@@ -15969,10 +15957,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="D72" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15990,7 +15978,7 @@
       </c>
       <c r="I72" s="28"/>
       <c r="J72" s="26" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="K72" s="26">
         <v>128</v>
@@ -16002,10 +15990,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="D73" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -16023,7 +16011,7 @@
       </c>
       <c r="I73" s="28"/>
       <c r="J73" s="26" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="K73" s="26">
         <v>512</v>
@@ -16035,10 +16023,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
       <c r="D74" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -16054,7 +16042,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="K74" s="26">
         <v>512</v>
@@ -16066,10 +16054,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="D75" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -16097,8 +16085,8 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16249,25 +16237,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>1.3.2</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>2400</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>2403</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>2401</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>2402</v>
-      </c>
+      <c r="A7" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17638,7 +17608,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="C26" t="str">
         <f xml:space="preserve"> E26&amp;" "&amp;$C$1</f>
@@ -17696,7 +17666,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="C27" t="str">
         <f xml:space="preserve"> E27</f>
@@ -18833,7 +18803,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="C26" t="str">
         <f xml:space="preserve"> E26&amp;" "&amp;$C$1</f>
@@ -18857,10 +18827,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="D27" t="str">
         <f>[1]Minerals!$B$1</f>
@@ -19509,7 +19479,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="C29" t="str">
         <f>"Block of "&amp;Ores!E26</f>
@@ -19530,7 +19500,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="C30" t="str">
         <f>"Block of "&amp;Ingots!E27</f>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877" activeTab="1"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="2430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="2432">
   <si>
     <t>Ore</t>
   </si>
@@ -7259,9 +7259,6 @@
     <t>Bars (Copper)</t>
   </si>
   <si>
-    <t>Loads (Copper)</t>
-  </si>
-  <si>
     <t>1eP</t>
   </si>
   <si>
@@ -7326,6 +7323,15 @@
   </si>
   <si>
     <t>SpeechDistance</t>
+  </si>
+  <si>
+    <t>1eq</t>
+  </si>
+  <si>
+    <t>Smart Phone</t>
+  </si>
+  <si>
+    <t>Stacks (Copper)</t>
   </si>
 </sst>
 </file>
@@ -13694,10 +13700,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15789,7 +15795,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>2405</v>
@@ -15816,7 +15822,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>2406</v>
@@ -15843,10 +15849,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>2407</v>
+        <v>2431</v>
       </c>
       <c r="D68" s="28" t="str">
         <f>[1]Enums!$A$52</f>
@@ -15870,10 +15876,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="D69" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15897,10 +15903,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D70" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15924,10 +15930,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B71" s="13" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>2423</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>2424</v>
       </c>
       <c r="D71" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15945,7 +15951,7 @@
       </c>
       <c r="I71" s="28"/>
       <c r="J71" s="26" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="K71" s="26">
         <v>64</v>
@@ -15957,10 +15963,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D72" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15978,7 +15984,7 @@
       </c>
       <c r="I72" s="28"/>
       <c r="J72" s="26" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="K72" s="26">
         <v>128</v>
@@ -15990,10 +15996,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D73" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -16011,7 +16017,7 @@
       </c>
       <c r="I73" s="28"/>
       <c r="J73" s="26" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="K73" s="26">
         <v>512</v>
@@ -16023,10 +16029,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D74" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -16042,7 +16048,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="K74" s="26">
         <v>512</v>
@@ -16054,10 +16060,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="D75" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -16070,6 +16076,31 @@
         <v>0</v>
       </c>
       <c r="H75" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="29" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D76" s="28" t="str">
+        <f>[1]Enums!$A$49</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E76" s="26">
+        <v>8</v>
+      </c>
+      <c r="F76" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="26">
         <v>1</v>
       </c>
     </row>
@@ -16085,7 +16116,7 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -16253,7 +16284,7 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="J20" sqref="J20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17666,7 +17697,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C27" t="str">
         <f xml:space="preserve"> E27</f>
@@ -18827,10 +18858,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D27" t="str">
         <f>[1]Minerals!$B$1</f>
@@ -19500,7 +19531,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C30" t="str">
         <f>"Block of "&amp;Ingots!E27</f>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -16,19 +16,22 @@
     <sheet name="Internal Objects" sheetId="42" r:id="rId2"/>
     <sheet name="Ores" sheetId="1" r:id="rId3"/>
     <sheet name="Ingots" sheetId="5" r:id="rId4"/>
-    <sheet name="Compressed Blocks" sheetId="20" r:id="rId5"/>
-    <sheet name="Catalysts" sheetId="12" r:id="rId6"/>
-    <sheet name="Element Vessels" sheetId="38" r:id="rId7"/>
-    <sheet name="Compound Vessels" sheetId="39" r:id="rId8"/>
-    <sheet name="CV Links" sheetId="10" r:id="rId9"/>
+    <sheet name="Nuggets" sheetId="43" r:id="rId5"/>
+    <sheet name="Compressed Blocks" sheetId="20" r:id="rId6"/>
+    <sheet name="Catalysts" sheetId="12" r:id="rId7"/>
+    <sheet name="Element Vessels" sheetId="38" r:id="rId8"/>
+    <sheet name="Compound Vessels" sheetId="39" r:id="rId9"/>
+    <sheet name="CV Links" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
+    <definedName name="All_Items" localSheetId="4">#REF!</definedName>
     <definedName name="All_Items">#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="2432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="2462">
   <si>
     <t>Ore</t>
   </si>
@@ -7238,6 +7241,9 @@
     <t>1bO</t>
   </si>
   <si>
+    <t>1bY</t>
+  </si>
+  <si>
     <t>1c0</t>
   </si>
   <si>
@@ -7332,6 +7338,93 @@
   </si>
   <si>
     <t>Stacks (Copper)</t>
+  </si>
+  <si>
+    <t>1eY</t>
+  </si>
+  <si>
+    <t>1eZ</t>
+  </si>
+  <si>
+    <t>1f0</t>
+  </si>
+  <si>
+    <t>1f1</t>
+  </si>
+  <si>
+    <t>1f2</t>
+  </si>
+  <si>
+    <t>1f3</t>
+  </si>
+  <si>
+    <t>1f4</t>
+  </si>
+  <si>
+    <t>1f5</t>
+  </si>
+  <si>
+    <t>1f6</t>
+  </si>
+  <si>
+    <t>1f7</t>
+  </si>
+  <si>
+    <t>1f8</t>
+  </si>
+  <si>
+    <t>1f9</t>
+  </si>
+  <si>
+    <t>1fa</t>
+  </si>
+  <si>
+    <t>1fb</t>
+  </si>
+  <si>
+    <t>1fc</t>
+  </si>
+  <si>
+    <t>1fd</t>
+  </si>
+  <si>
+    <t>1fe</t>
+  </si>
+  <si>
+    <t>1ff</t>
+  </si>
+  <si>
+    <t>1fg</t>
+  </si>
+  <si>
+    <t>1fh</t>
+  </si>
+  <si>
+    <t>1fi</t>
+  </si>
+  <si>
+    <t>1fj</t>
+  </si>
+  <si>
+    <t>1fk</t>
+  </si>
+  <si>
+    <t>1fl</t>
+  </si>
+  <si>
+    <t>1fm</t>
+  </si>
+  <si>
+    <t>1fn</t>
+  </si>
+  <si>
+    <t>Nugget</t>
+  </si>
+  <si>
+    <t>Mask Damage Per Use</t>
+  </si>
+  <si>
+    <t>Trove (Copper)</t>
   </si>
 </sst>
 </file>
@@ -13700,10 +13793,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S76"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15768,10 +15861,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="D65" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15795,10 +15888,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="D66" s="28" t="str">
         <f>[1]Enums!$A$52</f>
@@ -15822,10 +15915,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="D67" s="28" t="str">
         <f>[1]Enums!$A$52</f>
@@ -15849,10 +15942,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="D68" s="28" t="str">
         <f>[1]Enums!$A$52</f>
@@ -15876,10 +15969,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="D69" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15903,10 +15996,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="D70" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15930,10 +16023,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="D71" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15951,7 +16044,7 @@
       </c>
       <c r="I71" s="28"/>
       <c r="J71" s="26" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K71" s="26">
         <v>64</v>
@@ -15963,10 +16056,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="D72" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -15984,7 +16077,7 @@
       </c>
       <c r="I72" s="28"/>
       <c r="J72" s="26" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K72" s="26">
         <v>128</v>
@@ -15996,10 +16089,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="D73" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -16017,7 +16110,7 @@
       </c>
       <c r="I73" s="28"/>
       <c r="J73" s="26" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K73" s="26">
         <v>512</v>
@@ -16029,10 +16122,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="D74" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -16048,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="K74" s="26">
         <v>512</v>
@@ -16060,10 +16153,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="D75" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -16085,10 +16178,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="D76" s="28" t="str">
         <f>[1]Enums!$A$49</f>
@@ -16104,8 +16197,3148 @@
         <v>1</v>
       </c>
     </row>
+    <row r="77" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="29" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D77" s="28" t="str">
+        <f>[1]Enums!$A$49</f>
+        <v>PC Item</v>
+      </c>
+      <c r="E77" s="26">
+        <v>2</v>
+      </c>
+      <c r="F77" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="26">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:D334"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="str">
+        <f>[1]Enums!$A$1</f>
+        <v>Version</v>
+      </c>
+      <c r="B1" s="5" t="str">
+        <f>[1]Compounds!$A$1&amp;" Vessel"</f>
+        <v>Version Vessel</v>
+      </c>
+      <c r="C1" s="6" t="str">
+        <f>[1]Compounds!$B$1&amp;" Name"</f>
+        <v>Compound Name</v>
+      </c>
+      <c r="D1" s="5" t="str">
+        <f xml:space="preserve"> [1]Enums!$A$29</f>
+        <v>Vessel Type</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B2" t="str">
+        <f>D2&amp;" ("&amp;C2&amp;")"</f>
+        <v>Vial (Crude Oil)</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]Compounds!$B$103</f>
+        <v>Crude Oil</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(VLOOKUP(C2,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C2,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B10" si="0">D3&amp;" ("&amp;C3&amp;")"</f>
+        <v>Beaker (Crude Oil)</v>
+      </c>
+      <c r="C3" t="str">
+        <f>[1]Compounds!$B$103</f>
+        <v>Crude Oil</v>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(VLOOKUP(C3,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C3,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Drum (Crude Oil)</v>
+      </c>
+      <c r="C4" t="str">
+        <f>[1]Compounds!$B$103</f>
+        <v>Crude Oil</v>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(VLOOKUP(C4,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C4,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Vial (Naphthalene)</v>
+      </c>
+      <c r="C5" t="str">
+        <f>[1]Compounds!$B$208</f>
+        <v>Naphthalene</v>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(VLOOKUP(C5,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C5,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Beaker (Naphthalene)</v>
+      </c>
+      <c r="C6" t="str">
+        <f>[1]Compounds!$B$208</f>
+        <v>Naphthalene</v>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(VLOOKUP(C6,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C6,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Drum (Naphthalene)</v>
+      </c>
+      <c r="C7" t="str">
+        <f>[1]Compounds!$B$208</f>
+        <v>Naphthalene</v>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(VLOOKUP(C7,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C7,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Vial (Benzene-Toluene-Xylene)</v>
+      </c>
+      <c r="C8" t="str">
+        <f>[1]Compounds!$B$60</f>
+        <v>Benzene-Toluene-Xylene</v>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(VLOOKUP(C8,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C8,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Beaker (Benzene-Toluene-Xylene)</v>
+      </c>
+      <c r="C9" t="str">
+        <f>[1]Compounds!$B$60</f>
+        <v>Benzene-Toluene-Xylene</v>
+      </c>
+      <c r="D9" t="str">
+        <f>IF(VLOOKUP(C9,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C9,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Drum (Benzene-Toluene-Xylene)</v>
+      </c>
+      <c r="C10" t="str">
+        <f>[1]Compounds!$B$60</f>
+        <v>Benzene-Toluene-Xylene</v>
+      </c>
+      <c r="D10" t="str">
+        <f>IF(VLOOKUP(C10,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C10,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" ref="B11:B34" si="1">D11&amp;" ("&amp;C11&amp;")"</f>
+        <v>Vial (Gas Oil)</v>
+      </c>
+      <c r="C11" t="str">
+        <f>[1]Compounds!$B$141</f>
+        <v>Gas Oil</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(VLOOKUP(C11,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C11,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>Beaker (Gas Oil)</v>
+      </c>
+      <c r="C12" t="str">
+        <f>[1]Compounds!$B$141</f>
+        <v>Gas Oil</v>
+      </c>
+      <c r="D12" t="str">
+        <f>IF(VLOOKUP(C12,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C12,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>Drum (Gas Oil)</v>
+      </c>
+      <c r="C13" t="str">
+        <f>[1]Compounds!$B$141</f>
+        <v>Gas Oil</v>
+      </c>
+      <c r="D13" t="str">
+        <f>IF(VLOOKUP(C13,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C13,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>Vial (NeoPentane)</v>
+      </c>
+      <c r="C14" t="str">
+        <f>[1]Compounds!$B$211</f>
+        <v>NeoPentane</v>
+      </c>
+      <c r="D14" t="str">
+        <f>IF(VLOOKUP(C14,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C14,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>Beaker (NeoPentane)</v>
+      </c>
+      <c r="C15" t="str">
+        <f>[1]Compounds!$B$211</f>
+        <v>NeoPentane</v>
+      </c>
+      <c r="D15" t="str">
+        <f>IF(VLOOKUP(C15,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C15,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>Drum (NeoPentane)</v>
+      </c>
+      <c r="C16" t="str">
+        <f>[1]Compounds!$B$211</f>
+        <v>NeoPentane</v>
+      </c>
+      <c r="D16" t="str">
+        <f>IF(VLOOKUP(C16,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C16,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>Flask (Methane)</v>
+      </c>
+      <c r="C17" t="str">
+        <f>[1]Compounds!$B$192</f>
+        <v>Methane</v>
+      </c>
+      <c r="D17" t="str">
+        <f>IF(VLOOKUP(C17,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C17,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>Cartridge (Methane)</v>
+      </c>
+      <c r="C18" t="str">
+        <f>[1]Compounds!$B$192</f>
+        <v>Methane</v>
+      </c>
+      <c r="D18" t="str">
+        <f>IF(VLOOKUP(C18,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C18,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>Canister (Methane)</v>
+      </c>
+      <c r="C19" t="str">
+        <f>[1]Compounds!$B$192</f>
+        <v>Methane</v>
+      </c>
+      <c r="D19" t="str">
+        <f>IF(VLOOKUP(C19,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C19,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>Flask (Ethane)</v>
+      </c>
+      <c r="C20" t="str">
+        <f>[1]Compounds!$B$124</f>
+        <v>Ethane</v>
+      </c>
+      <c r="D20" t="str">
+        <f>IF(VLOOKUP(C20,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C20,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>Cartridge (Ethane)</v>
+      </c>
+      <c r="C21" t="str">
+        <f>[1]Compounds!$B$124</f>
+        <v>Ethane</v>
+      </c>
+      <c r="D21" t="str">
+        <f>IF(VLOOKUP(C21,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C21,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>Canister (Ethane)</v>
+      </c>
+      <c r="C22" t="str">
+        <f>[1]Compounds!$B$124</f>
+        <v>Ethane</v>
+      </c>
+      <c r="D22" t="str">
+        <f>IF(VLOOKUP(C22,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C22,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>Flask (Propane)</v>
+      </c>
+      <c r="C23" t="str">
+        <f>[1]Compounds!$B$245</f>
+        <v>Propane</v>
+      </c>
+      <c r="D23" t="str">
+        <f>IF(VLOOKUP(C23,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C23,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>Cartridge (Propane)</v>
+      </c>
+      <c r="C24" t="str">
+        <f>[1]Compounds!$B$245</f>
+        <v>Propane</v>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(VLOOKUP(C24,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C24,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>Canister (Propane)</v>
+      </c>
+      <c r="C25" t="str">
+        <f>[1]Compounds!$B$245</f>
+        <v>Propane</v>
+      </c>
+      <c r="D25" t="str">
+        <f>IF(VLOOKUP(C25,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C25,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>Flask (Butane Isomers)</v>
+      </c>
+      <c r="C26" t="str">
+        <f>[1]Compounds!$B$68</f>
+        <v>Butane Isomers</v>
+      </c>
+      <c r="D26" t="str">
+        <f>IF(VLOOKUP(C26,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C26,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>Cartridge (Butane Isomers)</v>
+      </c>
+      <c r="C27" t="str">
+        <f>[1]Compounds!$B$68</f>
+        <v>Butane Isomers</v>
+      </c>
+      <c r="D27" t="str">
+        <f>IF(VLOOKUP(C27,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C27,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>Canister (Butane Isomers)</v>
+      </c>
+      <c r="C28" t="str">
+        <f>[1]Compounds!$B$68</f>
+        <v>Butane Isomers</v>
+      </c>
+      <c r="D28" t="str">
+        <f>IF(VLOOKUP(C28,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C28,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>Vial (Pentane Isomers)</v>
+      </c>
+      <c r="C29" t="str">
+        <f>[1]Compounds!$B$222</f>
+        <v>Pentane Isomers</v>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(VLOOKUP(C29,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C29,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>Beaker (Pentane Isomers)</v>
+      </c>
+      <c r="C30" t="str">
+        <f>[1]Compounds!$B$222</f>
+        <v>Pentane Isomers</v>
+      </c>
+      <c r="D30" t="str">
+        <f>IF(VLOOKUP(C30,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C30,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>Drum (Pentane Isomers)</v>
+      </c>
+      <c r="C31" t="str">
+        <f>[1]Compounds!$B$222</f>
+        <v>Pentane Isomers</v>
+      </c>
+      <c r="D31" t="str">
+        <f>IF(VLOOKUP(C31,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C31,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>Vial (Hexane Isomers)</v>
+      </c>
+      <c r="C32" t="str">
+        <f>[1]Compounds!$B$149</f>
+        <v>Hexane Isomers</v>
+      </c>
+      <c r="D32" t="str">
+        <f>IF(VLOOKUP(C32,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C32,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>Beaker (Hexane Isomers)</v>
+      </c>
+      <c r="C33" t="str">
+        <f>[1]Compounds!$B$149</f>
+        <v>Hexane Isomers</v>
+      </c>
+      <c r="D33" t="str">
+        <f>IF(VLOOKUP(C33,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C33,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>Drum (Hexane Isomers)</v>
+      </c>
+      <c r="C34" t="str">
+        <f>[1]Compounds!$B$149</f>
+        <v>Hexane Isomers</v>
+      </c>
+      <c r="D34" t="str">
+        <f>IF(VLOOKUP(C34,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C34,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" ref="B35:B40" si="2">D35&amp;" ("&amp;C35&amp;")"</f>
+        <v>Vial (Light Naphtha)</v>
+      </c>
+      <c r="C35" t="str">
+        <f>[1]Compounds!$B$166</f>
+        <v>Light Naphtha</v>
+      </c>
+      <c r="D35" t="str">
+        <f>IF(VLOOKUP(C35,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C35,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="2"/>
+        <v>Beaker (Light Naphtha)</v>
+      </c>
+      <c r="C36" t="str">
+        <f>[1]Compounds!$B$166</f>
+        <v>Light Naphtha</v>
+      </c>
+      <c r="D36" t="str">
+        <f>IF(VLOOKUP(C36,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C36,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="2"/>
+        <v>Drum (Light Naphtha)</v>
+      </c>
+      <c r="C37" t="str">
+        <f>[1]Compounds!$B$166</f>
+        <v>Light Naphtha</v>
+      </c>
+      <c r="D37" t="str">
+        <f>IF(VLOOKUP(C37,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C37,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="2"/>
+        <v>Vial (Heavy Naphtha)</v>
+      </c>
+      <c r="C38" t="str">
+        <f>[1]Compounds!$B$146</f>
+        <v>Heavy Naphtha</v>
+      </c>
+      <c r="D38" t="str">
+        <f>IF(VLOOKUP(C38,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C38,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="2"/>
+        <v>Beaker (Heavy Naphtha)</v>
+      </c>
+      <c r="C39" t="str">
+        <f>[1]Compounds!$B$146</f>
+        <v>Heavy Naphtha</v>
+      </c>
+      <c r="D39" t="str">
+        <f>IF(VLOOKUP(C39,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C39,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="2"/>
+        <v>Drum (Heavy Naphtha)</v>
+      </c>
+      <c r="C40" t="str">
+        <f>[1]Compounds!$B$146</f>
+        <v>Heavy Naphtha</v>
+      </c>
+      <c r="D40" t="str">
+        <f>IF(VLOOKUP(C40,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C40,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" ref="B41:B49" si="3">D41&amp;" ("&amp;C41&amp;")"</f>
+        <v>Vial (Light Naphthenes)</v>
+      </c>
+      <c r="C41" t="str">
+        <f>[1]Compounds!$B$167</f>
+        <v>Light Naphthenes</v>
+      </c>
+      <c r="D41" t="str">
+        <f>IF(VLOOKUP(C41,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C41,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="3"/>
+        <v>Beaker (Light Naphthenes)</v>
+      </c>
+      <c r="C42" t="str">
+        <f>[1]Compounds!$B$167</f>
+        <v>Light Naphthenes</v>
+      </c>
+      <c r="D42" t="str">
+        <f>IF(VLOOKUP(C42,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C42,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="3"/>
+        <v>Drum (Light Naphthenes)</v>
+      </c>
+      <c r="C43" t="str">
+        <f>[1]Compounds!$B$167</f>
+        <v>Light Naphthenes</v>
+      </c>
+      <c r="D43" t="str">
+        <f>IF(VLOOKUP(C43,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C43,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="3"/>
+        <v>Vial (Light Olefins)</v>
+      </c>
+      <c r="C44" t="str">
+        <f>[1]Compounds!$B$168</f>
+        <v>Light Olefins</v>
+      </c>
+      <c r="D44" t="str">
+        <f>IF(VLOOKUP(C44,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C44,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="3"/>
+        <v>Beaker (Light Olefins)</v>
+      </c>
+      <c r="C45" t="str">
+        <f>[1]Compounds!$B$168</f>
+        <v>Light Olefins</v>
+      </c>
+      <c r="D45" t="str">
+        <f>IF(VLOOKUP(C45,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C45,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="3"/>
+        <v>Drum (Light Olefins)</v>
+      </c>
+      <c r="C46" t="str">
+        <f>[1]Compounds!$B$168</f>
+        <v>Light Olefins</v>
+      </c>
+      <c r="D46" t="str">
+        <f>IF(VLOOKUP(C46,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C46,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="3"/>
+        <v>Vial (Light Parrafins)</v>
+      </c>
+      <c r="C47" t="str">
+        <f>[1]Compounds!$B$169</f>
+        <v>Light Parrafins</v>
+      </c>
+      <c r="D47" t="str">
+        <f>IF(VLOOKUP(C47,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C47,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="3"/>
+        <v>Beaker (Light Parrafins)</v>
+      </c>
+      <c r="C48" t="str">
+        <f>[1]Compounds!$B$169</f>
+        <v>Light Parrafins</v>
+      </c>
+      <c r="D48" t="str">
+        <f>IF(VLOOKUP(C48,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C48,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="3"/>
+        <v>Drum (Light Parrafins)</v>
+      </c>
+      <c r="C49" t="str">
+        <f>[1]Compounds!$B$169</f>
+        <v>Light Parrafins</v>
+      </c>
+      <c r="D49" t="str">
+        <f>IF(VLOOKUP(C49,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C49,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" ref="B50:B64" si="4">D50&amp;" ("&amp;C50&amp;")"</f>
+        <v>Vial (N-Ethylidenecyclohexylamine)</v>
+      </c>
+      <c r="C50" t="str">
+        <f>[1]Compounds!$B$204</f>
+        <v>N-Ethylidenecyclohexylamine</v>
+      </c>
+      <c r="D50" t="str">
+        <f>IF(VLOOKUP(C50,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C50,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="4"/>
+        <v>Beaker (N-Ethylidenecyclohexylamine)</v>
+      </c>
+      <c r="C51" t="str">
+        <f>[1]Compounds!$B$204</f>
+        <v>N-Ethylidenecyclohexylamine</v>
+      </c>
+      <c r="D51" t="str">
+        <f>IF(VLOOKUP(C51,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C51,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="4"/>
+        <v>Drum (N-Ethylidenecyclohexylamine)</v>
+      </c>
+      <c r="C52" t="str">
+        <f>[1]Compounds!$B$204</f>
+        <v>N-Ethylidenecyclohexylamine</v>
+      </c>
+      <c r="D52" t="str">
+        <f>IF(VLOOKUP(C52,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C52,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="4"/>
+        <v>Vial (IsoButane)</v>
+      </c>
+      <c r="C53" t="str">
+        <f>[1]Compounds!$B$159</f>
+        <v>IsoButane</v>
+      </c>
+      <c r="D53" t="str">
+        <f>IF(VLOOKUP(C53,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C53,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="4"/>
+        <v>Beaker (IsoButane)</v>
+      </c>
+      <c r="C54" t="str">
+        <f>[1]Compounds!$B$159</f>
+        <v>IsoButane</v>
+      </c>
+      <c r="D54" t="str">
+        <f>IF(VLOOKUP(C54,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C54,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="4"/>
+        <v>Drum (IsoButane)</v>
+      </c>
+      <c r="C55" t="str">
+        <f>[1]Compounds!$B$159</f>
+        <v>IsoButane</v>
+      </c>
+      <c r="D55" t="str">
+        <f>IF(VLOOKUP(C55,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C55,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="4"/>
+        <v>Vial (Naphtha)</v>
+      </c>
+      <c r="C56" t="str">
+        <f>[1]Compounds!$B$207</f>
+        <v>Naphtha</v>
+      </c>
+      <c r="D56" t="str">
+        <f>IF(VLOOKUP(C56,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C56,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="4"/>
+        <v>Beaker (Naphtha)</v>
+      </c>
+      <c r="C57" t="str">
+        <f>[1]Compounds!$B$207</f>
+        <v>Naphtha</v>
+      </c>
+      <c r="D57" t="str">
+        <f>IF(VLOOKUP(C57,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C57,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="4"/>
+        <v>Drum (Naphtha)</v>
+      </c>
+      <c r="C58" t="str">
+        <f>[1]Compounds!$B$207</f>
+        <v>Naphtha</v>
+      </c>
+      <c r="D58" t="str">
+        <f>IF(VLOOKUP(C58,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C58,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="4"/>
+        <v>Vial (IsoPentane)</v>
+      </c>
+      <c r="C59" t="str">
+        <f>[1]Compounds!$B$160</f>
+        <v>IsoPentane</v>
+      </c>
+      <c r="D59" t="str">
+        <f>IF(VLOOKUP(C59,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C59,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="4"/>
+        <v>Beaker (IsoPentane)</v>
+      </c>
+      <c r="C60" t="str">
+        <f>[1]Compounds!$B$160</f>
+        <v>IsoPentane</v>
+      </c>
+      <c r="D60" t="str">
+        <f>IF(VLOOKUP(C60,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C60,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="4"/>
+        <v>Drum (IsoPentane)</v>
+      </c>
+      <c r="C61" t="str">
+        <f>[1]Compounds!$B$160</f>
+        <v>IsoPentane</v>
+      </c>
+      <c r="D61" t="str">
+        <f>IF(VLOOKUP(C61,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C61,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="4"/>
+        <v>Flask (Nitrogen Gas)</v>
+      </c>
+      <c r="C62" t="str">
+        <f>[1]Compounds!$B$212</f>
+        <v>Nitrogen Gas</v>
+      </c>
+      <c r="D62" t="str">
+        <f>IF(VLOOKUP(C62,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C62,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="4"/>
+        <v>Cartridge (Nitrogen Gas)</v>
+      </c>
+      <c r="C63" t="str">
+        <f>[1]Compounds!$B$212</f>
+        <v>Nitrogen Gas</v>
+      </c>
+      <c r="D63" t="str">
+        <f>IF(VLOOKUP(C63,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C63,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="4"/>
+        <v>Canister (Nitrogen Gas)</v>
+      </c>
+      <c r="C64" t="str">
+        <f>[1]Compounds!$B$212</f>
+        <v>Nitrogen Gas</v>
+      </c>
+      <c r="D64" t="str">
+        <f>IF(VLOOKUP(C64,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C64,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" ref="B65:B103" si="5">D65&amp;" ("&amp;C65&amp;")"</f>
+        <v>Vial (n-Pentane)</v>
+      </c>
+      <c r="C65" t="str">
+        <f>[1]Compounds!$B$206</f>
+        <v>n-Pentane</v>
+      </c>
+      <c r="D65" t="str">
+        <f>IF(VLOOKUP(C65,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C65,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (n-Pentane)</v>
+      </c>
+      <c r="C66" t="str">
+        <f>[1]Compounds!$B$206</f>
+        <v>n-Pentane</v>
+      </c>
+      <c r="D66" t="str">
+        <f>IF(VLOOKUP(C66,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C66,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (n-Pentane)</v>
+      </c>
+      <c r="C67" t="str">
+        <f>[1]Compounds!$B$206</f>
+        <v>n-Pentane</v>
+      </c>
+      <c r="D67" t="str">
+        <f>IF(VLOOKUP(C67,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C67,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (2-MethylPentane)</v>
+      </c>
+      <c r="C68" t="str">
+        <f>[1]Compounds!$B$20</f>
+        <v>2-MethylPentane</v>
+      </c>
+      <c r="D68" t="str">
+        <f>IF(VLOOKUP(C68,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C68,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (2-MethylPentane)</v>
+      </c>
+      <c r="C69" t="str">
+        <f>[1]Compounds!$B$20</f>
+        <v>2-MethylPentane</v>
+      </c>
+      <c r="D69" t="str">
+        <f>IF(VLOOKUP(C69,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C69,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (2-MethylPentane)</v>
+      </c>
+      <c r="C70" t="str">
+        <f>[1]Compounds!$B$20</f>
+        <v>2-MethylPentane</v>
+      </c>
+      <c r="D70" t="str">
+        <f>IF(VLOOKUP(C70,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C70,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (3-MethylPentane)</v>
+      </c>
+      <c r="C71" t="str">
+        <f>[1]Compounds!$B$26</f>
+        <v>3-MethylPentane</v>
+      </c>
+      <c r="D71" t="str">
+        <f>IF(VLOOKUP(C71,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C71,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (3-MethylPentane)</v>
+      </c>
+      <c r="C72" t="str">
+        <f>[1]Compounds!$B$26</f>
+        <v>3-MethylPentane</v>
+      </c>
+      <c r="D72" t="str">
+        <f>IF(VLOOKUP(C72,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C72,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (3-MethylPentane)</v>
+      </c>
+      <c r="C73" t="str">
+        <f>[1]Compounds!$B$26</f>
+        <v>3-MethylPentane</v>
+      </c>
+      <c r="D73" t="str">
+        <f>IF(VLOOKUP(C73,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C73,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (2,2-DiMethylButane)</v>
+      </c>
+      <c r="C74" t="str">
+        <f>[1]Compounds!$B$7</f>
+        <v>2,2-DiMethylButane</v>
+      </c>
+      <c r="D74" t="str">
+        <f>IF(VLOOKUP(C74,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C74,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (2,2-DiMethylButane)</v>
+      </c>
+      <c r="C75" t="str">
+        <f>[1]Compounds!$B$7</f>
+        <v>2,2-DiMethylButane</v>
+      </c>
+      <c r="D75" t="str">
+        <f>IF(VLOOKUP(C75,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C75,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (2,2-DiMethylButane)</v>
+      </c>
+      <c r="C76" t="str">
+        <f>[1]Compounds!$B$7</f>
+        <v>2,2-DiMethylButane</v>
+      </c>
+      <c r="D76" t="str">
+        <f>IF(VLOOKUP(C76,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C76,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (2,3-DiMethylButane)</v>
+      </c>
+      <c r="C77" t="str">
+        <f>[1]Compounds!$B$8</f>
+        <v>2,3-DiMethylButane</v>
+      </c>
+      <c r="D77" t="str">
+        <f>IF(VLOOKUP(C77,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C77,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (2,3-DiMethylButane)</v>
+      </c>
+      <c r="C78" t="str">
+        <f>[1]Compounds!$B$8</f>
+        <v>2,3-DiMethylButane</v>
+      </c>
+      <c r="D78" t="str">
+        <f>IF(VLOOKUP(C78,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C78,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (2,3-DiMethylButane)</v>
+      </c>
+      <c r="C79" t="str">
+        <f>[1]Compounds!$B$8</f>
+        <v>2,3-DiMethylButane</v>
+      </c>
+      <c r="D79" t="str">
+        <f>IF(VLOOKUP(C79,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C79,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (Fruit Brandy)</v>
+      </c>
+      <c r="C80" t="str">
+        <f>[1]Compounds!$B$326</f>
+        <v>Fruit Brandy</v>
+      </c>
+      <c r="D80" t="str">
+        <f>IF(VLOOKUP(C80,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C80,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (Fruit Brandy)</v>
+      </c>
+      <c r="C81" t="str">
+        <f>[1]Compounds!$B$326</f>
+        <v>Fruit Brandy</v>
+      </c>
+      <c r="D81" t="str">
+        <f>IF(VLOOKUP(C81,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C81,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (Fruit Brandy)</v>
+      </c>
+      <c r="C82" t="str">
+        <f>[1]Compounds!$B$326</f>
+        <v>Fruit Brandy</v>
+      </c>
+      <c r="D82" t="str">
+        <f>IF(VLOOKUP(C82,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C82,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (Vodka)</v>
+      </c>
+      <c r="C83" t="str">
+        <f>[1]Compounds!$B$327</f>
+        <v>Vodka</v>
+      </c>
+      <c r="D83" t="str">
+        <f>IF(VLOOKUP(C83,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C83,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (Vodka)</v>
+      </c>
+      <c r="C84" t="str">
+        <f>[1]Compounds!$B$327</f>
+        <v>Vodka</v>
+      </c>
+      <c r="D84" t="str">
+        <f>IF(VLOOKUP(C84,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C84,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (Vodka)</v>
+      </c>
+      <c r="C85" t="str">
+        <f>[1]Compounds!$B$327</f>
+        <v>Vodka</v>
+      </c>
+      <c r="D85" t="str">
+        <f>IF(VLOOKUP(C85,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C85,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (Gin)</v>
+      </c>
+      <c r="C86" t="str">
+        <f>[1]Compounds!$B$328</f>
+        <v>Gin</v>
+      </c>
+      <c r="D86" t="str">
+        <f>IF(VLOOKUP(C86,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C86,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (Gin)</v>
+      </c>
+      <c r="C87" t="str">
+        <f>[1]Compounds!$B$328</f>
+        <v>Gin</v>
+      </c>
+      <c r="D87" t="str">
+        <f>IF(VLOOKUP(C87,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C87,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (Gin)</v>
+      </c>
+      <c r="C88" t="str">
+        <f>[1]Compounds!$B$328</f>
+        <v>Gin</v>
+      </c>
+      <c r="D88" t="str">
+        <f>IF(VLOOKUP(C88,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C88,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (Tequila)</v>
+      </c>
+      <c r="C89" t="str">
+        <f>[1]Compounds!$B$329</f>
+        <v>Tequila</v>
+      </c>
+      <c r="D89" t="str">
+        <f>IF(VLOOKUP(C89,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C89,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (Tequila)</v>
+      </c>
+      <c r="C90" t="str">
+        <f>[1]Compounds!$B$329</f>
+        <v>Tequila</v>
+      </c>
+      <c r="D90" t="str">
+        <f>IF(VLOOKUP(C90,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C90,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (Tequila)</v>
+      </c>
+      <c r="C91" t="str">
+        <f>[1]Compounds!$B$329</f>
+        <v>Tequila</v>
+      </c>
+      <c r="D91" t="str">
+        <f>IF(VLOOKUP(C91,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C91,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (Rum)</v>
+      </c>
+      <c r="C92" t="str">
+        <f>[1]Compounds!$B$330</f>
+        <v>Rum</v>
+      </c>
+      <c r="D92" t="str">
+        <f>IF(VLOOKUP(C92,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C92,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (Rum)</v>
+      </c>
+      <c r="C93" t="str">
+        <f>[1]Compounds!$B$330</f>
+        <v>Rum</v>
+      </c>
+      <c r="D93" t="str">
+        <f>IF(VLOOKUP(C93,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C93,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (Rum)</v>
+      </c>
+      <c r="C94" t="str">
+        <f>[1]Compounds!$B$330</f>
+        <v>Rum</v>
+      </c>
+      <c r="D94" t="str">
+        <f>IF(VLOOKUP(C94,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C94,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (Whiskey)</v>
+      </c>
+      <c r="C95" t="str">
+        <f>[1]Compounds!$B$331</f>
+        <v>Whiskey</v>
+      </c>
+      <c r="D95" t="str">
+        <f>IF(VLOOKUP(C95,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C95,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (Whiskey)</v>
+      </c>
+      <c r="C96" t="str">
+        <f>[1]Compounds!$B$331</f>
+        <v>Whiskey</v>
+      </c>
+      <c r="D96" t="str">
+        <f>IF(VLOOKUP(C96,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C96,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (Whiskey)</v>
+      </c>
+      <c r="C97" t="str">
+        <f>[1]Compounds!$B$331</f>
+        <v>Whiskey</v>
+      </c>
+      <c r="D97" t="str">
+        <f>IF(VLOOKUP(C97,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C97,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="5"/>
+        <v>Vial (Carrot Wine)</v>
+      </c>
+      <c r="C98" t="str">
+        <f>[1]Compounds!$B$332</f>
+        <v>Carrot Wine</v>
+      </c>
+      <c r="D98" t="str">
+        <f>IF(VLOOKUP(C98,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C98,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="5"/>
+        <v>Beaker (Carrot Wine)</v>
+      </c>
+      <c r="C99" t="str">
+        <f>[1]Compounds!$B$332</f>
+        <v>Carrot Wine</v>
+      </c>
+      <c r="D99" t="str">
+        <f>IF(VLOOKUP(C99,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C99,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="5"/>
+        <v>Drum (Carrot Wine)</v>
+      </c>
+      <c r="C100" t="str">
+        <f>[1]Compounds!$B$332</f>
+        <v>Carrot Wine</v>
+      </c>
+      <c r="D100" t="str">
+        <f>IF(VLOOKUP(C100,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C100,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="5"/>
+        <v>Flask (Propylene)</v>
+      </c>
+      <c r="C101" t="str">
+        <f>[1]Compounds!$B$247</f>
+        <v>Propylene</v>
+      </c>
+      <c r="D101" t="str">
+        <f>IF(VLOOKUP(C101,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C101,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="5"/>
+        <v>Cartridge (Propylene)</v>
+      </c>
+      <c r="C102" t="str">
+        <f>[1]Compounds!$B$247</f>
+        <v>Propylene</v>
+      </c>
+      <c r="D102" t="str">
+        <f>IF(VLOOKUP(C102,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C102,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="5"/>
+        <v>Canister (Propylene)</v>
+      </c>
+      <c r="C103" t="str">
+        <f>[1]Compounds!$B$247</f>
+        <v>Propylene</v>
+      </c>
+      <c r="D103" t="str">
+        <f>IF(VLOOKUP(C103,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C103,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" ref="B104:B112" si="6">D104&amp;" ("&amp;C104&amp;")"</f>
+        <v>Flask (Ethylene)</v>
+      </c>
+      <c r="C104" t="str">
+        <f>[1]Compounds!$B$129</f>
+        <v>Ethylene</v>
+      </c>
+      <c r="D104" t="str">
+        <f>IF(VLOOKUP(C104,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C104,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="6"/>
+        <v>Cartridge (Ethylene)</v>
+      </c>
+      <c r="C105" t="str">
+        <f>[1]Compounds!$B$129</f>
+        <v>Ethylene</v>
+      </c>
+      <c r="D105" t="str">
+        <f>IF(VLOOKUP(C105,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C105,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="6"/>
+        <v>Canister (Ethylene)</v>
+      </c>
+      <c r="C106" t="str">
+        <f>[1]Compounds!$B$129</f>
+        <v>Ethylene</v>
+      </c>
+      <c r="D106" t="str">
+        <f>IF(VLOOKUP(C106,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C106,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="6"/>
+        <v>Vial (Butylene isomers)</v>
+      </c>
+      <c r="C107" t="str">
+        <f>[1]Compounds!$B$70</f>
+        <v>Butylene isomers</v>
+      </c>
+      <c r="D107" t="str">
+        <f>IF(VLOOKUP(C107,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C107,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="6"/>
+        <v>Beaker (Butylene isomers)</v>
+      </c>
+      <c r="C108" t="str">
+        <f>[1]Compounds!$B$70</f>
+        <v>Butylene isomers</v>
+      </c>
+      <c r="D108" t="str">
+        <f>IF(VLOOKUP(C108,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C108,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="6"/>
+        <v>Drum (Butylene isomers)</v>
+      </c>
+      <c r="C109" t="str">
+        <f>[1]Compounds!$B$70</f>
+        <v>Butylene isomers</v>
+      </c>
+      <c r="D109" t="str">
+        <f>IF(VLOOKUP(C109,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C109,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="6"/>
+        <v>Flask (Hydrogen Gas)</v>
+      </c>
+      <c r="C110" t="str">
+        <f>[1]Compounds!$B$153</f>
+        <v>Hydrogen Gas</v>
+      </c>
+      <c r="D110" t="str">
+        <f>IF(VLOOKUP(C110,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C110,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="6"/>
+        <v>Cartridge (Hydrogen Gas)</v>
+      </c>
+      <c r="C111" t="str">
+        <f>[1]Compounds!$B$153</f>
+        <v>Hydrogen Gas</v>
+      </c>
+      <c r="D111" t="str">
+        <f>IF(VLOOKUP(C111,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C111,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="6"/>
+        <v>Canister (Hydrogen Gas)</v>
+      </c>
+      <c r="C112" t="str">
+        <f>[1]Compounds!$B$153</f>
+        <v>Hydrogen Gas</v>
+      </c>
+      <c r="D112" t="str">
+        <f>IF(VLOOKUP(C112,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C112,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" ref="B113:B139" si="7">D113&amp;" ("&amp;C113&amp;")"</f>
+        <v>Flask (Carbon Dioxide)</v>
+      </c>
+      <c r="C113" t="str">
+        <f>[1]Compounds!$B$89</f>
+        <v>Carbon Dioxide</v>
+      </c>
+      <c r="D113" t="str">
+        <f>IF(VLOOKUP(C113,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C113,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="7"/>
+        <v>Cartridge (Carbon Dioxide)</v>
+      </c>
+      <c r="C114" t="str">
+        <f>[1]Compounds!$B$89</f>
+        <v>Carbon Dioxide</v>
+      </c>
+      <c r="D114" t="str">
+        <f>IF(VLOOKUP(C114,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C114,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="7"/>
+        <v>Canister (Carbon Dioxide)</v>
+      </c>
+      <c r="C115" t="str">
+        <f>[1]Compounds!$B$89</f>
+        <v>Carbon Dioxide</v>
+      </c>
+      <c r="D115" t="str">
+        <f>IF(VLOOKUP(C115,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C115,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="7"/>
+        <v>Vial (p-Xylene)</v>
+      </c>
+      <c r="C116" t="str">
+        <f>[1]Compounds!$B$220</f>
+        <v>p-Xylene</v>
+      </c>
+      <c r="D116" t="str">
+        <f>IF(VLOOKUP(C116,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C116,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="7"/>
+        <v>Beaker (p-Xylene)</v>
+      </c>
+      <c r="C117" t="str">
+        <f>[1]Compounds!$B$220</f>
+        <v>p-Xylene</v>
+      </c>
+      <c r="D117" t="str">
+        <f>IF(VLOOKUP(C117,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C117,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="7"/>
+        <v>Drum (p-Xylene)</v>
+      </c>
+      <c r="C118" t="str">
+        <f>[1]Compounds!$B$220</f>
+        <v>p-Xylene</v>
+      </c>
+      <c r="D118" t="str">
+        <f>IF(VLOOKUP(C118,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C118,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="7"/>
+        <v>Flask (Oxygen Gas)</v>
+      </c>
+      <c r="C119" t="str">
+        <f>[1]Compounds!$B$218</f>
+        <v>Oxygen Gas</v>
+      </c>
+      <c r="D119" t="str">
+        <f>IF(VLOOKUP(C119,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C119,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="7"/>
+        <v>Cartridge (Oxygen Gas)</v>
+      </c>
+      <c r="C120" t="str">
+        <f>[1]Compounds!$B$218</f>
+        <v>Oxygen Gas</v>
+      </c>
+      <c r="D120" t="str">
+        <f>IF(VLOOKUP(C120,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C120,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="7"/>
+        <v>Canister (Oxygen Gas)</v>
+      </c>
+      <c r="C121" t="str">
+        <f>[1]Compounds!$B$218</f>
+        <v>Oxygen Gas</v>
+      </c>
+      <c r="D121" t="str">
+        <f>IF(VLOOKUP(C121,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C121,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="7"/>
+        <v>Flask (Sweet Butane Fuel)</v>
+      </c>
+      <c r="C122" t="str">
+        <f>[1]Compounds!$B$278</f>
+        <v>Sweet Butane Fuel</v>
+      </c>
+      <c r="D122" t="str">
+        <f>IF(VLOOKUP(C122,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C122,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="7"/>
+        <v>Cartridge (Sweet Butane Fuel)</v>
+      </c>
+      <c r="C123" t="str">
+        <f>[1]Compounds!$B$278</f>
+        <v>Sweet Butane Fuel</v>
+      </c>
+      <c r="D123" t="str">
+        <f>IF(VLOOKUP(C123,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C123,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="7"/>
+        <v>Canister (Sweet Butane Fuel)</v>
+      </c>
+      <c r="C124" t="str">
+        <f>[1]Compounds!$B$278</f>
+        <v>Sweet Butane Fuel</v>
+      </c>
+      <c r="D124" t="str">
+        <f>IF(VLOOKUP(C124,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C124,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="7"/>
+        <v>Flask (Sweet Propane Fuel)</v>
+      </c>
+      <c r="C125" t="str">
+        <f>[1]Compounds!$B$279</f>
+        <v>Sweet Propane Fuel</v>
+      </c>
+      <c r="D125" t="str">
+        <f>IF(VLOOKUP(C125,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C125,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="7"/>
+        <v>Cartridge (Sweet Propane Fuel)</v>
+      </c>
+      <c r="C126" t="str">
+        <f>[1]Compounds!$B$279</f>
+        <v>Sweet Propane Fuel</v>
+      </c>
+      <c r="D126" t="str">
+        <f>IF(VLOOKUP(C126,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C126,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="7"/>
+        <v>Canister (Sweet Propane Fuel)</v>
+      </c>
+      <c r="C127" t="str">
+        <f>[1]Compounds!$B$279</f>
+        <v>Sweet Propane Fuel</v>
+      </c>
+      <c r="D127" t="str">
+        <f>IF(VLOOKUP(C127,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C127,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="7"/>
+        <v>Vial (Sweet Light Naphtha)</v>
+      </c>
+      <c r="C128" t="str">
+        <f>[1]Compounds!$B$280</f>
+        <v>Sweet Light Naphtha</v>
+      </c>
+      <c r="D128" t="str">
+        <f>IF(VLOOKUP(C128,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C128,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="7"/>
+        <v>Beaker (Sweet Light Naphtha)</v>
+      </c>
+      <c r="C129" t="str">
+        <f>[1]Compounds!$B$280</f>
+        <v>Sweet Light Naphtha</v>
+      </c>
+      <c r="D129" t="str">
+        <f>IF(VLOOKUP(C129,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C129,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="7"/>
+        <v>Drum (Sweet Light Naphtha)</v>
+      </c>
+      <c r="C130" t="str">
+        <f>[1]Compounds!$B$280</f>
+        <v>Sweet Light Naphtha</v>
+      </c>
+      <c r="D130" t="str">
+        <f>IF(VLOOKUP(C130,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C130,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="7"/>
+        <v>Vial (Mercaptans)</v>
+      </c>
+      <c r="C131" t="str">
+        <f>[1]Compounds!$B$180</f>
+        <v>Mercaptans</v>
+      </c>
+      <c r="D131" t="str">
+        <f>IF(VLOOKUP(C131,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C131,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Vial</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="7"/>
+        <v>Beaker (Mercaptans)</v>
+      </c>
+      <c r="C132" t="str">
+        <f>[1]Compounds!$B$180</f>
+        <v>Mercaptans</v>
+      </c>
+      <c r="D132" t="str">
+        <f>IF(VLOOKUP(C132,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C132,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Beaker</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" si="7"/>
+        <v>Drum (Mercaptans)</v>
+      </c>
+      <c r="C133" t="str">
+        <f>[1]Compounds!$B$180</f>
+        <v>Mercaptans</v>
+      </c>
+      <c r="D133" t="str">
+        <f>IF(VLOOKUP(C133,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C133,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Drum</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="7"/>
+        <v>Flask (Ammonia)</v>
+      </c>
+      <c r="C134" t="str">
+        <f>[1]Compounds!$B$43</f>
+        <v>Ammonia</v>
+      </c>
+      <c r="D134" t="str">
+        <f>IF(VLOOKUP(C134,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C134,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Flask</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="7"/>
+        <v>Cartridge (Ammonia)</v>
+      </c>
+      <c r="C135" t="str">
+        <f>[1]Compounds!$B$43</f>
+        <v>Ammonia</v>
+      </c>
+      <c r="D135" t="str">
+        <f>IF(VLOOKUP(C135,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C135,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Cartridge</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="7"/>
+        <v>Canister (Ammonia)</v>
+      </c>
+      <c r="C136" t="str">
+        <f>[1]Compounds!$B$43</f>
+        <v>Ammonia</v>
+      </c>
+      <c r="D136" t="str">
+        <f>IF(VLOOKUP(C136,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C136,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Canister</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="7"/>
+        <v>Bag (Sodium Hydroxide)</v>
+      </c>
+      <c r="C137" t="str">
+        <f>[1]Compounds!$B$260</f>
+        <v>Sodium Hydroxide</v>
+      </c>
+      <c r="D137" t="str">
+        <f>IF(VLOOKUP(C137,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C137,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
+        <v>Bag</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="7"/>
+        <v>Sack (Sodium Hydroxide)</v>
+      </c>
+      <c r="C138" t="str">
+        <f>[1]Compounds!$B$260</f>
+        <v>Sodium Hydroxide</v>
+      </c>
+      <c r="D138" t="str">
+        <f>IF(VLOOKUP(C138,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C138,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
+        <v>Sack</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="str">
+        <f>[1]Enums!$A$2</f>
+        <v>1.0.0</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="7"/>
+        <v>Powder Keg (Sodium Hydroxide)</v>
+      </c>
+      <c r="C139" t="str">
+        <f>[1]Compounds!$B$260</f>
+        <v>Sodium Hydroxide</v>
+      </c>
+      <c r="D139" t="str">
+        <f>IF(VLOOKUP(C139,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C139,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
+        <v>Powder Keg</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="4"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="4"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="4"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="4"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="4"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="4"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="4"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="4"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="4"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="4"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="4"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="4"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="4"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="4"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="4"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="4"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="4"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="4"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="4"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="4"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="4"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="4"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="4"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="4"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="4"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="4"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="4"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="4"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="4"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="4"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="4"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="4"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="4"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="4"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="4"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="4"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="4"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="4"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" s="4"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" s="4"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="4"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" s="4"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="4"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="4"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" s="4"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" s="4"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" s="4"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" s="4"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" s="4"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" s="4"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" s="4"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="4"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" s="4"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" s="4"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" s="4"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" s="4"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" s="4"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" s="4"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" s="4"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" s="4"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" s="4"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" s="4"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" s="4"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" s="4"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" s="4"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="4"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" s="4"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" s="4"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" s="4"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" s="4"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" s="4"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" s="4"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" s="4"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="4"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="4"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="4"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="4"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="4"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="4"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="4"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="4"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="4"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" s="4"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" s="4"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" s="4"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277" s="4"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" s="4"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" s="4"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" s="4"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="4"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="4"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="4"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" s="4"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="4"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="4"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="4"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="4"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" s="4"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="4"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="4"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="4"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="4"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" s="4"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" s="4"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="4"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="4"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" s="4"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="4"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="4"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="4"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="4"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="4"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="4"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="4"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="4"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" s="4"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="4"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="4"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="4"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" s="4"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="4"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="4"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" s="4"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="4"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="4"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="4"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="4"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" s="4"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="4"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="4"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="4"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="4"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="4"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" s="4"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="4"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" s="4"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="4"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" s="4"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="4"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="4"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="4"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="4"/>
+    </row>
+  </sheetData>
+  <sortState ref="I1:I139">
+    <sortCondition ref="I1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -17639,7 +20872,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="C26" t="str">
         <f xml:space="preserve"> E26&amp;" "&amp;$C$1</f>
@@ -17697,7 +20930,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="C27" t="str">
         <f xml:space="preserve"> E27</f>
@@ -18218,7 +21451,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18834,7 +22067,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="C26" t="str">
         <f xml:space="preserve"> E26&amp;" "&amp;$C$1</f>
@@ -18858,10 +22091,10 @@
         <v>1.3.2</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>2416</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>2415</v>
       </c>
       <c r="D27" t="str">
         <f>[1]Minerals!$B$1</f>
@@ -18881,6 +22114,569 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="str">
+        <f>[1]Enums!$A$1</f>
+        <v>Version</v>
+      </c>
+      <c r="B1" s="25" t="str">
+        <f xml:space="preserve"> '[1]Game IDs'!A1</f>
+        <v>Game ID</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Ingots!E2&amp;" "&amp;$C$1</f>
+        <v>Magnesium Nugget</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>Ingots!C2</f>
+        <v>Magnesium Ingot</v>
+      </c>
+      <c r="E2" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Ingots!E3&amp;" "&amp;$C$1</f>
+        <v>Titanium Nugget</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>Ingots!C3</f>
+        <v>Titanium Ingot</v>
+      </c>
+      <c r="E3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>2435</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Ingots!E4&amp;" "&amp;$C$1</f>
+        <v>Manganese Nugget</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>Ingots!C4</f>
+        <v>Manganese Ingot</v>
+      </c>
+      <c r="E4" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Ingots!E5&amp;" "&amp;$C$1</f>
+        <v>Cobalt Nugget</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>Ingots!C5</f>
+        <v>Cobalt Ingot</v>
+      </c>
+      <c r="E5" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Ingots!E6&amp;" "&amp;$C$1</f>
+        <v>Nickel Nugget</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>Ingots!C6</f>
+        <v>Nickel Ingot</v>
+      </c>
+      <c r="E6" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2438</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Ingots!E7&amp;" "&amp;$C$1</f>
+        <v>Copper Nugget</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f>Ingots!C7</f>
+        <v>Copper Ingot</v>
+      </c>
+      <c r="E7" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Ingots!E8&amp;" "&amp;$C$1</f>
+        <v>Zinc Nugget</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f>Ingots!C8</f>
+        <v>Zinc Ingot</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C9" t="str">
+        <f>Ingots!E9&amp;" "&amp;$C$1</f>
+        <v>Palladium Nugget</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f>Ingots!C9</f>
+        <v>Palladium Ingot</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C10" t="str">
+        <f>Ingots!E10&amp;" "&amp;$C$1</f>
+        <v>Silver Nugget</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f>Ingots!C10</f>
+        <v>Silver Ingot</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>2442</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Ingots!E11&amp;" "&amp;$C$1</f>
+        <v>Antimony Nugget</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f>Ingots!C11</f>
+        <v>Antimony Ingot</v>
+      </c>
+      <c r="E11" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C12" t="str">
+        <f>Ingots!E12&amp;" "&amp;$C$1</f>
+        <v>Tungsten Nugget</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>Ingots!C12</f>
+        <v>Tungsten Ingot</v>
+      </c>
+      <c r="E12" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>2444</v>
+      </c>
+      <c r="C13" t="str">
+        <f>Ingots!E13&amp;" "&amp;$C$1</f>
+        <v>Platinum Nugget</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>Ingots!C13</f>
+        <v>Platinum Ingot</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C14" t="str">
+        <f>Ingots!E14&amp;" "&amp;$C$1</f>
+        <v>Plumbum (Lead) Nugget</v>
+      </c>
+      <c r="D14" s="8" t="str">
+        <f>Ingots!C14</f>
+        <v>Plumbum (Lead) Ingot</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C15" t="str">
+        <f>Ingots!E15&amp;" "&amp;$C$1</f>
+        <v>Bismuth Nugget</v>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>Ingots!C15</f>
+        <v>Bismuth Ingot</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C16" t="str">
+        <f>Ingots!E16&amp;" "&amp;$C$1</f>
+        <v>Aluminum Nugget</v>
+      </c>
+      <c r="D16" s="8" t="str">
+        <f>Ingots!C16</f>
+        <v>Aluminum Ingot</v>
+      </c>
+      <c r="E16" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C17" t="str">
+        <f>Ingots!E17&amp;" "&amp;$C$1</f>
+        <v>Steel Nugget</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f>Ingots!C17</f>
+        <v>Steel Ingot</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>2449</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Ingots!E18&amp;" "&amp;$C$1</f>
+        <v>Stainless Steel Nugget</v>
+      </c>
+      <c r="D18" s="8" t="str">
+        <f>Ingots!C18</f>
+        <v>Stainless Steel Ingot</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C19" t="str">
+        <f>Ingots!E19&amp;" "&amp;$C$1</f>
+        <v>Brass Nugget</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f>Ingots!C19</f>
+        <v>Brass Ingot</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C20" t="str">
+        <f>Ingots!E20&amp;" "&amp;$C$1</f>
+        <v>Bronze Nugget</v>
+      </c>
+      <c r="D20" s="8" t="str">
+        <f>Ingots!C20</f>
+        <v>Bronze Ingot</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>2452</v>
+      </c>
+      <c r="C21" t="str">
+        <f>Ingots!E21&amp;" "&amp;$C$1</f>
+        <v>Tin Nugget</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f>Ingots!C21</f>
+        <v>Tin Ingot</v>
+      </c>
+      <c r="E21" s="10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>2453</v>
+      </c>
+      <c r="C22" t="str">
+        <f>"Chrome "&amp;$C$1</f>
+        <v>Chrome Nugget</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f>Ingots!C22</f>
+        <v>Chrome Ingot</v>
+      </c>
+      <c r="E22" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C23" t="str">
+        <f>Ingots!E23&amp;" "&amp;$C$1</f>
+        <v>Tungsten Carbide Nugget</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f>Ingots!C23</f>
+        <v>Tungsten Carbide Ingot</v>
+      </c>
+      <c r="E23" s="9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C24" t="str">
+        <f>Ingots!E24&amp;" "&amp;$C$1</f>
+        <v>Nichrome Nugget</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>Ingots!C24</f>
+        <v>Nichrome Ingot</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C25" t="str">
+        <f>Ingots!E25&amp;" "&amp;$C$1</f>
+        <v>Antimony-Lead Nugget</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>Ingots!C25</f>
+        <v>Antimony-Lead Ingot</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>2457</v>
+      </c>
+      <c r="C26" t="str">
+        <f>Ingots!E26&amp;" "&amp;$C$1</f>
+        <v>Silicon Nugget</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f>Ingots!C26</f>
+        <v>Silicon Ingot</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="str">
+        <f>[1]Enums!$A$21</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C27" t="str">
+        <f>"Mercury Sulfide "&amp;$C$1</f>
+        <v>Mercury Sulfide Nugget</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f>Ingots!C27</f>
+        <v>Mercury Sulfide Ingot</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -19510,7 +23306,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="C29" t="str">
         <f>"Block of "&amp;Ores!E26</f>
@@ -19531,7 +23327,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="C30" t="str">
         <f>"Block of "&amp;Ingots!E27</f>
@@ -19551,7 +23347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -20313,7 +24109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -27710,7 +31506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -50382,3119 +54178,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:D334"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="str">
-        <f>[1]Enums!$A$1</f>
-        <v>Version</v>
-      </c>
-      <c r="B1" s="5" t="str">
-        <f>[1]Compounds!$A$1&amp;" Vessel"</f>
-        <v>Version Vessel</v>
-      </c>
-      <c r="C1" s="6" t="str">
-        <f>[1]Compounds!$B$1&amp;" Name"</f>
-        <v>Compound Name</v>
-      </c>
-      <c r="D1" s="5" t="str">
-        <f xml:space="preserve"> [1]Enums!$A$29</f>
-        <v>Vessel Type</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B2" t="str">
-        <f>D2&amp;" ("&amp;C2&amp;")"</f>
-        <v>Vial (Crude Oil)</v>
-      </c>
-      <c r="C2" t="str">
-        <f>[1]Compounds!$B$103</f>
-        <v>Crude Oil</v>
-      </c>
-      <c r="D2" t="str">
-        <f>IF(VLOOKUP(C2,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C2,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B10" si="0">D3&amp;" ("&amp;C3&amp;")"</f>
-        <v>Beaker (Crude Oil)</v>
-      </c>
-      <c r="C3" t="str">
-        <f>[1]Compounds!$B$103</f>
-        <v>Crude Oil</v>
-      </c>
-      <c r="D3" t="str">
-        <f>IF(VLOOKUP(C3,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C3,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>Drum (Crude Oil)</v>
-      </c>
-      <c r="C4" t="str">
-        <f>[1]Compounds!$B$103</f>
-        <v>Crude Oil</v>
-      </c>
-      <c r="D4" t="str">
-        <f>IF(VLOOKUP(C4,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C4,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>Vial (Naphthalene)</v>
-      </c>
-      <c r="C5" t="str">
-        <f>[1]Compounds!$B$208</f>
-        <v>Naphthalene</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IF(VLOOKUP(C5,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C5,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Beaker (Naphthalene)</v>
-      </c>
-      <c r="C6" t="str">
-        <f>[1]Compounds!$B$208</f>
-        <v>Naphthalene</v>
-      </c>
-      <c r="D6" t="str">
-        <f>IF(VLOOKUP(C6,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C6,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Drum (Naphthalene)</v>
-      </c>
-      <c r="C7" t="str">
-        <f>[1]Compounds!$B$208</f>
-        <v>Naphthalene</v>
-      </c>
-      <c r="D7" t="str">
-        <f>IF(VLOOKUP(C7,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C7,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Vial (Benzene-Toluene-Xylene)</v>
-      </c>
-      <c r="C8" t="str">
-        <f>[1]Compounds!$B$60</f>
-        <v>Benzene-Toluene-Xylene</v>
-      </c>
-      <c r="D8" t="str">
-        <f>IF(VLOOKUP(C8,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C8,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>Beaker (Benzene-Toluene-Xylene)</v>
-      </c>
-      <c r="C9" t="str">
-        <f>[1]Compounds!$B$60</f>
-        <v>Benzene-Toluene-Xylene</v>
-      </c>
-      <c r="D9" t="str">
-        <f>IF(VLOOKUP(C9,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C9,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Drum (Benzene-Toluene-Xylene)</v>
-      </c>
-      <c r="C10" t="str">
-        <f>[1]Compounds!$B$60</f>
-        <v>Benzene-Toluene-Xylene</v>
-      </c>
-      <c r="D10" t="str">
-        <f>IF(VLOOKUP(C10,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C10,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" ref="B11:B34" si="1">D11&amp;" ("&amp;C11&amp;")"</f>
-        <v>Vial (Gas Oil)</v>
-      </c>
-      <c r="C11" t="str">
-        <f>[1]Compounds!$B$141</f>
-        <v>Gas Oil</v>
-      </c>
-      <c r="D11" t="str">
-        <f>IF(VLOOKUP(C11,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C11,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="1"/>
-        <v>Beaker (Gas Oil)</v>
-      </c>
-      <c r="C12" t="str">
-        <f>[1]Compounds!$B$141</f>
-        <v>Gas Oil</v>
-      </c>
-      <c r="D12" t="str">
-        <f>IF(VLOOKUP(C12,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C12,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="1"/>
-        <v>Drum (Gas Oil)</v>
-      </c>
-      <c r="C13" t="str">
-        <f>[1]Compounds!$B$141</f>
-        <v>Gas Oil</v>
-      </c>
-      <c r="D13" t="str">
-        <f>IF(VLOOKUP(C13,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C13,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="1"/>
-        <v>Vial (NeoPentane)</v>
-      </c>
-      <c r="C14" t="str">
-        <f>[1]Compounds!$B$211</f>
-        <v>NeoPentane</v>
-      </c>
-      <c r="D14" t="str">
-        <f>IF(VLOOKUP(C14,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C14,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="1"/>
-        <v>Beaker (NeoPentane)</v>
-      </c>
-      <c r="C15" t="str">
-        <f>[1]Compounds!$B$211</f>
-        <v>NeoPentane</v>
-      </c>
-      <c r="D15" t="str">
-        <f>IF(VLOOKUP(C15,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C15,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="1"/>
-        <v>Drum (NeoPentane)</v>
-      </c>
-      <c r="C16" t="str">
-        <f>[1]Compounds!$B$211</f>
-        <v>NeoPentane</v>
-      </c>
-      <c r="D16" t="str">
-        <f>IF(VLOOKUP(C16,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C16,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="1"/>
-        <v>Flask (Methane)</v>
-      </c>
-      <c r="C17" t="str">
-        <f>[1]Compounds!$B$192</f>
-        <v>Methane</v>
-      </c>
-      <c r="D17" t="str">
-        <f>IF(VLOOKUP(C17,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C17,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>Cartridge (Methane)</v>
-      </c>
-      <c r="C18" t="str">
-        <f>[1]Compounds!$B$192</f>
-        <v>Methane</v>
-      </c>
-      <c r="D18" t="str">
-        <f>IF(VLOOKUP(C18,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C18,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="1"/>
-        <v>Canister (Methane)</v>
-      </c>
-      <c r="C19" t="str">
-        <f>[1]Compounds!$B$192</f>
-        <v>Methane</v>
-      </c>
-      <c r="D19" t="str">
-        <f>IF(VLOOKUP(C19,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C19,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>Flask (Ethane)</v>
-      </c>
-      <c r="C20" t="str">
-        <f>[1]Compounds!$B$124</f>
-        <v>Ethane</v>
-      </c>
-      <c r="D20" t="str">
-        <f>IF(VLOOKUP(C20,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C20,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>Cartridge (Ethane)</v>
-      </c>
-      <c r="C21" t="str">
-        <f>[1]Compounds!$B$124</f>
-        <v>Ethane</v>
-      </c>
-      <c r="D21" t="str">
-        <f>IF(VLOOKUP(C21,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C21,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="1"/>
-        <v>Canister (Ethane)</v>
-      </c>
-      <c r="C22" t="str">
-        <f>[1]Compounds!$B$124</f>
-        <v>Ethane</v>
-      </c>
-      <c r="D22" t="str">
-        <f>IF(VLOOKUP(C22,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C22,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="1"/>
-        <v>Flask (Propane)</v>
-      </c>
-      <c r="C23" t="str">
-        <f>[1]Compounds!$B$245</f>
-        <v>Propane</v>
-      </c>
-      <c r="D23" t="str">
-        <f>IF(VLOOKUP(C23,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C23,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="1"/>
-        <v>Cartridge (Propane)</v>
-      </c>
-      <c r="C24" t="str">
-        <f>[1]Compounds!$B$245</f>
-        <v>Propane</v>
-      </c>
-      <c r="D24" t="str">
-        <f>IF(VLOOKUP(C24,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C24,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v>Canister (Propane)</v>
-      </c>
-      <c r="C25" t="str">
-        <f>[1]Compounds!$B$245</f>
-        <v>Propane</v>
-      </c>
-      <c r="D25" t="str">
-        <f>IF(VLOOKUP(C25,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C25,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="1"/>
-        <v>Flask (Butane Isomers)</v>
-      </c>
-      <c r="C26" t="str">
-        <f>[1]Compounds!$B$68</f>
-        <v>Butane Isomers</v>
-      </c>
-      <c r="D26" t="str">
-        <f>IF(VLOOKUP(C26,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C26,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="1"/>
-        <v>Cartridge (Butane Isomers)</v>
-      </c>
-      <c r="C27" t="str">
-        <f>[1]Compounds!$B$68</f>
-        <v>Butane Isomers</v>
-      </c>
-      <c r="D27" t="str">
-        <f>IF(VLOOKUP(C27,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C27,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="1"/>
-        <v>Canister (Butane Isomers)</v>
-      </c>
-      <c r="C28" t="str">
-        <f>[1]Compounds!$B$68</f>
-        <v>Butane Isomers</v>
-      </c>
-      <c r="D28" t="str">
-        <f>IF(VLOOKUP(C28,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C28,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="1"/>
-        <v>Vial (Pentane Isomers)</v>
-      </c>
-      <c r="C29" t="str">
-        <f>[1]Compounds!$B$222</f>
-        <v>Pentane Isomers</v>
-      </c>
-      <c r="D29" t="str">
-        <f>IF(VLOOKUP(C29,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C29,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="1"/>
-        <v>Beaker (Pentane Isomers)</v>
-      </c>
-      <c r="C30" t="str">
-        <f>[1]Compounds!$B$222</f>
-        <v>Pentane Isomers</v>
-      </c>
-      <c r="D30" t="str">
-        <f>IF(VLOOKUP(C30,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C30,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="1"/>
-        <v>Drum (Pentane Isomers)</v>
-      </c>
-      <c r="C31" t="str">
-        <f>[1]Compounds!$B$222</f>
-        <v>Pentane Isomers</v>
-      </c>
-      <c r="D31" t="str">
-        <f>IF(VLOOKUP(C31,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C31,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="1"/>
-        <v>Vial (Hexane Isomers)</v>
-      </c>
-      <c r="C32" t="str">
-        <f>[1]Compounds!$B$149</f>
-        <v>Hexane Isomers</v>
-      </c>
-      <c r="D32" t="str">
-        <f>IF(VLOOKUP(C32,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C32,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="1"/>
-        <v>Beaker (Hexane Isomers)</v>
-      </c>
-      <c r="C33" t="str">
-        <f>[1]Compounds!$B$149</f>
-        <v>Hexane Isomers</v>
-      </c>
-      <c r="D33" t="str">
-        <f>IF(VLOOKUP(C33,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C33,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="1"/>
-        <v>Drum (Hexane Isomers)</v>
-      </c>
-      <c r="C34" t="str">
-        <f>[1]Compounds!$B$149</f>
-        <v>Hexane Isomers</v>
-      </c>
-      <c r="D34" t="str">
-        <f>IF(VLOOKUP(C34,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C34,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" ref="B35:B40" si="2">D35&amp;" ("&amp;C35&amp;")"</f>
-        <v>Vial (Light Naphtha)</v>
-      </c>
-      <c r="C35" t="str">
-        <f>[1]Compounds!$B$166</f>
-        <v>Light Naphtha</v>
-      </c>
-      <c r="D35" t="str">
-        <f>IF(VLOOKUP(C35,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C35,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="2"/>
-        <v>Beaker (Light Naphtha)</v>
-      </c>
-      <c r="C36" t="str">
-        <f>[1]Compounds!$B$166</f>
-        <v>Light Naphtha</v>
-      </c>
-      <c r="D36" t="str">
-        <f>IF(VLOOKUP(C36,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C36,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="2"/>
-        <v>Drum (Light Naphtha)</v>
-      </c>
-      <c r="C37" t="str">
-        <f>[1]Compounds!$B$166</f>
-        <v>Light Naphtha</v>
-      </c>
-      <c r="D37" t="str">
-        <f>IF(VLOOKUP(C37,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C37,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="2"/>
-        <v>Vial (Heavy Naphtha)</v>
-      </c>
-      <c r="C38" t="str">
-        <f>[1]Compounds!$B$146</f>
-        <v>Heavy Naphtha</v>
-      </c>
-      <c r="D38" t="str">
-        <f>IF(VLOOKUP(C38,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C38,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="2"/>
-        <v>Beaker (Heavy Naphtha)</v>
-      </c>
-      <c r="C39" t="str">
-        <f>[1]Compounds!$B$146</f>
-        <v>Heavy Naphtha</v>
-      </c>
-      <c r="D39" t="str">
-        <f>IF(VLOOKUP(C39,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C39,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="2"/>
-        <v>Drum (Heavy Naphtha)</v>
-      </c>
-      <c r="C40" t="str">
-        <f>[1]Compounds!$B$146</f>
-        <v>Heavy Naphtha</v>
-      </c>
-      <c r="D40" t="str">
-        <f>IF(VLOOKUP(C40,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C40,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" ref="B41:B49" si="3">D41&amp;" ("&amp;C41&amp;")"</f>
-        <v>Vial (Light Naphthenes)</v>
-      </c>
-      <c r="C41" t="str">
-        <f>[1]Compounds!$B$167</f>
-        <v>Light Naphthenes</v>
-      </c>
-      <c r="D41" t="str">
-        <f>IF(VLOOKUP(C41,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C41,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="3"/>
-        <v>Beaker (Light Naphthenes)</v>
-      </c>
-      <c r="C42" t="str">
-        <f>[1]Compounds!$B$167</f>
-        <v>Light Naphthenes</v>
-      </c>
-      <c r="D42" t="str">
-        <f>IF(VLOOKUP(C42,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C42,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="3"/>
-        <v>Drum (Light Naphthenes)</v>
-      </c>
-      <c r="C43" t="str">
-        <f>[1]Compounds!$B$167</f>
-        <v>Light Naphthenes</v>
-      </c>
-      <c r="D43" t="str">
-        <f>IF(VLOOKUP(C43,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C43,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="3"/>
-        <v>Vial (Light Olefins)</v>
-      </c>
-      <c r="C44" t="str">
-        <f>[1]Compounds!$B$168</f>
-        <v>Light Olefins</v>
-      </c>
-      <c r="D44" t="str">
-        <f>IF(VLOOKUP(C44,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C44,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="3"/>
-        <v>Beaker (Light Olefins)</v>
-      </c>
-      <c r="C45" t="str">
-        <f>[1]Compounds!$B$168</f>
-        <v>Light Olefins</v>
-      </c>
-      <c r="D45" t="str">
-        <f>IF(VLOOKUP(C45,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C45,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="3"/>
-        <v>Drum (Light Olefins)</v>
-      </c>
-      <c r="C46" t="str">
-        <f>[1]Compounds!$B$168</f>
-        <v>Light Olefins</v>
-      </c>
-      <c r="D46" t="str">
-        <f>IF(VLOOKUP(C46,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C46,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="3"/>
-        <v>Vial (Light Parrafins)</v>
-      </c>
-      <c r="C47" t="str">
-        <f>[1]Compounds!$B$169</f>
-        <v>Light Parrafins</v>
-      </c>
-      <c r="D47" t="str">
-        <f>IF(VLOOKUP(C47,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C47,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="3"/>
-        <v>Beaker (Light Parrafins)</v>
-      </c>
-      <c r="C48" t="str">
-        <f>[1]Compounds!$B$169</f>
-        <v>Light Parrafins</v>
-      </c>
-      <c r="D48" t="str">
-        <f>IF(VLOOKUP(C48,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C48,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="3"/>
-        <v>Drum (Light Parrafins)</v>
-      </c>
-      <c r="C49" t="str">
-        <f>[1]Compounds!$B$169</f>
-        <v>Light Parrafins</v>
-      </c>
-      <c r="D49" t="str">
-        <f>IF(VLOOKUP(C49,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C49,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" ref="B50:B64" si="4">D50&amp;" ("&amp;C50&amp;")"</f>
-        <v>Vial (N-Ethylidenecyclohexylamine)</v>
-      </c>
-      <c r="C50" t="str">
-        <f>[1]Compounds!$B$204</f>
-        <v>N-Ethylidenecyclohexylamine</v>
-      </c>
-      <c r="D50" t="str">
-        <f>IF(VLOOKUP(C50,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C50,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="4"/>
-        <v>Beaker (N-Ethylidenecyclohexylamine)</v>
-      </c>
-      <c r="C51" t="str">
-        <f>[1]Compounds!$B$204</f>
-        <v>N-Ethylidenecyclohexylamine</v>
-      </c>
-      <c r="D51" t="str">
-        <f>IF(VLOOKUP(C51,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C51,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="4"/>
-        <v>Drum (N-Ethylidenecyclohexylamine)</v>
-      </c>
-      <c r="C52" t="str">
-        <f>[1]Compounds!$B$204</f>
-        <v>N-Ethylidenecyclohexylamine</v>
-      </c>
-      <c r="D52" t="str">
-        <f>IF(VLOOKUP(C52,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C52,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="4"/>
-        <v>Vial (IsoButane)</v>
-      </c>
-      <c r="C53" t="str">
-        <f>[1]Compounds!$B$159</f>
-        <v>IsoButane</v>
-      </c>
-      <c r="D53" t="str">
-        <f>IF(VLOOKUP(C53,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C53,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="4"/>
-        <v>Beaker (IsoButane)</v>
-      </c>
-      <c r="C54" t="str">
-        <f>[1]Compounds!$B$159</f>
-        <v>IsoButane</v>
-      </c>
-      <c r="D54" t="str">
-        <f>IF(VLOOKUP(C54,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C54,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="4"/>
-        <v>Drum (IsoButane)</v>
-      </c>
-      <c r="C55" t="str">
-        <f>[1]Compounds!$B$159</f>
-        <v>IsoButane</v>
-      </c>
-      <c r="D55" t="str">
-        <f>IF(VLOOKUP(C55,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C55,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="4"/>
-        <v>Vial (Naphtha)</v>
-      </c>
-      <c r="C56" t="str">
-        <f>[1]Compounds!$B$207</f>
-        <v>Naphtha</v>
-      </c>
-      <c r="D56" t="str">
-        <f>IF(VLOOKUP(C56,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C56,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B57" t="str">
-        <f t="shared" si="4"/>
-        <v>Beaker (Naphtha)</v>
-      </c>
-      <c r="C57" t="str">
-        <f>[1]Compounds!$B$207</f>
-        <v>Naphtha</v>
-      </c>
-      <c r="D57" t="str">
-        <f>IF(VLOOKUP(C57,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C57,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" si="4"/>
-        <v>Drum (Naphtha)</v>
-      </c>
-      <c r="C58" t="str">
-        <f>[1]Compounds!$B$207</f>
-        <v>Naphtha</v>
-      </c>
-      <c r="D58" t="str">
-        <f>IF(VLOOKUP(C58,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C58,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="4"/>
-        <v>Vial (IsoPentane)</v>
-      </c>
-      <c r="C59" t="str">
-        <f>[1]Compounds!$B$160</f>
-        <v>IsoPentane</v>
-      </c>
-      <c r="D59" t="str">
-        <f>IF(VLOOKUP(C59,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C59,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="4"/>
-        <v>Beaker (IsoPentane)</v>
-      </c>
-      <c r="C60" t="str">
-        <f>[1]Compounds!$B$160</f>
-        <v>IsoPentane</v>
-      </c>
-      <c r="D60" t="str">
-        <f>IF(VLOOKUP(C60,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C60,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="4"/>
-        <v>Drum (IsoPentane)</v>
-      </c>
-      <c r="C61" t="str">
-        <f>[1]Compounds!$B$160</f>
-        <v>IsoPentane</v>
-      </c>
-      <c r="D61" t="str">
-        <f>IF(VLOOKUP(C61,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C61,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="4"/>
-        <v>Flask (Nitrogen Gas)</v>
-      </c>
-      <c r="C62" t="str">
-        <f>[1]Compounds!$B$212</f>
-        <v>Nitrogen Gas</v>
-      </c>
-      <c r="D62" t="str">
-        <f>IF(VLOOKUP(C62,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C62,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="4"/>
-        <v>Cartridge (Nitrogen Gas)</v>
-      </c>
-      <c r="C63" t="str">
-        <f>[1]Compounds!$B$212</f>
-        <v>Nitrogen Gas</v>
-      </c>
-      <c r="D63" t="str">
-        <f>IF(VLOOKUP(C63,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C63,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B64" t="str">
-        <f t="shared" si="4"/>
-        <v>Canister (Nitrogen Gas)</v>
-      </c>
-      <c r="C64" t="str">
-        <f>[1]Compounds!$B$212</f>
-        <v>Nitrogen Gas</v>
-      </c>
-      <c r="D64" t="str">
-        <f>IF(VLOOKUP(C64,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C64,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B65" t="str">
-        <f t="shared" ref="B65:B103" si="5">D65&amp;" ("&amp;C65&amp;")"</f>
-        <v>Vial (n-Pentane)</v>
-      </c>
-      <c r="C65" t="str">
-        <f>[1]Compounds!$B$206</f>
-        <v>n-Pentane</v>
-      </c>
-      <c r="D65" t="str">
-        <f>IF(VLOOKUP(C65,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C65,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (n-Pentane)</v>
-      </c>
-      <c r="C66" t="str">
-        <f>[1]Compounds!$B$206</f>
-        <v>n-Pentane</v>
-      </c>
-      <c r="D66" t="str">
-        <f>IF(VLOOKUP(C66,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C66,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B67" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (n-Pentane)</v>
-      </c>
-      <c r="C67" t="str">
-        <f>[1]Compounds!$B$206</f>
-        <v>n-Pentane</v>
-      </c>
-      <c r="D67" t="str">
-        <f>IF(VLOOKUP(C67,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C67,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (2-MethylPentane)</v>
-      </c>
-      <c r="C68" t="str">
-        <f>[1]Compounds!$B$20</f>
-        <v>2-MethylPentane</v>
-      </c>
-      <c r="D68" t="str">
-        <f>IF(VLOOKUP(C68,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C68,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B69" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (2-MethylPentane)</v>
-      </c>
-      <c r="C69" t="str">
-        <f>[1]Compounds!$B$20</f>
-        <v>2-MethylPentane</v>
-      </c>
-      <c r="D69" t="str">
-        <f>IF(VLOOKUP(C69,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C69,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B70" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (2-MethylPentane)</v>
-      </c>
-      <c r="C70" t="str">
-        <f>[1]Compounds!$B$20</f>
-        <v>2-MethylPentane</v>
-      </c>
-      <c r="D70" t="str">
-        <f>IF(VLOOKUP(C70,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C70,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B71" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (3-MethylPentane)</v>
-      </c>
-      <c r="C71" t="str">
-        <f>[1]Compounds!$B$26</f>
-        <v>3-MethylPentane</v>
-      </c>
-      <c r="D71" t="str">
-        <f>IF(VLOOKUP(C71,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C71,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B72" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (3-MethylPentane)</v>
-      </c>
-      <c r="C72" t="str">
-        <f>[1]Compounds!$B$26</f>
-        <v>3-MethylPentane</v>
-      </c>
-      <c r="D72" t="str">
-        <f>IF(VLOOKUP(C72,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C72,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B73" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (3-MethylPentane)</v>
-      </c>
-      <c r="C73" t="str">
-        <f>[1]Compounds!$B$26</f>
-        <v>3-MethylPentane</v>
-      </c>
-      <c r="D73" t="str">
-        <f>IF(VLOOKUP(C73,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C73,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B74" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (2,2-DiMethylButane)</v>
-      </c>
-      <c r="C74" t="str">
-        <f>[1]Compounds!$B$7</f>
-        <v>2,2-DiMethylButane</v>
-      </c>
-      <c r="D74" t="str">
-        <f>IF(VLOOKUP(C74,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C74,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B75" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (2,2-DiMethylButane)</v>
-      </c>
-      <c r="C75" t="str">
-        <f>[1]Compounds!$B$7</f>
-        <v>2,2-DiMethylButane</v>
-      </c>
-      <c r="D75" t="str">
-        <f>IF(VLOOKUP(C75,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C75,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B76" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (2,2-DiMethylButane)</v>
-      </c>
-      <c r="C76" t="str">
-        <f>[1]Compounds!$B$7</f>
-        <v>2,2-DiMethylButane</v>
-      </c>
-      <c r="D76" t="str">
-        <f>IF(VLOOKUP(C76,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C76,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B77" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (2,3-DiMethylButane)</v>
-      </c>
-      <c r="C77" t="str">
-        <f>[1]Compounds!$B$8</f>
-        <v>2,3-DiMethylButane</v>
-      </c>
-      <c r="D77" t="str">
-        <f>IF(VLOOKUP(C77,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C77,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B78" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (2,3-DiMethylButane)</v>
-      </c>
-      <c r="C78" t="str">
-        <f>[1]Compounds!$B$8</f>
-        <v>2,3-DiMethylButane</v>
-      </c>
-      <c r="D78" t="str">
-        <f>IF(VLOOKUP(C78,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C78,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B79" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (2,3-DiMethylButane)</v>
-      </c>
-      <c r="C79" t="str">
-        <f>[1]Compounds!$B$8</f>
-        <v>2,3-DiMethylButane</v>
-      </c>
-      <c r="D79" t="str">
-        <f>IF(VLOOKUP(C79,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C79,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B80" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (Fruit Brandy)</v>
-      </c>
-      <c r="C80" t="str">
-        <f>[1]Compounds!$B$326</f>
-        <v>Fruit Brandy</v>
-      </c>
-      <c r="D80" t="str">
-        <f>IF(VLOOKUP(C80,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C80,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B81" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (Fruit Brandy)</v>
-      </c>
-      <c r="C81" t="str">
-        <f>[1]Compounds!$B$326</f>
-        <v>Fruit Brandy</v>
-      </c>
-      <c r="D81" t="str">
-        <f>IF(VLOOKUP(C81,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C81,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B82" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (Fruit Brandy)</v>
-      </c>
-      <c r="C82" t="str">
-        <f>[1]Compounds!$B$326</f>
-        <v>Fruit Brandy</v>
-      </c>
-      <c r="D82" t="str">
-        <f>IF(VLOOKUP(C82,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C82,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B83" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (Vodka)</v>
-      </c>
-      <c r="C83" t="str">
-        <f>[1]Compounds!$B$327</f>
-        <v>Vodka</v>
-      </c>
-      <c r="D83" t="str">
-        <f>IF(VLOOKUP(C83,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C83,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B84" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (Vodka)</v>
-      </c>
-      <c r="C84" t="str">
-        <f>[1]Compounds!$B$327</f>
-        <v>Vodka</v>
-      </c>
-      <c r="D84" t="str">
-        <f>IF(VLOOKUP(C84,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C84,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B85" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (Vodka)</v>
-      </c>
-      <c r="C85" t="str">
-        <f>[1]Compounds!$B$327</f>
-        <v>Vodka</v>
-      </c>
-      <c r="D85" t="str">
-        <f>IF(VLOOKUP(C85,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C85,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B86" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (Gin)</v>
-      </c>
-      <c r="C86" t="str">
-        <f>[1]Compounds!$B$328</f>
-        <v>Gin</v>
-      </c>
-      <c r="D86" t="str">
-        <f>IF(VLOOKUP(C86,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C86,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B87" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (Gin)</v>
-      </c>
-      <c r="C87" t="str">
-        <f>[1]Compounds!$B$328</f>
-        <v>Gin</v>
-      </c>
-      <c r="D87" t="str">
-        <f>IF(VLOOKUP(C87,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C87,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B88" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (Gin)</v>
-      </c>
-      <c r="C88" t="str">
-        <f>[1]Compounds!$B$328</f>
-        <v>Gin</v>
-      </c>
-      <c r="D88" t="str">
-        <f>IF(VLOOKUP(C88,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C88,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B89" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (Tequila)</v>
-      </c>
-      <c r="C89" t="str">
-        <f>[1]Compounds!$B$329</f>
-        <v>Tequila</v>
-      </c>
-      <c r="D89" t="str">
-        <f>IF(VLOOKUP(C89,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C89,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B90" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (Tequila)</v>
-      </c>
-      <c r="C90" t="str">
-        <f>[1]Compounds!$B$329</f>
-        <v>Tequila</v>
-      </c>
-      <c r="D90" t="str">
-        <f>IF(VLOOKUP(C90,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C90,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B91" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (Tequila)</v>
-      </c>
-      <c r="C91" t="str">
-        <f>[1]Compounds!$B$329</f>
-        <v>Tequila</v>
-      </c>
-      <c r="D91" t="str">
-        <f>IF(VLOOKUP(C91,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C91,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B92" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (Rum)</v>
-      </c>
-      <c r="C92" t="str">
-        <f>[1]Compounds!$B$330</f>
-        <v>Rum</v>
-      </c>
-      <c r="D92" t="str">
-        <f>IF(VLOOKUP(C92,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C92,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B93" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (Rum)</v>
-      </c>
-      <c r="C93" t="str">
-        <f>[1]Compounds!$B$330</f>
-        <v>Rum</v>
-      </c>
-      <c r="D93" t="str">
-        <f>IF(VLOOKUP(C93,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C93,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B94" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (Rum)</v>
-      </c>
-      <c r="C94" t="str">
-        <f>[1]Compounds!$B$330</f>
-        <v>Rum</v>
-      </c>
-      <c r="D94" t="str">
-        <f>IF(VLOOKUP(C94,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C94,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B95" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (Whiskey)</v>
-      </c>
-      <c r="C95" t="str">
-        <f>[1]Compounds!$B$331</f>
-        <v>Whiskey</v>
-      </c>
-      <c r="D95" t="str">
-        <f>IF(VLOOKUP(C95,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C95,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B96" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (Whiskey)</v>
-      </c>
-      <c r="C96" t="str">
-        <f>[1]Compounds!$B$331</f>
-        <v>Whiskey</v>
-      </c>
-      <c r="D96" t="str">
-        <f>IF(VLOOKUP(C96,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C96,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B97" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (Whiskey)</v>
-      </c>
-      <c r="C97" t="str">
-        <f>[1]Compounds!$B$331</f>
-        <v>Whiskey</v>
-      </c>
-      <c r="D97" t="str">
-        <f>IF(VLOOKUP(C97,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C97,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B98" t="str">
-        <f t="shared" si="5"/>
-        <v>Vial (Carrot Wine)</v>
-      </c>
-      <c r="C98" t="str">
-        <f>[1]Compounds!$B$332</f>
-        <v>Carrot Wine</v>
-      </c>
-      <c r="D98" t="str">
-        <f>IF(VLOOKUP(C98,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C98,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B99" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaker (Carrot Wine)</v>
-      </c>
-      <c r="C99" t="str">
-        <f>[1]Compounds!$B$332</f>
-        <v>Carrot Wine</v>
-      </c>
-      <c r="D99" t="str">
-        <f>IF(VLOOKUP(C99,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C99,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B100" t="str">
-        <f t="shared" si="5"/>
-        <v>Drum (Carrot Wine)</v>
-      </c>
-      <c r="C100" t="str">
-        <f>[1]Compounds!$B$332</f>
-        <v>Carrot Wine</v>
-      </c>
-      <c r="D100" t="str">
-        <f>IF(VLOOKUP(C100,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C100,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B101" t="str">
-        <f t="shared" si="5"/>
-        <v>Flask (Propylene)</v>
-      </c>
-      <c r="C101" t="str">
-        <f>[1]Compounds!$B$247</f>
-        <v>Propylene</v>
-      </c>
-      <c r="D101" t="str">
-        <f>IF(VLOOKUP(C101,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C101,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B102" t="str">
-        <f t="shared" si="5"/>
-        <v>Cartridge (Propylene)</v>
-      </c>
-      <c r="C102" t="str">
-        <f>[1]Compounds!$B$247</f>
-        <v>Propylene</v>
-      </c>
-      <c r="D102" t="str">
-        <f>IF(VLOOKUP(C102,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C102,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B103" t="str">
-        <f t="shared" si="5"/>
-        <v>Canister (Propylene)</v>
-      </c>
-      <c r="C103" t="str">
-        <f>[1]Compounds!$B$247</f>
-        <v>Propylene</v>
-      </c>
-      <c r="D103" t="str">
-        <f>IF(VLOOKUP(C103,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C103,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B104" t="str">
-        <f t="shared" ref="B104:B112" si="6">D104&amp;" ("&amp;C104&amp;")"</f>
-        <v>Flask (Ethylene)</v>
-      </c>
-      <c r="C104" t="str">
-        <f>[1]Compounds!$B$129</f>
-        <v>Ethylene</v>
-      </c>
-      <c r="D104" t="str">
-        <f>IF(VLOOKUP(C104,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C104,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B105" t="str">
-        <f t="shared" si="6"/>
-        <v>Cartridge (Ethylene)</v>
-      </c>
-      <c r="C105" t="str">
-        <f>[1]Compounds!$B$129</f>
-        <v>Ethylene</v>
-      </c>
-      <c r="D105" t="str">
-        <f>IF(VLOOKUP(C105,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C105,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B106" t="str">
-        <f t="shared" si="6"/>
-        <v>Canister (Ethylene)</v>
-      </c>
-      <c r="C106" t="str">
-        <f>[1]Compounds!$B$129</f>
-        <v>Ethylene</v>
-      </c>
-      <c r="D106" t="str">
-        <f>IF(VLOOKUP(C106,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C106,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B107" t="str">
-        <f t="shared" si="6"/>
-        <v>Vial (Butylene isomers)</v>
-      </c>
-      <c r="C107" t="str">
-        <f>[1]Compounds!$B$70</f>
-        <v>Butylene isomers</v>
-      </c>
-      <c r="D107" t="str">
-        <f>IF(VLOOKUP(C107,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C107,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B108" t="str">
-        <f t="shared" si="6"/>
-        <v>Beaker (Butylene isomers)</v>
-      </c>
-      <c r="C108" t="str">
-        <f>[1]Compounds!$B$70</f>
-        <v>Butylene isomers</v>
-      </c>
-      <c r="D108" t="str">
-        <f>IF(VLOOKUP(C108,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C108,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B109" t="str">
-        <f t="shared" si="6"/>
-        <v>Drum (Butylene isomers)</v>
-      </c>
-      <c r="C109" t="str">
-        <f>[1]Compounds!$B$70</f>
-        <v>Butylene isomers</v>
-      </c>
-      <c r="D109" t="str">
-        <f>IF(VLOOKUP(C109,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C109,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B110" t="str">
-        <f t="shared" si="6"/>
-        <v>Flask (Hydrogen Gas)</v>
-      </c>
-      <c r="C110" t="str">
-        <f>[1]Compounds!$B$153</f>
-        <v>Hydrogen Gas</v>
-      </c>
-      <c r="D110" t="str">
-        <f>IF(VLOOKUP(C110,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C110,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B111" t="str">
-        <f t="shared" si="6"/>
-        <v>Cartridge (Hydrogen Gas)</v>
-      </c>
-      <c r="C111" t="str">
-        <f>[1]Compounds!$B$153</f>
-        <v>Hydrogen Gas</v>
-      </c>
-      <c r="D111" t="str">
-        <f>IF(VLOOKUP(C111,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C111,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B112" t="str">
-        <f t="shared" si="6"/>
-        <v>Canister (Hydrogen Gas)</v>
-      </c>
-      <c r="C112" t="str">
-        <f>[1]Compounds!$B$153</f>
-        <v>Hydrogen Gas</v>
-      </c>
-      <c r="D112" t="str">
-        <f>IF(VLOOKUP(C112,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C112,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B113" t="str">
-        <f t="shared" ref="B113:B139" si="7">D113&amp;" ("&amp;C113&amp;")"</f>
-        <v>Flask (Carbon Dioxide)</v>
-      </c>
-      <c r="C113" t="str">
-        <f>[1]Compounds!$B$89</f>
-        <v>Carbon Dioxide</v>
-      </c>
-      <c r="D113" t="str">
-        <f>IF(VLOOKUP(C113,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C113,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B114" t="str">
-        <f t="shared" si="7"/>
-        <v>Cartridge (Carbon Dioxide)</v>
-      </c>
-      <c r="C114" t="str">
-        <f>[1]Compounds!$B$89</f>
-        <v>Carbon Dioxide</v>
-      </c>
-      <c r="D114" t="str">
-        <f>IF(VLOOKUP(C114,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C114,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B115" t="str">
-        <f t="shared" si="7"/>
-        <v>Canister (Carbon Dioxide)</v>
-      </c>
-      <c r="C115" t="str">
-        <f>[1]Compounds!$B$89</f>
-        <v>Carbon Dioxide</v>
-      </c>
-      <c r="D115" t="str">
-        <f>IF(VLOOKUP(C115,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C115,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B116" t="str">
-        <f t="shared" si="7"/>
-        <v>Vial (p-Xylene)</v>
-      </c>
-      <c r="C116" t="str">
-        <f>[1]Compounds!$B$220</f>
-        <v>p-Xylene</v>
-      </c>
-      <c r="D116" t="str">
-        <f>IF(VLOOKUP(C116,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C116,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B117" t="str">
-        <f t="shared" si="7"/>
-        <v>Beaker (p-Xylene)</v>
-      </c>
-      <c r="C117" t="str">
-        <f>[1]Compounds!$B$220</f>
-        <v>p-Xylene</v>
-      </c>
-      <c r="D117" t="str">
-        <f>IF(VLOOKUP(C117,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C117,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B118" t="str">
-        <f t="shared" si="7"/>
-        <v>Drum (p-Xylene)</v>
-      </c>
-      <c r="C118" t="str">
-        <f>[1]Compounds!$B$220</f>
-        <v>p-Xylene</v>
-      </c>
-      <c r="D118" t="str">
-        <f>IF(VLOOKUP(C118,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C118,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B119" t="str">
-        <f t="shared" si="7"/>
-        <v>Flask (Oxygen Gas)</v>
-      </c>
-      <c r="C119" t="str">
-        <f>[1]Compounds!$B$218</f>
-        <v>Oxygen Gas</v>
-      </c>
-      <c r="D119" t="str">
-        <f>IF(VLOOKUP(C119,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C119,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B120" t="str">
-        <f t="shared" si="7"/>
-        <v>Cartridge (Oxygen Gas)</v>
-      </c>
-      <c r="C120" t="str">
-        <f>[1]Compounds!$B$218</f>
-        <v>Oxygen Gas</v>
-      </c>
-      <c r="D120" t="str">
-        <f>IF(VLOOKUP(C120,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C120,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B121" t="str">
-        <f t="shared" si="7"/>
-        <v>Canister (Oxygen Gas)</v>
-      </c>
-      <c r="C121" t="str">
-        <f>[1]Compounds!$B$218</f>
-        <v>Oxygen Gas</v>
-      </c>
-      <c r="D121" t="str">
-        <f>IF(VLOOKUP(C121,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C121,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B122" t="str">
-        <f t="shared" si="7"/>
-        <v>Flask (Sweet Butane Fuel)</v>
-      </c>
-      <c r="C122" t="str">
-        <f>[1]Compounds!$B$278</f>
-        <v>Sweet Butane Fuel</v>
-      </c>
-      <c r="D122" t="str">
-        <f>IF(VLOOKUP(C122,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C122,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B123" t="str">
-        <f t="shared" si="7"/>
-        <v>Cartridge (Sweet Butane Fuel)</v>
-      </c>
-      <c r="C123" t="str">
-        <f>[1]Compounds!$B$278</f>
-        <v>Sweet Butane Fuel</v>
-      </c>
-      <c r="D123" t="str">
-        <f>IF(VLOOKUP(C123,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C123,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B124" t="str">
-        <f t="shared" si="7"/>
-        <v>Canister (Sweet Butane Fuel)</v>
-      </c>
-      <c r="C124" t="str">
-        <f>[1]Compounds!$B$278</f>
-        <v>Sweet Butane Fuel</v>
-      </c>
-      <c r="D124" t="str">
-        <f>IF(VLOOKUP(C124,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C124,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B125" t="str">
-        <f t="shared" si="7"/>
-        <v>Flask (Sweet Propane Fuel)</v>
-      </c>
-      <c r="C125" t="str">
-        <f>[1]Compounds!$B$279</f>
-        <v>Sweet Propane Fuel</v>
-      </c>
-      <c r="D125" t="str">
-        <f>IF(VLOOKUP(C125,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C125,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B126" t="str">
-        <f t="shared" si="7"/>
-        <v>Cartridge (Sweet Propane Fuel)</v>
-      </c>
-      <c r="C126" t="str">
-        <f>[1]Compounds!$B$279</f>
-        <v>Sweet Propane Fuel</v>
-      </c>
-      <c r="D126" t="str">
-        <f>IF(VLOOKUP(C126,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C126,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B127" t="str">
-        <f t="shared" si="7"/>
-        <v>Canister (Sweet Propane Fuel)</v>
-      </c>
-      <c r="C127" t="str">
-        <f>[1]Compounds!$B$279</f>
-        <v>Sweet Propane Fuel</v>
-      </c>
-      <c r="D127" t="str">
-        <f>IF(VLOOKUP(C127,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C127,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B128" t="str">
-        <f t="shared" si="7"/>
-        <v>Vial (Sweet Light Naphtha)</v>
-      </c>
-      <c r="C128" t="str">
-        <f>[1]Compounds!$B$280</f>
-        <v>Sweet Light Naphtha</v>
-      </c>
-      <c r="D128" t="str">
-        <f>IF(VLOOKUP(C128,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C128,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B129" t="str">
-        <f t="shared" si="7"/>
-        <v>Beaker (Sweet Light Naphtha)</v>
-      </c>
-      <c r="C129" t="str">
-        <f>[1]Compounds!$B$280</f>
-        <v>Sweet Light Naphtha</v>
-      </c>
-      <c r="D129" t="str">
-        <f>IF(VLOOKUP(C129,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C129,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B130" t="str">
-        <f t="shared" si="7"/>
-        <v>Drum (Sweet Light Naphtha)</v>
-      </c>
-      <c r="C130" t="str">
-        <f>[1]Compounds!$B$280</f>
-        <v>Sweet Light Naphtha</v>
-      </c>
-      <c r="D130" t="str">
-        <f>IF(VLOOKUP(C130,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C130,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B131" t="str">
-        <f t="shared" si="7"/>
-        <v>Vial (Mercaptans)</v>
-      </c>
-      <c r="C131" t="str">
-        <f>[1]Compounds!$B$180</f>
-        <v>Mercaptans</v>
-      </c>
-      <c r="D131" t="str">
-        <f>IF(VLOOKUP(C131,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C131,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Vial</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B132" t="str">
-        <f t="shared" si="7"/>
-        <v>Beaker (Mercaptans)</v>
-      </c>
-      <c r="C132" t="str">
-        <f>[1]Compounds!$B$180</f>
-        <v>Mercaptans</v>
-      </c>
-      <c r="D132" t="str">
-        <f>IF(VLOOKUP(C132,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C132,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Beaker</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B133" t="str">
-        <f t="shared" si="7"/>
-        <v>Drum (Mercaptans)</v>
-      </c>
-      <c r="C133" t="str">
-        <f>[1]Compounds!$B$180</f>
-        <v>Mercaptans</v>
-      </c>
-      <c r="D133" t="str">
-        <f>IF(VLOOKUP(C133,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C133,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Drum</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B134" t="str">
-        <f t="shared" si="7"/>
-        <v>Flask (Ammonia)</v>
-      </c>
-      <c r="C134" t="str">
-        <f>[1]Compounds!$B$43</f>
-        <v>Ammonia</v>
-      </c>
-      <c r="D134" t="str">
-        <f>IF(VLOOKUP(C134,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C134,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Flask</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B135" t="str">
-        <f t="shared" si="7"/>
-        <v>Cartridge (Ammonia)</v>
-      </c>
-      <c r="C135" t="str">
-        <f>[1]Compounds!$B$43</f>
-        <v>Ammonia</v>
-      </c>
-      <c r="D135" t="str">
-        <f>IF(VLOOKUP(C135,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C135,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Cartridge</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B136" t="str">
-        <f t="shared" si="7"/>
-        <v>Canister (Ammonia)</v>
-      </c>
-      <c r="C136" t="str">
-        <f>[1]Compounds!$B$43</f>
-        <v>Ammonia</v>
-      </c>
-      <c r="D136" t="str">
-        <f>IF(VLOOKUP(C136,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C136,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Canister</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B137" t="str">
-        <f t="shared" si="7"/>
-        <v>Bag (Sodium Hydroxide)</v>
-      </c>
-      <c r="C137" t="str">
-        <f>[1]Compounds!$B$260</f>
-        <v>Sodium Hydroxide</v>
-      </c>
-      <c r="D137" t="str">
-        <f>IF(VLOOKUP(C137,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$30,IF(VLOOKUP(C137,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$31,[1]Enums!$A$32))</f>
-        <v>Bag</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B138" t="str">
-        <f t="shared" si="7"/>
-        <v>Sack (Sodium Hydroxide)</v>
-      </c>
-      <c r="C138" t="str">
-        <f>[1]Compounds!$B$260</f>
-        <v>Sodium Hydroxide</v>
-      </c>
-      <c r="D138" t="str">
-        <f>IF(VLOOKUP(C138,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$33,IF(VLOOKUP(C138,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$34,[1]Enums!$A$35))</f>
-        <v>Sack</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="str">
-        <f>[1]Enums!$A$2</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="B139" t="str">
-        <f t="shared" si="7"/>
-        <v>Powder Keg (Sodium Hydroxide)</v>
-      </c>
-      <c r="C139" t="str">
-        <f>[1]Compounds!$B$260</f>
-        <v>Sodium Hydroxide</v>
-      </c>
-      <c r="D139" t="str">
-        <f>IF(VLOOKUP(C139,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$25,[1]Enums!$A$36,IF(VLOOKUP(C139,[1]Compounds!B:D,3,FALSE)=[1]Enums!$A$26,[1]Enums!$A$37,[1]Enums!$A$38))</f>
-        <v>Powder Keg</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="4"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="4"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="4"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="4"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="4"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="4"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="4"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="4"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="4"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="4"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="4"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="4"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="4"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="4"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="4"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="4"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="4"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="4"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="4"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="4"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="4"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="4"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="4"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="4"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="4"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="4"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="4"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="4"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="4"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="4"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="4"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="4"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="4"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="4"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="4"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="4"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="4"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="4"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="4"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="4"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="4"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="4"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="4"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="4"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="4"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="4"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="4"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="4"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="4"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="4"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="4"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="4"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="4"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="4"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="4"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="4"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="4"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="4"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="4"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="4"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="4"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="4"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="4"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="4"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="4"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" s="4"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="4"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="4"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="4"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="4"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" s="4"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="4"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="4"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="4"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="4"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="4"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="4"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" s="4"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" s="4"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" s="4"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="4"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" s="4"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" s="4"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" s="4"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" s="4"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" s="4"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="4"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" s="4"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" s="4"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" s="4"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" s="4"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" s="4"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" s="4"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" s="4"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="4"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" s="4"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" s="4"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" s="4"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" s="4"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" s="4"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" s="4"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="4"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="4"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="4"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="4"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="4"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="4"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="4"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="4"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="4"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="4"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="4"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="4"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="4"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="4"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="4"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="4"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="4"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="4"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="4"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" s="4"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="4"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" s="4"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="4"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" s="4"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" s="4"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" s="4"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" s="4"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" s="4"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="4"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" s="4"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" s="4"/>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" s="4"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" s="4"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" s="4"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" s="4"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" s="4"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" s="4"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" s="4"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A289" s="4"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A290" s="4"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A291" s="4"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A292" s="4"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A293" s="4"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294" s="4"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A295" s="4"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A296" s="4"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="4"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A298" s="4"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A299" s="4"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300" s="4"/>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A301" s="4"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A302" s="4"/>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303" s="4"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A304" s="4"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="4"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306" s="4"/>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="4"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A308" s="4"/>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A309" s="4"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A310" s="4"/>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A311" s="4"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312" s="4"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A313" s="4"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A314" s="4"/>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="4"/>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A316" s="4"/>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="4"/>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318" s="4"/>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A319" s="4"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="4"/>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="4"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="4"/>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="4"/>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="4"/>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="4"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="4"/>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="4"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="4"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="4"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="4"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="4"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="4"/>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="4"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="4"/>
-    </row>
-  </sheetData>
-  <sortState ref="I1:I139">
-    <sortCondition ref="I1"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
 </file>
--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -13795,7 +13795,7 @@
   </sheetPr>
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
@@ -19516,8 +19516,8 @@
   </sheetPr>
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21432,7 +21432,7 @@
       <c r="E120" s="2"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="decimal" sqref="N20:P20 N2:P5 N9:P9 N7:P7 N11:P11 N13:P13 H28:I38 H21:I23 L21:L23 L25 H25:I25 N26:P27 L28:L38">
       <formula1>0</formula1>
       <formula2>255</formula2>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877" activeTab="2"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -19516,7 +19516,7 @@
   </sheetPr>
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -31513,8 +31513,8 @@
   </sheetPr>
   <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A234" sqref="A234"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31523,7 +31523,7 @@
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" customWidth="1"/>
     <col min="5" max="5" width="4.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" style="16" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" style="16" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="16" customWidth="1"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877" activeTab="8"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -19517,7 +19517,7 @@
   <dimension ref="A1:R120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21450,8 +21450,8 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31513,7 +31513,7 @@
   </sheetPr>
   <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877" activeTab="6"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="20670" windowHeight="10035" tabRatio="877" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -49930,8 +49930,8 @@
   </sheetPr>
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -53768,8 +53768,8 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PolycraftWorld\polycraft\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Desktop\polycraftWorkStuff\PolyCraft_Forge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" activeTab="4"/>
+    <workbookView minimized="1" xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -7684,7 +7684,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -13848,6 +13848,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -13883,6 +13900,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -52544,7 +52578,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="A1:XFD1048576"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" activeTab="4"/>
+    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -14098,8 +14098,8 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="E60" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24018,8 +24018,8 @@
   </sheetPr>
   <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="Q101" sqref="Q101"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52577,7 +52577,7 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -24018,8 +24018,8 @@
   </sheetPr>
   <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="J235" sqref="J235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46692,7 +46692,7 @@
   </sheetPr>
   <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" activeTab="11"/>
+    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -8273,6 +8273,11 @@
             <v>1.3.8</v>
           </cell>
         </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>1.4.4</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="1">
@@ -13761,6 +13766,14 @@
             <v>Nickel Etchant</v>
           </cell>
           <cell r="D403" t="str">
+            <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="B404" t="str">
+            <v>Heavy Naphthenes</v>
+          </cell>
+          <cell r="D404" t="str">
             <v>Liquid</v>
           </cell>
         </row>
@@ -24018,8 +24031,8 @@
   </sheetPr>
   <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="J235" sqref="J235"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="A396" sqref="A396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46246,6 +46259,10 @@
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A392" s="4" t="str">
+        <f>[1]Enums!$A$163</f>
+        <v>1.4.4</v>
+      </c>
       <c r="B392" s="13" t="s">
         <v>2365</v>
       </c>
@@ -46300,6 +46317,10 @@
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A393" s="4" t="str">
+        <f>[1]Enums!$A$163</f>
+        <v>1.4.4</v>
+      </c>
       <c r="B393" s="13" t="s">
         <v>2361</v>
       </c>
@@ -46354,6 +46375,10 @@
       </c>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A394" s="4" t="str">
+        <f>[1]Enums!$A$163</f>
+        <v>1.4.4</v>
+      </c>
       <c r="B394" s="13" t="s">
         <v>2357</v>
       </c>
@@ -46408,6 +46433,10 @@
       </c>
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A395" s="4" t="str">
+        <f>[1]Enums!$A$163</f>
+        <v>1.4.4</v>
+      </c>
       <c r="B395" s="13" t="s">
         <v>2353</v>
       </c>
@@ -46462,6 +46491,10 @@
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A396" s="4" t="str">
+        <f>[1]Enums!$A$163</f>
+        <v>1.4.4</v>
+      </c>
       <c r="B396" s="13" t="s">
         <v>2349</v>
       </c>
@@ -46476,43 +46509,43 @@
       </c>
       <c r="F396" s="16" t="str">
         <f t="shared" si="49"/>
-        <v>Flask (0)</v>
+        <v>Vial (Heavy Naphthenes)</v>
       </c>
       <c r="G396" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>Cartridge (0)</v>
+        <v>Beaker (Heavy Naphthenes)</v>
       </c>
       <c r="H396" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>Canister (0)</v>
+        <v>Drum (Heavy Naphthenes)</v>
       </c>
       <c r="I396" s="16" t="str">
         <f t="shared" si="52"/>
-        <v>Chemical Tank (0)</v>
-      </c>
-      <c r="J396" s="16">
+        <v>Chemical Vat (Heavy Naphthenes)</v>
+      </c>
+      <c r="J396" s="16" t="str">
         <f>[1]Compounds!$B404</f>
-        <v>0</v>
-      </c>
-      <c r="K396">
+        <v>Heavy Naphthenes</v>
+      </c>
+      <c r="K396" t="str">
         <f>[1]Compounds!$D404</f>
-        <v>0</v>
+        <v>Liquid</v>
       </c>
       <c r="L396" s="4" t="str">
         <f>IF(K396=[1]Enums!$B$7, [1]Enums!$A$7, IF(K396=[1]Enums!$B$8, [1]Enums!$A$8, [1]Enums!$A$9))</f>
-        <v>Flask</v>
+        <v>Vial</v>
       </c>
       <c r="M396" s="4" t="str">
         <f>IF(K396=[1]Enums!$B$10, [1]Enums!$A$10, IF(K396=[1]Enums!$B$11, [1]Enums!$A$11, [1]Enums!$A$12))</f>
-        <v>Cartridge</v>
+        <v>Beaker</v>
       </c>
       <c r="N396" s="4" t="str">
         <f>IF(K396=[1]Enums!$B$13, [1]Enums!$A$13, IF(K396=[1]Enums!$B$14, [1]Enums!$A$14, [1]Enums!$A$15))</f>
-        <v>Canister</v>
+        <v>Drum</v>
       </c>
       <c r="O396" s="4" t="str">
         <f>IF(K396=[1]Enums!$B$16, [1]Enums!$A$16, IF(K396=[1]Enums!$B$17, [1]Enums!$A$17, [1]Enums!$A$18))</f>
-        <v>Chemical Tank</v>
+        <v>Chemical Vat</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
@@ -46692,7 +46725,7 @@
   </sheetPr>
   <dimension ref="A1:D334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" activeTab="10"/>
+    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2595" uniqueCount="2546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="2549">
   <si>
     <t>Ore</t>
   </si>
@@ -7679,12 +7679,21 @@
   </si>
   <si>
     <t>MaxStackSize</t>
+  </si>
+  <si>
+    <t>1.4.6</t>
+  </si>
+  <si>
+    <t>1xn</t>
+  </si>
+  <si>
+    <t>Flourescent Bulbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -8022,9 +8031,9 @@
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="56"/>
-    <cellStyle name="Normal 4" xfId="57"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -8051,7 +8060,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -14105,14 +14114,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView topLeftCell="E60" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16622,13 +16631,36 @@
         <v>64</v>
       </c>
     </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="27" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E81" s="26">
+        <v>8</v>
+      </c>
+      <c r="F81" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="26">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -24025,13 +24057,13 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+    <sheetView topLeftCell="A366" workbookViewId="0">
       <selection activeCell="A396" sqref="A396"/>
     </sheetView>
   </sheetViews>
@@ -46719,7 +46751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -49834,7 +49866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -50000,7 +50032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -51923,7 +51955,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" sqref="N20:P20 N2:P5 N9:P9 N7:P7 N11:P11 N13:P13 H28:I38 H21:I23 L21:L23 L25 H25:I25 N26:P27 L28:L38">
+    <dataValidation type="decimal" sqref="N20:P20 N2:P5 N9:P9 N7:P7 N11:P11 N13:P13 H28:I38 H21:I23 L21:L23 L25 H25:I25 N26:P27 L28:L38" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
@@ -51934,7 +51966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -52604,7 +52636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -53167,7 +53199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -53838,7 +53870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -54449,7 +54481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -54988,7 +55020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\polycraftForge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Seeligson\Desktop\PolycraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775A5B43-9522-47D9-97B2-4DF1F1116944}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -7694,7 +7693,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -8032,9 +8031,9 @@
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Normal 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Normal 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="56"/>
+    <cellStyle name="Normal 4" xfId="57"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -8061,7 +8060,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -14115,13 +14114,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
@@ -16661,7 +16660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -24058,7 +24057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -46752,7 +46751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -49867,13 +49866,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -50033,7 +50032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -51956,7 +51955,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" sqref="N20:P20 N2:P5 N9:P9 N7:P7 N11:P11 N13:P13 H28:I38 H21:I23 L21:L23 L25 H25:I25 N26:P27 L28:L38" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="decimal" sqref="N20:P20 N2:P5 N9:P9 N7:P7 N11:P11 N13:P13 H28:I38 H21:I23 L21:L23 L25 H25:I25 N26:P27 L28:L38">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
@@ -51967,7 +51966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -52637,7 +52636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -53200,7 +53199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -53871,7 +53870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -54482,7 +54481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -55021,7 +55020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Seeligson\Desktop\PolycraftForge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Polycraft\PolycraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5232C9-5CD3-4D99-B578-83EEF5920CF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" activeTab="1"/>
+    <workbookView xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -36,12 +37,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="2549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="2553">
   <si>
     <t>Ore</t>
   </si>
@@ -7681,19 +7682,31 @@
     <t>MaxStackSize</t>
   </si>
   <si>
-    <t>1.4.6</t>
-  </si>
-  <si>
     <t>1xn</t>
   </si>
   <si>
     <t>Flourescent Bulbs</t>
+  </si>
+  <si>
+    <t>1hY</t>
+  </si>
+  <si>
+    <t>Password Door</t>
+  </si>
+  <si>
+    <t>PC Block</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>1hX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -8031,9 +8044,9 @@
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="56"/>
-    <cellStyle name="Normal 4" xfId="57"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -8060,7 +8073,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -8285,6 +8298,16 @@
         <row r="163">
           <cell r="A163" t="str">
             <v>1.4.4</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>1.4.6</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>1.4.8</v>
           </cell>
         </row>
       </sheetData>
@@ -14114,14 +14137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16631,15 +16654,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="27" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="str">
+        <f>[1]Enums!$A$165</f>
+        <v>1.4.6</v>
+      </c>
+      <c r="B81" s="26" t="s">
         <v>2546</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="C81" s="26" t="s">
         <v>2547</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>2548</v>
       </c>
       <c r="D81" s="26" t="s">
         <v>1963</v>
@@ -16652,6 +16676,33 @@
       </c>
       <c r="H81" s="26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="str">
+        <f>[1]Enums!$A$167</f>
+        <v>1.4.8</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F82" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="26">
+        <v>64</v>
+      </c>
+      <c r="J82" s="26" t="s">
+        <v>2551</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>2552</v>
       </c>
     </row>
   </sheetData>
@@ -16660,7 +16711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -24057,7 +24108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -46751,7 +46802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -49866,13 +49917,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -50032,7 +50083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -51955,7 +52006,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" sqref="N20:P20 N2:P5 N9:P9 N7:P7 N11:P11 N13:P13 H28:I38 H21:I23 L21:L23 L25 H25:I25 N26:P27 L28:L38">
+    <dataValidation type="decimal" sqref="N20:P20 N2:P5 N9:P9 N7:P7 N11:P11 N13:P13 H28:I38 H21:I23 L21:L23 L25 H25:I25 N26:P27 L28:L38" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
@@ -51966,7 +52017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -52636,7 +52687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -53199,7 +53250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -53870,7 +53921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -54481,7 +54532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -55020,7 +55071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06957E34-5245-4822-81FC-795818CEE475}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A1CEBD-19CA-4A93-A7DC-60D0D2565AD6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="2549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="2552">
   <si>
     <t>Ore</t>
   </si>
@@ -7689,6 +7689,15 @@
   </si>
   <si>
     <t>Flourescent Bulbs</t>
+  </si>
+  <si>
+    <t>1.4.9</t>
+  </si>
+  <si>
+    <t>1hl</t>
+  </si>
+  <si>
+    <t>Oil Slime Ball</t>
   </si>
 </sst>
 </file>
@@ -8296,19 +8305,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Minecraft Item</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Minecraft Block</v>
-          </cell>
-        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>1.0.0</v>
@@ -13799,20 +13797,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Version</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Polymer Object</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14142,10 +14128,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16676,6 +16662,26 @@
       </c>
       <c r="H81" s="26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F82" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="26">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -49896,7 +49902,7 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A1CEBD-19CA-4A93-A7DC-60D0D2565AD6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195B9431-EA04-466D-B77E-A7763E50D43E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="2552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="2557">
   <si>
     <t>Ore</t>
   </si>
@@ -7698,6 +7698,21 @@
   </si>
   <si>
     <t>Oil Slime Ball</t>
+  </si>
+  <si>
+    <t>1hY</t>
+  </si>
+  <si>
+    <t>Password Door</t>
+  </si>
+  <si>
+    <t>PC Block</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>1hX</t>
   </si>
 </sst>
 </file>
@@ -14128,10 +14143,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16641,7 +16656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>2546</v>
       </c>
@@ -16664,7 +16679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>2549</v>
       </c>
@@ -16682,6 +16697,32 @@
       </c>
       <c r="H82" s="26">
         <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F83" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="26">
+        <v>64</v>
+      </c>
+      <c r="J83" s="26" t="s">
+        <v>2555</v>
+      </c>
+      <c r="K83" s="26" t="s">
+        <v>2556</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195B9431-EA04-466D-B77E-A7763E50D43E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C40BE9-207E-4D2F-A909-7FB191859342}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="2557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="2561">
   <si>
     <t>Ore</t>
   </si>
@@ -7713,6 +7713,18 @@
   </si>
   <si>
     <t>1hX</t>
+  </si>
+  <si>
+    <t>1hn</t>
+  </si>
+  <si>
+    <t>Dev Tool</t>
+  </si>
+  <si>
+    <t>1ho</t>
+  </si>
+  <si>
+    <t>Challenge Block</t>
   </si>
 </sst>
 </file>
@@ -14143,10 +14155,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16723,6 +16735,46 @@
       </c>
       <c r="K83" s="26" t="s">
         <v>2556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F84" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F85" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="26">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C40BE9-207E-4D2F-A909-7FB191859342}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E97EA4-B885-45E9-802D-9199B2705D3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2617" uniqueCount="2561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="2565">
   <si>
     <t>Ore</t>
   </si>
@@ -7725,6 +7725,18 @@
   </si>
   <si>
     <t>Challenge Block</t>
+  </si>
+  <si>
+    <t>1hp</t>
+  </si>
+  <si>
+    <t>Constitution Claim</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>Indelible Ink</t>
   </si>
 </sst>
 </file>
@@ -8324,6 +8336,11 @@
             <v>1.4.4</v>
           </cell>
         </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>1.4.9</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="1">
@@ -13821,6 +13838,17 @@
           </cell>
           <cell r="D404" t="str">
             <v>Liquid</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="B405" t="str">
+            <v>Silver Nitrate</v>
+          </cell>
+          <cell r="C405" t="str">
+            <v xml:space="preserve"> AgNO3</v>
+          </cell>
+          <cell r="D405" t="str">
+            <v>Solid</v>
           </cell>
         </row>
       </sheetData>
@@ -14155,10 +14183,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16777,8 +16805,49 @@
         <v>64</v>
       </c>
     </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F86" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>2564</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F87" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="26">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16789,7 +16858,7 @@
   </sheetPr>
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -24186,8 +24255,8 @@
   </sheetPr>
   <dimension ref="A1:O399"/>
   <sheetViews>
-    <sheetView topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="A396" sqref="A396"/>
+    <sheetView topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="F396" sqref="A1:O399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24196,10 +24265,10 @@
     <col min="3" max="3" width="3.77734375" customWidth="1"/>
     <col min="4" max="4" width="4.21875" customWidth="1"/>
     <col min="5" max="5" width="4.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="16" customWidth="1"/>
     <col min="10" max="10" width="43.88671875" style="16" customWidth="1"/>
     <col min="12" max="15" width="9.109375" customWidth="1"/>
   </cols>
@@ -46704,6 +46773,10 @@
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A397" s="4" t="str">
+        <f>[1]Enums!$A$168</f>
+        <v>1.4.9</v>
+      </c>
       <c r="B397" s="13" t="s">
         <v>2345</v>
       </c>
@@ -46718,43 +46791,43 @@
       </c>
       <c r="F397" s="16" t="str">
         <f t="shared" si="49"/>
-        <v>Flask (0)</v>
+        <v>Bag (Silver Nitrate)</v>
       </c>
       <c r="G397" s="16" t="str">
         <f t="shared" si="50"/>
-        <v>Cartridge (0)</v>
+        <v>Sack (Silver Nitrate)</v>
       </c>
       <c r="H397" s="16" t="str">
         <f t="shared" si="51"/>
-        <v>Canister (0)</v>
+        <v>Powder Keg (Silver Nitrate)</v>
       </c>
       <c r="I397" s="16" t="str">
         <f t="shared" si="52"/>
-        <v>Chemical Tank (0)</v>
-      </c>
-      <c r="J397" s="16">
+        <v>Chemical Silo (Silver Nitrate)</v>
+      </c>
+      <c r="J397" s="16" t="str">
         <f>[1]Compounds!$B405</f>
-        <v>0</v>
-      </c>
-      <c r="K397">
+        <v>Silver Nitrate</v>
+      </c>
+      <c r="K397" t="str">
         <f>[1]Compounds!$D405</f>
-        <v>0</v>
+        <v>Solid</v>
       </c>
       <c r="L397" s="4" t="str">
         <f>IF(K397=[1]Enums!$B$7, [1]Enums!$A$7, IF(K397=[1]Enums!$B$8, [1]Enums!$A$8, [1]Enums!$A$9))</f>
-        <v>Flask</v>
+        <v>Bag</v>
       </c>
       <c r="M397" s="4" t="str">
         <f>IF(K397=[1]Enums!$B$10, [1]Enums!$A$10, IF(K397=[1]Enums!$B$11, [1]Enums!$A$11, [1]Enums!$A$12))</f>
-        <v>Cartridge</v>
+        <v>Sack</v>
       </c>
       <c r="N397" s="4" t="str">
         <f>IF(K397=[1]Enums!$B$13, [1]Enums!$A$13, IF(K397=[1]Enums!$B$14, [1]Enums!$A$14, [1]Enums!$A$15))</f>
-        <v>Canister</v>
+        <v>Powder Keg</v>
       </c>
       <c r="O397" s="4" t="str">
         <f>IF(K397=[1]Enums!$B$16, [1]Enums!$A$16, IF(K397=[1]Enums!$B$17, [1]Enums!$A$17, [1]Enums!$A$18))</f>
-        <v>Chemical Tank</v>
+        <v>Chemical Silo</v>
       </c>
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.25">
@@ -46881,7 +46954,7 @@
   <dimension ref="A1:D334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
@@ -50161,7 +50234,7 @@
   </sheetPr>
   <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
@@ -53328,7 +53401,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -54610,7 +54683,7 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E97EA4-B885-45E9-802D-9199B2705D3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FDAA65-26E0-4520-8DF7-B52D997CEF70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="2565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="2567">
   <si>
     <t>Ore</t>
   </si>
@@ -7737,6 +7737,12 @@
   </si>
   <si>
     <t>Indelible Ink</t>
+  </si>
+  <si>
+    <t>1hs</t>
+  </si>
+  <si>
+    <t>Poly Portal</t>
   </si>
 </sst>
 </file>
@@ -14183,10 +14189,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16843,6 +16849,26 @@
       </c>
       <c r="H87" s="26">
         <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F88" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E97EA4-B885-45E9-802D-9199B2705D3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19760FC8-A8F5-4811-BBDD-0A7CB99FED59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -37,12 +37,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="2565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="2567">
   <si>
     <t>Ore</t>
   </si>
@@ -7737,6 +7737,12 @@
   </si>
   <si>
     <t>Indelible Ink</t>
+  </si>
+  <si>
+    <t>1hs</t>
+  </si>
+  <si>
+    <t>Poly Portal</t>
   </si>
 </sst>
 </file>
@@ -14183,10 +14189,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:S88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="D83" sqref="A1:S88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16843,6 +16849,26 @@
       </c>
       <c r="H87" s="26">
         <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F88" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FDAA65-26E0-4520-8DF7-B52D997CEF70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6335FA-40DC-4346-9416-102B5BCCC644}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -8355,8 +8355,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Minecraft Item</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Minecraft Block</v>
+          </cell>
+        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>1.0.0</v>
@@ -13858,8 +13869,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Version</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Polymer Object</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14191,7 +14214,7 @@
   </sheetPr>
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
@@ -52864,7 +52887,7 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A1CEBD-19CA-4A93-A7DC-60D0D2565AD6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E76283-42F8-4F8D-B898-5801A526C715}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="2552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="2554">
   <si>
     <t>Ore</t>
   </si>
@@ -7698,6 +7698,12 @@
   </si>
   <si>
     <t>Oil Slime Ball</t>
+  </si>
+  <si>
+    <t>1hA</t>
+  </si>
+  <si>
+    <t>Game Block</t>
   </si>
 </sst>
 </file>
@@ -14128,10 +14134,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16682,6 +16688,26 @@
       </c>
       <c r="H82" s="26">
         <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F83" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E76283-42F8-4F8D-B898-5801A526C715}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59E04A9-B292-4482-95BA-019D8A37D091}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="2554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="2552">
   <si>
     <t>Ore</t>
   </si>
@@ -7698,12 +7698,6 @@
   </si>
   <si>
     <t>Oil Slime Ball</t>
-  </si>
-  <si>
-    <t>1hA</t>
-  </si>
-  <si>
-    <t>Game Block</t>
   </si>
 </sst>
 </file>
@@ -14134,10 +14128,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C82" sqref="A1:S82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16688,26 +16682,6 @@
       </c>
       <c r="H82" s="26">
         <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
-        <v>2549</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>2552</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>2553</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>1963</v>
-      </c>
-      <c r="F83" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" s="26">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59E04A9-B292-4482-95BA-019D8A37D091}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6605CEF-8106-41BA-8910-EDAC61FD86FA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,11 +38,18 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="2552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="2576">
   <si>
     <t>Ore</t>
   </si>
@@ -7698,6 +7705,78 @@
   </si>
   <si>
     <t>Oil Slime Ball</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>1.3.5</t>
+  </si>
+  <si>
+    <t>1.3.6</t>
+  </si>
+  <si>
+    <t>1.3.8</t>
+  </si>
+  <si>
+    <t>1hY</t>
+  </si>
+  <si>
+    <t>Password Door</t>
+  </si>
+  <si>
+    <t>PC Block</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>1hX</t>
+  </si>
+  <si>
+    <t>1hn</t>
+  </si>
+  <si>
+    <t>Dev Tool</t>
+  </si>
+  <si>
+    <t>1ho</t>
+  </si>
+  <si>
+    <t>Challenge Block</t>
   </si>
 </sst>
 </file>
@@ -8202,36 +8281,6 @@
             <v>Chemical Tank</v>
           </cell>
         </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Armor</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Weapon</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Tool</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>PC Item</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Food</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Currency</v>
-          </cell>
-        </row>
         <row r="133">
           <cell r="A133" t="str">
             <v>Version</v>
@@ -8242,11 +8291,6 @@
             <v>1.0.0</v>
           </cell>
         </row>
-        <row r="137">
-          <cell r="A137" t="str">
-            <v>1.0.3</v>
-          </cell>
-        </row>
         <row r="138">
           <cell r="A138" t="str">
             <v>1.0.4</v>
@@ -8267,24 +8311,9 @@
             <v>1.1.2</v>
           </cell>
         </row>
-        <row r="149">
-          <cell r="A149" t="str">
-            <v>1.2.3</v>
-          </cell>
-        </row>
         <row r="153">
           <cell r="A153" t="str">
             <v>1.3.2</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156" t="str">
-            <v>1.3.5</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157" t="str">
-            <v>1.3.6</v>
           </cell>
         </row>
         <row r="159">
@@ -8306,13 +8335,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>1.0.0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="1">
           <cell r="B1" t="str">
@@ -14128,10 +14151,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C82" sqref="A1:S82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14152,13 +14175,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="str">
-        <f>[1]Enums!$A$133</f>
-        <v>Version</v>
-      </c>
-      <c r="B1" s="37" t="str">
-        <f xml:space="preserve"> '[1]Game IDs'!A1</f>
-        <v>Game ID</v>
+      <c r="A1" s="38" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>2521</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>2146</v>
@@ -14213,9 +14234,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A2" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>2027</v>
@@ -14223,9 +14243,8 @@
       <c r="C2" s="31" t="s">
         <v>2026</v>
       </c>
-      <c r="D2" s="32" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D2" s="32" t="s">
+        <v>1963</v>
       </c>
       <c r="E2" s="26">
         <v>2</v>
@@ -14238,9 +14257,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A3" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>2025</v>
@@ -14248,9 +14266,8 @@
       <c r="C3" s="32" t="s">
         <v>2024</v>
       </c>
-      <c r="D3" s="32" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D3" s="32" t="s">
+        <v>1963</v>
       </c>
       <c r="E3" s="32">
         <v>1</v>
@@ -14263,9 +14280,8 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A4" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>2023</v>
@@ -14273,9 +14289,8 @@
       <c r="C4" s="34" t="s">
         <v>2153</v>
       </c>
-      <c r="D4" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D4" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E4" s="32">
         <v>7</v>
@@ -14309,9 +14324,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A5" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>2147</v>
@@ -14319,9 +14333,8 @@
       <c r="C5" s="34" t="s">
         <v>2154</v>
       </c>
-      <c r="D5" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D5" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E5" s="32">
         <v>7</v>
@@ -14358,9 +14371,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A6" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>2148</v>
@@ -14368,9 +14380,8 @@
       <c r="C6" s="34" t="s">
         <v>2155</v>
       </c>
-      <c r="D6" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D6" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E6" s="32">
         <v>7</v>
@@ -14407,9 +14418,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A7" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>2149</v>
@@ -14417,9 +14427,8 @@
       <c r="C7" s="34" t="s">
         <v>2022</v>
       </c>
-      <c r="D7" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D7" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E7" s="32">
         <v>7</v>
@@ -14456,9 +14465,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A8" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>2020</v>
@@ -14466,9 +14474,8 @@
       <c r="C8" s="32" t="s">
         <v>2019</v>
       </c>
-      <c r="D8" s="32" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D8" s="32" t="s">
+        <v>2556</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="26" t="b">
@@ -14482,9 +14489,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A9" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>2018</v>
@@ -14492,9 +14498,8 @@
       <c r="C9" s="34" t="s">
         <v>2325</v>
       </c>
-      <c r="D9" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D9" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="26" t="b">
@@ -14523,9 +14528,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A10" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>2017</v>
@@ -14533,9 +14537,8 @@
       <c r="C10" s="34" t="s">
         <v>2016</v>
       </c>
-      <c r="D10" s="32" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D10" s="32" t="s">
+        <v>2556</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="26" t="b">
@@ -14552,9 +14555,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A11" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>2014</v>
@@ -14562,9 +14564,8 @@
       <c r="C11" s="32" t="s">
         <v>2013</v>
       </c>
-      <c r="D11" s="32" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D11" s="32" t="s">
+        <v>2556</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="26" t="b">
@@ -14575,9 +14576,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A12" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>2012</v>
@@ -14585,9 +14585,8 @@
       <c r="C12" s="32" t="s">
         <v>2011</v>
       </c>
-      <c r="D12" s="32" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D12" s="32" t="s">
+        <v>2556</v>
       </c>
       <c r="E12" s="32">
         <v>7</v>
@@ -14607,15 +14606,13 @@
       <c r="L12" s="26">
         <v>0.6</v>
       </c>
-      <c r="M12" s="26" t="str">
-        <f>'[1]Blocks (MC)'!$A$22</f>
-        <v>1.0.0</v>
+      <c r="M12" s="26" t="s">
+        <v>2553</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A13" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>2009</v>
@@ -14623,9 +14620,8 @@
       <c r="C13" s="32" t="s">
         <v>2163</v>
       </c>
-      <c r="D13" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D13" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="26" t="b">
@@ -14645,9 +14641,8 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A14" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>2160</v>
@@ -14655,9 +14650,8 @@
       <c r="C14" s="32" t="s">
         <v>2164</v>
       </c>
-      <c r="D14" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D14" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="26" t="b">
@@ -14677,9 +14671,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A15" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>2161</v>
@@ -14687,9 +14680,8 @@
       <c r="C15" s="32" t="s">
         <v>2165</v>
       </c>
-      <c r="D15" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D15" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="26" t="b">
@@ -14709,9 +14701,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A16" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>2162</v>
@@ -14719,9 +14710,8 @@
       <c r="C16" s="32" t="s">
         <v>2166</v>
       </c>
-      <c r="D16" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D16" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="26" t="b">
@@ -14741,9 +14731,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A17" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>2007</v>
@@ -14751,9 +14740,8 @@
       <c r="C17" s="32" t="s">
         <v>2006</v>
       </c>
-      <c r="D17" s="32" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D17" s="32" t="s">
+        <v>1963</v>
       </c>
       <c r="F17" s="26" t="b">
         <v>1</v>
@@ -14763,9 +14751,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A18" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>2005</v>
@@ -14773,9 +14760,8 @@
       <c r="C18" s="34" t="s">
         <v>2004</v>
       </c>
-      <c r="D18" s="34" t="str">
-        <f>[1]Enums!$A$28</f>
-        <v>Food</v>
+      <c r="D18" s="34" t="s">
+        <v>2558</v>
       </c>
       <c r="F18" s="26" t="b">
         <v>1</v>
@@ -14785,9 +14771,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A19" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>2003</v>
@@ -14795,9 +14780,8 @@
       <c r="C19" s="34" t="s">
         <v>2002</v>
       </c>
-      <c r="D19" s="34" t="str">
-        <f>[1]Enums!$A$28</f>
-        <v>Food</v>
+      <c r="D19" s="34" t="s">
+        <v>2558</v>
       </c>
       <c r="F19" s="26" t="b">
         <v>1</v>
@@ -14807,9 +14791,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A20" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>2001</v>
@@ -14817,9 +14800,8 @@
       <c r="C20" s="28" t="s">
         <v>2380</v>
       </c>
-      <c r="D20" s="34" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D20" s="34" t="s">
+        <v>1963</v>
       </c>
       <c r="F20" s="26" t="b">
         <v>1</v>
@@ -14829,9 +14811,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A21" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>2000</v>
@@ -14839,9 +14820,8 @@
       <c r="C21" s="28" t="s">
         <v>2156</v>
       </c>
-      <c r="D21" s="34" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D21" s="34" t="s">
+        <v>1963</v>
       </c>
       <c r="F21" s="26" t="b">
         <v>1</v>
@@ -14853,9 +14833,8 @@
       <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A22" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>2150</v>
@@ -14863,9 +14842,8 @@
       <c r="C22" s="28" t="s">
         <v>2157</v>
       </c>
-      <c r="D22" s="34" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D22" s="34" t="s">
+        <v>1963</v>
       </c>
       <c r="F22" s="26" t="b">
         <v>0</v>
@@ -14877,9 +14855,8 @@
       <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A23" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>2151</v>
@@ -14887,9 +14864,8 @@
       <c r="C23" s="28" t="s">
         <v>2158</v>
       </c>
-      <c r="D23" s="34" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D23" s="34" t="s">
+        <v>1963</v>
       </c>
       <c r="F23" s="26" t="b">
         <v>0</v>
@@ -14901,9 +14877,8 @@
       <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A24" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>2152</v>
@@ -14911,9 +14886,8 @@
       <c r="C24" s="28" t="s">
         <v>2159</v>
       </c>
-      <c r="D24" s="34" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D24" s="34" t="s">
+        <v>1963</v>
       </c>
       <c r="F24" s="26" t="b">
         <v>0</v>
@@ -14925,9 +14899,8 @@
       <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A25" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>1999</v>
@@ -14935,9 +14908,8 @@
       <c r="C25" s="28" t="s">
         <v>1998</v>
       </c>
-      <c r="D25" s="28" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D25" s="28" t="s">
+        <v>2556</v>
       </c>
       <c r="E25" s="26">
         <v>4</v>
@@ -14950,9 +14922,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A26" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>1997</v>
@@ -14960,9 +14931,8 @@
       <c r="C26" s="28" t="s">
         <v>1996</v>
       </c>
-      <c r="D26" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D26" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="F26" s="26" t="b">
         <v>1</v>
@@ -14972,9 +14942,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A27" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>1995</v>
@@ -14982,9 +14951,8 @@
       <c r="C27" s="28" t="s">
         <v>1994</v>
       </c>
-      <c r="D27" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D27" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="F27" s="26" t="b">
         <v>1</v>
@@ -14994,9 +14962,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A28" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>1993</v>
@@ -15004,9 +14971,8 @@
       <c r="C28" s="28" t="s">
         <v>1992</v>
       </c>
-      <c r="D28" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D28" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="F28" s="26" t="b">
         <v>1</v>
@@ -15016,9 +14982,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A29" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>1991</v>
@@ -15026,9 +14991,8 @@
       <c r="C29" s="28" t="s">
         <v>1990</v>
       </c>
-      <c r="D29" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D29" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="F29" s="26" t="b">
         <v>1</v>
@@ -15044,9 +15008,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A30" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>1988</v>
@@ -15054,9 +15017,8 @@
       <c r="C30" s="28" t="s">
         <v>1987</v>
       </c>
-      <c r="D30" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D30" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E30" s="26">
         <v>4</v>
@@ -15069,9 +15031,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A31" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>1986</v>
@@ -15079,9 +15040,8 @@
       <c r="C31" s="26" t="s">
         <v>1985</v>
       </c>
-      <c r="D31" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D31" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28" t="b">
@@ -15092,9 +15052,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A32" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>1984</v>
@@ -15102,9 +15061,8 @@
       <c r="C32" s="26" t="s">
         <v>1983</v>
       </c>
-      <c r="D32" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D32" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="F32" s="26" t="b">
         <v>1</v>
@@ -15114,9 +15072,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A33" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>1982</v>
@@ -15124,9 +15081,8 @@
       <c r="C33" s="26" t="s">
         <v>1981</v>
       </c>
-      <c r="D33" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D33" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E33" s="26">
         <v>4</v>
@@ -15139,9 +15095,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A34" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>1980</v>
@@ -15149,9 +15104,8 @@
       <c r="C34" s="26" t="s">
         <v>1979</v>
       </c>
-      <c r="D34" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D34" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E34" s="26">
         <v>8</v>
@@ -15164,9 +15118,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="str">
-        <f>[1]Enums!$A$137</f>
-        <v>1.0.3</v>
+      <c r="A35" s="29" t="s">
+        <v>2559</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>1978</v>
@@ -15174,9 +15127,8 @@
       <c r="C35" s="31" t="s">
         <v>1977</v>
       </c>
-      <c r="D35" s="28" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D35" s="28" t="s">
+        <v>2556</v>
       </c>
       <c r="E35" s="26">
         <v>4</v>
@@ -15197,9 +15149,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="str">
-        <f>[1]Enums!$A$137</f>
-        <v>1.0.3</v>
+      <c r="A36" s="29" t="s">
+        <v>2559</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>1976</v>
@@ -15207,9 +15158,8 @@
       <c r="C36" s="31" t="s">
         <v>1975</v>
       </c>
-      <c r="D36" s="28" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D36" s="28" t="s">
+        <v>2556</v>
       </c>
       <c r="E36" s="26">
         <v>4</v>
@@ -15230,9 +15180,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="str">
-        <f>[1]Enums!$A$137</f>
-        <v>1.0.3</v>
+      <c r="A37" s="29" t="s">
+        <v>2559</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>1974</v>
@@ -15240,9 +15189,8 @@
       <c r="C37" s="31" t="s">
         <v>1973</v>
       </c>
-      <c r="D37" s="28" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D37" s="28" t="s">
+        <v>2556</v>
       </c>
       <c r="E37" s="26">
         <v>4</v>
@@ -15263,9 +15211,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="str">
-        <f>[1]Enums!$A$137</f>
-        <v>1.0.3</v>
+      <c r="A38" s="29" t="s">
+        <v>2559</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>1972</v>
@@ -15273,9 +15220,8 @@
       <c r="C38" s="31" t="s">
         <v>1971</v>
       </c>
-      <c r="D38" s="28" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D38" s="28" t="s">
+        <v>2556</v>
       </c>
       <c r="E38" s="26">
         <v>4</v>
@@ -15296,9 +15242,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="str">
-        <f>[1]Enums!$A$137</f>
-        <v>1.0.3</v>
+      <c r="A39" s="29" t="s">
+        <v>2559</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>1970</v>
@@ -15306,9 +15251,8 @@
       <c r="C39" s="31" t="s">
         <v>1969</v>
       </c>
-      <c r="D39" s="28" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D39" s="28" t="s">
+        <v>2556</v>
       </c>
       <c r="E39" s="26">
         <v>4</v>
@@ -15329,9 +15273,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="str">
-        <f>[1]Enums!$A$137</f>
-        <v>1.0.3</v>
+      <c r="A40" s="29" t="s">
+        <v>2559</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>1968</v>
@@ -15339,9 +15282,8 @@
       <c r="C40" s="31" t="s">
         <v>1967</v>
       </c>
-      <c r="D40" s="28" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D40" s="28" t="s">
+        <v>2556</v>
       </c>
       <c r="E40" s="26">
         <v>4</v>
@@ -15362,9 +15304,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="str">
-        <f>[1]Enums!$A$137</f>
-        <v>1.0.3</v>
+      <c r="A41" s="29" t="s">
+        <v>2559</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>1965</v>
@@ -15372,9 +15313,8 @@
       <c r="C41" s="31" t="s">
         <v>1964</v>
       </c>
-      <c r="D41" s="28" t="str">
-        <f>[1]Enums!$A$24</f>
-        <v>Tool</v>
+      <c r="D41" s="28" t="s">
+        <v>2556</v>
       </c>
       <c r="E41" s="26">
         <v>4</v>
@@ -15389,9 +15329,8 @@
       <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A42" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>1962</v>
@@ -15399,9 +15338,8 @@
       <c r="C42" s="31" t="s">
         <v>1961</v>
       </c>
-      <c r="D42" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D42" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E42" s="26">
         <v>8</v>
@@ -15425,9 +15363,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A43" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>2143</v>
@@ -15435,9 +15372,8 @@
       <c r="C43" s="28" t="s">
         <v>2133</v>
       </c>
-      <c r="D43" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D43" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E43" s="26">
         <v>8</v>
@@ -15452,9 +15388,8 @@
       <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A44" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>2142</v>
@@ -15462,9 +15397,8 @@
       <c r="C44" s="28" t="s">
         <v>2134</v>
       </c>
-      <c r="D44" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D44" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E44" s="26">
         <v>8</v>
@@ -15479,9 +15413,8 @@
       <c r="I44" s="28"/>
     </row>
     <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A45" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>2141</v>
@@ -15489,9 +15422,8 @@
       <c r="C45" s="28" t="s">
         <v>2135</v>
       </c>
-      <c r="D45" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D45" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E45" s="26">
         <v>8</v>
@@ -15506,9 +15438,8 @@
       <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A46" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>2140</v>
@@ -15516,9 +15447,8 @@
       <c r="C46" s="28" t="s">
         <v>2136</v>
       </c>
-      <c r="D46" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D46" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E46" s="26">
         <v>8</v>
@@ -15533,9 +15463,8 @@
       <c r="I46" s="28"/>
     </row>
     <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A47" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>2139</v>
@@ -15543,9 +15472,8 @@
       <c r="C47" s="26" t="s">
         <v>2137</v>
       </c>
-      <c r="D47" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D47" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E47" s="26">
         <v>8</v>
@@ -15560,9 +15488,8 @@
       <c r="I47" s="28"/>
     </row>
     <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A48" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>2138</v>
@@ -15570,9 +15497,8 @@
       <c r="C48" s="26" t="s">
         <v>2145</v>
       </c>
-      <c r="D48" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D48" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E48" s="26">
         <v>8</v>
@@ -15587,9 +15513,8 @@
       <c r="I48" s="28"/>
     </row>
     <row r="49" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A49" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>2173</v>
@@ -15597,9 +15522,8 @@
       <c r="C49" s="26" t="s">
         <v>2174</v>
       </c>
-      <c r="D49" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D49" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E49" s="26">
         <v>8</v>
@@ -15618,9 +15542,8 @@
       <c r="K49" s="30"/>
     </row>
     <row r="50" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A50" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>2172</v>
@@ -15628,9 +15551,8 @@
       <c r="C50" s="26" t="s">
         <v>2175</v>
       </c>
-      <c r="D50" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D50" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E50" s="26">
         <v>8</v>
@@ -15649,9 +15571,8 @@
       <c r="K50" s="30"/>
     </row>
     <row r="51" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A51" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>2171</v>
@@ -15659,9 +15580,8 @@
       <c r="C51" s="26" t="s">
         <v>2176</v>
       </c>
-      <c r="D51" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D51" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E51" s="26">
         <v>8</v>
@@ -15680,9 +15600,8 @@
       <c r="K51" s="30"/>
     </row>
     <row r="52" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="str">
-        <f>[1]Enums!$A$144</f>
-        <v>1.1.0</v>
+      <c r="A52" s="29" t="s">
+        <v>2555</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>2170</v>
@@ -15690,9 +15609,8 @@
       <c r="C52" s="26" t="s">
         <v>2177</v>
       </c>
-      <c r="D52" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D52" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E52" s="26">
         <v>8</v>
@@ -15711,9 +15629,8 @@
       <c r="K52" s="30"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A53" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>2331</v>
@@ -15721,9 +15638,8 @@
       <c r="C53" s="34" t="s">
         <v>2326</v>
       </c>
-      <c r="D53" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D53" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E53" s="32">
         <v>8</v>
@@ -15754,9 +15670,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A54" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>2330</v>
@@ -15764,9 +15679,8 @@
       <c r="C54" s="34" t="s">
         <v>2327</v>
       </c>
-      <c r="D54" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D54" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E54" s="32">
         <v>8</v>
@@ -15797,9 +15711,8 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="str">
-        <f>[1]Enums!$A$134</f>
-        <v>1.0.0</v>
+      <c r="A55" s="29" t="s">
+        <v>2553</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>2329</v>
@@ -15807,9 +15720,8 @@
       <c r="C55" s="34" t="s">
         <v>2328</v>
       </c>
-      <c r="D55" s="32" t="str">
-        <f>[1]Enums!$A$21</f>
-        <v>Armor</v>
+      <c r="D55" s="32" t="s">
+        <v>2557</v>
       </c>
       <c r="E55" s="32">
         <v>8</v>
@@ -15840,9 +15752,8 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="str">
-        <f>[1]Enums!$A$146</f>
-        <v>1.1.2</v>
+      <c r="A56" s="29" t="s">
+        <v>2560</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>2375</v>
@@ -15850,9 +15761,8 @@
       <c r="C56" s="26" t="s">
         <v>2374</v>
       </c>
-      <c r="D56" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D56" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E56" s="26">
         <v>8</v>
@@ -15867,9 +15777,8 @@
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="str">
-        <f>[1]Enums!$A$149</f>
-        <v>1.2.3</v>
+      <c r="A57" s="29" t="s">
+        <v>2561</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>2398</v>
@@ -15877,9 +15786,8 @@
       <c r="C57" s="26" t="s">
         <v>2381</v>
       </c>
-      <c r="D57" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D57" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E57" s="26">
         <v>8</v>
@@ -15912,9 +15820,8 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="str">
-        <f>[1]Enums!$A$149</f>
-        <v>1.2.3</v>
+      <c r="A58" s="29" t="s">
+        <v>2561</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>2397</v>
@@ -15922,9 +15829,8 @@
       <c r="C58" s="26" t="s">
         <v>2382</v>
       </c>
-      <c r="D58" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D58" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E58" s="26">
         <v>8</v>
@@ -15957,9 +15863,8 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="str">
-        <f>[1]Enums!$A$149</f>
-        <v>1.2.3</v>
+      <c r="A59" s="29" t="s">
+        <v>2561</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>2396</v>
@@ -15967,9 +15872,8 @@
       <c r="C59" s="26" t="s">
         <v>2383</v>
       </c>
-      <c r="D59" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D59" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E59" s="26">
         <v>8</v>
@@ -16002,9 +15906,8 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="str">
-        <f>[1]Enums!$A$149</f>
-        <v>1.2.3</v>
+      <c r="A60" s="29" t="s">
+        <v>2561</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>2395</v>
@@ -16012,9 +15915,8 @@
       <c r="C60" s="26" t="s">
         <v>2384</v>
       </c>
-      <c r="D60" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D60" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E60" s="26">
         <v>8</v>
@@ -16047,9 +15949,8 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="str">
-        <f>[1]Enums!$A$149</f>
-        <v>1.2.3</v>
+      <c r="A61" s="29" t="s">
+        <v>2561</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>2394</v>
@@ -16057,9 +15958,8 @@
       <c r="C61" s="26" t="s">
         <v>2385</v>
       </c>
-      <c r="D61" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D61" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E61" s="26">
         <v>8</v>
@@ -16086,9 +15986,8 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="str">
-        <f>[1]Enums!$A$149</f>
-        <v>1.2.3</v>
+      <c r="A62" s="29" t="s">
+        <v>2561</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>2393</v>
@@ -16096,9 +15995,8 @@
       <c r="C62" s="26" t="s">
         <v>2386</v>
       </c>
-      <c r="D62" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D62" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E62" s="26">
         <v>8</v>
@@ -16125,9 +16023,8 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="str">
-        <f>[1]Enums!$A$149</f>
-        <v>1.2.3</v>
+      <c r="A63" s="29" t="s">
+        <v>2561</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>2392</v>
@@ -16135,9 +16032,8 @@
       <c r="C63" s="26" t="s">
         <v>2387</v>
       </c>
-      <c r="D63" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D63" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E63" s="26">
         <v>8</v>
@@ -16164,9 +16060,8 @@
       </c>
     </row>
     <row r="64" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="str">
-        <f>[1]Enums!$A$149</f>
-        <v>1.2.3</v>
+      <c r="A64" s="29" t="s">
+        <v>2561</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>2391</v>
@@ -16174,9 +16069,8 @@
       <c r="C64" s="26" t="s">
         <v>2388</v>
       </c>
-      <c r="D64" s="32" t="str">
-        <f>[1]Enums!$A$22</f>
-        <v>Weapon</v>
+      <c r="D64" s="32" t="s">
+        <v>2554</v>
       </c>
       <c r="E64" s="26">
         <v>8</v>
@@ -16203,9 +16097,8 @@
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A65" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>2403</v>
@@ -16213,9 +16106,8 @@
       <c r="C65" s="26" t="s">
         <v>2404</v>
       </c>
-      <c r="D65" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D65" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E65" s="26">
         <v>4</v>
@@ -16230,9 +16122,8 @@
       <c r="I65" s="28"/>
     </row>
     <row r="66" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A66" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>2409</v>
@@ -16240,9 +16131,8 @@
       <c r="C66" s="26" t="s">
         <v>2405</v>
       </c>
-      <c r="D66" s="28" t="str">
-        <f>[1]Enums!$A$29</f>
-        <v>Currency</v>
+      <c r="D66" s="28" t="s">
+        <v>2563</v>
       </c>
       <c r="E66" s="26">
         <v>2</v>
@@ -16257,9 +16147,8 @@
       <c r="I66" s="28"/>
     </row>
     <row r="67" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A67" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>2408</v>
@@ -16267,9 +16156,8 @@
       <c r="C67" s="26" t="s">
         <v>2406</v>
       </c>
-      <c r="D67" s="28" t="str">
-        <f>[1]Enums!$A$29</f>
-        <v>Currency</v>
+      <c r="D67" s="28" t="s">
+        <v>2563</v>
       </c>
       <c r="E67" s="26">
         <v>2</v>
@@ -16284,9 +16172,8 @@
       <c r="I67" s="28"/>
     </row>
     <row r="68" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A68" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>2407</v>
@@ -16294,9 +16181,8 @@
       <c r="C68" s="26" t="s">
         <v>2431</v>
       </c>
-      <c r="D68" s="28" t="str">
-        <f>[1]Enums!$A$29</f>
-        <v>Currency</v>
+      <c r="D68" s="28" t="s">
+        <v>2563</v>
       </c>
       <c r="E68" s="26">
         <v>2</v>
@@ -16311,9 +16197,8 @@
       <c r="I68" s="28"/>
     </row>
     <row r="69" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A69" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>2412</v>
@@ -16321,9 +16206,8 @@
       <c r="C69" s="26" t="s">
         <v>2410</v>
       </c>
-      <c r="D69" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D69" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E69" s="26">
         <v>8</v>
@@ -16338,9 +16222,8 @@
       <c r="I69" s="28"/>
     </row>
     <row r="70" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A70" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>2411</v>
@@ -16348,9 +16231,8 @@
       <c r="C70" s="26" t="s">
         <v>2413</v>
       </c>
-      <c r="D70" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D70" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E70" s="26">
         <v>8</v>
@@ -16365,9 +16247,8 @@
       <c r="I70" s="28"/>
     </row>
     <row r="71" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A71" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>2422</v>
@@ -16375,9 +16256,8 @@
       <c r="C71" s="26" t="s">
         <v>2423</v>
       </c>
-      <c r="D71" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D71" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E71" s="26">
         <v>2</v>
@@ -16398,9 +16278,8 @@
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A72" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>2421</v>
@@ -16408,9 +16287,8 @@
       <c r="C72" s="26" t="s">
         <v>2424</v>
       </c>
-      <c r="D72" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D72" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E72" s="26">
         <v>4</v>
@@ -16431,9 +16309,8 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A73" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>2420</v>
@@ -16441,9 +16318,8 @@
       <c r="C73" s="26" t="s">
         <v>2425</v>
       </c>
-      <c r="D73" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D73" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E73" s="26">
         <v>8</v>
@@ -16464,9 +16340,8 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A74" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>2419</v>
@@ -16474,9 +16349,8 @@
       <c r="C74" s="26" t="s">
         <v>2426</v>
       </c>
-      <c r="D74" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D74" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E74" s="26">
         <v>8</v>
@@ -16495,9 +16369,8 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A75" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>2418</v>
@@ -16505,9 +16378,8 @@
       <c r="C75" s="26" t="s">
         <v>2427</v>
       </c>
-      <c r="D75" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D75" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E75" s="26">
         <v>8</v>
@@ -16520,9 +16392,8 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A76" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>2429</v>
@@ -16530,9 +16401,8 @@
       <c r="C76" s="26" t="s">
         <v>2430</v>
       </c>
-      <c r="D76" s="28" t="str">
-        <f>[1]Enums!$A$26</f>
-        <v>PC Item</v>
+      <c r="D76" s="28" t="s">
+        <v>1963</v>
       </c>
       <c r="E76" s="26">
         <v>8</v>
@@ -16545,9 +16415,8 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="29" t="str">
-        <f>[1]Enums!$A$153</f>
-        <v>1.3.2</v>
+      <c r="A77" s="29" t="s">
+        <v>2562</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>2399</v>
@@ -16555,9 +16424,8 @@
       <c r="C77" s="26" t="s">
         <v>2460</v>
       </c>
-      <c r="D77" s="28" t="str">
-        <f>[1]Enums!$A$29</f>
-        <v>Currency</v>
+      <c r="D77" s="28" t="s">
+        <v>2563</v>
       </c>
       <c r="E77" s="26">
         <v>2</v>
@@ -16570,9 +16438,8 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="str">
-        <f>[1]Enums!$A$156</f>
-        <v>1.3.5</v>
+      <c r="A78" s="29" t="s">
+        <v>2564</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>2462</v>
@@ -16594,9 +16461,8 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="29" t="str">
-        <f>[1]Enums!$A$157</f>
-        <v>1.3.6</v>
+      <c r="A79" s="29" t="s">
+        <v>2565</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>2464</v>
@@ -16618,9 +16484,8 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="str">
-        <f>[1]Enums!$A$159</f>
-        <v>1.3.8</v>
+      <c r="A80" s="4" t="s">
+        <v>2566</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>2496</v>
@@ -16641,7 +16506,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>2546</v>
       </c>
@@ -16664,7 +16529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>2549</v>
       </c>
@@ -16681,6 +16546,72 @@
         <v>0</v>
       </c>
       <c r="H82" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F83" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="26">
+        <v>64</v>
+      </c>
+      <c r="J83" s="26" t="s">
+        <v>2570</v>
+      </c>
+      <c r="K83" s="26" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F84" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F85" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="26">
         <v>64</v>
       </c>
     </row>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6605CEF-8106-41BA-8910-EDAC61FD86FA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE150D5-3766-4C86-A184-E8B9878FF93F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14153,7 +14153,7 @@
   </sheetPr>
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polycraft\Documents\Polycraft Forge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C77B1FE-6FF0-4602-BA90-1B66004C1758}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F670B8F-E833-4FBC-AE1C-53290611334A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="2574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="2572">
   <si>
     <t>Ore</t>
   </si>
@@ -7758,12 +7758,6 @@
   </si>
   <si>
     <t>Armor</t>
-  </si>
-  <si>
-    <t>1hy</t>
-  </si>
-  <si>
-    <t>TextWall</t>
   </si>
 </sst>
 </file>
@@ -14216,10 +14210,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B91" sqref="B89:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16967,27 +16961,6 @@
       </c>
       <c r="H91" s="26">
         <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="str">
-        <f>[1]Enums!$A$169</f>
-        <v>1.4.10</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>2572</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>2573</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>1963</v>
-      </c>
-      <c r="F92" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="26">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polycraft\Documents\Polycraft Forge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Triforce\Documents\polycraftworld\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F670B8F-E833-4FBC-AE1C-53290611334A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C93DB08E-EEB5-48FB-8749-A6BC09F89E02}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -14213,7 +14213,7 @@
   <dimension ref="A1:S91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B91" sqref="B89:B91"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Triforce\Documents\polycraftworld\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C93DB08E-EEB5-48FB-8749-A6BC09F89E02}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A3E0FE8-D4C7-444A-BFD0-32F9E4E78E1D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14212,8 +14212,8 @@
   </sheetPr>
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Triforce\Documents\polycraftworld\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxg115630\polycraft forge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A3E0FE8-D4C7-444A-BFD0-32F9E4E78E1D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -37,7 +36,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -7763,7 +7762,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -8102,9 +8101,9 @@
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Normal 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Normal 4" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="56"/>
+    <cellStyle name="Normal 4" xfId="57"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -8131,7 +8130,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -13962,23 +13961,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -14014,23 +13996,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -14206,7 +14171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -16970,7 +16935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -24367,7 +24332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -47065,7 +47030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -50180,7 +50145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -50346,7 +50311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -52269,7 +52234,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" sqref="N20:P20 N2:P5 N9:P9 N7:P7 N11:P11 N13:P13 H28:I38 H21:I23 L21:L23 L25 H25:I25 N26:P27 L28:L38" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="decimal" sqref="N20:P20 N2:P5 N9:P9 N7:P7 N11:P11 N13:P13 H28:I38 H21:I23 L21:L23 L25 H25:I25 N26:P27 L28:L38">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
@@ -52280,7 +52245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -52950,7 +52915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -53513,7 +53478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -54184,7 +54149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -54795,7 +54760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -55334,7 +55299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxg115630\polycraft forge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRZ170000\Desktop\polycraftforge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877"/>
+    <workbookView minimized="1" xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="2572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="2576">
   <si>
     <t>Ore</t>
   </si>
@@ -7757,6 +7757,18 @@
   </si>
   <si>
     <t>Armor</t>
+  </si>
+  <si>
+    <t>1hG</t>
+  </si>
+  <si>
+    <t>Mining Hammer</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>1.4.12</t>
   </si>
 </sst>
 </file>
@@ -8375,8 +8387,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Minecraft Item</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Minecraft Block</v>
+          </cell>
+        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>1.0.0</v>
@@ -13878,8 +13901,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Version</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Polymer Object</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14175,10 +14210,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16925,6 +16960,26 @@
         <v>0</v>
       </c>
       <c r="H91" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="27" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F92" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="26">
         <v>1</v>
       </c>
     </row>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debra\Desktop\PolyCraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{736DDC36-3301-496F-9F05-BC27503601EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE03468-773F-4B3D-92D9-51BAE4D93766}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17112" yWindow="0" windowWidth="6456" windowHeight="9048" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -38,7 +38,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="2572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="2575">
   <si>
     <t>Ore</t>
   </si>
@@ -7767,6 +7766,15 @@
   </si>
   <si>
     <t>Armor</t>
+  </si>
+  <si>
+    <t>1.4.12</t>
+  </si>
+  <si>
+    <t>1hF</t>
+  </si>
+  <si>
+    <t>IronCannonBall</t>
   </si>
 </sst>
 </file>
@@ -8385,19 +8393,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Minecraft Item</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Minecraft Block</v>
-          </cell>
-        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>1.0.0</v>
@@ -13899,20 +13896,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Version</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Polymer Object</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14242,10 +14227,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C87" sqref="A1:S92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16993,6 +16978,26 @@
       </c>
       <c r="H91" s="26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="27" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F92" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="26">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxg115630\polycraft forge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\PolycraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="2572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="2578">
   <si>
     <t>Ore</t>
   </si>
@@ -7757,6 +7757,24 @@
   </si>
   <si>
     <t>Armor</t>
+  </si>
+  <si>
+    <t>1.4.12</t>
+  </si>
+  <si>
+    <t>1hF</t>
+  </si>
+  <si>
+    <t>IronCannonBall</t>
+  </si>
+  <si>
+    <t>1hG</t>
+  </si>
+  <si>
+    <t>Mining Hammer</t>
+  </si>
+  <si>
+    <t>Tool</t>
   </si>
 </sst>
 </file>
@@ -7977,7 +7995,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8044,6 +8062,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -14175,10 +14197,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16925,6 +16947,46 @@
         <v>0</v>
       </c>
       <c r="H91" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="42" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F92" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="43">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="42" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F93" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="43">
         <v>1</v>
       </c>
     </row>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRZ170000\Desktop\polycraftforge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\PolycraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877"/>
+    <workbookView xWindow="17115" yWindow="0" windowWidth="6450" windowHeight="9045" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Objects" sheetId="41" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="2576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="2578">
   <si>
     <t>Ore</t>
   </si>
@@ -7759,6 +7759,15 @@
     <t>Armor</t>
   </si>
   <si>
+    <t>1.4.12</t>
+  </si>
+  <si>
+    <t>1hF</t>
+  </si>
+  <si>
+    <t>IronCannonBall</t>
+  </si>
+  <si>
     <t>1hG</t>
   </si>
   <si>
@@ -7766,9 +7775,6 @@
   </si>
   <si>
     <t>Tool</t>
-  </si>
-  <si>
-    <t>1.4.12</t>
   </si>
 </sst>
 </file>
@@ -7989,7 +7995,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8056,6 +8062,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -8387,19 +8397,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Minecraft Item</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Minecraft Block</v>
-          </cell>
-        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>1.0.0</v>
@@ -13901,20 +13900,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Version</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Polymer Object</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14210,10 +14197,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16963,23 +16950,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="27" t="s">
+    <row r="92" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="42" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F92" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="43">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="42" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B93" s="14" t="s">
         <v>2575</v>
       </c>
-      <c r="B92" s="13" t="s">
-        <v>2572</v>
-      </c>
-      <c r="C92" s="26" t="s">
-        <v>2573</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>2574</v>
-      </c>
-      <c r="F92" s="26" t="b">
+      <c r="C93" s="43" t="s">
+        <v>2576</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F93" s="43" t="b">
         <v>0</v>
       </c>
-      <c r="H92" s="26">
+      <c r="H93" s="43">
         <v>1</v>
       </c>
     </row>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="2578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="2581">
   <si>
     <t>Ore</t>
   </si>
@@ -7775,6 +7775,15 @@
   </si>
   <si>
     <t>Tool</t>
+  </si>
+  <si>
+    <t>1.4.13</t>
+  </si>
+  <si>
+    <t>1hH</t>
+  </si>
+  <si>
+    <t>HPBlock</t>
   </si>
 </sst>
 </file>
@@ -14197,10 +14206,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16988,6 +16997,26 @@
       </c>
       <c r="H93" s="43">
         <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="27" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D94" s="26" t="s">
+        <v>2552</v>
+      </c>
+      <c r="F94" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="26">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\PolycraftForge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRZ170000\Desktop\polycraftforge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="2580">
   <si>
     <t>Ore</t>
   </si>
@@ -7775,9 +7775,6 @@
   </si>
   <si>
     <t>Tool</t>
-  </si>
-  <si>
-    <t>1.4.13</t>
   </si>
   <si>
     <t>1hH</t>
@@ -14208,8 +14205,8 @@
   </sheetPr>
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17001,13 +16998,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="27" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>2578</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="C94" s="26" t="s">
         <v>2579</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>2580</v>
       </c>
       <c r="D94" s="26" t="s">
         <v>2552</v>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\PolycraftForge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRZ170000\Desktop\polycraftforge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="2586">
   <si>
     <t>Ore</t>
   </si>
@@ -7784,6 +7784,21 @@
   </si>
   <si>
     <t>HPBlock</t>
+  </si>
+  <si>
+    <t>Paintball</t>
+  </si>
+  <si>
+    <t>Wood Slingshot</t>
+  </si>
+  <si>
+    <t>1Hi</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>1hJ</t>
   </si>
 </sst>
 </file>
@@ -8406,8 +8421,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Minecraft Item</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Minecraft Block</v>
+          </cell>
+        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>1.0.0</v>
@@ -14206,10 +14232,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17017,6 +17043,46 @@
       </c>
       <c r="H94" s="26">
         <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="27" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F95" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="27" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>2584</v>
+      </c>
+      <c r="F96" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRZ170000\Desktop\polycraftforge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\PolycraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="2580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="2582">
   <si>
     <t>Ore</t>
   </si>
@@ -7781,6 +7781,12 @@
   </si>
   <si>
     <t>HPBlock</t>
+  </si>
+  <si>
+    <t>1hS</t>
+  </si>
+  <si>
+    <t>GravelCannonBall</t>
   </si>
 </sst>
 </file>
@@ -14203,10 +14209,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17013,6 +17019,26 @@
         <v>0</v>
       </c>
       <c r="H94" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="27" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F95" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="26">
         <v>64</v>
       </c>
     </row>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="2585">
   <si>
     <t>Ore</t>
   </si>
@@ -7784,6 +7784,18 @@
   </si>
   <si>
     <t>HPBlock</t>
+  </si>
+  <si>
+    <t>1jB</t>
+  </si>
+  <si>
+    <t>1jA</t>
+  </si>
+  <si>
+    <t>PlaceBlockPP</t>
+  </si>
+  <si>
+    <t>BreakBlockPP</t>
   </si>
 </sst>
 </file>
@@ -14206,10 +14218,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17016,6 +17028,46 @@
         <v>0</v>
       </c>
       <c r="H94" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="27" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>2552</v>
+      </c>
+      <c r="F95" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="27" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>2552</v>
+      </c>
+      <c r="F96" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="26">
         <v>64</v>
       </c>
     </row>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="2585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="2584">
   <si>
     <t>Ore</t>
   </si>
@@ -7777,9 +7777,6 @@
     <t>Tool</t>
   </si>
   <si>
-    <t>1.4.13</t>
-  </si>
-  <si>
     <t>1hH</t>
   </si>
   <si>
@@ -7792,10 +7789,10 @@
     <t>1jA</t>
   </si>
   <si>
-    <t>PlaceBlockPP</t>
-  </si>
-  <si>
-    <t>BreakBlockPP</t>
+    <t>Place Block</t>
+  </si>
+  <si>
+    <t>Break Block</t>
   </si>
 </sst>
 </file>
@@ -14221,7 +14218,7 @@
   <dimension ref="A1:S96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17013,13 +17010,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="27" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>2578</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="C94" s="26" t="s">
         <v>2579</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>2580</v>
       </c>
       <c r="D94" s="26" t="s">
         <v>2552</v>
@@ -17033,13 +17030,13 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
-        <v>2578</v>
+        <v>2572</v>
       </c>
       <c r="B95" s="13" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C95" s="26" t="s">
         <v>2582</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>2583</v>
       </c>
       <c r="D95" s="26" t="s">
         <v>2552</v>
@@ -17053,13 +17050,13 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
-        <v>2578</v>
+        <v>2572</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="D96" s="26" t="s">
         <v>2552</v>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -8460,8 +8460,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Minecraft Item</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="3">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Minecraft Block</v>
+          </cell>
+        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>1.0.0</v>
@@ -13963,8 +13974,20 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Version</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Polymer Object</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\PolycraftForge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\Desktop\New folder (5)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="2584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="2605">
   <si>
     <t>Ore</t>
   </si>
@@ -7793,6 +7793,69 @@
   </si>
   <si>
     <t>Break Block</t>
+  </si>
+  <si>
+    <t>1hJ</t>
+  </si>
+  <si>
+    <t>Paintpellet</t>
+  </si>
+  <si>
+    <t>1hK</t>
+  </si>
+  <si>
+    <t>Wood Slingshot</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Velocity, Cooldown, PelletTypeUsed, NumberOfPelletsUsed, Damage</t>
+  </si>
+  <si>
+    <t>1.4.13</t>
+  </si>
+  <si>
+    <t>1hM</t>
+  </si>
+  <si>
+    <t>Tactical Slingshot</t>
+  </si>
+  <si>
+    <t>1hN</t>
+  </si>
+  <si>
+    <t>Scatter Slingshot</t>
+  </si>
+  <si>
+    <t>1hO</t>
+  </si>
+  <si>
+    <t>Burst Slingshot</t>
+  </si>
+  <si>
+    <t>1hP</t>
+  </si>
+  <si>
+    <t>Gravity Slingshot</t>
+  </si>
+  <si>
+    <t>1hQ</t>
+  </si>
+  <si>
+    <t>Ice Slingshot</t>
+  </si>
+  <si>
+    <t>1hL</t>
+  </si>
+  <si>
+    <t>Paintball</t>
+  </si>
+  <si>
+    <t>1hS</t>
+  </si>
+  <si>
+    <t>GravelCannonBall</t>
   </si>
 </sst>
 </file>
@@ -14215,10 +14278,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17065,6 +17128,294 @@
         <v>0</v>
       </c>
       <c r="H96" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="27" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F97" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="27" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F98" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="27" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F99" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="26">
+        <v>1</v>
+      </c>
+      <c r="J99" s="26" t="s">
+        <v>2589</v>
+      </c>
+      <c r="K99" s="26">
+        <v>1</v>
+      </c>
+      <c r="L99" s="26">
+        <v>0</v>
+      </c>
+      <c r="M99" s="26">
+        <v>0</v>
+      </c>
+      <c r="N99" s="26">
+        <v>1</v>
+      </c>
+      <c r="O99" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>2592</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F100" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="26">
+        <v>1</v>
+      </c>
+      <c r="J100" s="26" t="s">
+        <v>2589</v>
+      </c>
+      <c r="K100" s="26">
+        <v>2</v>
+      </c>
+      <c r="L100" s="26">
+        <v>3</v>
+      </c>
+      <c r="M100" s="26">
+        <v>1</v>
+      </c>
+      <c r="N100" s="26">
+        <v>1</v>
+      </c>
+      <c r="O100" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F101" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="26">
+        <v>1</v>
+      </c>
+      <c r="J101" s="26" t="s">
+        <v>2589</v>
+      </c>
+      <c r="K101" s="26">
+        <v>1</v>
+      </c>
+      <c r="L101" s="26">
+        <v>2</v>
+      </c>
+      <c r="M101" s="26">
+        <v>1</v>
+      </c>
+      <c r="N101" s="26">
+        <v>3</v>
+      </c>
+      <c r="O101" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F102" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="26">
+        <v>1</v>
+      </c>
+      <c r="J102" s="26" t="s">
+        <v>2589</v>
+      </c>
+      <c r="K102" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="L102" s="26">
+        <v>2</v>
+      </c>
+      <c r="M102" s="26">
+        <v>1</v>
+      </c>
+      <c r="N102" s="26">
+        <v>3</v>
+      </c>
+      <c r="O102" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F103" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="26">
+        <v>1</v>
+      </c>
+      <c r="J103" s="26" t="s">
+        <v>2589</v>
+      </c>
+      <c r="K103" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="L103" s="26">
+        <v>3</v>
+      </c>
+      <c r="M103" s="26">
+        <v>0</v>
+      </c>
+      <c r="N103" s="26">
+        <v>1</v>
+      </c>
+      <c r="O103" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F104" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="26">
+        <v>1</v>
+      </c>
+      <c r="J104" s="26" t="s">
+        <v>2589</v>
+      </c>
+      <c r="K104" s="26">
+        <v>1</v>
+      </c>
+      <c r="L104" s="26">
+        <v>3</v>
+      </c>
+      <c r="M104" s="26">
+        <v>0</v>
+      </c>
+      <c r="N104" s="26">
+        <v>1</v>
+      </c>
+      <c r="O104" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F105" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="26">
         <v>64</v>
       </c>
     </row>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\Desktop\New folder (5)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\1.8.9 PolycraftForge\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="2605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="2607">
   <si>
     <t>Ore</t>
   </si>
@@ -7856,6 +7856,12 @@
   </si>
   <si>
     <t>GravelCannonBall</t>
+  </si>
+  <si>
+    <t>1k0</t>
+  </si>
+  <si>
+    <t>AI Tool</t>
   </si>
 </sst>
 </file>
@@ -14278,10 +14284,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17417,6 +17423,26 @@
       </c>
       <c r="H105" s="26">
         <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="27" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F106" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\1.8.9 PolycraftForge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxg115630\Desktop\Polycraft forge 1.8.9\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="2607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="2634">
   <si>
     <t>Ore</t>
   </si>
@@ -7759,9 +7759,6 @@
     <t>Armor</t>
   </si>
   <si>
-    <t>1.4.12</t>
-  </si>
-  <si>
     <t>1hF</t>
   </si>
   <si>
@@ -7813,9 +7810,6 @@
     <t>Velocity, Cooldown, PelletTypeUsed, NumberOfPelletsUsed, Damage</t>
   </si>
   <si>
-    <t>1.4.13</t>
-  </si>
-  <si>
     <t>1hM</t>
   </si>
   <si>
@@ -7862,6 +7856,93 @@
   </si>
   <si>
     <t>AI Tool</t>
+  </si>
+  <si>
+    <t>1ke</t>
+  </si>
+  <si>
+    <t>1kd</t>
+  </si>
+  <si>
+    <t>1kc</t>
+  </si>
+  <si>
+    <t>1kb</t>
+  </si>
+  <si>
+    <t>1ka</t>
+  </si>
+  <si>
+    <t>1k9</t>
+  </si>
+  <si>
+    <t>1k8</t>
+  </si>
+  <si>
+    <t>1k7</t>
+  </si>
+  <si>
+    <t>1k6</t>
+  </si>
+  <si>
+    <t>1k5</t>
+  </si>
+  <si>
+    <t>1k4</t>
+  </si>
+  <si>
+    <t>1k3</t>
+  </si>
+  <si>
+    <t>1k2</t>
+  </si>
+  <si>
+    <t>1k1</t>
+  </si>
+  <si>
+    <t>A Block</t>
+  </si>
+  <si>
+    <t>B Block</t>
+  </si>
+  <si>
+    <t>C Block</t>
+  </si>
+  <si>
+    <t>D Block</t>
+  </si>
+  <si>
+    <t>5 Block</t>
+  </si>
+  <si>
+    <t>7 Block</t>
+  </si>
+  <si>
+    <t>Geometry Grey Corner</t>
+  </si>
+  <si>
+    <t>Geometry Grey Side</t>
+  </si>
+  <si>
+    <t>Geometry Slope2</t>
+  </si>
+  <si>
+    <t>Geometry Slope3</t>
+  </si>
+  <si>
+    <t>Geometry Slope3 Grey</t>
+  </si>
+  <si>
+    <t>L Block</t>
+  </si>
+  <si>
+    <t>X Block</t>
+  </si>
+  <si>
+    <t>PC Directional</t>
+  </si>
+  <si>
+    <t>Geometry Slope1</t>
   </si>
 </sst>
 </file>
@@ -8082,7 +8163,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8149,7 +8230,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -8474,6 +8554,21 @@
         <row r="169">
           <cell r="A169" t="str">
             <v>1.4.10</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>1.4.12</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>1.4.13</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>1.4.14</v>
           </cell>
         </row>
       </sheetData>
@@ -14284,10 +14379,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17037,55 +17132,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="42" t="s">
+    <row r="92" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="str">
+        <f>[1]Enums!$A$171</f>
+        <v>1.4.12</v>
+      </c>
+      <c r="B92" s="42" t="s">
         <v>2572</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="C92" s="42" t="s">
         <v>2573</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="D92" s="42" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F92" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="42">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="str">
+        <f>[1]Enums!$A$171</f>
+        <v>1.4.12</v>
+      </c>
+      <c r="B93" s="14" t="s">
         <v>2574</v>
       </c>
-      <c r="D92" s="43" t="s">
-        <v>1963</v>
-      </c>
-      <c r="F92" s="43" t="b">
+      <c r="C93" s="42" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F93" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="H92" s="43">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="42" t="s">
-        <v>2572</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>2575</v>
-      </c>
-      <c r="C93" s="43" t="s">
-        <v>2576</v>
-      </c>
-      <c r="D93" s="43" t="s">
+      <c r="H93" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="str">
+        <f>[1]Enums!$A$171</f>
+        <v>1.4.12</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>2577</v>
       </c>
-      <c r="F93" s="43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="27" t="s">
-        <v>2572</v>
-      </c>
-      <c r="B94" s="26" t="s">
+      <c r="C94" s="26" t="s">
         <v>2578</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>2579</v>
       </c>
       <c r="D94" s="26" t="s">
         <v>2552</v>
@@ -17098,14 +17196,15 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="27" t="s">
-        <v>2572</v>
+      <c r="A95" s="4" t="str">
+        <f>[1]Enums!$A$171</f>
+        <v>1.4.12</v>
       </c>
       <c r="B95" s="13" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C95" s="26" t="s">
         <v>2581</v>
-      </c>
-      <c r="C95" s="26" t="s">
-        <v>2582</v>
       </c>
       <c r="D95" s="26" t="s">
         <v>2552</v>
@@ -17118,14 +17217,15 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="27" t="s">
-        <v>2572</v>
+      <c r="A96" s="4" t="str">
+        <f>[1]Enums!$A$171</f>
+        <v>1.4.12</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D96" s="26" t="s">
         <v>2552</v>
@@ -17138,14 +17238,15 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" s="27" t="s">
-        <v>2572</v>
+      <c r="A97" s="4" t="str">
+        <f>[1]Enums!$A$171</f>
+        <v>1.4.12</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="D97" s="26" t="s">
         <v>1963</v>
@@ -17158,14 +17259,15 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" s="27" t="s">
-        <v>2572</v>
+      <c r="A98" s="4" t="str">
+        <f>[1]Enums!$A$171</f>
+        <v>1.4.12</v>
       </c>
       <c r="B98" s="26" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C98" s="26" t="s">
         <v>2584</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>2585</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>1963</v>
@@ -17178,17 +17280,18 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A99" s="27" t="s">
-        <v>2572</v>
+      <c r="A99" s="4" t="str">
+        <f>[1]Enums!$A$171</f>
+        <v>1.4.12</v>
       </c>
       <c r="B99" s="26" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C99" s="26" t="s">
         <v>2586</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="D99" s="26" t="s">
         <v>2587</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>2588</v>
       </c>
       <c r="F99" s="26" t="b">
         <v>0</v>
@@ -17197,7 +17300,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="26" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="K99" s="26">
         <v>1</v>
@@ -17216,17 +17319,18 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="4" t="str">
+        <f>[1]Enums!$A$172</f>
+        <v>1.4.13</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C100" s="26" t="s">
         <v>2590</v>
       </c>
-      <c r="B100" s="26" t="s">
-        <v>2591</v>
-      </c>
-      <c r="C100" s="26" t="s">
-        <v>2592</v>
-      </c>
       <c r="D100" s="26" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="F100" s="26" t="b">
         <v>0</v>
@@ -17235,7 +17339,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="K100" s="26">
         <v>2</v>
@@ -17254,17 +17358,18 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" s="27" t="s">
-        <v>2590</v>
+      <c r="A101" s="4" t="str">
+        <f>[1]Enums!$A$172</f>
+        <v>1.4.13</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="F101" s="26" t="b">
         <v>0</v>
@@ -17273,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="26" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="K101" s="26">
         <v>1</v>
@@ -17292,17 +17397,18 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" s="27" t="s">
-        <v>2590</v>
+      <c r="A102" s="4" t="str">
+        <f>[1]Enums!$A$172</f>
+        <v>1.4.13</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="F102" s="26" t="b">
         <v>0</v>
@@ -17311,7 +17417,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="26" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="K102" s="26">
         <v>1.25</v>
@@ -17330,17 +17436,18 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="27" t="s">
-        <v>2590</v>
+      <c r="A103" s="4" t="str">
+        <f>[1]Enums!$A$172</f>
+        <v>1.4.13</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="F103" s="26" t="b">
         <v>0</v>
@@ -17349,7 +17456,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="26" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="K103" s="26">
         <v>0.85</v>
@@ -17368,17 +17475,18 @@
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="27" t="s">
-        <v>2590</v>
+      <c r="A104" s="4" t="str">
+        <f>[1]Enums!$A$172</f>
+        <v>1.4.13</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="F104" s="26" t="b">
         <v>0</v>
@@ -17387,7 +17495,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="26" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="K104" s="26">
         <v>1</v>
@@ -17406,14 +17514,15 @@
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" s="27" t="s">
-        <v>2590</v>
+      <c r="A105" s="4" t="str">
+        <f>[1]Enums!$A$172</f>
+        <v>1.4.13</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="D105" s="26" t="s">
         <v>1963</v>
@@ -17426,14 +17535,15 @@
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" s="27" t="s">
-        <v>2590</v>
+      <c r="A106" s="4" t="str">
+        <f>[1]Enums!$A$172</f>
+        <v>1.4.13</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="D106" s="26" t="s">
         <v>1963</v>
@@ -17443,6 +17553,300 @@
       </c>
       <c r="H106" s="26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>2619</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F107" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F108" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F109" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F110" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F111" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F112" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D113" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F113" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>2624</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F114" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D115" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F115" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D116" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F116" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F117" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D118" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F118" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F119" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F120" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" s="26">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="2634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="2638">
   <si>
     <t>Ore</t>
   </si>
@@ -7943,6 +7943,18 @@
   </si>
   <si>
     <t>Geometry Slope1</t>
+  </si>
+  <si>
+    <t>tickmark</t>
+  </si>
+  <si>
+    <t>whitebg</t>
+  </si>
+  <si>
+    <t>1kf</t>
+  </si>
+  <si>
+    <t>1kg</t>
   </si>
 </sst>
 </file>
@@ -14379,10 +14391,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H122" sqref="A120:H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17846,6 +17858,48 @@
         <v>0</v>
       </c>
       <c r="H120" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F121" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="str">
+        <f>[1]Enums!$A$173</f>
+        <v>1.4.14</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>2635</v>
+      </c>
+      <c r="D122" s="26" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F122" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="26">
         <v>64</v>
       </c>
     </row>

--- a/config/Polycraft Materials.xlsx
+++ b/config/Polycraft Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjg150230\1.8.9 PolycraftForge\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxg115630\Desktop\Polycraft forge 1.8.9\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="2607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="2610">
   <si>
     <t>Ore</t>
   </si>
@@ -7862,6 +7862,15 @@
   </si>
   <si>
     <t>AI Tool</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
+    <t>1k1</t>
+  </si>
+  <si>
+    <t>Plus3D</t>
   </si>
 </sst>
 </file>
@@ -14284,9 +14293,9 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
@@ -17443,6 +17452,23 @@
       </c>
       <c r="H106" s="26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="27" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D107" s="26" t="s">
+        <v>2552</v>
+      </c>
+      <c r="F107" s="26" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
